--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796"/>
+    <workbookView windowWidth="23925" windowHeight="10785" tabRatio="796"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>&lt;fs=60&gt;Прямое попадание&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как корабль другого игрока использовал способность &lt;f=TI4-Header&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt; для отмены попадания, нанесённого вашими отрядами или способностями:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Уничтожьте этот корабль.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как корабль другого игрока использовал способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПОГЛОЩЕНИЕ УРОНА&lt;/f&gt;&lt;push=0;-15&gt;» для отмены попадания, нанесённого вашими отрядами или способностями:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Уничтожьте этот корабль.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Сдаллари Твунговот восхищался обломками, пока они готовились покинуть систему. На этот раз они превзошли самих себя.</t>
@@ -107,7 +107,7 @@
     <t>&lt;fs=60&gt;Маневровые двигатели&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как присвоить попадания, нанесённые проверкой способности &lt;f=TI4-Header&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt; другого игрока:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените 1 попадание.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как присвоить попадания, нанесённые проверкой способности «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;КОСМИЧЕСКАЯ ПУШКА&lt;/f&gt;&lt;push=0;-15&gt;» другого игрока:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените 1 попадание.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Крейсеры вайлерианцев вошли в систему слишком быстро, подавив планетарную оборонительную сеть.</t>
@@ -116,7 +116,7 @@
     <t>&lt;fs=56&gt;Сфокусированная стрельба&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В любое время:&lt;/f&gt;&lt;ls=56&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите систему с кораблями другого игрока. Примените способность &lt;f=TI4-Header&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt; не более 3 ваших отрядов в этой или смежных системах против кораблей этого игрока.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В любое время:&lt;/f&gt;&lt;ls=56&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите систему с кораблями другого игрока. Примените способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;КОСМИЧЕСКАЯ ПУШКА&lt;/f&gt;&lt;push=0;-15&gt;» не более 3 ваших отрядов в этой или смежных системах против кораблей этого игрока.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Уонелл выстрелил.&lt;br&gt;Уонелл знал.</t>
@@ -161,7 +161,7 @@
     <t>&lt;fs=60&gt;Машина войны&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;f=TI4-Header&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПРОИЗВОДСТВО&lt;/f&gt;&lt;push=0;-15&gt;»:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Автономный арсенал Мехатроников яростно загудел. Корабль точно будет готов в кратчайшие сроки.</t>
@@ -251,7 +251,7 @@
     <t>&lt;fs=51&gt;Эхо-экранирование&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=51&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Ваши отряды в активной системе получают способность &lt;f=TI4-Header&gt;«ПЛАНЕТАРНЫЙ ЩИТ»&lt;/f&gt; во время этого тактического действия.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=51&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Ваши отряды в активной системе получают способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПЛАНЕТАРНЫЙ ЩИТ&lt;/f&gt;&lt;push=0;-15&gt;» во время этого тактического действия.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Адмирал выругался, когда мерцающая завеса появилась над критически важной инфраструктурой планеты. Быстрое вторжение грозило перерасти в продолжительную блокаду.</t>
@@ -284,7 +284,7 @@
     <t>Фанатики хранили много давно забытых секретов.</t>
   </si>
   <si>
-    <t>&lt;fs=60&gt;Инициатива свободной торговли&lt;/fs&gt;</t>
+    <t>&lt;fs=51&gt;Инициатива свободной торговли&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;для каждого типа планеты, если вы контролируете хотя бы 1 планету этого типа, получите 2 продукции или можете конвертировать 2 продукции или меньше в товары.&lt;/fs&gt;</t>
@@ -323,7 +323,7 @@
     <t>&lt;fs=60&gt;Иллюзорное дублирование&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способности &lt;f=TI4-Header&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;, получает эту способность до конца раунда боя.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способности «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПОГЛОЩЕНИЕ УРОНА&lt;/f&gt;&lt;push=0;-15&gt;», получает эту способность до конца раунда боя.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Датчики показывали только один корабль Морфеусов; оставалось неясным, какой именно из десятка это был на самом деле.</t>
@@ -356,7 +356,7 @@
     <t>«Пройдёмте, — голос Аланта разносился по комнате, словно гром вдалеке. — Вы нужны нам».</t>
   </si>
   <si>
-    <t>&lt;fs=60&gt;Планетарные буровые установки&lt;/fs&gt;</t>
+    <t>&lt;fs=51&gt;Планетарные буровые установки&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите неродную подконтрольную вам планету (кроме Мекатол-Рекса). Раскрывайте карты из соответствующей колоды разведки этой планеты до тех пор, пока не найдёте прикрепление; прикрепите его к этой планете и сбросьте остальные карты разведки.&lt;/fs&gt;</t>
@@ -479,7 +479,7 @@
     <t>&lt;fs=56&gt;Частота скремблирования&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как другой игрок бросил кубики для проверки способностей &lt;f=TI4-Header&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;, &lt;f=TI4-Header&gt;«БОМБАРДИРОВКА»&lt;/f&gt; или &lt;f=TI4-Header&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;:&lt;/f&gt;&lt;ls=56&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Этот игрок перебрасывает все свои кубики.&lt;/fs&gt;</t>
+    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как другой игрок бросил кубики для проверки способностей «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;КОСМИЧЕСКАЯ ПУШКА&lt;/f&gt;&lt;push=0;-15&gt;», «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;БОМБАРДИРОВКА&lt;/f&gt;&lt;push=0;-15&gt;» или «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ&lt;/f&gt;&lt;push=0;-15&gt;»:&lt;/f&gt;&lt;ls=56&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Этот игрок перебрасывает все свои кубики.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>«Я не приму это от этого ничтожества!» Фэн зарычал, когда его загадочный товарищ подключился к корабельной навигационной системе. Позиция «Мемории» мерцала и изменялась, в результате чего взрыв безвредно пронесся мимо.</t>
@@ -506,7 +506,7 @@
     <t>&lt;fs=60&gt;Бомбежка&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способность &lt;f=TI4-Header&gt;«БОМБАРДИРОВКА»&lt;/f&gt;, получает способность &lt;f=TI4-Header&gt;«БОМБАРДИРОВКА 6»&lt;/f&gt; до конца вторжения.&lt;/fs&gt;</t>
+    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;БОМБАРДИРОВКА&lt;/f&gt;&lt;push=0;-15&gt;», получает способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;БОМБАРДИРОВКА 6&lt;/f&gt;&lt;push=0;-15&gt;» до конца вторжения.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>«Он-н-ни не предназначались для такого использования. Эт-то ужасная идея» — пробормотал Тай, заламывая руки. «Ну, конечно, — ухмыльнулся Дарт, хлопнув кулаком по фиксатору. — Но, у нас около 60 килотонн "сюрприза". И нам нечего терять!»</t>
@@ -527,13 +527,13 @@
     <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время голосования по этой карте политики, игроки голосуют по порядку против часовой стрелки, начиная с игрока, который сидит справа от председателя.&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>ВАША [УЧЕТНАЯ ЗАПИСЬ НЕ ОПРЕДЕЛЕНА] ВЕЛИКАЯ ИГРА БУДЕТ НАПРАСНОЙ\&lt;\&lt; [ПЕРЕМЕННАЯ:42687] ПОРЯДОК ВОЗНИКНЕТ ИЗ [ПЕРЕМЕННАЯ:89001] ХАОСА\&lt;\&lt; ИСХОД ЗАВИСИТ ОТ НАШЕЙ ВОЛИ</t>
+    <t>ВАША [УЧЕТНАЯ ЗАПИСЬ НЕ ОПРЕДЕЛЕНА] ВЕЛИКАЯ ИГРА БУДЕТ НАПРАСНОЙ&lt;&lt; [ПЕРЕМЕННАЯ:42687] ПОРЯДОК ВОЗНИКНЕТ ИЗ [ПЕРЕМЕННАЯ:89001] ХАОСА&lt;&lt; ИСХОД ЗАВИСИТ ОТ НАШЕЙ ВОЛИ</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Отражающая защита&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда один из ваших кораблей использует способность &lt;f=TI4-Header&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt; во время боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Нанесите 2 попадания кораблям противника вактивной системе.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда один из ваших кораблей использует способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПОГЛОЩЕНИЕ УРОНА&lt;/f&gt;&lt;push=0;-15&gt;» во время боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Нанесите 2 попадания кораблям противника вактивной системе.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Прит вскарабкался по плечу Хеша, радостно хлопая в ладоши, когда энтропийный щит разорвал крейсеры наёмников.</t>
@@ -551,7 +551,7 @@
     <t>&lt;fs=60&gt;Солнечная вспышка&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага передвижения этого тактического действия другие игроки не могут использовать способность &lt;f=TI4-Header&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt; против ваших кораблей.&lt;/fs&gt;</t>
+    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага передвижения этого тактического действия другие игроки не могут использовать способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;КОСМИЧЕСКАЯ ПУШКА&lt;/f&gt;&lt;push=0;-15&gt;» против ваших кораблей.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Мейан приготовилась к бою, но когда флот вошел в систему Ординиан, она была пуста. Дроны Валефара не поджидали их. Гамбит солнечной вспышки удался — они смогли пройти незамеченными.</t>
@@ -587,7 +587,7 @@
     <t>«На замену потребовались бы недели, если бы вы неправильно запустили его», — сказала Вариш, вращая массивный блок суперконденсаторов. «Хорошо, зажигай!»</t>
   </si>
   <si>
-    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;f=TI4-Header&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;</t>
+    <t>&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность «&lt;push=0;15&gt;&lt;f=TI4-Header;40&gt;ПРОИЗВОДСТВО&lt;/f&gt;&lt;push=0;-15&gt;»:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Станция завибрировала, когда устройство ожило, издав высокое жужжание, долетевшее до ушей Вариш. «Микрочервоточины колеблются на частоте 19 килогерц, — прочитал Коул. — Отвод энтропийного поля стабилен».</t>
@@ -4827,10 +4827,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -5286,19 +5285,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5307,7 +5306,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5431,7 +5430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5449,6 +5448,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -5774,9 +5776,9 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -5834,13 +5836,13 @@
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5854,13 +5856,13 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5874,13 +5876,13 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5894,13 +5896,13 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5914,13 +5916,13 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5934,13 +5936,13 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5954,13 +5956,13 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5974,13 +5976,13 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5994,13 +5996,13 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6014,13 +6016,13 @@
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6034,13 +6036,13 @@
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6054,13 +6056,13 @@
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6074,13 +6076,13 @@
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6094,13 +6096,13 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6114,13 +6116,13 @@
       <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6134,13 +6136,13 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6154,13 +6156,13 @@
       <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6174,13 +6176,13 @@
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6194,13 +6196,13 @@
       <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6214,13 +6216,13 @@
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6234,13 +6236,13 @@
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6254,13 +6256,13 @@
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6274,13 +6276,13 @@
       <c r="C25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6294,13 +6296,13 @@
       <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6314,13 +6316,13 @@
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6334,13 +6336,13 @@
       <c r="C28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6354,13 +6356,13 @@
       <c r="C29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6374,13 +6376,13 @@
       <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6394,13 +6396,13 @@
       <c r="C31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6414,13 +6416,13 @@
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6434,13 +6436,13 @@
       <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6454,13 +6456,13 @@
       <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6474,13 +6476,13 @@
       <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6494,13 +6496,13 @@
       <c r="C36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6514,13 +6516,13 @@
       <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6534,13 +6536,13 @@
       <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6554,13 +6556,13 @@
       <c r="C39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6574,13 +6576,13 @@
       <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6594,13 +6596,13 @@
       <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6614,13 +6616,13 @@
       <c r="C42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6634,13 +6636,13 @@
       <c r="C43" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6654,13 +6656,13 @@
       <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6674,13 +6676,13 @@
       <c r="C45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6694,13 +6696,13 @@
       <c r="C46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6714,13 +6716,13 @@
       <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6734,13 +6736,13 @@
       <c r="C48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6754,13 +6756,13 @@
       <c r="C49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6774,13 +6776,13 @@
       <c r="C50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6794,13 +6796,13 @@
       <c r="C51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6814,13 +6816,13 @@
       <c r="C52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6834,13 +6836,13 @@
       <c r="C53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6854,13 +6856,13 @@
       <c r="C54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6874,13 +6876,13 @@
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6894,13 +6896,13 @@
       <c r="C56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6914,13 +6916,13 @@
       <c r="C57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="11" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6934,13 +6936,13 @@
       <c r="C58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6954,13 +6956,13 @@
       <c r="C59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6974,13 +6976,13 @@
       <c r="C60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6994,13 +6996,13 @@
       <c r="C61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7014,13 +7016,13 @@
       <c r="C62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7555,7 +7557,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7590,7 +7592,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7625,10 +7627,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>825</v>
       </c>
     </row>
@@ -7660,7 +7662,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7695,7 +7697,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7730,7 +7732,7 @@
       <c r="L7" t="s">
         <v>834</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7845,7 +7847,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C2">
@@ -7898,7 +7900,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C3">
@@ -7948,7 +7950,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C4">
@@ -7998,7 +8000,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C5">
@@ -8045,7 +8047,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C6">
@@ -8095,7 +8097,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C7">
@@ -8142,7 +8144,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C8">
@@ -8189,7 +8191,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C9">
@@ -8239,7 +8241,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C10">
@@ -8286,7 +8288,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C11">
@@ -8333,7 +8335,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C12">
@@ -8383,7 +8385,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C13">
@@ -8611,7 +8613,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C2">
@@ -8658,7 +8660,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C3">
@@ -8702,7 +8704,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C4">
@@ -8746,7 +8748,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C5">
@@ -8793,7 +8795,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C6">
@@ -8837,7 +8839,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C7">
@@ -8881,7 +8883,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C8">
@@ -8925,7 +8927,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C9">
@@ -8972,7 +8974,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C10">
@@ -9019,7 +9021,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C11">
@@ -9066,7 +9068,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C12">
@@ -9113,7 +9115,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C13">
@@ -9160,7 +9162,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C14">
@@ -9204,7 +9206,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C15">
@@ -9248,7 +9250,7 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C16">
@@ -9295,7 +9297,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C17">
@@ -9342,7 +9344,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C18">
@@ -9386,7 +9388,7 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C19">
@@ -9430,7 +9432,7 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C20">
@@ -9477,7 +9479,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C21">
@@ -9521,7 +9523,7 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C22">
@@ -9565,7 +9567,7 @@
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C23">
@@ -9609,7 +9611,7 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C24">
@@ -9653,7 +9655,7 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C25">
@@ -9697,7 +9699,7 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C26">
@@ -9741,7 +9743,7 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C27">
@@ -9788,7 +9790,7 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C28">
@@ -9832,7 +9834,7 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C29">
@@ -9876,7 +9878,7 @@
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C30">
@@ -9920,7 +9922,7 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C31">
@@ -9964,7 +9966,7 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C32">
@@ -10008,7 +10010,7 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C33">
@@ -10052,7 +10054,7 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C34">
@@ -10096,7 +10098,7 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C35">
@@ -10140,7 +10142,7 @@
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C36">
@@ -10184,7 +10186,7 @@
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C37">
@@ -10228,7 +10230,7 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C38">
@@ -10278,7 +10280,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C39">
@@ -10322,7 +10324,7 @@
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C40">
@@ -10366,7 +10368,7 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C41">
@@ -10413,7 +10415,7 @@
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C42">
@@ -10460,7 +10462,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C43">
@@ -10504,7 +10506,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C44">
@@ -10551,7 +10553,7 @@
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C45">
@@ -10595,7 +10597,7 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C46">
@@ -10639,7 +10641,7 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C47">
@@ -10683,7 +10685,7 @@
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C48">
@@ -10727,7 +10729,7 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C49">
@@ -10771,7 +10773,7 @@
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C50">
@@ -10821,7 +10823,7 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C51">
@@ -10865,7 +10867,7 @@
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C52">
@@ -10909,7 +10911,7 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C53">
@@ -10953,7 +10955,7 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C54">
@@ -10997,7 +10999,7 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C55">
@@ -11041,7 +11043,7 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C56">
@@ -11091,7 +11093,7 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C57">
@@ -11138,7 +11140,7 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C58">
@@ -11188,7 +11190,7 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C59">
@@ -11232,7 +11234,7 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C60">
@@ -11276,7 +11278,7 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C61">
@@ -11320,7 +11322,7 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C62">
@@ -11364,7 +11366,7 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C63">
@@ -11408,7 +11410,7 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C64">
@@ -11452,7 +11454,7 @@
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C65">
@@ -11496,7 +11498,7 @@
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C66">
@@ -11540,7 +11542,7 @@
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C67">
@@ -11584,7 +11586,7 @@
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C68">
@@ -11628,7 +11630,7 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C69">
@@ -11672,7 +11674,7 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C70">
@@ -11716,7 +11718,7 @@
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C71">
@@ -11760,7 +11762,7 @@
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C72">
@@ -11804,7 +11806,7 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C73">
@@ -11848,7 +11850,7 @@
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C74">
@@ -11892,7 +11894,7 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C75">
@@ -11936,7 +11938,7 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C76">
@@ -11980,7 +11982,7 @@
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C77">
@@ -12024,7 +12026,7 @@
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C78">
@@ -12068,7 +12070,7 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C79">
@@ -12112,7 +12114,7 @@
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C80">
@@ -12156,7 +12158,7 @@
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C81">
@@ -12200,7 +12202,7 @@
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C82">
@@ -12244,7 +12246,7 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C83">
@@ -12291,7 +12293,7 @@
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C84">
@@ -12338,7 +12340,7 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C85">
@@ -12385,7 +12387,7 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C86">
@@ -12429,7 +12431,7 @@
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C87">
@@ -12473,7 +12475,7 @@
       <c r="A88">
         <v>1</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C88">
@@ -12517,7 +12519,7 @@
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C89">
@@ -12561,7 +12563,7 @@
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C90">
@@ -12605,7 +12607,7 @@
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C91">
@@ -12649,7 +12651,7 @@
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C92">
@@ -12693,7 +12695,7 @@
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C93">
@@ -12737,7 +12739,7 @@
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C94">
@@ -12781,7 +12783,7 @@
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C95">
@@ -12825,7 +12827,7 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C96">
@@ -12872,7 +12874,7 @@
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C97">
@@ -12916,7 +12918,7 @@
       <c r="A98">
         <v>1</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C98">
@@ -12963,7 +12965,7 @@
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="12" t="s">
         <v>852</v>
       </c>
       <c r="C99">
@@ -14873,7 +14875,7 @@
       <c r="E6" t="s">
         <v>1381</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -15159,7 +15161,7 @@
       <c r="L3" t="s">
         <v>1422</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q3" t="s">
@@ -15384,13 +15386,13 @@
       <c r="J9" t="s">
         <v>1440</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>1441</v>
       </c>
       <c r="Q9" t="s">
@@ -15452,13 +15454,13 @@
       <c r="J10" t="s">
         <v>1444</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="12" t="s">
         <v>1445</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>1446</v>
       </c>
       <c r="Q10" t="s">
@@ -15578,10 +15580,10 @@
       <c r="J13" t="s">
         <v>692</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="12" t="s">
         <v>635</v>
       </c>
       <c r="Q13" t="s">
@@ -15631,10 +15633,10 @@
       <c r="M14" t="s">
         <v>1454</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q14" t="s">
@@ -15687,10 +15689,10 @@
       <c r="M15" t="s">
         <v>1454</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q15" t="s">
@@ -15740,10 +15742,10 @@
       <c r="M16" t="s">
         <v>1454</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q16" t="s">
@@ -15790,10 +15792,10 @@
       <c r="M17" t="s">
         <v>1454</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q17" t="s">
@@ -15843,10 +15845,10 @@
       <c r="M18" t="s">
         <v>1454</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q18" t="s">
@@ -15896,10 +15898,10 @@
       <c r="M19" t="s">
         <v>1454</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q19" t="s">
@@ -15940,10 +15942,10 @@
       <c r="M20" t="s">
         <v>1454</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q20" t="s">
@@ -15990,10 +15992,10 @@
       <c r="M21" t="s">
         <v>1454</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q21" t="s">
@@ -16040,10 +16042,10 @@
       <c r="M22" t="s">
         <v>1454</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q22" t="s">
@@ -16090,10 +16092,10 @@
       <c r="M23" t="s">
         <v>1454</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q23" t="s">
@@ -16140,10 +16142,10 @@
       <c r="M24" t="s">
         <v>1454</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q24" t="s">
@@ -16196,10 +16198,10 @@
       <c r="M25" t="s">
         <v>1454</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q25" t="s">
@@ -16246,10 +16248,10 @@
       <c r="M26" t="s">
         <v>1454</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="12" t="s">
         <v>621</v>
       </c>
       <c r="Q26" t="s">
@@ -16305,10 +16307,10 @@
       <c r="J27" t="s">
         <v>1461</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="12" t="s">
         <v>1462</v>
       </c>
       <c r="Q27" t="s">
@@ -16404,7 +16406,7 @@
       <c r="D4" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -16438,7 +16440,7 @@
       <c r="D6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16534,13 +16536,13 @@
       <c r="F2" t="s">
         <v>1476</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>1478</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>1479</v>
       </c>
       <c r="J2" t="s">
@@ -16584,13 +16586,13 @@
       <c r="F3" t="s">
         <v>1489</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>1490</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>1479</v>
       </c>
       <c r="J3" t="s">
@@ -16634,13 +16636,13 @@
       <c r="F4" t="s">
         <v>1495</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>1496</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>1479</v>
       </c>
       <c r="J4" t="s">
@@ -16705,7 +16707,7 @@
       <c r="A3" t="s">
         <v>1501</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -16713,7 +16715,7 @@
       <c r="A4" t="s">
         <v>1503</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -16721,7 +16723,7 @@
       <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -16785,7 +16787,7 @@
       <c r="A13" t="s">
         <v>1520</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -16793,7 +16795,7 @@
       <c r="A14" t="s">
         <v>622</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -16801,7 +16803,7 @@
       <c r="A15" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -16809,7 +16811,7 @@
       <c r="A16" t="s">
         <v>632</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -16817,7 +16819,7 @@
       <c r="A17" t="s">
         <v>627</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -16825,7 +16827,7 @@
       <c r="A18" t="s">
         <v>637</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -16833,7 +16835,7 @@
       <c r="A19" t="s">
         <v>645</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -16841,7 +16843,7 @@
       <c r="A20" t="s">
         <v>648</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -16849,7 +16851,7 @@
       <c r="A21" t="s">
         <v>651</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>1529</v>
       </c>
     </row>
@@ -16857,7 +16859,7 @@
       <c r="A22" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -16865,7 +16867,7 @@
       <c r="A23" t="s">
         <v>641</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -17261,7 +17263,7 @@
       <c r="J3" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17394,7 +17396,7 @@
       <c r="J8" t="s">
         <v>228</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17423,7 +17425,7 @@
       <c r="J9" t="s">
         <v>231</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17452,7 +17454,7 @@
       <c r="J10" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17481,7 +17483,7 @@
       <c r="J11" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -17530,7 +17532,7 @@
       <c r="J13" t="s">
         <v>241</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -17657,7 +17659,7 @@
       <c r="J18" t="s">
         <v>228</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17686,7 +17688,7 @@
       <c r="J19" t="s">
         <v>231</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17715,7 +17717,7 @@
       <c r="J20" t="s">
         <v>234</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17744,7 +17746,7 @@
       <c r="J21" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -17793,7 +17795,7 @@
       <c r="J23" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17920,7 +17922,7 @@
       <c r="J28" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17949,7 +17951,7 @@
       <c r="J29" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17978,7 +17980,7 @@
       <c r="J30" t="s">
         <v>234</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -18007,7 +18009,7 @@
       <c r="J31" t="s">
         <v>237</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -18079,7 +18081,7 @@
       <c r="J34" t="s">
         <v>252</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="12" t="s">
         <v>253</v>
       </c>
       <c r="L34" t="s">
@@ -18221,7 +18223,7 @@
       <c r="J39" t="s">
         <v>262</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="12" t="s">
         <v>263</v>
       </c>
       <c r="L39" t="s">
@@ -18970,7 +18972,7 @@
       <c r="F2" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>325</v>
       </c>
       <c r="H2" t="s">
@@ -18996,7 +18998,7 @@
       <c r="F3" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>329</v>
       </c>
       <c r="H3" t="s">
@@ -19183,13 +19185,13 @@
       <c r="M2" t="s">
         <v>363</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>366</v>
       </c>
       <c r="Q2" t="s">
@@ -19233,7 +19235,7 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>375</v>
       </c>
       <c r="L3" t="s">
@@ -19242,13 +19244,13 @@
       <c r="M3" t="s">
         <v>377</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>380</v>
       </c>
       <c r="Q3" t="s">
@@ -19347,7 +19349,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>398</v>
       </c>
       <c r="L6" t="s">
@@ -19356,13 +19358,13 @@
       <c r="M6" t="s">
         <v>377</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>402</v>
       </c>
       <c r="Q6" t="s">
@@ -19406,7 +19408,7 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>411</v>
       </c>
       <c r="L7" t="s">
@@ -19637,10 +19639,10 @@
       <c r="N2" t="s">
         <v>464</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19687,10 +19689,10 @@
       <c r="N3" t="s">
         <v>468</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19737,10 +19739,10 @@
       <c r="N4" t="s">
         <v>464</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19787,10 +19789,10 @@
       <c r="N5" t="s">
         <v>468</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AK5" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19837,64 +19839,64 @@
       <c r="P6" t="s">
         <v>476</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AH6" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AI6" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AJ6" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AK6" s="12" t="s">
         <v>466</v>
       </c>
       <c r="AP6" t="s">
@@ -19947,61 +19949,61 @@
       <c r="P7" t="s">
         <v>476</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AH7" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AI7" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>494</v>
       </c>
       <c r="AK7" t="s">
@@ -20075,61 +20077,61 @@
       <c r="O8" t="s">
         <v>475</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AE8" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AF8" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AH8" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AI8" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AJ8" s="12" t="s">
         <v>522</v>
       </c>
       <c r="AK8" t="s">
@@ -20182,7 +20184,7 @@
       <c r="Q9" t="s">
         <v>530</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>531</v>
       </c>
       <c r="S9" t="s">
@@ -20203,22 +20205,22 @@
       <c r="X9" t="s">
         <v>535</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" s="12" t="s">
         <v>491</v>
       </c>
       <c r="AG9" t="s">
@@ -20236,7 +20238,7 @@
       <c r="AK9" t="s">
         <v>540</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AR9" s="12" t="s">
         <v>541</v>
       </c>
     </row>
@@ -20280,61 +20282,61 @@
       <c r="O10" t="s">
         <v>545</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="12" t="s">
         <v>492</v>
       </c>
       <c r="S10" t="s">
         <v>515</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AD10" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AF10" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AH10" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AI10" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AJ10" s="12" t="s">
         <v>492</v>
       </c>
       <c r="AK10" t="s">
@@ -20387,64 +20389,64 @@
       <c r="O11" t="s">
         <v>556</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>557</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AA11" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AC11" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AD11" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AF11" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AH11" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="AI11" s="11" t="s">
+      <c r="AI11" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AJ11" s="12" t="s">
         <v>539</v>
       </c>
       <c r="AK11" t="s">
@@ -20491,61 +20493,61 @@
       <c r="O12" t="s">
         <v>571</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="12" t="s">
         <v>572</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AA12" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB12" s="11" t="s">
+      <c r="AB12" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC12" s="11" t="s">
+      <c r="AC12" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD12" s="11" t="s">
+      <c r="AD12" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE12" s="11" t="s">
+      <c r="AE12" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="AH12" s="11" t="s">
+      <c r="AH12" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="AI12" s="11" t="s">
+      <c r="AI12" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="AJ12" s="11" t="s">
+      <c r="AJ12" s="12" t="s">
         <v>579</v>
       </c>
       <c r="AK12" t="s">
@@ -20595,58 +20597,58 @@
       <c r="O13" t="s">
         <v>585</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>586</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AA13" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AD13" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AE13" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AF13" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AG13" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="AH13" s="11" t="s">
+      <c r="AH13" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="AI13" s="11" t="s">
+      <c r="AI13" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="AJ13" s="11" t="s">
+      <c r="AJ13" s="12" t="s">
         <v>579</v>
       </c>
       <c r="AK13" t="s">
@@ -20866,19 +20868,19 @@
       <c r="K2" t="s">
         <v>619</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -20910,16 +20912,16 @@
       <c r="J3" t="s">
         <v>623</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T3" t="s">
@@ -20972,7 +20974,7 @@
       <c r="O4" t="s">
         <v>630</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T4" t="s">
@@ -21028,10 +21030,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>635</v>
       </c>
       <c r="T5" t="s">
@@ -21087,7 +21089,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="12" t="s">
         <v>640</v>
       </c>
       <c r="T6" t="s">
@@ -21128,10 +21130,10 @@
       <c r="J7" t="s">
         <v>642</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>644</v>
       </c>
       <c r="T7" t="s">
@@ -21234,7 +21236,7 @@
       <c r="N9" t="s">
         <v>639</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T9" t="s">
@@ -21325,7 +21327,7 @@
       <c r="L11" t="s">
         <v>657</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>658</v>
       </c>
       <c r="T11" t="s">
@@ -21381,7 +21383,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>662</v>
       </c>
       <c r="O12">
@@ -21390,10 +21392,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="12" t="s">
         <v>663</v>
       </c>
     </row>
@@ -21437,7 +21439,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>667</v>
       </c>
       <c r="O13">
@@ -21446,7 +21448,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21490,7 +21492,7 @@
       <c r="N14" t="s">
         <v>629</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T14" t="s">
@@ -21543,7 +21545,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>662</v>
       </c>
       <c r="O15">
@@ -21552,7 +21554,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21593,7 +21595,7 @@
       <c r="L16" t="s">
         <v>675</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="12" t="s">
         <v>676</v>
       </c>
       <c r="T16" t="s">
@@ -21649,7 +21651,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>667</v>
       </c>
       <c r="O17">
@@ -21658,10 +21660,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>680</v>
       </c>
     </row>
@@ -21705,7 +21707,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>684</v>
       </c>
       <c r="O18">
@@ -21714,7 +21716,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21764,7 +21766,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="12" t="s">
         <v>640</v>
       </c>
       <c r="T19" t="s">
@@ -21820,7 +21822,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>662</v>
       </c>
       <c r="O20">
@@ -21829,7 +21831,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21882,10 +21884,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="12" t="s">
         <v>635</v>
       </c>
       <c r="T21" t="s">
@@ -21941,7 +21943,7 @@
       <c r="L22" t="s">
         <v>695</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="12" t="s">
         <v>676</v>
       </c>
       <c r="T22" t="s">
@@ -21991,28 +21993,28 @@
       <c r="K29" t="s">
         <v>619</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="Y29" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="Z29" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AA29" t="s">
@@ -22027,13 +22029,13 @@
       <c r="AD29" t="s">
         <v>469</v>
       </c>
-      <c r="AE29" s="11" t="s">
+      <c r="AE29" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF29" s="11" t="s">
+      <c r="AF29" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG29" s="11" t="s">
+      <c r="AG29" s="12" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22074,16 +22076,16 @@
       <c r="L30" t="s">
         <v>698</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T30" t="s">
@@ -22098,13 +22100,13 @@
       <c r="W30" t="s">
         <v>626</v>
       </c>
-      <c r="X30" s="11" t="s">
+      <c r="X30" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Y30" s="11" t="s">
+      <c r="Y30" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Z30" s="11" t="s">
+      <c r="Z30" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AA30" t="s">
@@ -22116,16 +22118,16 @@
       <c r="AC30" t="s">
         <v>469</v>
       </c>
-      <c r="AD30" s="11" t="s">
+      <c r="AD30" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AE30" s="11" t="s">
+      <c r="AE30" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF30" s="11" t="s">
+      <c r="AF30" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG30" s="11" t="s">
+      <c r="AG30" s="12" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22175,7 +22177,7 @@
       <c r="O31" t="s">
         <v>630</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T31" t="s">
@@ -22187,13 +22189,13 @@
       <c r="V31" t="s">
         <v>631</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="X31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Y31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Z31" s="11" t="s">
+      <c r="Z31" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AA31" t="s">
@@ -22205,16 +22207,16 @@
       <c r="AC31" t="s">
         <v>469</v>
       </c>
-      <c r="AD31" s="11" t="s">
+      <c r="AD31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AE31" s="11" t="s">
+      <c r="AE31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF31" s="11" t="s">
+      <c r="AF31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG31" s="11" t="s">
+      <c r="AG31" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AH31">
@@ -22270,10 +22272,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="12" t="s">
         <v>635</v>
       </c>
       <c r="T32" t="s">
@@ -22285,13 +22287,13 @@
       <c r="V32" t="s">
         <v>636</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="X32" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Y32" s="11" t="s">
+      <c r="Y32" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="Z32" s="11" t="s">
+      <c r="Z32" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AA32" t="s">
@@ -22303,16 +22305,16 @@
       <c r="AC32" t="s">
         <v>469</v>
       </c>
-      <c r="AD32" s="11" t="s">
+      <c r="AD32" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AE32" s="11" t="s">
+      <c r="AE32" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF32" s="11" t="s">
+      <c r="AF32" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG32" s="11" t="s">
+      <c r="AG32" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AH32">
@@ -22368,7 +22370,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="12" t="s">
         <v>640</v>
       </c>
       <c r="T33" t="s">
@@ -22377,7 +22379,7 @@
       <c r="U33" t="s">
         <v>625</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="X33" s="12" t="s">
         <v>469</v>
       </c>
       <c r="Y33" t="s">
@@ -22398,13 +22400,13 @@
       <c r="AD33" t="s">
         <v>469</v>
       </c>
-      <c r="AE33" s="11" t="s">
+      <c r="AE33" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF33" s="11" t="s">
+      <c r="AF33" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG33" s="11" t="s">
+      <c r="AG33" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AI33">
@@ -22448,10 +22450,10 @@
       <c r="L34" t="s">
         <v>698</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="12" t="s">
         <v>644</v>
       </c>
       <c r="T34" t="s">
@@ -22481,10 +22483,10 @@
       <c r="AD34" t="s">
         <v>469</v>
       </c>
-      <c r="AE34" s="11" t="s">
+      <c r="AE34" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF34" s="11" t="s">
+      <c r="AF34" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AG34" t="s">
@@ -22543,10 +22545,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="12" t="s">
         <v>644</v>
       </c>
       <c r="T35" t="s">
@@ -22576,10 +22578,10 @@
       <c r="AD35" t="s">
         <v>469</v>
       </c>
-      <c r="AE35" s="11" t="s">
+      <c r="AE35" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF35" s="11" t="s">
+      <c r="AF35" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AG35" t="s">
@@ -22668,7 +22670,7 @@
       <c r="AD36" t="s">
         <v>469</v>
       </c>
-      <c r="AE36" s="11" t="s">
+      <c r="AE36" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AF36" t="s">
@@ -22727,7 +22729,7 @@
       <c r="N37" t="s">
         <v>639</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="12" t="s">
         <v>624</v>
       </c>
       <c r="T37" t="s">
@@ -22757,7 +22759,7 @@
       <c r="AD37" t="s">
         <v>469</v>
       </c>
-      <c r="AE37" s="11" t="s">
+      <c r="AE37" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AF37" t="s">
@@ -22840,10 +22842,10 @@
       <c r="AD38" t="s">
         <v>469</v>
       </c>
-      <c r="AE38" s="11" t="s">
+      <c r="AE38" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF38" s="11" t="s">
+      <c r="AF38" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AG38" t="s">
@@ -22893,7 +22895,7 @@
       <c r="L39" t="s">
         <v>698</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="12" t="s">
         <v>658</v>
       </c>
       <c r="T39" t="s">
@@ -22923,7 +22925,7 @@
       <c r="AD39" t="s">
         <v>469</v>
       </c>
-      <c r="AE39" s="11" t="s">
+      <c r="AE39" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AF39" t="s">
@@ -23009,7 +23011,7 @@
       <c r="AD40" t="s">
         <v>469</v>
       </c>
-      <c r="AE40" s="11" t="s">
+      <c r="AE40" s="12" t="s">
         <v>469</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="12975" tabRatio="796"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда раскрыта карта политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите другого игрока; этот игрок должен дать вам 1 карту обещания с руки.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Предстоят более насущные дела, — пропульсировал флорзен. — Намного более насущные».</t>
+    <t>&lt;fs=44&gt;«Предстоят более насущные дела, — пропульсировал&lt;br&gt;флорзен. — Намного более насущные».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Прямое попадание&lt;/fs&gt;</t>
@@ -92,7 +92,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как корабль другого игрока использовал способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro&gt; для отмены попадания, нанесённого вашими отрядами или способностями:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Уничтожьте этот корабль.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Сдаллари Твунговот восхищался обломками, пока они готовились покинуть систему. На этот раз они превзошли самих себя.</t>
+    <t>&lt;fs=44&gt;Сдаллари Твунговот восхищался обломками, пока они готовились покинуть систему. На этот раз они превзошли самих себя.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Полный вперёд&lt;/fs&gt;</t>
@@ -101,7 +101,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +1 к значению полёта каждого вашего корабля во время этого тактического действия.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Минимальная плата внесена, — сказал ваден. — Не растеряйте понапрасну эту возможность».</t>
+    <t>&lt;fs=44&gt;«Минимальная плата внесена, — сказал ваден. — Не растеряйте понапрасну эту возможность».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Маневровые двигатели&lt;/fs&gt;</t>
@@ -110,7 +110,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как присвоить попадания, нанесённые проверкой способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro&gt; другого игрока:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените 1 попадание.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Крейсеры вайлерианцев вошли в систему слишком быстро, подавив планетарную оборонительную сеть.</t>
+    <t>&lt;fs=44&gt;Крейсеры вайлерианцев вошли в систему слишком быстро, подавив планетарную оборонительную сеть.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=56&gt;Сфокусированная стрельба&lt;/fs&gt;</t>
@@ -119,7 +119,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В любое время:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите систему с кораблями другого игрока. Примените способность &lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-17&gt; не более 3 ваших отрядов в этой или смежных системах против кораблей этого игрока.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Уонелл выстрелил.&lt;br&gt;Уонелл знал.</t>
+    <t>&lt;fs=44&gt;Уонелл выстрелил.&lt;br&gt;Уонелл знал.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Боевой дух&lt;/fs&gt;</t>
@@ -128,7 +128,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавляйте +1 к результатам боевых проверок каждого вашего отряда во время этого раунда боя.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Пей до дна, держись стойко, умри завтра!» — военная песня геминов</t>
+    <t>&lt;fs=44&gt;«Пей до дна, держись стойко, умри завтра!» — военная песня геминов&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Саботаж&lt;/fs&gt;</t>
@@ -137,7 +137,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда другой игрок разыгрывает любую карту действия, кроме «Саботажа»:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените эту карту действия.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Лучшие планы — это планы Ли-Джо, однако вторые по значимости — те, в которые они предпочитают не вмешиваться.</t>
+    <t>&lt;fs=44&gt;Лучшие планы — это планы Ли-Джо, однако вторые по значимости — те, в которые они предпочитают не вмешиваться.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Усиленные щиты&lt;/fs&gt;</t>
@@ -146,25 +146,25 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как присвоить попадания своим кораблям во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените 2 попадания или меньше.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Джгин холодно и резко рассмеялся, когда атака усилилась — вражеские снаряды сотрясали корабль, но не могли пробить его корпус.</t>
+    <t>&lt;fs=44&gt;Джгин холодно и резко рассмеялся, когда атака усилилась — вражеские снаряды сотрясали корабль, но не могли пробить его корпус.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Грамотное отступление&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=49&gt;&lt;f=Myriad Pro&gt;В начале раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Передвиньте все ваши корабли из активной системы в смежную систему, в которой нет кораблей других игроков; космический бой завершается вничью. Затем положите в эту систему жетон приказа из вашего снабжения.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>Джек Халлард до сих пор ни разу не был схвачен. И сегодня этого тоже не произойдёт.</t>
+    <t>&lt;ls=80&gt;&lt;fs=49&gt;&lt;f=Myriad Pro&gt;В начале раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Передвиньте все ваши корабли из активной сис-&lt;br&gt;темы в смежную систему, в которой нет кораблей дру-&lt;br&gt;гих игроков; космический бой завершается вничью. Затем положите в эту систему жетон приказа из вашего снабжения.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Джек Халлард до сих пор ни разу не был схвачен. И сегодня этого тоже не произойдёт.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Машина войны&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>Автономный арсенал Мехатроников яростно загудел. Корабль точно будет готов в кратчайшие сроки.</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов&lt;br&gt;на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Автономный арсенал Мехатроников яростно загудел. Корабль точно будет готов в кратчайшие сроки.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Сквозь бездну&lt;/fs&gt;</t>
@@ -173,7 +173,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите 2 системы без планет. Во время этого тактического действия эти системы считаются смежными.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Зов Всематери Готи лишает рассудка. Многие капитаны узнают об этом, когда становится слишком поздно.</t>
+    <t>&lt;fs=44&gt;Зов Всематери Готи лишает рассудка. Многие капитаны узнают об этом, когда становится слишком поздно.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Агрессивный брокер&lt;/fs&gt;</t>
@@ -182,7 +182,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда другой игрок изгоняет компонент:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Этот игрок должен выбрать: позволить вам получить 2 товара или пополнить вашу продукцию.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Кадо щёлкнул затвором: «Мы-то в курсе, в каком состоянии эта посудина, а они — хрен догадаются. Они принесли бабло? Тогда забираем и быстро валим отсюда».</t>
+    <t>&lt;fs=44&gt;Кадо щёлкнул затвором: «Мы-то в курсе, в каком состоянии эта посудина, а они — хрен дога-&lt;br&gt;даются. Они принесли бабло? Тогда забираем и быстро валим отсюда».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Оракул авгура&lt;/fs&gt;</t>
@@ -191,7 +191,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Верните 1 из ваших невыполненных секретных целей в колоду секретных целей, перемешайте эту колоду и возьмите 1 секретную цель.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Предсказательные алгоритмы Иликсиума работают велико-&lt;br&gt;лепно, хотя понять смысл ответа порой бывает затруднительно.</t>
+    <t>&lt;fs=44&gt;Предсказательные алгоритмы Иликсиума работают велико-&lt;br&gt;лепно, хотя понять смысл ответа порой бывает затруднительно.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Арбитраж&lt;/fs&gt;</t>
@@ -200,7 +200,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Получите 4 продукции; за каждую вашу продукцию, превышающую значение продукции, получите 1 товар.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Корпорации Велдира научились зарабатывать на деньгах.</t>
+    <t>&lt;fs=44&gt;Корпорации Велдира научились зарабатывать на деньгах.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Контракты&lt;/fs&gt;</t>
@@ -209,7 +209,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите 1 раскрытую общую цель; во время этой фазы статуса получите 1 товар за каждого игрока, который выполнит эту общую цель.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Турра закрыл чемодан и поднялся из-за стола: «Было приятно иметь с вами дело».</t>
+    <t>&lt;fs=44&gt;Турра закрыл чемодан и поднялся из-за стола: «Было приятно иметь с вами дело».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Панцирная броня&lt;/fs&gt;</t>
@@ -218,7 +218,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как присвоить попадания своим отрядам во время наземного боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Отмените 2 попадания или меньше.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Факуайсет восхищённо щёлкнул, когда броня отвалилась; пришло время для контратаки.</t>
+    <t>&lt;fs=44&gt;Факуайсет восхищённо щёлкнул, когда броня отвалилась; пришло время для контратаки.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Засекреченное оружие&lt;/fs&gt;</t>
@@ -227,7 +227,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как вы бросите кубики для проверки способности 1 или более ваших отрядов:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавляйте +4 к результатам этих бросков. Любые попадания, нанесённые этой способностью, не могут быть отменены.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Доктор Морден неподвижно стоял на мостике: «Они... они прекрасны».</t>
+    <t>&lt;fs=44&gt;Доктор Морден неподвижно стоял на мостике: «Они... они прекрасны».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Растерянный мудрец&lt;/fs&gt;</t>
@@ -236,7 +236,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После броска кубика:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +3 или −3 к результату этого броска.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Нет, нет, нет. Этого не может быть... — Древний мико-ментори вздохнул. — Ах! Да, теперь я вспомнил!»</t>
+    <t>&lt;fs=44&gt;«Нет, нет, нет. Этого не может быть... — Древний мико-&lt;br&gt;ментори вздохнул. — Ах! Да, теперь я вспомнил!»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Заражение&lt;/fs&gt;</t>
@@ -245,7 +245,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После уничтожения отряда пехоты другого игрока во время наземного боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Уничтожьте половину отрядов пехоты этого игрока (с округлением вверх), участвующих в этом бою.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Община Кайро располагает множеством различных штаммов на любой случай.</t>
+    <t>&lt;fs=44&gt;Община Кайро располагает множеством различных штаммов на любой случай.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;Эхо-экранирование&lt;/fs&gt;</t>
@@ -254,7 +254,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Ваши отряды в активной системе получают способность &lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПЛАНЕТАРНЫЙ ЩИТ»&lt;/f&gt;&lt;push=0;-17&gt; во время этого тактического действия.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Адмирал выругался, когда мерцающая завеса появилась над критически важной инфра-&lt;br&gt;структурой планеты. Быстрое вторжение грозило перерасти в продолжительную блокаду.</t>
+    <t>&lt;fs=44&gt;Адмирал выругался, когда мерцающая завеса появилась над критически важной инфра-&lt;br&gt;структурой планеты. Быстрое вторжение грозило перерасти в продолжительную блокаду.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Экстренное заседание&lt;/fs&gt;</t>
@@ -263,7 +263,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале фазы политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Замешайте сброшенные карты политики в колоду политики и возьмите верхние 3 карты этой колоды. Положите эти карты на верх и/или под низ колоды в любом порядке.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Учитывая очевидный интерес Эдин, следующая сессия совета обещала быть интересной.</t>
+    <t>&lt;fs=44&gt;Учитывая очевидный интерес Эдин, следующая сессия совета обещала быть интересной.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Освобождение от обязательств&lt;/fs&gt;</t>
@@ -272,7 +272,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда другой игрок разыгрывает вашу карту обещания «Торговое соглашение»:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не отдаёте этому игроку вашу продукцию; этот игрок возвращает вашу карту обещания «Торговое соглашение».&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Что вы имеете в виду? — Ваден улыбнулся, обнажая ряды зубов. — Вы же читали контракт, верно?»</t>
+    <t>&lt;fs=44&gt;«Что вы имеете в виду? — Ваден улыбнулся, обнажая ряды&lt;br&gt;зубов. — Вы же читали контракт, верно?»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Запретное знание&lt;/fs&gt;</t>
@@ -281,7 +281,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы исследуете технологию:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете проигнорировать 1 требование этой технологии. Если эта технология не является технологией улучшения отряда, вы можете проигнорировать 2 требования этой технологии.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Фанатики хранили много давно забытых секретов.</t>
+    <t>&lt;fs=44&gt;Фанатики хранили много давно забытых секретов.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;Инициатива свободной торговли&lt;/fs&gt;</t>
@@ -290,7 +290,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;для каждого типа планеты, если вы контролируете хотя бы 1 планету этого типа, получите 2 продукции или можете конвертировать 2 продукции или меньше в товары.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Келдарские торговые порты были зрелищем, достойным внимания. Здесь можно было найти любые известные в галактике товары.</t>
+    <t>&lt;fs=44&gt;Келдарские торговые порты были зрелищем, достойным внимания. Здесь можно было найти любые известные в галактике товары.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Борцы за свободу&lt;/fs&gt;</t>
@@ -299,16 +299,16 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале наземного боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете разместить количество отрядов пехоты из вашего снабжения на этой планете, равное половине значения влияния этой планеты (с округлением вниз).&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Бандиты Отто когда-то были одной из самых грозных партизанских групп галактики.</t>
+    <t>&lt;fs=44&gt;Бандиты Отто когда-то были одной из самых грозных партизанских групп галактики.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Быстрое развёртывание&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как игрок активировал систему, где есть хотя бы 1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете разместить корабль из вашего снабжения, который имеет стоимость 4 или меньше, в активной системе.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>Судостроители никогда не опаздывали, хотя и имели привычку искажать смысл словосочетания «точно в срок».</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как игрок активировал систему, где есть хотя бы 1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете разместить корабль из вашего снабжения, который имеет цену 4 или меньше, в активной системе.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Судостроители никогда не опаздывали, хотя и имели привычку искажать смысл словосочетания «точно в срок».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Враждебный мир&lt;/fs&gt;</t>
@@ -317,7 +317,7 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После высадки наземных войск на подконтрольную вам планету:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Бросьте количество кубиков, равное значению ресурсов этой планеты; за каждый результат 6 или более нанесите 1 попадание этим наземных войскам.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Ты когда-нибудь сражался с кхрасками раньше, пацан? — командир хрипло рассмеялся, перекрывая рёв двигателей десантного корабля. — Мы высаживаемся на планету, которая жаждет нашей смерти».</t>
+    <t>&lt;fs=42&gt;«Ты когда-нибудь сражался с кхрасками раньше, пацан? — командир хрипло рассмеялся, перекрывая рёв двигателей десантного корабля. — Мы высаживаемся на планету, которая жаждет нашей смерти».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Иллюзорное дублирование&lt;/fs&gt;</t>
@@ -326,7 +326,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способности &lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-17&gt;, получает эту способность до конца раунда боя.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Датчики показывали только один корабль Морфеусов; оставалось неясным, какой именно из десятка это был на самом деле.</t>
+    <t>&lt;fs=44&gt;Датчики показывали только один корабль Морфеусов; оста-&lt;br&gt;валось неясным, какой именно из десятка это был на самом деле.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;Микрометеоритный шторм&lt;/fs&gt;</t>
@@ -335,16 +335,16 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите 1 систему, в которой есть корабли другого игрока. Бросьте 1 кубик за каждый истребитель в этой системе. За каждый результат 6 или более уничтожьте 1 из этих отрядов.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Камень забурлил, будто в гневе:&lt;br&gt;«Захватчики. Разрушение. Боль. НЕНАВИСТЬ. ВОЗМЕЗДИЕ. СТРАХ».</t>
+    <t>&lt;fs=44&gt;Камень забурлил, будто в гневе:&lt;br&gt;«Захватчики. Разрушение. Боль. НЕНАВИСТЬ. ВОЗМЕЗДИЕ. СТРАХ».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Нейромолот&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите одного игрока у которого больше всего победных очков. Можете посмотреть его случайную невыполненную секретную цель.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>Цимиец впился взглядом в дипломата, который начал кричать. Громоздкая масса кибернетики и мышц стояла неподвижно до тех пор, пока крик дипломата не прекратился.</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите одного игрока у которого больше всего победных очков. Можете посмотреть его случайную невыпол-&lt;br&gt;ненную секретную цель.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Цимиец впился взглядом в дипломата, который начал кричать. Громоздкая масса кибернетики и мышц стояла неподвижно до тех пор, пока крик дипломата не прекратился.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Приказ о назначении&lt;/fs&gt;</t>
@@ -353,16 +353,16 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;подготовьте вашего агента или потратьте 1 жетон приказа из вашего стратегического резерва, чтобы разблокировать вашего командира.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Пройдёмте, — голос Аланта разносился по комнате, словно гром вдалеке. — Вы нужны нам».</t>
+    <t>&lt;fs=44&gt;«Пройдёмте, — голос Аланта разносился по комнате, словно гром вдалеке. — Вы нужны нам».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;Планетарные буровые установки&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите неродную подконтрольную вам планету (кроме Мекатол-Рекса). Раскрывайте карты из соответствующей колоды разведки этой планеты до тех пор, пока не найдёте прикрепление; прикрепите его к этой планете и сбросьте остальные карты разведки.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>«ПРГ» копают глубоко и жадно. По крайней мере, они лучшие в этом.</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите неродную подконтрольную вам планету (кроме Мекатол-Рекса). Раскры-&lt;br&gt;вайте карты из соответ-&lt;br&gt;ствующей колоды разведки этой планеты до тех пор, пока не найдёте прикреп-&lt;br&gt;ление; прикрепите его к этой планете и сбросьте остальные карты разведки.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;«ПРГ» копают глубоко и жадно. По крайней мере, они лучшие в этом.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Подготовка&lt;/fs&gt;</t>
@@ -371,7 +371,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;возьмите 1 карту действия.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Выбор был всего лишь иллюзией; игра была предрешена с первого хода.</t>
+    <t>&lt;fs=44&gt;Выбор был всего лишь иллюзией; игра была предрешена с первого хода.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;Профессиональные археологи&lt;/fs&gt;</t>
@@ -380,7 +380,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;для каждой колоды разведки посмотрите на верхнюю карту этой колоды; если эта карта является фрагментом реликвии, получите эту карту, в противном случае сбросьте эту карту и получите 1 продукцию.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Недостаток страсти они компенсируют хорошо оплачиваемой строгостью.</t>
+    <t>&lt;fs=44&gt;Недостаток страсти они компенсируют хорошо оплачиваемой строгостью.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Очищение&lt;/fs&gt;</t>
@@ -389,7 +389,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;изгоните любое количество ваших фрагментов реликвий, чтобы взять равное количество карт действий.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Васса Хаги не была полностью уверена, что произойдёт дальше, но реликвии будут потеряны навсегда, и этого было для неё достаточно.</t>
+    <t>&lt;fs=44&gt;Васса Хаги не была полностью уверена, что произойдёт дальше, но реликвии будут потеряны навсегда, и этого было для неё достаточно.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Пересмотр соглашений&lt;/fs&gt;</t>
@@ -398,7 +398,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как игрок разыгрывает фракционную карту обещания вашей фракции:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Этот игрок должен дать вам 1 карту обещания с руки, при возможности.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Ты имел дело со старым правительством, — усмехнулся Рапдр Железный коготь. — Если хочешь договориться, товарищ, начинай предлагать».</t>
+    <t>&lt;fs=44&gt;«Ты имел дело со старым правительством, — усмехнулся Рапдр Железный коготь. — Если хочешь договориться, товарищ, начинай предлагать».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=56&gt;Снять с предохранителя&lt;/fs&gt;</t>
@@ -407,7 +407,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После уничтожения вашего меха во время наземного боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Ваш противник должен выбрать и уничтожить 2 своих отряда на этой планете.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Окружённый своим пылающим экзокостюмом, сэр Чалрэн совершил свой последний рывок прямо в пламя, в смерть.</t>
+    <t>&lt;fs=44&gt;Окружённый своим пылающим экзокостюмом, сэр Чалрэн совершил свой последний рывок прямо в пламя, в смерть.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Запечатанное хранилище&lt;/fs&gt;</t>
@@ -416,7 +416,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;изгоните 2 своих фрагмента реликвий, чтобы получить 1 реликвию.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Маркетинговый директор Ранк засмеялся в ответ, упаковывая артефакты: «С вами приятно иметь дело».</t>
+    <t>&lt;fs=44&gt;Маркетинговый директор Ранк засмеялся в ответ, упаковывая артефакты: «С вами приятно иметь дело».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Заряд сингулярности&lt;/fs&gt;</t>
@@ -425,7 +425,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый отряд, участвующий в этом бою, становится повреждённым, при возможности.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Моск Грэйзон знал, что время пришло. Один удачный выстрел, и флот противника дрогнет.</t>
+    <t>&lt;fs=44&gt;Моск Грэйзон знал, что время пришло. Один удачный выстрел, и флот противника дрогнет.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Чрезвычайная сессия&lt;/fs&gt;</t>
@@ -434,7 +434,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый игрок должен проголосовать по этой карте политики, при возможности.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Чего вы добиваетесь? — спросила Кадрин совет. — Вы даже сами не знаете, чего вы хотите».</t>
+    <t>&lt;fs=44&gt;«Чего вы добиваетесь? — спросила Кадрин совет. — Вы даже сами не знаете, чего вы хотите».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Images\Logo_Codex0.png</t>
@@ -446,16 +446,16 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Посмотрите 1 верхнюю карту колоды политики.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Мабан зевнула. Ещё один зани-&lt;br&gt;мается пиратством. Политика временами могла быть такой безвкусной. Кроме того, она уже знала, что всё закончится не хорошо. Совсем не хорошо...</t>
+    <t>&lt;fs=44&gt;Мабан зевнула. Ещё один занимается пиратством. Политика временами могла быть такой безвкусной. Кроме того, она уже знала, что всё закончится не хорошо.&lt;br&gt;Совсем не хорошо...&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Плагиат&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;потратьте 5 очков влияния и выберите нефракционную технологию, которой владеет один из ваших соседей; получите эту технологию.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>Шпионы Иссарилов передали свою находку Коннору, который, в свою очередь, с мрачной улыбкой пере-&lt;br&gt;дал его инженерам Федерации. &lt;br&gt;«А теперь, мальчики, — сказал он, положив одну руку на винтовку, — поговорим о тех неоконченных делах...»</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;потратьте 5 очков влияния и выберите нефракционную техно-&lt;br&gt;логию, которой владеет один из ваших соседей; получите эту технологию.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;Шпионы Иссарилов передали свою находку Коннору, который, в свою очередь, с мрачной улыбкой передал его инженерам Федерации.&lt;br&gt;«А теперь, мальчики, — сказал он, положив одну руку на винтовку, — поговорим о тех неоконченных делах...»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Генеральный план&lt;/fs&gt;</t>
@@ -464,7 +464,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы совершили действие:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете совершить дополнительное действие в этот ход.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Виктор злобно улыбнулся, переплетая свои длинные пальцы. Унленн будет гордиться. Его репутация тактика была заслуженной; даже пешки могли свергнуть королей.</t>
+    <t>&lt;fs=44&gt;Виктор злобно улыбнулся, переплетая свои длинные пальцы. Унленн будет гордиться. Его репутация тактика была заслуженной; даже пешки могли свергнуть королей.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Объединение&lt;/fs&gt;</t>
@@ -473,7 +473,7 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему, которая содержит корабли другого игрока:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Разместите 2 жетона приказа из вашего снабжения в ваш резерв флота.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Продвижение Федерации не будет остановлено — не сегодня. Клэр настроила свою трансляцию на все открытые каналы и произнесла жестким,&lt;br&gt;непоколебимым голосом:&lt;br&gt;«Друзья! В этот день наши имена будут внесены в легенды!»</t>
+    <t>&lt;fs=42&gt;Продвижение Федерации не будет остановлено — не сегодня. Клэр настроила свою трансляцию на все открытые каналы и произ-&lt;br&gt;несла жестким, непоколебимым голосом: «Друзья! В этот день наши имена будут внесены в легенды!»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=56&gt;Частота скремблирования&lt;/fs&gt;</t>
@@ -482,7 +482,7 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как другой игрок бросил кубики для проверки способностей &lt;/f&gt;&lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-12&gt;&lt;f=Myriad Pro&gt;, &lt;/f&gt;&lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-12&gt;&lt;f=Myriad Pro&gt; или &lt;/f&gt;&lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-12&gt;&lt;f=Myriad Pro&gt;:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Этот игрок перебрасывает все свои кубики.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Я не приму это от этого ничтожества!» Фэн зарычал, когда его загадочный товарищ подключился к корабельной навигационной системе. Позиция «Мемории» мерцала и изменялась, в результате чего взрыв безвредно пронесся мимо.</t>
+    <t>&lt;fs=42&gt;«Я не приму это от этого ничтожества!» Фэн зарычал, когда его загадочный товарищ подключился к корабельной навигационной системе. Позиция «Мемории» мерцала и изменялась, в результате чего взрыв безвредно пронесся мимо.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Передовая база снабжения&lt;/fs&gt;</t>
@@ -491,7 +491,7 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как другой игрок активировал систему, в которой есть хотя бы 1 ваш отряд:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Получите 3 товара. Затем выберите другого игрока; этот игрок получает 1 товар.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Все взгляды обратили свой взор к темнеющему небу, когда единственный уцелевший транспортник с припасами прошёл через врата. «Возьмите их на хранение и отправьте груз нашим союзникам!» — закричал Харруг, перекрывая шум двигателей.</t>
+    <t>&lt;fs=42&gt;Все взгляды обратили свой взор к темнеющему небу, когда един-&lt;br&gt;ственный уцелевший транс-&lt;br&gt;портник с припасами прошёл через врата. «Возьмите их на хранение и отправьте груз нашим союзникам!» — закричал Харруг, перекрывая шум двигателей.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Вербовка истребителей&lt;/fs&gt;</t>
@@ -500,16 +500,16 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите по 1 истребителю из вашего снабжения в каждую систему, которая содержит хотя бы 1 вашу базу или отряд, у которого есть значение мест на борту (кроме систем, которые содержат отряды других игроков).&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Т'есла ухмыльнулась, когда её мерцающий корабль поднялся с полетной палубы — наконец, этот проклятый виконт ощутит превосходство воздушного боя Наалу. «Готовься», — прошипела она в передатчик.</t>
+    <t>&lt;fs=42&gt;Т'есла ухмыльнулась, когда её мерцающий корабль поднялся с полетной палубы — наконец, этот проклятый виконт ощутит превосходство воздушного боя Наалу. «Готовься», — прошипела она в передатчик.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Бомбежка&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной системе, который не имеет способность &lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-12&gt;, получает способность &lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«БОМБАРДИРОВКА 6»&lt;/f&gt;&lt;push=0;-12&gt; до конца вторжения.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>«Он-н-ни не предназначались для такого использования. Эт-то ужасная идея» — пробормотал Тай, заламывая руки. «Ну, конечно, — ухмыльнулся Дарт, хлопнув ку-&lt;br&gt;лаком по фиксатору. — Но, у нас около 60 килотонн "сюрприза". И нам нечего терять!»</t>
+    <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Каждый ваш корабль (кроме истребителей) в активной сис-&lt;br&gt;теме, который не имеет способ-&lt;br&gt;ность &lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-12&gt;, получает способность &lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«БОМБАР-&lt;br&gt;ДИРОВКА 6»&lt;/f&gt;&lt;push=0;-12&gt; до конца вторжения.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;«Он-н-ни не предназначались для такого использования. Эт-то ужасная идея» — пробормотал Тай, заламывая руки. «Ну, конечно, — ухмыльнулся Дарт, хлопнув кулаком по фиксатору. — Но, у нас около 60 килотонн "сюрприза". И нам нечего терять!»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Использование энергии&lt;/fs&gt;</t>
@@ -518,7 +518,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему, содержащую аномалию:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пополните вашу продукцию.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Манипулирование космосом было силой, принадлежащей лишь богам», — плюнул Роул в землю, когда его изобретение ожило. «Но теперь все иначе».</t>
+    <t>&lt;fs=44&gt;«Манипулирование космосом было силой, принадлежащей лишь богам», — плюнул Роул в землю, когда его изобретение ожило. «Но теперь все иначе».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Взлом во время выборов&lt;/fs&gt;</t>
@@ -527,7 +527,7 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время голосования по этой карте политики, игроки голосуют по порядку против часовой стрелки, начиная с игрока, который сидит справа от председателя.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>ВАША [УЧЕТНАЯ ЗАПИСЬ НЕ ОПРЕДЕЛЕНА] ВЕЛИКАЯ ИГРА БУДЕТ НАПРАСНОЙ\&lt;\&lt; [ПЕРЕМЕННАЯ:42687] ПОРЯДОК ВОЗНИКНЕТ ИЗ [ПЕРЕМЕННАЯ:89001] ХАОСА\&lt;\&lt; ИСХОД ЗАВИСИТ ОТ НАШЕЙ ВОЛИ</t>
+    <t>&lt;fs=42&gt;ВАША [УЧЕТНАЯ ЗАПИСЬ НЕ ОПРЕДЕЛЕНА] ВЕЛИКАЯ ИГРА БУДЕТ НАПРАСНОЙ \&lt;\&lt; [ПЕРЕМЕННАЯ: 42687] ПОРЯДОК ВОЗНИКНЕТ ИЗ [ПЕРЕМЕННАЯ: 89001] ХАОСА \&lt;\&lt; ИСХОД ЗАВИСИТ ОТ НАШЕЙ ВОЛИ&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Отражающая защита&lt;/fs&gt;</t>
@@ -536,7 +536,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда один из ваших кораблей использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=TI4-Header;40&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro&gt; во время боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Нанесите 2 попадания кораблям противника в активной системе.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Прит вскарабкался по плечу Хеша, радостно хлопая в ладоши, когда энтропийный щит разорвал крейсеры наёмников.</t>
+    <t>&lt;fs=44&gt;Прит вскарабкался по плечу Хеша, радостно хлопая в ладоши, когда энтропийный щит разорвал крейсеры наёмников.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Имперсонация&lt;/fs&gt;</t>
@@ -545,7 +545,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;потратьте 3 очка влияния, чтобы взять 1 карту секретной цели.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«Кроме того, — ошеломленно продолжил Коннор, — кто-то только что вручил мне это, когда я уходил. Я думаю, оно было предназначено для нашего дорогого друга Сукабана. Мы должны найти этому достойное применение».</t>
+    <t>&lt;fs=44&gt;«Кроме того, — ошеломленно продолжил Коннор, — кто-то только что вручил мне это, когда я уходил. Я думаю, оно было предназначено для нашего дорогого друга Сукабана. Мы должны найти этому достойное применение».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Солнечная вспышка&lt;/fs&gt;</t>
@@ -554,16 +554,16 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага передвижения этого тактического действия другие игроки не могут использовать способность &lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-12&gt; против ваших кораблей.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Мейан приготовилась к бою, но когда флот вошел в систему Ординиан, она была пуста. Дроны Валефара не поджидали их. Гамбит солнечной вспышки удался — они смогли пройти незамеченными.</t>
+    <t>&lt;fs=42&gt;Мейан приготовилась к бою, но когда флот вошел в систему Ординиан, она была пуста. Дроны Валефара не поджидали их. Гамбит солнечной вспышки&lt;br&gt;удался — они смогли пройти незамеченными.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Санкция&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте. Предскажите вслух результат голосования по ней. Если предсказание окажется верным, каждый игрок, который голосовал за этот результат, возвращает 1 жетон приказа из своего резерва флота в снабжение.&lt;/fs&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>В эту игру могут играть двое.</t>
+    <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте. Предскажите вслух результат голосо-&lt;br&gt;вания по ней. Если предска-&lt;br&gt;зание окажется верным, каждый игрок, который голосовал за этот резуль-&lt;br&gt;тат, возвращает 1 жетон приказа из своего резерва флота в снабжение.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;В эту игру могут играть двое.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Контрудар&lt;/fs&gt;</t>
@@ -572,7 +572,7 @@
     <t>&lt;ls=80&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как игрок активировал систему, в которой есть ваш жетон приказа:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Верните этот жетон приказа в ваш тактический резерв.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>«В этом суть верности... — размышлял Виктор, поворачивая одну из фигур назад, лицом к себе, — её можно купить».</t>
+    <t>&lt;fs=44&gt;«В этом суть верности... — размышлял Виктор, поворачивая одну из фигур назад, лицом&lt;br&gt;к себе, — её можно купить».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;Отряд призраков&lt;/fs&gt;</t>
@@ -581,22 +581,22 @@
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После высадки отрядов другого игрока на подконтрольной вам планете:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Переместите любое количество наземных войск слюбой подконтрольной вам планеты в активной системе на любую другую подконтрольную вам планету в активной системе.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Передовая группа Л1 ожидала найти заставу заброшенной. К несчастью для них, они обнаружили там Коннора.</t>
-  </si>
-  <si>
-    <t>«На замену потребовались бы недели, если бы вы неправильно запустили его», — сказала Вариш, вращая массивный блок суперконденсаторов. «Хорошо, зажигай!»</t>
+    <t>&lt;fs=42&gt;Передовая группа Л1 ожидала найти заставу заброшенной. К несчастью для них, они обнаружили там Коннора.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;ls=67&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;/f&gt;&lt;push=0;12&gt;&lt;f=TI4-Header;34&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-12&gt;&lt;f=Myriad Pro&gt;:&lt;/f&gt;&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавьте +4 к общему значению производства ваших отрядов и уменьшите общую цену произведённых отрядов на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>Станция завибрировала, когда устройство ожило, издав высокое жужжание, долетевшее до ушей Вариш. «Микрочервоточины ко-&lt;br&gt;леблются на частоте 19 кило-&lt;br&gt;герц, — прочитал Коул. — Отвод энтропийного поля стабилен».</t>
-  </si>
-  <si>
-    <t>Автоматизированные производственные мощности набирали обороты, огни вспыхивали, а сборочные дроны увеличили свою скорость, чтобы не отставать.</t>
-  </si>
-  <si>
-    <t>«Вариш, дайте командирам знать, что они могут связаться с Тетрархией. Скажите им, что сборка эскадрильи истребителей будет произведена раньше срока и в рамках бюджета».</t>
+    <t>&lt;fs=42&gt;«На замену потребовались бы недели, если бы вы неправильно запустили его», — сказала Вариш, вращая массивный блок суперконденсаторов. «Хорошо, зажигай!»&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;Станция завибрировала, когда устройство ожило, издав высокое жужжание, долетевшее до ушей Вариш. «Микрочервоточины колеблются на частоте 19 килогерц, — прочитал Коул. — Отвод энтропийного поля стабилен».&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;Автоматизированные производственные мощности набирали обороты, огни вспыхивали, а сборочные дроны увеличили свою скорость, чтобы не отставать.&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;«Вариш, дайте командирам знать, что они могут связаться с Тетрархией. Скажите им, что сборка эскадрильи истребителей будет произведена раньше срока и в рамках бюджета».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Expanion</t>
@@ -5433,7 +5433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5447,11 +5447,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5781,10 +5793,10 @@
   <sheetPr/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -5794,1241 +5806,1241 @@
     <col min="3" max="3" width="18" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.8571428571429" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.7142857142857" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="9" customWidth="1"/>
     <col min="7" max="10" width="9" style="6"/>
     <col min="11" max="12" width="9" style="7"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9">
-        <v>1</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9">
-        <v>1</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9">
-        <v>1</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9">
-        <v>1</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9">
-        <v>1</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
-        <v>1</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9">
-        <v>1</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="10">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9">
-        <v>1</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="10">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9">
-        <v>1</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="10">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9">
-        <v>1</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9">
-        <v>1</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="10">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9">
-        <v>1</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="10">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9">
-        <v>1</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9">
-        <v>1</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9">
-        <v>1</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9">
-        <v>1</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9">
-        <v>1</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9">
-        <v>1</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9">
-        <v>1</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="10">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9">
-        <v>1</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="9">
-        <v>1</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="9">
-        <v>1</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="10">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="9">
-        <v>1</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="10">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="9">
-        <v>1</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="9">
-        <v>1</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="10">
+        <v>1</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="9">
-        <v>1</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="9">
-        <v>1</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="11" t="s">
+      <c r="E59" s="16" t="s">
         <v>178</v>
       </c>
+      <c r="F59" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="9">
-        <v>1</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="11" t="s">
+      <c r="E60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="9">
-        <v>1</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="10">
+        <v>1</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="11" t="s">
+      <c r="E61" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="9">
-        <v>1</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="10">
+        <v>1</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" s="11" t="s">
+      <c r="E62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7563,7 +7575,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="17" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7598,7 +7610,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="17" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7633,10 +7645,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="17" t="s">
         <v>825</v>
       </c>
     </row>
@@ -7668,7 +7680,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="17" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7703,7 +7715,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="17" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7738,7 +7750,7 @@
       <c r="L7" t="s">
         <v>834</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="17" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7853,7 +7865,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C2">
@@ -7906,7 +7918,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C3">
@@ -7956,7 +7968,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C4">
@@ -8006,7 +8018,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C5">
@@ -8053,7 +8065,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C6">
@@ -8103,7 +8115,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C7">
@@ -8150,7 +8162,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C8">
@@ -8197,7 +8209,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C9">
@@ -8247,7 +8259,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C10">
@@ -8294,7 +8306,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C11">
@@ -8341,7 +8353,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C12">
@@ -8391,7 +8403,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C13">
@@ -8619,7 +8631,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C2">
@@ -8666,7 +8678,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C3">
@@ -8710,7 +8722,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C4">
@@ -8754,7 +8766,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C5">
@@ -8801,7 +8813,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C6">
@@ -8845,7 +8857,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C7">
@@ -8889,7 +8901,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C8">
@@ -8933,7 +8945,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C9">
@@ -8980,7 +8992,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C10">
@@ -9027,7 +9039,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C11">
@@ -9074,7 +9086,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C12">
@@ -9121,7 +9133,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C13">
@@ -9168,7 +9180,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C14">
@@ -9212,7 +9224,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C15">
@@ -9256,7 +9268,7 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C16">
@@ -9303,7 +9315,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C17">
@@ -9350,7 +9362,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C18">
@@ -9394,7 +9406,7 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C19">
@@ -9438,7 +9450,7 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C20">
@@ -9485,7 +9497,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C21">
@@ -9529,7 +9541,7 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C22">
@@ -9573,7 +9585,7 @@
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C23">
@@ -9617,7 +9629,7 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C24">
@@ -9661,7 +9673,7 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C25">
@@ -9705,7 +9717,7 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C26">
@@ -9749,7 +9761,7 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C27">
@@ -9796,7 +9808,7 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C28">
@@ -9840,7 +9852,7 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C29">
@@ -9884,7 +9896,7 @@
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C30">
@@ -9928,7 +9940,7 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C31">
@@ -9972,7 +9984,7 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C32">
@@ -10016,7 +10028,7 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C33">
@@ -10060,7 +10072,7 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C34">
@@ -10104,7 +10116,7 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C35">
@@ -10148,7 +10160,7 @@
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C36">
@@ -10192,7 +10204,7 @@
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C37">
@@ -10236,7 +10248,7 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C38">
@@ -10286,7 +10298,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C39">
@@ -10330,7 +10342,7 @@
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C40">
@@ -10374,7 +10386,7 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C41">
@@ -10421,7 +10433,7 @@
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C42">
@@ -10468,7 +10480,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C43">
@@ -10512,7 +10524,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C44">
@@ -10559,7 +10571,7 @@
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C45">
@@ -10603,7 +10615,7 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C46">
@@ -10647,7 +10659,7 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C47">
@@ -10691,7 +10703,7 @@
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C48">
@@ -10735,7 +10747,7 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C49">
@@ -10779,7 +10791,7 @@
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C50">
@@ -10829,7 +10841,7 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C51">
@@ -10873,7 +10885,7 @@
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C52">
@@ -10917,7 +10929,7 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C53">
@@ -10961,7 +10973,7 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C54">
@@ -11005,7 +11017,7 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C55">
@@ -11049,7 +11061,7 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C56">
@@ -11099,7 +11111,7 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C57">
@@ -11146,7 +11158,7 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C58">
@@ -11196,7 +11208,7 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C59">
@@ -11240,7 +11252,7 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C60">
@@ -11284,7 +11296,7 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C61">
@@ -11328,7 +11340,7 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C62">
@@ -11372,7 +11384,7 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C63">
@@ -11416,7 +11428,7 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C64">
@@ -11460,7 +11472,7 @@
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C65">
@@ -11504,7 +11516,7 @@
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C66">
@@ -11548,7 +11560,7 @@
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C67">
@@ -11592,7 +11604,7 @@
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C68">
@@ -11636,7 +11648,7 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C69">
@@ -11680,7 +11692,7 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C70">
@@ -11724,7 +11736,7 @@
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C71">
@@ -11768,7 +11780,7 @@
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C72">
@@ -11812,7 +11824,7 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C73">
@@ -11856,7 +11868,7 @@
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C74">
@@ -11900,7 +11912,7 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C75">
@@ -11944,7 +11956,7 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C76">
@@ -11988,7 +12000,7 @@
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C77">
@@ -12032,7 +12044,7 @@
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C78">
@@ -12076,7 +12088,7 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C79">
@@ -12120,7 +12132,7 @@
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C80">
@@ -12164,7 +12176,7 @@
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C81">
@@ -12208,7 +12220,7 @@
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C82">
@@ -12252,7 +12264,7 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C83">
@@ -12299,7 +12311,7 @@
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C84">
@@ -12346,7 +12358,7 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C85">
@@ -12393,7 +12405,7 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C86">
@@ -12437,7 +12449,7 @@
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C87">
@@ -12481,7 +12493,7 @@
       <c r="A88">
         <v>1</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C88">
@@ -12525,7 +12537,7 @@
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C89">
@@ -12569,7 +12581,7 @@
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C90">
@@ -12613,7 +12625,7 @@
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C91">
@@ -12657,7 +12669,7 @@
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C92">
@@ -12701,7 +12713,7 @@
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C93">
@@ -12745,7 +12757,7 @@
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C94">
@@ -12789,7 +12801,7 @@
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C95">
@@ -12833,7 +12845,7 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C96">
@@ -12880,7 +12892,7 @@
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C97">
@@ -12924,7 +12936,7 @@
       <c r="A98">
         <v>1</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C98">
@@ -12971,7 +12983,7 @@
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="17" t="s">
         <v>852</v>
       </c>
       <c r="C99">
@@ -14881,7 +14893,7 @@
       <c r="E6" t="s">
         <v>1381</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="17" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -15167,7 +15179,7 @@
       <c r="L3" t="s">
         <v>1422</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q3" t="s">
@@ -15392,13 +15404,13 @@
       <c r="J9" t="s">
         <v>1441</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="17" t="s">
         <v>1442</v>
       </c>
       <c r="Q9" t="s">
@@ -15460,13 +15472,13 @@
       <c r="J10" t="s">
         <v>1445</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="17" t="s">
         <v>1446</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="17" t="s">
         <v>1447</v>
       </c>
       <c r="Q10" t="s">
@@ -15586,10 +15598,10 @@
       <c r="J13" t="s">
         <v>692</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="17" t="s">
         <v>635</v>
       </c>
       <c r="Q13" t="s">
@@ -15639,10 +15651,10 @@
       <c r="M14" t="s">
         <v>1455</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q14" t="s">
@@ -15695,10 +15707,10 @@
       <c r="M15" t="s">
         <v>1455</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q15" t="s">
@@ -15748,10 +15760,10 @@
       <c r="M16" t="s">
         <v>1455</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q16" t="s">
@@ -15798,10 +15810,10 @@
       <c r="M17" t="s">
         <v>1455</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q17" t="s">
@@ -15851,10 +15863,10 @@
       <c r="M18" t="s">
         <v>1455</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q18" t="s">
@@ -15904,10 +15916,10 @@
       <c r="M19" t="s">
         <v>1455</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q19" t="s">
@@ -15948,10 +15960,10 @@
       <c r="M20" t="s">
         <v>1455</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q20" t="s">
@@ -15998,10 +16010,10 @@
       <c r="M21" t="s">
         <v>1455</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q21" t="s">
@@ -16048,10 +16060,10 @@
       <c r="M22" t="s">
         <v>1455</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q22" t="s">
@@ -16098,10 +16110,10 @@
       <c r="M23" t="s">
         <v>1455</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q23" t="s">
@@ -16148,10 +16160,10 @@
       <c r="M24" t="s">
         <v>1455</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q24" t="s">
@@ -16204,10 +16216,10 @@
       <c r="M25" t="s">
         <v>1455</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q25" t="s">
@@ -16254,10 +16266,10 @@
       <c r="M26" t="s">
         <v>1455</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="17" t="s">
         <v>1442</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="17" t="s">
         <v>621</v>
       </c>
       <c r="Q26" t="s">
@@ -16313,10 +16325,10 @@
       <c r="J27" t="s">
         <v>1462</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="17" t="s">
         <v>1463</v>
       </c>
       <c r="Q27" t="s">
@@ -16412,7 +16424,7 @@
       <c r="D4" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -16446,7 +16458,7 @@
       <c r="D6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16542,13 +16554,13 @@
       <c r="F2" t="s">
         <v>1477</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="17" t="s">
         <v>1478</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>1479</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="17" t="s">
         <v>1480</v>
       </c>
       <c r="J2" t="s">
@@ -16592,13 +16604,13 @@
       <c r="F3" t="s">
         <v>1490</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>1478</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>1491</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>1480</v>
       </c>
       <c r="J3" t="s">
@@ -16642,13 +16654,13 @@
       <c r="F4" t="s">
         <v>1496</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="17" t="s">
         <v>1478</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>1497</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="17" t="s">
         <v>1480</v>
       </c>
       <c r="J4" t="s">
@@ -16713,7 +16725,7 @@
       <c r="A3" t="s">
         <v>1502</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>1503</v>
       </c>
     </row>
@@ -16721,7 +16733,7 @@
       <c r="A4" t="s">
         <v>1504</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -16729,7 +16741,7 @@
       <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -16793,7 +16805,7 @@
       <c r="A13" t="s">
         <v>1521</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -16801,7 +16813,7 @@
       <c r="A14" t="s">
         <v>622</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -16809,7 +16821,7 @@
       <c r="A15" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -16817,7 +16829,7 @@
       <c r="A16" t="s">
         <v>632</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -16825,7 +16837,7 @@
       <c r="A17" t="s">
         <v>627</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -16833,7 +16845,7 @@
       <c r="A18" t="s">
         <v>637</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -16841,7 +16853,7 @@
       <c r="A19" t="s">
         <v>645</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="17" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -16849,7 +16861,7 @@
       <c r="A20" t="s">
         <v>648</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>1529</v>
       </c>
     </row>
@@ -16857,7 +16869,7 @@
       <c r="A21" t="s">
         <v>651</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -16865,7 +16877,7 @@
       <c r="A22" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -16873,7 +16885,7 @@
       <c r="A23" t="s">
         <v>641</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -17269,7 +17281,7 @@
       <c r="J3" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17402,7 +17414,7 @@
       <c r="J8" t="s">
         <v>228</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17431,7 +17443,7 @@
       <c r="J9" t="s">
         <v>231</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="17" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17460,7 +17472,7 @@
       <c r="J10" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="17" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17489,7 +17501,7 @@
       <c r="J11" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="17" t="s">
         <v>238</v>
       </c>
     </row>
@@ -17538,7 +17550,7 @@
       <c r="J13" t="s">
         <v>241</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="17" t="s">
         <v>242</v>
       </c>
     </row>
@@ -17665,7 +17677,7 @@
       <c r="J18" t="s">
         <v>228</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17694,7 +17706,7 @@
       <c r="J19" t="s">
         <v>231</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="17" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17723,7 +17735,7 @@
       <c r="J20" t="s">
         <v>234</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="17" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17752,7 +17764,7 @@
       <c r="J21" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="17" t="s">
         <v>238</v>
       </c>
     </row>
@@ -17801,7 +17813,7 @@
       <c r="J23" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17928,7 +17940,7 @@
       <c r="J28" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17957,7 +17969,7 @@
       <c r="J29" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="17" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17986,7 +17998,7 @@
       <c r="J30" t="s">
         <v>234</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="17" t="s">
         <v>235</v>
       </c>
     </row>
@@ -18015,7 +18027,7 @@
       <c r="J31" t="s">
         <v>237</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="17" t="s">
         <v>238</v>
       </c>
     </row>
@@ -18087,7 +18099,7 @@
       <c r="J34" t="s">
         <v>252</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="17" t="s">
         <v>253</v>
       </c>
       <c r="L34" t="s">
@@ -18229,7 +18241,7 @@
       <c r="J39" t="s">
         <v>262</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="17" t="s">
         <v>263</v>
       </c>
       <c r="L39" t="s">
@@ -18978,7 +18990,7 @@
       <c r="F2" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="17" t="s">
         <v>325</v>
       </c>
       <c r="H2" t="s">
@@ -19004,7 +19016,7 @@
       <c r="F3" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>329</v>
       </c>
       <c r="H3" t="s">
@@ -19191,13 +19203,13 @@
       <c r="M2" t="s">
         <v>363</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>366</v>
       </c>
       <c r="Q2" t="s">
@@ -19241,7 +19253,7 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>375</v>
       </c>
       <c r="L3" t="s">
@@ -19250,13 +19262,13 @@
       <c r="M3" t="s">
         <v>377</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="17" t="s">
         <v>380</v>
       </c>
       <c r="Q3" t="s">
@@ -19355,7 +19367,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="17" t="s">
         <v>398</v>
       </c>
       <c r="L6" t="s">
@@ -19364,13 +19376,13 @@
       <c r="M6" t="s">
         <v>377</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="17" t="s">
         <v>402</v>
       </c>
       <c r="Q6" t="s">
@@ -19414,7 +19426,7 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="17" t="s">
         <v>411</v>
       </c>
       <c r="L7" t="s">
@@ -19645,10 +19657,10 @@
       <c r="N2" t="s">
         <v>464</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="17" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19695,10 +19707,10 @@
       <c r="N3" t="s">
         <v>468</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="17" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19745,10 +19757,10 @@
       <c r="N4" t="s">
         <v>464</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="17" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19795,10 +19807,10 @@
       <c r="N5" t="s">
         <v>468</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="17" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19845,64 +19857,64 @@
       <c r="P6" t="s">
         <v>476</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF6" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AG6" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AH6" s="13" t="s">
+      <c r="AH6" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AI6" s="13" t="s">
+      <c r="AI6" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="AJ6" s="13" t="s">
+      <c r="AJ6" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="AK6" s="13" t="s">
+      <c r="AK6" s="17" t="s">
         <v>466</v>
       </c>
       <c r="AP6" t="s">
@@ -19955,61 +19967,61 @@
       <c r="P7" t="s">
         <v>476</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AB7" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AC7" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AD7" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AE7" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AF7" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AI7" s="13" t="s">
+      <c r="AI7" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AJ7" s="17" t="s">
         <v>494</v>
       </c>
       <c r="AK7" t="s">
@@ -20083,61 +20095,61 @@
       <c r="O8" t="s">
         <v>475</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AF8" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG8" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH8" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI8" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>522</v>
       </c>
       <c r="AK8" t="s">
@@ -20190,7 +20202,7 @@
       <c r="Q9" t="s">
         <v>530</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="17" t="s">
         <v>531</v>
       </c>
       <c r="S9" t="s">
@@ -20211,22 +20223,22 @@
       <c r="X9" t="s">
         <v>535</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AB9" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AC9" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE9" s="13" t="s">
+      <c r="AE9" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF9" s="13" t="s">
+      <c r="AF9" s="17" t="s">
         <v>491</v>
       </c>
       <c r="AG9" t="s">
@@ -20244,7 +20256,7 @@
       <c r="AK9" t="s">
         <v>540</v>
       </c>
-      <c r="AR9" s="13" t="s">
+      <c r="AR9" s="17" t="s">
         <v>541</v>
       </c>
     </row>
@@ -20288,61 +20300,61 @@
       <c r="O10" t="s">
         <v>545</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="17" t="s">
         <v>492</v>
       </c>
       <c r="S10" t="s">
         <v>515</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AA10" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AB10" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AC10" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AD10" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF10" s="13" t="s">
+      <c r="AF10" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AG10" s="13" t="s">
+      <c r="AG10" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AH10" s="13" t="s">
+      <c r="AH10" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AI10" s="13" t="s">
+      <c r="AI10" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="AJ10" s="13" t="s">
+      <c r="AJ10" s="17" t="s">
         <v>492</v>
       </c>
       <c r="AK10" t="s">
@@ -20395,64 +20407,64 @@
       <c r="O11" t="s">
         <v>556</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="17" t="s">
         <v>557</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AB11" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AC11" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF11" s="13" t="s">
+      <c r="AF11" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="AH11" s="13" t="s">
+      <c r="AH11" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="AI11" s="13" t="s">
+      <c r="AI11" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="AJ11" s="13" t="s">
+      <c r="AJ11" s="17" t="s">
         <v>539</v>
       </c>
       <c r="AK11" t="s">
@@ -20499,61 +20511,61 @@
       <c r="O12" t="s">
         <v>571</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="17" t="s">
         <v>572</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AA12" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AB12" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC12" s="13" t="s">
+      <c r="AC12" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AD12" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF12" s="13" t="s">
+      <c r="AF12" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="AG12" s="13" t="s">
+      <c r="AG12" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="AH12" s="13" t="s">
+      <c r="AH12" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="AI12" s="13" t="s">
+      <c r="AI12" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="AJ12" s="13" t="s">
+      <c r="AJ12" s="17" t="s">
         <v>579</v>
       </c>
       <c r="AK12" t="s">
@@ -20603,58 +20615,58 @@
       <c r="O13" t="s">
         <v>585</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="17" t="s">
         <v>586</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="W13" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AB13" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="AC13" s="13" t="s">
+      <c r="AC13" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="AD13" s="13" t="s">
+      <c r="AD13" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="AE13" s="13" t="s">
+      <c r="AE13" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AF13" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AG13" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="AH13" s="13" t="s">
+      <c r="AH13" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="AI13" s="13" t="s">
+      <c r="AI13" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="AJ13" s="13" t="s">
+      <c r="AJ13" s="17" t="s">
         <v>579</v>
       </c>
       <c r="AK13" t="s">
@@ -20874,19 +20886,19 @@
       <c r="K2" t="s">
         <v>619</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -20918,16 +20930,16 @@
       <c r="J3" t="s">
         <v>623</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T3" t="s">
@@ -20980,7 +20992,7 @@
       <c r="O4" t="s">
         <v>630</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T4" t="s">
@@ -21036,10 +21048,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="17" t="s">
         <v>635</v>
       </c>
       <c r="T5" t="s">
@@ -21095,7 +21107,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="17" t="s">
         <v>640</v>
       </c>
       <c r="T6" t="s">
@@ -21136,10 +21148,10 @@
       <c r="J7" t="s">
         <v>642</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="17" t="s">
         <v>644</v>
       </c>
       <c r="T7" t="s">
@@ -21242,7 +21254,7 @@
       <c r="N9" t="s">
         <v>639</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T9" t="s">
@@ -21333,7 +21345,7 @@
       <c r="L11" t="s">
         <v>657</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="17" t="s">
         <v>658</v>
       </c>
       <c r="T11" t="s">
@@ -21389,7 +21401,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="17" t="s">
         <v>662</v>
       </c>
       <c r="O12">
@@ -21398,10 +21410,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="17" t="s">
         <v>663</v>
       </c>
     </row>
@@ -21445,7 +21457,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="17" t="s">
         <v>667</v>
       </c>
       <c r="O13">
@@ -21454,7 +21466,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21498,7 +21510,7 @@
       <c r="N14" t="s">
         <v>629</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T14" t="s">
@@ -21551,7 +21563,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="17" t="s">
         <v>662</v>
       </c>
       <c r="O15">
@@ -21560,7 +21572,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21601,7 +21613,7 @@
       <c r="L16" t="s">
         <v>675</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="17" t="s">
         <v>676</v>
       </c>
       <c r="T16" t="s">
@@ -21657,7 +21669,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="17" t="s">
         <v>667</v>
       </c>
       <c r="O17">
@@ -21666,10 +21678,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="17" t="s">
         <v>680</v>
       </c>
     </row>
@@ -21713,7 +21725,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="17" t="s">
         <v>684</v>
       </c>
       <c r="O18">
@@ -21722,7 +21734,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21772,7 +21784,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="17" t="s">
         <v>640</v>
       </c>
       <c r="T19" t="s">
@@ -21828,7 +21840,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="17" t="s">
         <v>662</v>
       </c>
       <c r="O20">
@@ -21837,7 +21849,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -21890,10 +21902,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="17" t="s">
         <v>635</v>
       </c>
       <c r="T21" t="s">
@@ -21949,7 +21961,7 @@
       <c r="L22" t="s">
         <v>695</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="17" t="s">
         <v>676</v>
       </c>
       <c r="T22" t="s">
@@ -21999,28 +22011,28 @@
       <c r="K29" t="s">
         <v>619</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="X29" s="13" t="s">
+      <c r="X29" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Y29" s="13" t="s">
+      <c r="Y29" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Z29" s="13" t="s">
+      <c r="Z29" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AA29" t="s">
@@ -22035,13 +22047,13 @@
       <c r="AD29" t="s">
         <v>469</v>
       </c>
-      <c r="AE29" s="13" t="s">
+      <c r="AE29" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF29" s="13" t="s">
+      <c r="AF29" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AG29" s="13" t="s">
+      <c r="AG29" s="17" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22082,16 +22094,16 @@
       <c r="L30" t="s">
         <v>698</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T30" t="s">
@@ -22106,13 +22118,13 @@
       <c r="W30" t="s">
         <v>626</v>
       </c>
-      <c r="X30" s="13" t="s">
+      <c r="X30" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Y30" s="13" t="s">
+      <c r="Y30" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Z30" s="13" t="s">
+      <c r="Z30" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AA30" t="s">
@@ -22124,16 +22136,16 @@
       <c r="AC30" t="s">
         <v>469</v>
       </c>
-      <c r="AD30" s="13" t="s">
+      <c r="AD30" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AE30" s="13" t="s">
+      <c r="AE30" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF30" s="13" t="s">
+      <c r="AF30" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AG30" s="13" t="s">
+      <c r="AG30" s="17" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22183,7 +22195,7 @@
       <c r="O31" t="s">
         <v>630</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T31" t="s">
@@ -22195,13 +22207,13 @@
       <c r="V31" t="s">
         <v>631</v>
       </c>
-      <c r="X31" s="13" t="s">
+      <c r="X31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Y31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Z31" s="13" t="s">
+      <c r="Z31" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AA31" t="s">
@@ -22213,16 +22225,16 @@
       <c r="AC31" t="s">
         <v>469</v>
       </c>
-      <c r="AD31" s="13" t="s">
+      <c r="AD31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AE31" s="13" t="s">
+      <c r="AE31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF31" s="13" t="s">
+      <c r="AF31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AG31" s="13" t="s">
+      <c r="AG31" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AH31">
@@ -22278,10 +22290,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="17" t="s">
         <v>635</v>
       </c>
       <c r="T32" t="s">
@@ -22293,13 +22305,13 @@
       <c r="V32" t="s">
         <v>636</v>
       </c>
-      <c r="X32" s="13" t="s">
+      <c r="X32" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Y32" s="13" t="s">
+      <c r="Y32" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Z32" s="13" t="s">
+      <c r="Z32" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AA32" t="s">
@@ -22311,16 +22323,16 @@
       <c r="AC32" t="s">
         <v>469</v>
       </c>
-      <c r="AD32" s="13" t="s">
+      <c r="AD32" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AE32" s="13" t="s">
+      <c r="AE32" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF32" s="13" t="s">
+      <c r="AF32" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AG32" s="13" t="s">
+      <c r="AG32" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AH32">
@@ -22376,7 +22388,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="17" t="s">
         <v>640</v>
       </c>
       <c r="T33" t="s">
@@ -22385,7 +22397,7 @@
       <c r="U33" t="s">
         <v>625</v>
       </c>
-      <c r="X33" s="13" t="s">
+      <c r="X33" s="17" t="s">
         <v>469</v>
       </c>
       <c r="Y33" t="s">
@@ -22406,13 +22418,13 @@
       <c r="AD33" t="s">
         <v>469</v>
       </c>
-      <c r="AE33" s="13" t="s">
+      <c r="AE33" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF33" s="13" t="s">
+      <c r="AF33" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AG33" s="13" t="s">
+      <c r="AG33" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AI33">
@@ -22456,10 +22468,10 @@
       <c r="L34" t="s">
         <v>698</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="17" t="s">
         <v>644</v>
       </c>
       <c r="T34" t="s">
@@ -22489,10 +22501,10 @@
       <c r="AD34" t="s">
         <v>469</v>
       </c>
-      <c r="AE34" s="13" t="s">
+      <c r="AE34" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF34" s="13" t="s">
+      <c r="AF34" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AG34" t="s">
@@ -22551,10 +22563,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="R35" s="17" t="s">
         <v>644</v>
       </c>
       <c r="T35" t="s">
@@ -22584,10 +22596,10 @@
       <c r="AD35" t="s">
         <v>469</v>
       </c>
-      <c r="AE35" s="13" t="s">
+      <c r="AE35" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF35" s="13" t="s">
+      <c r="AF35" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AG35" t="s">
@@ -22676,7 +22688,7 @@
       <c r="AD36" t="s">
         <v>469</v>
       </c>
-      <c r="AE36" s="13" t="s">
+      <c r="AE36" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AF36" t="s">
@@ -22735,7 +22747,7 @@
       <c r="N37" t="s">
         <v>639</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="O37" s="17" t="s">
         <v>624</v>
       </c>
       <c r="T37" t="s">
@@ -22765,7 +22777,7 @@
       <c r="AD37" t="s">
         <v>469</v>
       </c>
-      <c r="AE37" s="13" t="s">
+      <c r="AE37" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AF37" t="s">
@@ -22848,10 +22860,10 @@
       <c r="AD38" t="s">
         <v>469</v>
       </c>
-      <c r="AE38" s="13" t="s">
+      <c r="AE38" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="AF38" s="13" t="s">
+      <c r="AF38" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AG38" t="s">
@@ -22901,7 +22913,7 @@
       <c r="L39" t="s">
         <v>698</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="17" t="s">
         <v>658</v>
       </c>
       <c r="T39" t="s">
@@ -22931,7 +22943,7 @@
       <c r="AD39" t="s">
         <v>469</v>
       </c>
-      <c r="AE39" s="13" t="s">
+      <c r="AE39" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AF39" t="s">
@@ -23017,7 +23029,7 @@
       <c r="AD40" t="s">
         <v>469</v>
       </c>
-      <c r="AE40" s="13" t="s">
+      <c r="AE40" s="17" t="s">
         <v>469</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="12975" tabRatio="796" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -641,7 +641,7 @@
     <t>&lt;fs=62&gt;ФОРМИРОВАНИЕ КОМИТЕТА&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту и отдаёт другому игроку, который отдал за него больше всего голосов, 1 карту обещания с руки.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Перед началом голосования по карте политики, требующей выбрать игрока, владелец этой карты может сбросить её и выбрать игрока самостоятельно. Считается, что владелец этой карты отдал больше всего голосов за выбранный результат.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту и отдаёт другому игроку, который отдал за него больше всего голосов, 1 карту&lt;br&gt;обещания с руки.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Перед началом голосования по карте политики, требующей выбрать игрока, владелец этой карты может сбросить её и выбрать игрока самостоятельно. Считается, что владелец этой карты отдал больше всего голосов за выбранный результат.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Directive</t>
@@ -665,7 +665,7 @@
     <t>&lt;fs=62&gt;СТАНДАРТИЗАЦИЯ ВООРУЖЁННЫХ СИЛ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=53&gt;&lt;fs=35&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=42&gt;&lt;br&gt;&lt;br&gt;&lt;ls=53&gt;&lt;fs=35&gt;&lt;ac&gt;Выбранный игрок перераспределяет жетоны приказов на своём планшете приказов так, чтобы в его тактическом резерве было 3 жетона, резерве флота — 3 жетона, а в стратегическом резерве — 2 жетона. Недостающие жетоны берутся из снабжения, лишние — возвращаются в снабжение. Затем выбранный игрок смотрит карты обещаний на руке другого игрока, который отдал за него больше всего голосов, и забирает 1 из этих карт себе.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=53&gt;&lt;fs=35&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=42&gt;&lt;br&gt;&lt;br&gt;&lt;ls=53&gt;&lt;fs=35&gt;&lt;ac&gt;Выбранный игрок перераспределяет жетоны приказов на своём планшете приказов так, чтобы в его тактическом резерве было 3 жетона, резерве&lt;br&gt;флота — 3 жетона, а в стратегическом резерве — 2 жетона. Недостающие жетоны берутся из снабжения,&lt;br&gt;лишние — возвращаются в снабжение.&lt;ls=42&gt;&lt;br&gt;&lt;br&gt;&lt;ls=53&gt;Затем выбранный игрок смотрит карты обещаний на руке другого игрока, который отдал за него больше всего голосов, и забирает 1 из этих карт себе.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ПРАВИЛА ВЕДЕНИЯ ВОЙНЫ&lt;/fs&gt;</t>
@@ -683,7 +683,7 @@
     <t>&lt;fs=62&gt;ДОГОВОР О РАЗОРУЖЕНИИ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; каждый игрок оставляет себе до 2 дредноутов и до 4 крейсеров и уничтожает все остальные свои отряды этих типов. Игрок, который отдал больше всего голосов «за», помещает жетон приказа из своего снабжения в свой стратегический резерв.&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; в начале следующей фазы стратегии каждый игрок переворачивает каждую свою планету с технологической специализацией. Игрок, который отдал больше всего голосов «против», может исследовать технологию улучшения.&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; каждый игрок оставляет себе до 2 дредноутов и до 4 крейсеров и уничтожает все остальные свои отряды этих типов. Игрок, который отдал больше всего голосов «за», помещает жетон приказа из своего снабжения в свой стратегический резерв.&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; в начале следующей фазы стратегии каждый игрок переворачивает все свои карты планет с технологической специализацией. Игрок, который отдал больше всего голосов «против», может исследовать технологию улучшения.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ВОЕННЫЙ УСТАВ&lt;/fs&gt;</t>
@@ -695,7 +695,99 @@
     <t>&lt;fs=62&gt;ДИСКРЕЦИОННЫЕ РАСХОДЫ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; все игроки получают товары, равные количеству планет, которые они контролируют. Игрок, который отдал больше всего голосов «за», пополняет свою продукцию. В порядке голосования все игроки могут потратить любое количество товаров следующим образом, заплатив указанную цену: используйте способность &lt;push=0;8&gt;&lt;f=Russo One;26&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-8&gt; отрядов в системе (общая цена); исследуйте до 2 технологий (4 за каждую); разместите сооружение на подконтрольную этому игроку планету (3); возьмите 2 карты действий (1); разведайте подконтрольную планету или жетон пограничья в системе, в которой есть корабли этого игрока (1).&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; все игроки, кроме игрока, который отдал больше всего голосов «против», теряют половину своих товаров (с округлением вверх).&lt;/fs&gt;</t>
+    <r>
+      <t>&lt;ls=45&gt;&lt;fs=30&gt;&lt;f=Myriad Pro Light;30;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; все игроки получают товары, равные количеству планет, которые они контролируют. Игрок, который отдал больше всего голосов «за», пополняет свою продукцию. В порядке голосования все игроки могут потратить любое количество товаров следующим образом, заплатив указанную цену:&lt;ls=36&gt;&lt;br&gt;&lt;br&gt;&lt;ls=45&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> используйте способность &lt;push=0;9&gt;&lt;f=Russo One;24&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-9&gt; отрядов в системе (общая цена);&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> исследуйте до 2 технологий (4 за каждую);&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> разместите сооружение на подконтрольную этому игроку планету (3);&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> возьмите 2 карты действий (1);&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> разведайте подконтрольную планету или жетон пограничья в системе, в которой есть корабли этого игрока (1).&lt;/fs&gt;&lt;ls=36&gt;&lt;br&gt;&lt;br&gt;&lt;ls=45&gt;&lt;fs=30&gt;&lt;f=Myriad Pro Light;30;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; все игроки, кроме игрока, который отдал больше всего голосов «против», теряют половину своих товаров (с округлением вверх).&lt;/fs&gt;</t>
+    </r>
   </si>
   <si>
     <t>&lt;fs=62&gt;ЭКОНОМИЧЕСКОЕ РАВЕНСТВО&lt;/fs&gt;</t>
@@ -707,7 +799,7 @@
     <t>&lt;fs=62&gt;СДЕРЖКИ И ПРОТИВОВЕСЫ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; игрок, который отдал больше всего голосов «за», помещает жетон контроля на эту карту. Когда игрок выбирает карту стратегии во время фазы стратегии, он отдаёт эту карту стратегии другому игроку, у которого её нет, при возможности (или игроку, у которого нет 2 карт, в игре на трёх или четырёх игроков). Если у игрока, чей жетон контроля находится на этой карте, в момент выбора карты стратегии нет карты стратегии, он может сбросить этот жетон, чтобы оставить выбранную карту стратегии себе.&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; уберите все жетоны контроля с общих целей и перемешайте все выполненные секретные цели обратно в колоду. Игроки не получают и не теряют победные очки в результате этого.&lt;/fs&gt;</t>
+    <t>&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; игрок, который отдал больше всего голосов «за», помещает жетон контроля на эту карту. Когда игрок выбирает карту стратегии во время фазы стратегии, он отдаёт эту карту стратегии другому игроку, у которого её нет, при возможности (или нет 2 карт при игре втроём или вчетвером). Если у игрока, чей жетон контроля находится на этой карте, в момент выбора карты стратегии нет карты стратегии, он может сбросить этот жетон, чтобы оставить выбранную карту стратегии себе.&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;f=Myriad Pro Light;32;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; уберите все жетоны контроля с общих целей и перемешайте все выполненные секретные цели обратно в колоду. Игроки не получают и не теряют победные очки в результате этого.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ТАЙНЫЕ ОПЕРАЦИИ&lt;/fs&gt;</t>
@@ -725,7 +817,7 @@
     <t>&lt;fs=62&gt;ВНЕОЧЕРЕДНОЕ ЗАСЕДАНИЕ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Когда раскрыта эта карта политики, выложите её в общую игровую зону. Эта карта не является картой политики, и игроки не голосуют по этой карте.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;За каждую карту «Внеочередное заседание» в общей игровой зоне игроки голосуют по 1 дополнительной карте политики во время фазы политики. В конце фазы политики сбросьте все карты «Внеочередное заседание», находящиеся в игре.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Когда раскрыта эта карта политики, выложите её в общую игровую зону. Эта карта не является картой политики, и игроки не голосуют по этой карте.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;За каждую карту «Внеочередное заседание» в общей игровой зоне игроки голосуют по 1 дополни-&lt;br&gt;тельной карте политики во время фазы политики. В конце фазы политики сбросьте все карты «Внеочередное заседание», находящиеся в игре.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;    УТЕЧКА     ЗАСЕКРЕЧЕННЫХ ДОКУМЕНТОВ&lt;/fs&gt;</t>
@@ -749,19 +841,19 @@
     <t>&lt;fs=62&gt;ОГРАНИЧЕНИЕ ПОЛНОМОЧИЙ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; поместите жетон контроля игрока, который отдал больше всего голосов «за», на эту карту. У каждого игрока на руке может быть не более 3 карт действий. У игрока, чей жетон контроля находится на этой карте, на руке может быть не более 5 карт действий.&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; игрок, который отдал больше всего голосов «против», берёт 5 карт действий.&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; поместите жетон контроля игрока, который отдал больше всего голосов «за», на эту карту.&lt;br&gt;У каждого игрока на руке может быть не более 3 карт действий.&lt;br&gt;У игрока, чей жетон контроля находится на этой карте, на руке может быть не более 5 карт действий.&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; игрок, который отдал больше всего голосов «против», берёт 5 карт действий.&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;МИНИСТР ДРЕВНОСТЕЙ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Экспансия», не тратя жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Всякий раз, когда владелец этой карты должен взять секретную цель, он может потратить жетон приказа из своего стратегического резерва, чтобы вместо этого взять реликвию.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Экспансия», не тратя&lt;br&gt;жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Всякий раз, когда владелец этой карты должен взять секретную цель, он может потратить жетон приказа из своего стратегического резерва, чтобы вместо этого&lt;br&gt;взять реликвию.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;МИНИСТР ТОРГОВЛИ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Торговля», не тратя жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Всякий раз, когда владелец этой карты пополняет свою продукцию, он получает 1 товар за каждого игрока, который является его соседом.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Торговля», не тратя&lt;br&gt;жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Всякий раз, когда владелец этой карты пополняет свою продукцию, он получает 1 товар за каждого игрока, который является&lt;br&gt;его соседом.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;РЕГУЛИРОВАНИЕ     ФЛОТА    &lt;/fs&gt;</t>
@@ -785,7 +877,7 @@
     <t>&lt;fs=62&gt;МИНИСТР ПРОМЫШЛЕННОСТИ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Строительство», не тратя и не размещая жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Владелец этой карты удваивает значение производства своих баз.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способ-&lt;br&gt;ность карты стратегии «Строительство», не тратя и не размещая жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Владелец этой карты удваивает значение производства своих баз.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;АКТ О ЗАЩИТЕ     РОДИНЫ    &lt;/fs&gt;</t>
@@ -803,19 +895,19 @@
     <t>&lt;fs=62&gt;МИНИСТР МИРА&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Дипломатия», не тратя жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;После того, как игрок активирует систему, в которых есть хотя бы 1 отряд другого игрока, владелец этой карты может потратить жетон приказа из своего стратегического резерва и отдать активному игроку карту обещания с руки, чтобы немедленно завершить ход активного игрока.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Дипломатия», не тратя&lt;br&gt;жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;После того, как игрок активирует систему, в которых есть хотя бы 1 отряд другого игрока, владелец этой карты может потратить жетон приказа из своего стратегического резерва и отдать активному игроку карту обещания с руки, чтобы немедленно завершить ход активного игрока.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;МИНИСТР ПОЛИТИКИ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Политика», не тратя жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;Игроки больше не берут карты действий в фазе статуса. Вместо этого владелец этой карты берёт количество карт действий, равное количеству игроков +1, оставляет 2 из них себе, затем отдаёт по 1 выбранной карте каждому другому игроку. Игроки с технологиями или способностями, которые увеличивают количество взятых карт действий, могут затем использовать эти способности, чтобы взять дополнительные карты, как обычно.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Политика», не тратя&lt;br&gt;жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=38&gt;&lt;br&gt;&lt;br&gt;&lt;ls=48&gt;&lt;fs=32&gt;&lt;ac&gt;Игроки больше не берут карты действий в фазе статуса. Вместо этого владелец этой карты берёт количество карт действий, равное количеству игроков +1, оставляет 2 из них себе, затем отдаёт по 1 выбранной карте каждому другому игроку. Игроки с технологиями или способностями, которые увеличивают количество взятых карт действий, могут затем использовать эти способности, чтобы взять дополнительные карты, как обычно.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ИМПЕРСКИЙ АРБИТР&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту и отдаёт каждому другому игроку, проголосовавшему за него, 1 карту обещания с руки в порядке убывания голосов (при возможности).&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;В начале фазы действий владелец этой карты может потратить 1 жетон приказа из своего стратегического резерва и до 8 влияния, чтобы поменять 1 из своих карт стратегии на карту стратегии со значением инициативы, равным потраченному влиянию.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту и отдаёт каждому другому игроку, проголосовавшему за него, 1 карту обещания с руки в порядке убывания голосов&lt;br&gt;(при возможности).&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;В начале фазы действий владелец этой карты может потратить&lt;br&gt;1 жетон приказа из своего стратегического резерва и до 8 влияния, чтобы поменять 1  из своих карт стратегии на карту стратегии со значением инициативы, равным потраченному влиянию.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ПРОГРАММА СТИМУЛИРОВАНИЯ&lt;/fs&gt;</t>
@@ -827,7 +919,7 @@
     <t>&lt;fs=62&gt;МИНИСТР НАУКИ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Исследование», не тратя жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Владельцу этой карты не нужно тратить ресурсы для исследования технологий при использовании карты стратегии «Исследование».&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты может использовать второстепенную способность карты стратегии «Исследование», не тратя&lt;br&gt;жетон приказа.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Владельцу этой карты не нужно тратить ресурсы для исследования технологий при использовании карты стратегии «Исследование».&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;МИНИСТР ВОЙНЫ&lt;/fs&gt;</t>
@@ -878,13 +970,13 @@
     <t>&lt;fs=62&gt;ГАЛАКТИЧЕСКИЙ     СЕНАТ    &lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=53&gt;&lt;fs=35&gt;&lt;f=Myriad Pro Light;35;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; игрок, который отдал больше всего голосов «за», получает жетон председателя. Игроки не могут переворачивать карты планет, чтобы голосовать во время фазы политики; теперь каждый игрок может отдать только 1 голос по каждой карте политики. Игрок, который контролирует Мекатол-Рекс, вместо этого может отдать 2 голоса по каждой карте политики. Игроки не могут отдавать дополнительные голоса.&lt;/fs&gt;&lt;ls=42&gt;&lt;br&gt;&lt;br&gt;&lt;ls=53&gt;&lt;fs=35&gt;&lt;f=Myriad Pro Light;35;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; в начале следующей фазы стратегии каждый игрок, проголосовавший «против» или воздержавшийся, переворачивает все свои культурные планеты и не может выбрать карту стратегии «Политика» (при возможности).&lt;/fs&gt;</t>
+    <t>&lt;ls=53&gt;&lt;fs=35&gt;&lt;f=Myriad Pro Light;35;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; игрок, который отдал больше всего голосов «за», получает жетон председателя. Игроки не могут переворачивать карты планет, чтобы голосовать во время фазы политики; теперь каждый игрок может отдать только 1 голос по каждой карте политики. Игрок, который контролирует Мекатол-Рекс, вместо этого может отдать 2 голоса по каждой карте политики. Игроки не могут отдавать дополнительные голоса.&lt;/fs&gt;&lt;ls=42&gt;&lt;br&gt;&lt;br&gt;&lt;ls=53&gt;&lt;fs=35&gt;&lt;f=Myriad Pro Light;35;1;0;1;0&gt;&lt;push=-43;0&gt;Против:&lt;/f&gt; в начале следующей фазы стратегии каждый игрок, проголосовавший «против» или воздержавшийся, переворачивает карты всех своих культурных планет и не может выбрать карту стратегии «Политика» (при возможности).&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;ПЕРЕРАСПРЕДЕЛЕНИЕ     ГРАНТА    &lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Выбранный игрок исследует 1 любую нефракционную технологию. Игрок, который отдал больше всего голосов за выбранного игрока, может получить эту технологию, заплатив 2 товара за каждое требование на этой технологии.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;&lt;fs=50&gt;&lt;ac&gt;Выбранный игрок исследует 1 любую нефракционную технологию. &lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;ls=75&gt;Игрок, который отдал больше всего голосов за выбранного игрока, может получить эту технологию, заплатив 2 товара за каждое требование на этой технологии.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=HandelGothic TL;62&gt;PAX MAGNIFICA, BELLUM GLORIOSUM&lt;/f&gt;</t>
@@ -902,7 +994,7 @@
     <t>&lt;fs=62&gt;ОРДЕР НА ОБЫСК&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Поместите жетон контроля невыбранного игрока, который отдал больше всего голосов за выбранного игрока, на эту карту. Выбранный игрок получает эту карту и берёт 4 секретные цели.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Владелец этой карты держит все свои карты секретных целей в открытую. Когда владелец этой карты должен сбросить секретную цель, вместо этого игрок, чей жетон контроля находится на этой карте, может взять эту секретную цель.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Поместите жетон контроля невыбранного игрока, который отдал больше всего голосов за выбранного игрока, на эту карту. Выбранный игрок получает эту карту и берёт 4 секретные цели.&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Владелец этой карты держит все свои карты секретных целей в открытую. Когда владелец этой карты должен сбросить секретную цель, вместо этого игрок, чей жетон контроля находится на этой карте, может взять эту&lt;br&gt;секретную цель.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;РОСТКИ ИМПЕРИИ&lt;/fs&gt;</t>
@@ -920,7 +1012,7 @@
     <t>&lt;fs=62&gt;ПРОРОЧЕСТВО ОБ     ИКСТЕ    &lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты добавляет +1 к результатам боевых проверок своих истребителей. Попадания, нанесённые истребителями, должны быть присвоены к любым кораблям, кроме истребителей (при возможности). Когда владелец этой карты использует способность &lt;push=0;12&gt;&lt;f=Russo One;32&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-12&gt;, он сбрасывает эту карту, если он не производит 2 или более истребителей.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Выбранный игрок получает эту карту. Владелец этой карты добавляет +1 к результатам боевых проверок своих истребителей. Попадания, нанесённые истребителями, должны быть присвоены любым кораблям, кроме истребителей (при возможности).&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;Когда владелец этой карты использует способность &lt;push=0;12&gt;&lt;f=Russo One;32&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-12&gt;, он сбрасывает эту карту, если он не производит хотя бы 2 истребителя.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;СОВМЕСТНЫЕ ИССЛЕДОВАНИЯ&lt;/fs&gt;</t>
@@ -938,7 +1030,7 @@
     <t>&lt;fs=62&gt;ПУБЛИЧНАЯ КАЗНЬ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Игрок, который отдал больше всего голосов за выбранного игрока, смотрит карты действий на руке выбранного игрока и забирает до 2 из этих карт себе. Выбранный игрок сбрасывает все свои карты действий и переворачивает все свои планеты. Если у него есть жетон председателя, он отдаёт его игроку, который отдал за него больше всего голосов.&lt;/ac&gt;&lt;/fs&gt;</t>
+    <t>&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;&lt;b&gt;Выберите игрока.&lt;/b&gt;&lt;/ac&gt;&lt;/fs&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;&lt;fs=40&gt;&lt;ac&gt;Игрок, который отдал больше всего голосов за выбранного игрока, смотрит карты действий на руке выбранного игрока и забирает до 2 из этих карт себе.&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;ls=60&gt;Выбранный игрок сбрасывает все свои карты действий и переворачивает все свои карты планет. Если у него есть жетон председателя, он отдаёт его игроку, который отдал за него больше всего голосов.&lt;/ac&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=62&gt;РАСКРЫТИЕ ВОЕННЫХ ЧЕРТЕЖЕЙ&lt;/fs&gt;</t>
@@ -5137,7 +5229,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5313,6 +5405,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -16714,9 +16812,9 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F60"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -16969,7 +17067,7 @@
       <c r="E13" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>215</v>
       </c>
     </row>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="Technologies" sheetId="23" r:id="rId19"/>
     <sheet name="Combat Summary" sheetId="27" r:id="rId20"/>
     <sheet name="Combat Summary_defines" sheetId="28" r:id="rId21"/>
-    <sheet name="Ending Strategy" sheetId="30" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3996" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="1647">
   <si>
     <t>Count</t>
   </si>
@@ -696,6 +695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;ls=45&gt;&lt;fs=30&gt;&lt;f=Myriad Pro Light;30;1;0;1;0&gt;&lt;push=-43;0&gt;За:&lt;/f&gt; все игроки получают товары, равные количеству планет, которые они контролируют. Игрок, который отдал больше всего голосов «за», пополняет свою продукцию. В порядке голосования все игроки могут потратить любое количество товаров следующим образом, заплатив указанную цену:&lt;ls=36&gt;&lt;br&gt;&lt;br&gt;&lt;ls=45&gt;</t>
     </r>
     <r>
@@ -5082,141 +5087,6 @@
   </si>
   <si>
     <t>@[CombatImage,PDS,{1}]</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Primary Ability</t>
-  </si>
-  <si>
-    <t>Secondary Ability</t>
-  </si>
-  <si>
-    <t>Images\Ending Strategy\Strategy_Front.png</t>
-  </si>
-  <si>
-    <t>TAKEN</t>
-  </si>
-  <si>
-    <t>Choose an opponent to gain 4 Trade Goods; then, take the chosen opponent's Ending Strategy card.  You may play the taken Ending Strategy card at the appropriate time.</t>
-  </si>
-  <si>
-    <t>You may draw another Ending Strategy card and choose to immediately play the Primary Ability of the drawn Ending Strategy Card.</t>
-  </si>
-  <si>
-    <t>ec1c24</t>
-  </si>
-  <si>
-    <t>LEADERSHIP</t>
-  </si>
-  <si>
-    <t>Gain up to 2 command tokens from your reinforcements; then, choose an opponent to immediately gain up to 1 command token from their reinforcements.</t>
-  </si>
-  <si>
-    <t>You may gain up to 1 command token from your reinforcements.</t>
-  </si>
-  <si>
-    <t>f69421</t>
-  </si>
-  <si>
-    <t>DIPLOMACY</t>
-  </si>
-  <si>
-    <t>Choose a player to immediately remove one of their command tokens from either their Tactics Pool, Fleet Pool, or Strategy Pool.  If the chosen player won a space combat against you since the previous Strategy Phase, gain 1 command token from your reinforcements.</t>
-  </si>
-  <si>
-    <t>If the chosen player has a command token on Mecatol Rex, gain 1 command token from your reinforcements.</t>
-  </si>
-  <si>
-    <t>fff200</t>
-  </si>
-  <si>
-    <t>POLITICS</t>
-  </si>
-  <si>
-    <t>Give the Speaker 2 action cards; if you do, become the Speaker.</t>
-  </si>
-  <si>
-    <t>Draw 1 action card.</t>
-  </si>
-  <si>
-    <t>39b54a</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION</t>
-  </si>
-  <si>
-    <t>Place a Space Dock on an unexhausted planet you control; then, PRODUCE up to 1 unit at the newly placed Space Dock.</t>
-  </si>
-  <si>
-    <t>Place a PDS on a planet you control; or, PRODUCE up to 1 unit at one of your space docks.</t>
-  </si>
-  <si>
-    <t>00a99d</t>
-  </si>
-  <si>
-    <t>TRADE</t>
-  </si>
-  <si>
-    <t>Gain Trade Goods equal to your faction commodity count; then, choose another player to immediately refresh their commodities.</t>
-  </si>
-  <si>
-    <t>Replenish your commodities.</t>
-  </si>
-  <si>
-    <t>008ed4</t>
-  </si>
-  <si>
-    <t>WARFARE</t>
-  </si>
-  <si>
-    <t>Remove up to 1 command token from the game board; then, gain 1 command token.  Choose another player to PRODUCE up to 1 unit in their home system, with the cost reduced by 2.</t>
-  </si>
-  <si>
-    <t>You may PRODUCE up to 3 units in your home system.</t>
-  </si>
-  <si>
-    <t>15489f</t>
-  </si>
-  <si>
-    <t>TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>Choose another player with an unresearched faction technology.  You may gain up to one of your faction technologies.  The chosen player may gain up to one of their faction technologies.</t>
-  </si>
-  <si>
-    <t>You may spend 5 resources to research 1 technology.</t>
-  </si>
-  <si>
-    <t>752b90</t>
-  </si>
-  <si>
-    <t>IMPERIAL</t>
-  </si>
-  <si>
-    <t>Choose another player.  You and the chosen player may each draw another secret objective.</t>
-  </si>
-  <si>
-    <t>Draw 1 secret objective.</t>
-  </si>
-  <si>
-    <t>FFFFFF</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>Spend 6 influence plus 3 influence or resources, to place the custodians token back on Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>Take 1 promissory note at random from the player in control of Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>Images\Ending Strategy\Strategy_Back.png</t>
   </si>
 </sst>
 </file>
@@ -5885,13 +5755,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6248,1246 +6117,1246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="13" customWidth="1"/>
-    <col min="7" max="10" width="9" style="11"/>
-    <col min="11" max="12" width="9" style="12"/>
-    <col min="13" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="12" customWidth="1"/>
+    <col min="7" max="10" width="9" style="10"/>
+    <col min="11" max="12" width="9" style="11"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14">
-        <v>1</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14">
-        <v>1</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14">
-        <v>1</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
-        <v>1</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14">
-        <v>1</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14">
-        <v>1</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14">
-        <v>1</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14">
-        <v>1</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14">
-        <v>1</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14">
-        <v>1</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="13">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14">
-        <v>1</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14">
-        <v>1</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14">
-        <v>1</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14">
-        <v>1</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14">
-        <v>1</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14">
-        <v>1</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="13">
+        <v>1</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14">
-        <v>1</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14">
-        <v>1</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14">
-        <v>1</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14">
-        <v>1</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14">
-        <v>1</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="13">
+        <v>1</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14">
-        <v>1</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14">
-        <v>1</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="13">
+        <v>1</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14">
-        <v>1</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14">
-        <v>1</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="13">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14">
-        <v>1</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="13">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14">
-        <v>1</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="13">
+        <v>1</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14">
-        <v>1</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14">
-        <v>1</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="13">
+        <v>1</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14">
-        <v>1</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14">
-        <v>1</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="13">
+        <v>1</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14">
-        <v>1</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="13">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="14">
-        <v>1</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="13">
+        <v>1</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14">
-        <v>1</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14">
-        <v>1</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="13">
+        <v>1</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14">
-        <v>1</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14">
-        <v>1</v>
-      </c>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="13">
+        <v>1</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14">
-        <v>1</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="13">
+        <v>1</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14">
-        <v>1</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="13">
+        <v>1</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14">
-        <v>1</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="13">
+        <v>1</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14">
-        <v>1</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="13">
+        <v>1</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14">
-        <v>1</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="13">
+        <v>1</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14">
-        <v>1</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="13">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8022,7 +7891,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8057,7 +7926,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8092,10 +7961,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>939</v>
       </c>
     </row>
@@ -8127,7 +7996,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8162,7 +8031,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8197,7 +8066,7 @@
       <c r="L7" t="s">
         <v>948</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8312,7 +8181,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C2">
@@ -8365,7 +8234,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C3">
@@ -8415,7 +8284,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C4">
@@ -8465,7 +8334,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C5">
@@ -8512,7 +8381,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C6">
@@ -8562,7 +8431,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C7">
@@ -8609,7 +8478,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C8">
@@ -8656,7 +8525,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C9">
@@ -8706,7 +8575,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C10">
@@ -8753,7 +8622,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C11">
@@ -8800,7 +8669,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C12">
@@ -8850,7 +8719,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C13">
@@ -9078,7 +8947,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C2">
@@ -9125,7 +8994,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C3">
@@ -9169,7 +9038,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C4">
@@ -9213,7 +9082,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C5">
@@ -9260,7 +9129,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C6">
@@ -9304,7 +9173,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C7">
@@ -9348,7 +9217,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C8">
@@ -9392,7 +9261,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C9">
@@ -9439,7 +9308,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C10">
@@ -9486,7 +9355,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C11">
@@ -9533,7 +9402,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C12">
@@ -9580,7 +9449,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C13">
@@ -9627,7 +9496,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C14">
@@ -9671,7 +9540,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C15">
@@ -9715,7 +9584,7 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C16">
@@ -9762,7 +9631,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C17">
@@ -9809,7 +9678,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C18">
@@ -9853,7 +9722,7 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C19">
@@ -9897,7 +9766,7 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C20">
@@ -9944,7 +9813,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C21">
@@ -9988,7 +9857,7 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C22">
@@ -10032,7 +9901,7 @@
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C23">
@@ -10076,7 +9945,7 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C24">
@@ -10120,7 +9989,7 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C25">
@@ -10164,7 +10033,7 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C26">
@@ -10208,7 +10077,7 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C27">
@@ -10255,7 +10124,7 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C28">
@@ -10299,7 +10168,7 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C29">
@@ -10343,7 +10212,7 @@
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C30">
@@ -10387,7 +10256,7 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C31">
@@ -10431,7 +10300,7 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C32">
@@ -10475,7 +10344,7 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C33">
@@ -10519,7 +10388,7 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C34">
@@ -10563,7 +10432,7 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C35">
@@ -10607,7 +10476,7 @@
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C36">
@@ -10651,7 +10520,7 @@
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C37">
@@ -10695,7 +10564,7 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C38">
@@ -10745,7 +10614,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C39">
@@ -10789,7 +10658,7 @@
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C40">
@@ -10833,7 +10702,7 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C41">
@@ -10880,7 +10749,7 @@
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C42">
@@ -10927,7 +10796,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C43">
@@ -10971,7 +10840,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C44">
@@ -11018,7 +10887,7 @@
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C45">
@@ -11062,7 +10931,7 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C46">
@@ -11106,7 +10975,7 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C47">
@@ -11150,7 +11019,7 @@
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C48">
@@ -11194,7 +11063,7 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C49">
@@ -11238,7 +11107,7 @@
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C50">
@@ -11288,7 +11157,7 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C51">
@@ -11332,7 +11201,7 @@
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C52">
@@ -11376,7 +11245,7 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C53">
@@ -11420,7 +11289,7 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C54">
@@ -11464,7 +11333,7 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C55">
@@ -11508,7 +11377,7 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C56">
@@ -11558,7 +11427,7 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C57">
@@ -11605,7 +11474,7 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C58">
@@ -11655,7 +11524,7 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C59">
@@ -11699,7 +11568,7 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C60">
@@ -11743,7 +11612,7 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C61">
@@ -11787,7 +11656,7 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C62">
@@ -11831,7 +11700,7 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C63">
@@ -11875,7 +11744,7 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C64">
@@ -11919,7 +11788,7 @@
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C65">
@@ -11963,7 +11832,7 @@
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C66">
@@ -12007,7 +11876,7 @@
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C67">
@@ -12051,7 +11920,7 @@
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C68">
@@ -12095,7 +11964,7 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C69">
@@ -12139,7 +12008,7 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C70">
@@ -12183,7 +12052,7 @@
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C71">
@@ -12227,7 +12096,7 @@
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C72">
@@ -12271,7 +12140,7 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C73">
@@ -12315,7 +12184,7 @@
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C74">
@@ -12359,7 +12228,7 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C75">
@@ -12403,7 +12272,7 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C76">
@@ -12447,7 +12316,7 @@
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C77">
@@ -12491,7 +12360,7 @@
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C78">
@@ -12535,7 +12404,7 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C79">
@@ -12579,7 +12448,7 @@
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C80">
@@ -12623,7 +12492,7 @@
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C81">
@@ -12667,7 +12536,7 @@
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C82">
@@ -12711,7 +12580,7 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C83">
@@ -12758,7 +12627,7 @@
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C84">
@@ -12805,7 +12674,7 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C85">
@@ -12852,7 +12721,7 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C86">
@@ -12896,7 +12765,7 @@
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C87">
@@ -12940,7 +12809,7 @@
       <c r="A88">
         <v>1</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C88">
@@ -12984,7 +12853,7 @@
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C89">
@@ -13028,7 +12897,7 @@
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C90">
@@ -13072,7 +12941,7 @@
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C91">
@@ -13116,7 +12985,7 @@
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C92">
@@ -13160,7 +13029,7 @@
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C93">
@@ -13204,7 +13073,7 @@
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C94">
@@ -13248,7 +13117,7 @@
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C95">
@@ -13292,7 +13161,7 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C96">
@@ -13339,7 +13208,7 @@
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C97">
@@ -13383,7 +13252,7 @@
       <c r="A98">
         <v>1</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C98">
@@ -13430,7 +13299,7 @@
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="18" t="s">
         <v>966</v>
       </c>
       <c r="C99">
@@ -15340,7 +15209,7 @@
       <c r="E6" t="s">
         <v>1495</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -15626,7 +15495,7 @@
       <c r="L3" t="s">
         <v>1536</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q3" t="s">
@@ -15851,13 +15720,13 @@
       <c r="J9" t="s">
         <v>1555</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="18" t="s">
         <v>1556</v>
       </c>
       <c r="Q9" t="s">
@@ -15919,13 +15788,13 @@
       <c r="J10" t="s">
         <v>1559</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>1560</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="18" t="s">
         <v>1561</v>
       </c>
       <c r="Q10" t="s">
@@ -16045,10 +15914,10 @@
       <c r="J13" t="s">
         <v>806</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="18" t="s">
         <v>749</v>
       </c>
       <c r="Q13" t="s">
@@ -16098,10 +15967,10 @@
       <c r="M14" t="s">
         <v>1569</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q14" t="s">
@@ -16154,10 +16023,10 @@
       <c r="M15" t="s">
         <v>1569</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q15" t="s">
@@ -16207,10 +16076,10 @@
       <c r="M16" t="s">
         <v>1569</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q16" t="s">
@@ -16257,10 +16126,10 @@
       <c r="M17" t="s">
         <v>1569</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q17" t="s">
@@ -16310,10 +16179,10 @@
       <c r="M18" t="s">
         <v>1569</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q18" t="s">
@@ -16363,10 +16232,10 @@
       <c r="M19" t="s">
         <v>1569</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q19" t="s">
@@ -16407,10 +16276,10 @@
       <c r="M20" t="s">
         <v>1569</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q20" t="s">
@@ -16457,10 +16326,10 @@
       <c r="M21" t="s">
         <v>1569</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q21" t="s">
@@ -16507,10 +16376,10 @@
       <c r="M22" t="s">
         <v>1569</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q22" t="s">
@@ -16557,10 +16426,10 @@
       <c r="M23" t="s">
         <v>1569</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q23" t="s">
@@ -16607,10 +16476,10 @@
       <c r="M24" t="s">
         <v>1569</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q24" t="s">
@@ -16663,10 +16532,10 @@
       <c r="M25" t="s">
         <v>1569</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q25" t="s">
@@ -16713,10 +16582,10 @@
       <c r="M26" t="s">
         <v>1569</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="18" t="s">
         <v>735</v>
       </c>
       <c r="Q26" t="s">
@@ -16772,10 +16641,10 @@
       <c r="J27" t="s">
         <v>1576</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="18" t="s">
         <v>1577</v>
       </c>
       <c r="Q27" t="s">
@@ -16811,7 +16680,7 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
@@ -16858,7 +16727,7 @@
       <c r="B3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -16867,7 +16736,7 @@
       <c r="E3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>193</v>
       </c>
     </row>
@@ -16878,7 +16747,7 @@
       <c r="B4" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -16887,7 +16756,7 @@
       <c r="E4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16898,7 +16767,7 @@
       <c r="B5" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -16907,7 +16776,7 @@
       <c r="E5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -16918,7 +16787,7 @@
       <c r="B6" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -16927,18 +16796,18 @@
       <c r="E6" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -16947,18 +16816,18 @@
       <c r="E7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -16967,18 +16836,18 @@
       <c r="E8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -16987,7 +16856,7 @@
       <c r="E9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -16998,7 +16867,7 @@
       <c r="B10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -17007,7 +16876,7 @@
       <c r="E10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -17018,7 +16887,7 @@
       <c r="B11" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -17027,18 +16896,18 @@
       <c r="E11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -17047,18 +16916,18 @@
       <c r="E12" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -17078,7 +16947,7 @@
       <c r="B14" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -17087,18 +16956,18 @@
       <c r="E14" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -17107,7 +16976,7 @@
       <c r="E15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -17118,7 +16987,7 @@
       <c r="B16" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -17127,7 +16996,7 @@
       <c r="E16" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -17138,7 +17007,7 @@
       <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -17147,7 +17016,7 @@
       <c r="E17" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -17158,7 +17027,7 @@
       <c r="B18" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -17167,7 +17036,7 @@
       <c r="E18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17178,7 +17047,7 @@
       <c r="B19" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -17187,18 +17056,18 @@
       <c r="E19" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -17207,7 +17076,7 @@
       <c r="E20" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17218,7 +17087,7 @@
       <c r="B21" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -17227,7 +17096,7 @@
       <c r="E21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17238,7 +17107,7 @@
       <c r="B22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -17247,7 +17116,7 @@
       <c r="E22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17258,7 +17127,7 @@
       <c r="B23" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -17267,7 +17136,7 @@
       <c r="E23" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -17278,7 +17147,7 @@
       <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -17287,7 +17156,7 @@
       <c r="E24" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -17298,7 +17167,7 @@
       <c r="B25" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -17307,7 +17176,7 @@
       <c r="E25" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -17318,7 +17187,7 @@
       <c r="B26" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -17327,18 +17196,18 @@
       <c r="E26" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -17347,7 +17216,7 @@
       <c r="E27" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -17358,7 +17227,7 @@
       <c r="B28" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -17367,18 +17236,18 @@
       <c r="E28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -17387,7 +17256,7 @@
       <c r="E29" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>249</v>
       </c>
     </row>
@@ -17398,7 +17267,7 @@
       <c r="B30" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -17407,18 +17276,18 @@
       <c r="E30" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -17427,7 +17296,7 @@
       <c r="E31" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -17438,7 +17307,7 @@
       <c r="B32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -17447,7 +17316,7 @@
       <c r="E32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>255</v>
       </c>
     </row>
@@ -17458,7 +17327,7 @@
       <c r="B33" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -17467,7 +17336,7 @@
       <c r="E33" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -17478,7 +17347,7 @@
       <c r="B34" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -17487,7 +17356,7 @@
       <c r="E34" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>259</v>
       </c>
     </row>
@@ -17498,7 +17367,7 @@
       <c r="B35" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -17507,18 +17376,18 @@
       <c r="E35" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>262</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -17527,7 +17396,7 @@
       <c r="E36" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>264</v>
       </c>
     </row>
@@ -17538,7 +17407,7 @@
       <c r="B37" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -17547,7 +17416,7 @@
       <c r="E37" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -17558,7 +17427,7 @@
       <c r="B38" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -17567,18 +17436,18 @@
       <c r="E38" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -17587,18 +17456,18 @@
       <c r="E39" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -17607,7 +17476,7 @@
       <c r="E40" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -17618,7 +17487,7 @@
       <c r="B41" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -17627,18 +17496,18 @@
       <c r="E41" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -17647,18 +17516,18 @@
       <c r="E42" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -17667,18 +17536,18 @@
       <c r="E43" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -17687,7 +17556,7 @@
       <c r="E44" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>280</v>
       </c>
     </row>
@@ -17698,7 +17567,7 @@
       <c r="B45" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -17707,7 +17576,7 @@
       <c r="E45" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -17718,7 +17587,7 @@
       <c r="B46" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -17727,7 +17596,7 @@
       <c r="E46" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>284</v>
       </c>
     </row>
@@ -17738,7 +17607,7 @@
       <c r="B47" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -17747,7 +17616,7 @@
       <c r="E47" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -17758,7 +17627,7 @@
       <c r="B48" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -17767,7 +17636,7 @@
       <c r="E48" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>288</v>
       </c>
     </row>
@@ -17778,7 +17647,7 @@
       <c r="B49" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -17787,18 +17656,18 @@
       <c r="E49" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>1</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -17807,18 +17676,18 @@
       <c r="E50" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>1</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -17827,7 +17696,7 @@
       <c r="E51" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -17838,7 +17707,7 @@
       <c r="B52" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -17847,18 +17716,18 @@
       <c r="E52" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -17867,18 +17736,18 @@
       <c r="E53" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>1</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -17887,7 +17756,7 @@
       <c r="E54" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -17898,7 +17767,7 @@
       <c r="B55" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -17907,18 +17776,18 @@
       <c r="E55" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>1</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -17927,18 +17796,18 @@
       <c r="E56" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>1</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -17947,18 +17816,18 @@
       <c r="E57" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>1</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -17967,18 +17836,18 @@
       <c r="E58" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -17987,7 +17856,7 @@
       <c r="E59" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -17998,7 +17867,7 @@
       <c r="B60" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -18007,7 +17876,7 @@
       <c r="E60" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -18103,13 +17972,13 @@
       <c r="F2" t="s">
         <v>1591</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1592</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>1593</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>1594</v>
       </c>
       <c r="J2" t="s">
@@ -18153,13 +18022,13 @@
       <c r="F3" t="s">
         <v>1604</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1592</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>1605</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>1594</v>
       </c>
       <c r="J3" t="s">
@@ -18203,13 +18072,13 @@
       <c r="F4" t="s">
         <v>1610</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1592</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>1611</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>1594</v>
       </c>
       <c r="J4" t="s">
@@ -18245,7 +18114,7 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -18274,7 +18143,7 @@
       <c r="A3" t="s">
         <v>1616</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -18282,7 +18151,7 @@
       <c r="A4" t="s">
         <v>1618</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -18290,7 +18159,7 @@
       <c r="A5" t="s">
         <v>568</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -18354,7 +18223,7 @@
       <c r="A13" t="s">
         <v>1635</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>1636</v>
       </c>
     </row>
@@ -18362,7 +18231,7 @@
       <c r="A14" t="s">
         <v>736</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -18370,7 +18239,7 @@
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -18378,7 +18247,7 @@
       <c r="A16" t="s">
         <v>746</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>1639</v>
       </c>
     </row>
@@ -18386,7 +18255,7 @@
       <c r="A17" t="s">
         <v>741</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>1640</v>
       </c>
     </row>
@@ -18394,7 +18263,7 @@
       <c r="A18" t="s">
         <v>751</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -18402,7 +18271,7 @@
       <c r="A19" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -18410,7 +18279,7 @@
       <c r="A20" t="s">
         <v>762</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -18418,7 +18287,7 @@
       <c r="A21" t="s">
         <v>765</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -18426,7 +18295,7 @@
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -18434,295 +18303,8 @@
       <c r="A23" t="s">
         <v>755</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>1646</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="63.4380952380952" customWidth="1"/>
-    <col min="3" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="29.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="14.4380952380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C2">
-        <v>666666</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1669</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1681</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -18830,7 +18412,7 @@
       <c r="J3" t="s">
         <v>328</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>329</v>
       </c>
     </row>
@@ -18963,7 +18545,7 @@
       <c r="J8" t="s">
         <v>341</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>342</v>
       </c>
     </row>
@@ -18992,7 +18574,7 @@
       <c r="J9" t="s">
         <v>344</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>345</v>
       </c>
     </row>
@@ -19021,7 +18603,7 @@
       <c r="J10" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -19050,7 +18632,7 @@
       <c r="J11" t="s">
         <v>350</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -19099,7 +18681,7 @@
       <c r="J13" t="s">
         <v>354</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19226,7 +18808,7 @@
       <c r="J18" t="s">
         <v>341</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>342</v>
       </c>
     </row>
@@ -19255,7 +18837,7 @@
       <c r="J19" t="s">
         <v>344</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>345</v>
       </c>
     </row>
@@ -19284,7 +18866,7 @@
       <c r="J20" t="s">
         <v>347</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -19313,7 +18895,7 @@
       <c r="J21" t="s">
         <v>350</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -19362,7 +18944,7 @@
       <c r="J23" t="s">
         <v>358</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>359</v>
       </c>
     </row>
@@ -19489,7 +19071,7 @@
       <c r="J28" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="18" t="s">
         <v>342</v>
       </c>
     </row>
@@ -19518,7 +19100,7 @@
       <c r="J29" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="18" t="s">
         <v>345</v>
       </c>
     </row>
@@ -19547,7 +19129,7 @@
       <c r="J30" t="s">
         <v>347</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -19576,7 +19158,7 @@
       <c r="J31" t="s">
         <v>350</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -19648,7 +19230,7 @@
       <c r="J34" t="s">
         <v>366</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>367</v>
       </c>
       <c r="L34" t="s">
@@ -19790,7 +19372,7 @@
       <c r="J39" t="s">
         <v>376</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="18" t="s">
         <v>377</v>
       </c>
       <c r="L39" t="s">
@@ -20539,7 +20121,7 @@
       <c r="F2" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>439</v>
       </c>
       <c r="H2" t="s">
@@ -20565,7 +20147,7 @@
       <c r="F3" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -20752,13 +20334,13 @@
       <c r="M2" t="s">
         <v>477</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>480</v>
       </c>
       <c r="Q2" t="s">
@@ -20802,7 +20384,7 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>489</v>
       </c>
       <c r="L3" t="s">
@@ -20811,13 +20393,13 @@
       <c r="M3" t="s">
         <v>491</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>494</v>
       </c>
       <c r="Q3" t="s">
@@ -20916,7 +20498,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>512</v>
       </c>
       <c r="L6" t="s">
@@ -20925,13 +20507,13 @@
       <c r="M6" t="s">
         <v>491</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="18" t="s">
         <v>516</v>
       </c>
       <c r="Q6" t="s">
@@ -20975,7 +20557,7 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>525</v>
       </c>
       <c r="L7" t="s">
@@ -21206,10 +20788,10 @@
       <c r="N2" t="s">
         <v>578</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="18" t="s">
         <v>580</v>
       </c>
     </row>
@@ -21256,10 +20838,10 @@
       <c r="N3" t="s">
         <v>582</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="18" t="s">
         <v>580</v>
       </c>
     </row>
@@ -21306,10 +20888,10 @@
       <c r="N4" t="s">
         <v>578</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AK4" s="18" t="s">
         <v>580</v>
       </c>
     </row>
@@ -21356,10 +20938,10 @@
       <c r="N5" t="s">
         <v>582</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AK5" s="19" t="s">
+      <c r="AK5" s="18" t="s">
         <v>580</v>
       </c>
     </row>
@@ -21406,64 +20988,64 @@
       <c r="P6" t="s">
         <v>590</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AG6" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AH6" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AI6" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AJ6" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AK6" s="18" t="s">
         <v>580</v>
       </c>
       <c r="AP6" t="s">
@@ -21516,61 +21098,61 @@
       <c r="P7" t="s">
         <v>590</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z7" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AC7" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AD7" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AE7" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AF7" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AH7" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AI7" s="19" t="s">
+      <c r="AI7" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AJ7" s="18" t="s">
         <v>608</v>
       </c>
       <c r="AK7" t="s">
@@ -21644,61 +21226,61 @@
       <c r="O8" t="s">
         <v>589</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="W8" s="19" t="s">
+      <c r="W8" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="X8" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="AA8" s="19" t="s">
+      <c r="AA8" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AB8" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AC8" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AD8" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AF8" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AG8" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AH8" s="19" t="s">
+      <c r="AH8" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="AI8" s="19" t="s">
+      <c r="AI8" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AJ8" s="18" t="s">
         <v>636</v>
       </c>
       <c r="AK8" t="s">
@@ -21751,7 +21333,7 @@
       <c r="Q9" t="s">
         <v>644</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="18" t="s">
         <v>645</v>
       </c>
       <c r="S9" t="s">
@@ -21772,22 +21354,22 @@
       <c r="X9" t="s">
         <v>649</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AA9" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AB9" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AC9" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AD9" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AE9" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AF9" s="18" t="s">
         <v>605</v>
       </c>
       <c r="AG9" t="s">
@@ -21805,7 +21387,7 @@
       <c r="AK9" t="s">
         <v>654</v>
       </c>
-      <c r="AR9" s="19" t="s">
+      <c r="AR9" s="18" t="s">
         <v>655</v>
       </c>
     </row>
@@ -21849,61 +21431,61 @@
       <c r="O10" t="s">
         <v>659</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="18" t="s">
         <v>606</v>
       </c>
       <c r="S10" t="s">
         <v>629</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="W10" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="X10" s="19" t="s">
+      <c r="X10" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AA10" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC10" s="19" t="s">
+      <c r="AC10" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD10" s="19" t="s">
+      <c r="AD10" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AE10" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF10" s="19" t="s">
+      <c r="AF10" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AG10" s="19" t="s">
+      <c r="AG10" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AH10" s="19" t="s">
+      <c r="AH10" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AI10" s="19" t="s">
+      <c r="AI10" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="AJ10" s="19" t="s">
+      <c r="AJ10" s="18" t="s">
         <v>606</v>
       </c>
       <c r="AK10" t="s">
@@ -21956,64 +21538,64 @@
       <c r="O11" t="s">
         <v>670</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="18" t="s">
         <v>671</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="W11" s="19" t="s">
+      <c r="W11" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="X11" s="19" t="s">
+      <c r="X11" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="Y11" s="19" t="s">
+      <c r="Y11" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AA11" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC11" s="19" t="s">
+      <c r="AC11" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD11" s="19" t="s">
+      <c r="AD11" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AE11" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AF11" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="AG11" s="19" t="s">
+      <c r="AG11" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="AH11" s="19" t="s">
+      <c r="AH11" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="AI11" s="19" t="s">
+      <c r="AI11" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="AJ11" s="19" t="s">
+      <c r="AJ11" s="18" t="s">
         <v>653</v>
       </c>
       <c r="AK11" t="s">
@@ -22060,61 +21642,61 @@
       <c r="O12" t="s">
         <v>685</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="18" t="s">
         <v>686</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="T12" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W12" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="X12" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AA12" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AB12" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AC12" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AD12" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AE12" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AF12" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AG12" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AH12" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AI12" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="AJ12" s="18" t="s">
         <v>693</v>
       </c>
       <c r="AK12" t="s">
@@ -22164,58 +21746,58 @@
       <c r="O13" t="s">
         <v>699</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="18" t="s">
         <v>700</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="T13" s="19" t="s">
+      <c r="T13" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="W13" s="19" t="s">
+      <c r="W13" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="AA13" s="19" t="s">
+      <c r="AA13" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AB13" s="19" t="s">
+      <c r="AB13" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AC13" s="19" t="s">
+      <c r="AC13" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="AD13" s="19" t="s">
+      <c r="AD13" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AE13" s="19" t="s">
+      <c r="AE13" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AF13" s="19" t="s">
+      <c r="AF13" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="AG13" s="19" t="s">
+      <c r="AG13" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="AH13" s="19" t="s">
+      <c r="AH13" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="AI13" s="19" t="s">
+      <c r="AI13" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="AJ13" s="19" t="s">
+      <c r="AJ13" s="18" t="s">
         <v>693</v>
       </c>
       <c r="AK13" t="s">
@@ -22435,19 +22017,19 @@
       <c r="K2" t="s">
         <v>733</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -22479,16 +22061,16 @@
       <c r="J3" t="s">
         <v>737</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T3" t="s">
@@ -22541,7 +22123,7 @@
       <c r="O4" t="s">
         <v>744</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T4" t="s">
@@ -22597,10 +22179,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>749</v>
       </c>
       <c r="T5" t="s">
@@ -22656,7 +22238,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>754</v>
       </c>
       <c r="T6" t="s">
@@ -22697,10 +22279,10 @@
       <c r="J7" t="s">
         <v>756</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>758</v>
       </c>
       <c r="T7" t="s">
@@ -22803,7 +22385,7 @@
       <c r="N9" t="s">
         <v>753</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T9" t="s">
@@ -22894,7 +22476,7 @@
       <c r="L11" t="s">
         <v>771</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="18" t="s">
         <v>772</v>
       </c>
       <c r="T11" t="s">
@@ -22950,7 +22532,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>776</v>
       </c>
       <c r="O12">
@@ -22959,10 +22541,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="18" t="s">
         <v>777</v>
       </c>
     </row>
@@ -23006,7 +22588,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="18" t="s">
         <v>781</v>
       </c>
       <c r="O13">
@@ -23015,7 +22597,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -23059,7 +22641,7 @@
       <c r="N14" t="s">
         <v>743</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T14" t="s">
@@ -23112,7 +22694,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="18" t="s">
         <v>776</v>
       </c>
       <c r="O15">
@@ -23121,7 +22703,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -23162,7 +22744,7 @@
       <c r="L16" t="s">
         <v>789</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="18" t="s">
         <v>790</v>
       </c>
       <c r="T16" t="s">
@@ -23218,7 +22800,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>781</v>
       </c>
       <c r="O17">
@@ -23227,10 +22809,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="Q17" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="18" t="s">
         <v>794</v>
       </c>
     </row>
@@ -23274,7 +22856,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="18" t="s">
         <v>798</v>
       </c>
       <c r="O18">
@@ -23283,7 +22865,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -23333,7 +22915,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="18" t="s">
         <v>754</v>
       </c>
       <c r="T19" t="s">
@@ -23389,7 +22971,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="18" t="s">
         <v>776</v>
       </c>
       <c r="O20">
@@ -23398,7 +22980,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -23451,10 +23033,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="18" t="s">
         <v>749</v>
       </c>
       <c r="T21" t="s">
@@ -23510,7 +23092,7 @@
       <c r="L22" t="s">
         <v>809</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="Q22" s="18" t="s">
         <v>790</v>
       </c>
       <c r="T22" t="s">
@@ -23560,28 +23142,28 @@
       <c r="K29" t="s">
         <v>733</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="Q29" s="19" t="s">
+      <c r="Q29" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="X29" s="19" t="s">
+      <c r="X29" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Y29" s="19" t="s">
+      <c r="Y29" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="Z29" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AA29" t="s">
@@ -23596,13 +23178,13 @@
       <c r="AD29" t="s">
         <v>583</v>
       </c>
-      <c r="AE29" s="19" t="s">
+      <c r="AE29" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF29" s="19" t="s">
+      <c r="AF29" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AG29" s="19" t="s">
+      <c r="AG29" s="18" t="s">
         <v>583</v>
       </c>
     </row>
@@ -23643,16 +23225,16 @@
       <c r="L30" t="s">
         <v>812</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T30" t="s">
@@ -23667,13 +23249,13 @@
       <c r="W30" t="s">
         <v>740</v>
       </c>
-      <c r="X30" s="19" t="s">
+      <c r="X30" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Y30" s="19" t="s">
+      <c r="Y30" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Z30" s="19" t="s">
+      <c r="Z30" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AA30" t="s">
@@ -23685,16 +23267,16 @@
       <c r="AC30" t="s">
         <v>583</v>
       </c>
-      <c r="AD30" s="19" t="s">
+      <c r="AD30" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AE30" s="19" t="s">
+      <c r="AE30" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF30" s="19" t="s">
+      <c r="AF30" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AG30" s="19" t="s">
+      <c r="AG30" s="18" t="s">
         <v>583</v>
       </c>
     </row>
@@ -23744,7 +23326,7 @@
       <c r="O31" t="s">
         <v>744</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="P31" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T31" t="s">
@@ -23756,13 +23338,13 @@
       <c r="V31" t="s">
         <v>745</v>
       </c>
-      <c r="X31" s="19" t="s">
+      <c r="X31" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Y31" s="19" t="s">
+      <c r="Y31" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Z31" s="19" t="s">
+      <c r="Z31" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AA31" t="s">
@@ -23774,16 +23356,16 @@
       <c r="AC31" t="s">
         <v>583</v>
       </c>
-      <c r="AD31" s="19" t="s">
+      <c r="AD31" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AE31" s="19" t="s">
+      <c r="AE31" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF31" s="19" t="s">
+      <c r="AF31" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AG31" s="19" t="s">
+      <c r="AG31" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AH31">
@@ -23839,10 +23421,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="19" t="s">
+      <c r="Q32" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="R32" s="19" t="s">
+      <c r="R32" s="18" t="s">
         <v>749</v>
       </c>
       <c r="T32" t="s">
@@ -23854,13 +23436,13 @@
       <c r="V32" t="s">
         <v>750</v>
       </c>
-      <c r="X32" s="19" t="s">
+      <c r="X32" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Y32" s="19" t="s">
+      <c r="Y32" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="Z32" s="19" t="s">
+      <c r="Z32" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AA32" t="s">
@@ -23872,16 +23454,16 @@
       <c r="AC32" t="s">
         <v>583</v>
       </c>
-      <c r="AD32" s="19" t="s">
+      <c r="AD32" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AE32" s="19" t="s">
+      <c r="AE32" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF32" s="19" t="s">
+      <c r="AF32" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AG32" s="19" t="s">
+      <c r="AG32" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AH32">
@@ -23937,7 +23519,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="Q33" s="18" t="s">
         <v>754</v>
       </c>
       <c r="T33" t="s">
@@ -23946,7 +23528,7 @@
       <c r="U33" t="s">
         <v>739</v>
       </c>
-      <c r="X33" s="19" t="s">
+      <c r="X33" s="18" t="s">
         <v>583</v>
       </c>
       <c r="Y33" t="s">
@@ -23967,13 +23549,13 @@
       <c r="AD33" t="s">
         <v>583</v>
       </c>
-      <c r="AE33" s="19" t="s">
+      <c r="AE33" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF33" s="19" t="s">
+      <c r="AF33" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AG33" s="19" t="s">
+      <c r="AG33" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AI33">
@@ -24017,10 +23599,10 @@
       <c r="L34" t="s">
         <v>812</v>
       </c>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="R34" s="19" t="s">
+      <c r="R34" s="18" t="s">
         <v>758</v>
       </c>
       <c r="T34" t="s">
@@ -24050,10 +23632,10 @@
       <c r="AD34" t="s">
         <v>583</v>
       </c>
-      <c r="AE34" s="19" t="s">
+      <c r="AE34" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF34" s="19" t="s">
+      <c r="AF34" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AG34" t="s">
@@ -24112,10 +23694,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="19" t="s">
+      <c r="Q35" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="R35" s="19" t="s">
+      <c r="R35" s="18" t="s">
         <v>758</v>
       </c>
       <c r="T35" t="s">
@@ -24145,10 +23727,10 @@
       <c r="AD35" t="s">
         <v>583</v>
       </c>
-      <c r="AE35" s="19" t="s">
+      <c r="AE35" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF35" s="19" t="s">
+      <c r="AF35" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AG35" t="s">
@@ -24237,7 +23819,7 @@
       <c r="AD36" t="s">
         <v>583</v>
       </c>
-      <c r="AE36" s="19" t="s">
+      <c r="AE36" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AF36" t="s">
@@ -24296,7 +23878,7 @@
       <c r="N37" t="s">
         <v>753</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="18" t="s">
         <v>738</v>
       </c>
       <c r="T37" t="s">
@@ -24326,7 +23908,7 @@
       <c r="AD37" t="s">
         <v>583</v>
       </c>
-      <c r="AE37" s="19" t="s">
+      <c r="AE37" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AF37" t="s">
@@ -24409,10 +23991,10 @@
       <c r="AD38" t="s">
         <v>583</v>
       </c>
-      <c r="AE38" s="19" t="s">
+      <c r="AE38" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AF38" s="19" t="s">
+      <c r="AF38" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AG38" t="s">
@@ -24462,7 +24044,7 @@
       <c r="L39" t="s">
         <v>812</v>
       </c>
-      <c r="Q39" s="19" t="s">
+      <c r="Q39" s="18" t="s">
         <v>772</v>
       </c>
       <c r="T39" t="s">
@@ -24492,7 +24074,7 @@
       <c r="AD39" t="s">
         <v>583</v>
       </c>
-      <c r="AE39" s="19" t="s">
+      <c r="AE39" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AF39" t="s">
@@ -24578,7 +24160,7 @@
       <c r="AD40" t="s">
         <v>583</v>
       </c>
-      <c r="AE40" s="19" t="s">
+      <c r="AE40" s="18" t="s">
         <v>583</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15165" windowHeight="8850" tabRatio="796" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1521">
   <si>
     <t>Count</t>
   </si>
@@ -1284,7 +1284,7 @@
     <t>&lt;fs=50&gt;&lt;ls=80&gt;После того как вы активировали систему, вы можете изгнать эту карту, чтобы считать 2 ваших корабля смежными с активной системой до конца этого тактического действия.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=44&gt;«Представь, как вся галактика вливается в твой разум, от одного взгляда на звёзды. Только не растворись в ней».&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;«Представь, как вся галактика вливается в твой разум от одного взгляда на звёзды. Только не растворись в ней».&lt;/fs&gt;</t>
   </si>
   <si>
     <t>СИСТЕМА «ЗВЕЗДОПАД»</t>
@@ -1299,7 +1299,7 @@
     <t>ЗАБЫТЫЙ ТРОН</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;ls=80&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ:&lt;/f&gt; изгоните эту карту, чтобы либо получить 1 реликвию, либо, если вы удовлетворяете требованиям, немедленно выполнить 1 выполненную или одну из ваших невыполненных секретных целей.&lt;/ls&gt;&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;ls=80&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ:&lt;/f&gt; изгоните эту карту, чтобы либо получить 1 реликвию, либо, если вы удовлетворяете требованиям, немедленно выполнить 1 из ваших выполненных секретных целей или невыполненных секретных целей.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Затерянные в ветрах времени ответы скрываются в этом скорбном сооружении с одной единственной надписью: «Кнар».&lt;/fs&gt;</t>
@@ -4180,409 +4180,28 @@
     <t>Secret</t>
   </si>
   <si>
-    <t>STATUS PHASE</t>
-  </si>
-  <si>
-    <t>ff9a07</t>
-  </si>
-  <si>
-    <t>KILL ONE</t>
-  </si>
-  <si>
-    <t>Kill a unit.</t>
-  </si>
-  <si>
-    <t>0099ff</t>
-  </si>
-  <si>
-    <t>KILL EM ALL</t>
-  </si>
-  <si>
-    <t>Kill all units in a system.</t>
-  </si>
-  <si>
-    <t>&lt;fc=0xFF0000&gt;ACTION PHASE</t>
+    <t>Фаза действий</t>
   </si>
   <si>
     <t>FF4444</t>
   </si>
   <si>
-    <t>LIE TO THEM</t>
-  </si>
-  <si>
-    <t>Break a verbal promise to a neighbor.</t>
-  </si>
-  <si>
-    <t>&lt;fc=0xAA33AA&gt;GAME END</t>
-  </si>
-  <si>
-    <t>OVERLORD</t>
-  </si>
-  <si>
-    <t>Have ships in a number of systems, with planets owned by other players, equal to half the player count rounded up.</t>
-  </si>
-  <si>
-    <t>TECHNOCRAT</t>
-  </si>
-  <si>
-    <t>Have the most researched technologies.</t>
-  </si>
-  <si>
-    <t>DIPLOMAT</t>
-  </si>
-  <si>
-    <t>Have the most Promissory notes from other players, among all empires.</t>
-  </si>
-  <si>
-    <t>BANKER</t>
-  </si>
-  <si>
-    <t>Have the most trade goods among all empires.</t>
-  </si>
-  <si>
-    <t>THE THRONE</t>
-  </si>
-  <si>
-    <t>Control Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>TREASURE HUNTER</t>
-  </si>
-  <si>
-    <t>Have one or more Relics in the play area.</t>
-  </si>
-  <si>
-    <t>COLONIAL UNION</t>
-  </si>
-  <si>
-    <t>Own the most amount of planets among all empires.</t>
-  </si>
-  <si>
-    <t>DOMINANCE</t>
-  </si>
-  <si>
-    <t>Have ships in the most number of systems among all empires.</t>
-  </si>
-  <si>
-    <t>STANDING FLEET</t>
-  </si>
-  <si>
-    <t>Have the largest fleet of non-fighter ships among all empires.</t>
-  </si>
-  <si>
-    <t>IMPERIAL ARMY</t>
-  </si>
-  <si>
-    <t>Have the greatest number of ground forces among all empires.</t>
-  </si>
-  <si>
-    <t>DISTANT WORLDS</t>
-  </si>
-  <si>
-    <t>Have troops on 3 different non-homeworld planets that are each at least 3 jumps separated from another.</t>
-  </si>
-  <si>
-    <t>LOST COLONY</t>
-  </si>
-  <si>
-    <t>Have units on a planet in a system that is at least four jumps away from your home system.</t>
-  </si>
-  <si>
-    <t>CAPITAL SHIP SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own the Dreadnaught and Cruiser technology upgrades.</t>
-  </si>
-  <si>
-    <t>TROOP SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own the Infantry and Carrier technology upgrades.</t>
-  </si>
-  <si>
-    <t>FIGHTER SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own the Fighter and Carrier technology upgrades.</t>
-  </si>
-  <si>
-    <t>PRODUCTION SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own the Space Dock technology upgrade.</t>
-  </si>
-  <si>
-    <t>PACIFIST</t>
-  </si>
-  <si>
-    <t>Never initiate or participate in any ground combat during the entire game.</t>
-  </si>
-  <si>
-    <t>GRAND ARCHITECT</t>
-  </si>
-  <si>
-    <t>Have a space station, PDS cannon, and a mech on a planet in three different systems.</t>
-  </si>
-  <si>
-    <t>COLONIALIST</t>
-  </si>
-  <si>
-    <t>Control 11 planets in non-home systems.</t>
-  </si>
-  <si>
-    <t>PLANETARY OPTIMIZATION</t>
-  </si>
-  <si>
-    <t>Control 2 planets that have exploration attachments.</t>
-  </si>
-  <si>
-    <t>PRIZED POSSESSIONS</t>
-  </si>
-  <si>
-    <t>Have units in 4 systems that contain legendary planets, Mecatol Rex or anomalies.</t>
-  </si>
-  <si>
-    <t>MASTER ENGINEERS</t>
-  </si>
-  <si>
-    <t>Have three or more structures outside of your home system.</t>
-  </si>
-  <si>
-    <t>TERROR DOCTRINE</t>
-  </si>
-  <si>
-    <t>Have your flagship and both warsuns on the game board.</t>
-  </si>
-  <si>
-    <t>OBSERVERS</t>
-  </si>
-  <si>
-    <t>Have units in 2 systems that are each in or adjacent to a different other's players home system.</t>
-  </si>
-  <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>Have ground units on a legendary world.</t>
-  </si>
-  <si>
-    <t>POLICE STATE</t>
-  </si>
-  <si>
-    <t>Have one or more ground forces on each planet you control.</t>
-  </si>
-  <si>
-    <t>PEACEFUL RULE</t>
-  </si>
-  <si>
-    <t>Have no ground forces on any planet you control except your home system and Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>XENOPHOBE</t>
-  </si>
-  <si>
-    <t>Never receive or give any Promissory Notes for the entire game.</t>
-  </si>
-  <si>
-    <t>XENOPHILE</t>
-  </si>
-  <si>
-    <t>End the game with with none of your starting Promissory Notes in your hand.</t>
-  </si>
-  <si>
-    <t>MANUFACTURING HUB</t>
-  </si>
-  <si>
-    <t>Have two Space Docks in a single system.</t>
-  </si>
-  <si>
-    <t>ISOLATIONIST</t>
-  </si>
-  <si>
-    <t>Be neighbours with a number of empires less than or equal to the half the total player count rounded down.</t>
-  </si>
-  <si>
-    <t>EXPANSIONIST</t>
-  </si>
-  <si>
-    <t>Be neighbours with all players.</t>
-  </si>
-  <si>
-    <t>BIOTIC SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own X-89 Bacterial Weapon technology (level 3 green tech)</t>
-  </si>
-  <si>
-    <t>PROPULSION SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own Light/wave Deflector technology (level 3 blue tech)</t>
-  </si>
-  <si>
-    <t>CYBERNETIC SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own Integrated Economy technology (level 3 yellow tech)</t>
-  </si>
-  <si>
-    <t>WARFARE SPECIALIZATION</t>
-  </si>
-  <si>
-    <t>Own Assault Cannon technology (level 3 red tech)</t>
-  </si>
-  <si>
-    <t>TYRANT</t>
-  </si>
-  <si>
-    <t>Have ships in a number of systems, with planets owned by other players, equal to the player count plus one.</t>
-  </si>
-  <si>
-    <t>POPULARIST</t>
-  </si>
-  <si>
-    <t>Have Support for the Throne from at least half the players rounded up.</t>
-  </si>
-  <si>
-    <t>ARTIFACT WARDEN</t>
-  </si>
-  <si>
-    <t>Have three or more Relics in the play area.</t>
-  </si>
-  <si>
-    <t>End the game with never having engaged in any combat as the aggressor, except in your home system or Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>GALACTIC BLOCKADE</t>
-  </si>
-  <si>
-    <t>Have ships in every system containing wormholes.</t>
-  </si>
-  <si>
-    <t>ALLIANCE LEADER</t>
-  </si>
-  <si>
-    <t>Have Ceasefire Promissory Notes from at least half the players rounded up.</t>
-  </si>
-  <si>
-    <t>CORE EMPIRE</t>
-  </si>
-  <si>
-    <t>Have units on all planets in four or more systems bordering Mecatol Rex.</t>
-  </si>
-  <si>
-    <t>MASTER BUILDER</t>
-  </si>
-  <si>
-    <t>Build all space stations, PDS cannons and your Flagship.</t>
-  </si>
-  <si>
-    <t>EMPIRE ASSASSIN</t>
-  </si>
-  <si>
-    <t>Destroy Flagships from half the number of players rounded up different players.</t>
-  </si>
-  <si>
-    <t>SCIENTIFIC ASCENDANCY</t>
-  </si>
-  <si>
-    <t>Own at least two tier 3 technologies.</t>
-  </si>
-  <si>
-    <t>GALACTIC LIBRARIAN</t>
-  </si>
-  <si>
-    <t>Control six relic fragments.</t>
-  </si>
-  <si>
-    <t>TECH DIVERSIFICATION</t>
-  </si>
-  <si>
-    <t>Have units on planets that collectively possess all four tech specialities.</t>
-  </si>
-  <si>
-    <t>TRADER</t>
-  </si>
-  <si>
-    <t>Have Trade Agreements from all players.</t>
-  </si>
-  <si>
-    <t>JUDGE AND JURY</t>
-  </si>
-  <si>
-    <t>End the game owning at least one Law.</t>
-  </si>
-  <si>
-    <t>DISTAIN FOR TECH</t>
-  </si>
-  <si>
-    <t>Have 5 or less total technologies researched, including starting techs.</t>
-  </si>
-  <si>
-    <t>GALACTIC ENGINEERS</t>
-  </si>
-  <si>
-    <t>Have 7 or more structures.</t>
-  </si>
-  <si>
-    <t>FLEET ASSEMBLY</t>
-  </si>
-  <si>
-    <t>Have 8 or more non-fighter ships in a single system.</t>
-  </si>
-  <si>
-    <t>TROOP ASSEMBLY</t>
-  </si>
-  <si>
-    <t>Have 20 or more ground forces on a single planet.</t>
-  </si>
-  <si>
-    <t>FABLED WORLDS</t>
-  </si>
-  <si>
-    <t>Have ground forces on two legendary worlds.</t>
-  </si>
-  <si>
-    <t>COVERT OPS LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 2 VP, +2 to total Secret Objective card limit and draw 1 Secret Objectives. Score 4 or more Secret Objectives and gain 2VP</t>
-  </si>
-  <si>
-    <t>SECURITY LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1 VP and during the status phase draw one additional action card. Discard 5 Action cards at game end to gain 2VP.</t>
-  </si>
-  <si>
-    <t>EXPLORATION LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1 VP and place one infantry on an empty planet adjacent to a planet you control. Spend 3 tactic strategy tokens at game end to gain 2VP.</t>
-  </si>
-  <si>
-    <t>TECH LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1 VP and research one technology. Spend 10 resources at game end to gain 2VP.</t>
-  </si>
-  <si>
-    <t>LOGISTICS LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1 VP and gain 2 command to tokens. Spend 12 influence at game end to gain 2VP.</t>
-  </si>
-  <si>
-    <t>FLEET LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1VP and gain two cruisers. Spend 10 resources at game end to gain 2VP.</t>
-  </si>
-  <si>
-    <t>STRATEGIC LOAN</t>
-  </si>
-  <si>
-    <t>Action: Reveal, lose 1 VP but gain 1 extra strategic token during the status phase. Spend 9 strategic tokens at game end from your tactic/strategic pool to gain 2VP.</t>
+    <t>Бейте метко Ω</t>
+  </si>
+  <si>
+    <t>Уничтожьте последние истребители игрока в активной системе&lt;br&gt;во время шага «Заградительный огонь».</t>
+  </si>
+  <si>
+    <t>    Обратите    &lt;br&gt;флот в пыль Ω</t>
+  </si>
+  <si>
+    <t>Уничтожьте последние корабли игрока (кроме истребителей) в активной системе во время шага «Космическая пушка: атака».</t>
+  </si>
+  <si>
+    <t>Преподайте&lt;br&gt;    урок Ω    </t>
+  </si>
+  <si>
+    <t>Уничтожьте последние наземные войска игрока на планете во время шага «Бомбардировка».</t>
   </si>
   <si>
     <t>Relic Top Image</t>
@@ -5113,6 +4732,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -5120,12 +4745,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5761,16 +5380,16 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5785,14 +5404,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6115,9 +5734,9 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -7878,13 +7497,13 @@
       <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -7916,13 +7535,13 @@
       <c r="E3" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -7951,13 +7570,13 @@
       <c r="E4" t="s">
         <v>938</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -7989,10 +7608,10 @@
       <c r="E5" t="s">
         <v>942</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -8021,13 +7640,13 @@
       <c r="E6" t="s">
         <v>944</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -8056,13 +7675,13 @@
       <c r="E7" t="s">
         <v>947</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -13528,15 +13147,15 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="5" width="28.552380952381" customWidth="1"/>
     <col min="6" max="6" width="14.7809523809524" customWidth="1"/>
@@ -13569,1528 +13188,81 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D3" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E3" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="F5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F3" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="E6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G4" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="E7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1392</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1403</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1405</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1419</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1421</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1422</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1425</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1439</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1440</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1448</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1450</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1470</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1473</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15121,19 +13293,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1479</v>
+        <v>1352</v>
       </c>
       <c r="C1" t="s">
-        <v>1480</v>
+        <v>1353</v>
       </c>
       <c r="D1" t="s">
-        <v>1481</v>
+        <v>1354</v>
       </c>
       <c r="E1" t="s">
-        <v>1482</v>
+        <v>1355</v>
       </c>
       <c r="F1" t="s">
-        <v>1483</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -15141,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1484</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -15149,19 +13321,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1485</v>
+        <v>1358</v>
       </c>
       <c r="C3" t="s">
-        <v>1486</v>
+        <v>1359</v>
       </c>
       <c r="D3" t="s">
         <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>1487</v>
+        <v>1360</v>
       </c>
       <c r="F3" t="s">
-        <v>1488</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -15169,19 +13341,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1489</v>
+        <v>1362</v>
       </c>
       <c r="C4" t="s">
-        <v>1486</v>
+        <v>1359</v>
       </c>
       <c r="D4" t="s">
         <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>1490</v>
+        <v>1363</v>
       </c>
       <c r="F4" t="s">
-        <v>1491</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -15189,16 +13361,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D5" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E5" t="s">
-        <v>1494</v>
+        <v>1367</v>
       </c>
       <c r="F5" t="s">
-        <v>1495</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -15206,16 +13378,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D6" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E6" t="s">
-        <v>1496</v>
+        <v>1369</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1497</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -15223,16 +13395,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D7" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E7" t="s">
-        <v>1498</v>
+        <v>1371</v>
       </c>
       <c r="F7" t="s">
-        <v>1499</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -15240,16 +13412,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D8" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E8" t="s">
-        <v>1500</v>
+        <v>1373</v>
       </c>
       <c r="F8" t="s">
-        <v>1501</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -15257,16 +13429,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D9" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E9" t="s">
-        <v>1502</v>
+        <v>1375</v>
       </c>
       <c r="F9" t="s">
-        <v>1503</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -15274,16 +13446,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D10" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E10" t="s">
-        <v>1504</v>
+        <v>1377</v>
       </c>
       <c r="F10" t="s">
-        <v>1505</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -15291,16 +13463,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D11" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E11" t="s">
-        <v>1506</v>
+        <v>1379</v>
       </c>
       <c r="F11" t="s">
-        <v>1507</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -15308,16 +13480,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D12" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E12" t="s">
-        <v>1508</v>
+        <v>1381</v>
       </c>
       <c r="F12" t="s">
-        <v>1509</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -15325,16 +13497,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D13" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E13" t="s">
-        <v>1510</v>
+        <v>1383</v>
       </c>
       <c r="F13" t="s">
-        <v>1511</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -15342,16 +13514,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1492</v>
+        <v>1365</v>
       </c>
       <c r="D14" t="s">
-        <v>1493</v>
+        <v>1366</v>
       </c>
       <c r="E14" t="s">
-        <v>1512</v>
+        <v>1385</v>
       </c>
       <c r="F14" t="s">
-        <v>1513</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -15392,7 +13564,7 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>1514</v>
+        <v>1387</v>
       </c>
       <c r="D1" t="s">
         <v>430</v>
@@ -15407,22 +13579,22 @@
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>1515</v>
+        <v>1388</v>
       </c>
       <c r="I1" t="s">
-        <v>1516</v>
+        <v>1389</v>
       </c>
       <c r="J1" t="s">
-        <v>1517</v>
+        <v>1390</v>
       </c>
       <c r="K1" t="s">
-        <v>1518</v>
+        <v>1391</v>
       </c>
       <c r="L1" t="s">
-        <v>1519</v>
+        <v>1392</v>
       </c>
       <c r="M1" t="s">
-        <v>1520</v>
+        <v>1393</v>
       </c>
       <c r="N1" t="s">
         <v>723</v>
@@ -15434,34 +13606,34 @@
         <v>725</v>
       </c>
       <c r="Q1" t="s">
-        <v>1521</v>
+        <v>1394</v>
       </c>
       <c r="R1" t="s">
-        <v>1522</v>
+        <v>1395</v>
       </c>
       <c r="S1" t="s">
-        <v>1523</v>
+        <v>1396</v>
       </c>
       <c r="T1" t="s">
-        <v>1524</v>
+        <v>1397</v>
       </c>
       <c r="U1" t="s">
-        <v>1525</v>
+        <v>1398</v>
       </c>
       <c r="V1" t="s">
-        <v>1526</v>
+        <v>1399</v>
       </c>
       <c r="W1" t="s">
-        <v>1527</v>
+        <v>1400</v>
       </c>
       <c r="X1" t="s">
-        <v>1528</v>
+        <v>1401</v>
       </c>
       <c r="Y1" t="s">
-        <v>1529</v>
+        <v>1402</v>
       </c>
       <c r="Z1" t="s">
-        <v>1530</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -15469,16 +13641,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1531</v>
+        <v>1404</v>
       </c>
       <c r="D2" t="s">
-        <v>1532</v>
+        <v>1405</v>
       </c>
       <c r="K2" t="s">
-        <v>1533</v>
+        <v>1406</v>
       </c>
       <c r="M2" t="s">
-        <v>1534</v>
+        <v>1407</v>
       </c>
       <c r="U2" t="s">
         <v>741</v>
@@ -15489,16 +13661,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1531</v>
+        <v>1404</v>
       </c>
       <c r="D3" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="K3" t="s">
-        <v>1536</v>
+        <v>1409</v>
       </c>
       <c r="L3" t="s">
-        <v>1537</v>
+        <v>1410</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>736</v>
@@ -15533,25 +13705,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1538</v>
+        <v>1411</v>
       </c>
       <c r="C4" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D4" t="s">
-        <v>1532</v>
+        <v>1405</v>
       </c>
       <c r="E4" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F4" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K4" t="s">
-        <v>1542</v>
+        <v>1415</v>
       </c>
       <c r="M4" t="s">
-        <v>1543</v>
+        <v>1416</v>
       </c>
       <c r="Q4" t="s">
         <v>746</v>
@@ -15571,22 +13743,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D5" t="s">
-        <v>1532</v>
+        <v>1405</v>
       </c>
       <c r="E5" t="s">
-        <v>1544</v>
+        <v>1417</v>
       </c>
       <c r="F5" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K5" t="s">
-        <v>1533</v>
+        <v>1406</v>
       </c>
       <c r="M5" t="s">
-        <v>1534</v>
+        <v>1407</v>
       </c>
       <c r="U5" t="s">
         <v>741</v>
@@ -15600,28 +13772,28 @@
         <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D6" t="s">
-        <v>1532</v>
+        <v>1405</v>
       </c>
       <c r="E6" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F6" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="G6" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H6" t="s">
-        <v>1547</v>
+        <v>1420</v>
       </c>
       <c r="I6" t="s">
-        <v>1548</v>
+        <v>1421</v>
       </c>
       <c r="J6" t="s">
-        <v>1549</v>
+        <v>1422</v>
       </c>
       <c r="U6" t="s">
         <v>740</v>
@@ -15632,22 +13804,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D7" t="s">
-        <v>1532</v>
+        <v>1405</v>
       </c>
       <c r="E7" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F7" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K7" t="s">
-        <v>1550</v>
+        <v>1423</v>
       </c>
       <c r="M7" t="s">
-        <v>1549</v>
+        <v>1422</v>
       </c>
       <c r="Q7" t="s">
         <v>741</v>
@@ -15664,25 +13836,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D8" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E8" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F8" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K8" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L8" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M8" t="s">
-        <v>1549</v>
+        <v>1422</v>
       </c>
       <c r="Q8" t="s">
         <v>740</v>
@@ -15699,31 +13871,31 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1553</v>
+        <v>1426</v>
       </c>
       <c r="C9" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D9" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E9" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F9" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="G9" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H9" t="s">
-        <v>1554</v>
+        <v>1427</v>
       </c>
       <c r="I9" t="s">
-        <v>1555</v>
+        <v>1428</v>
       </c>
       <c r="J9" t="s">
-        <v>1556</v>
+        <v>1429</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>736</v>
@@ -15732,7 +13904,7 @@
         <v>758</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="Q9" t="s">
         <v>751</v>
@@ -15770,37 +13942,37 @@
         <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D10" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E10" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F10" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="G10" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H10" t="s">
-        <v>1558</v>
+        <v>1431</v>
       </c>
       <c r="I10" t="s">
-        <v>1559</v>
+        <v>1432</v>
       </c>
       <c r="J10" t="s">
-        <v>1560</v>
+        <v>1433</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>1561</v>
+        <v>1434</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>1562</v>
+        <v>1435</v>
       </c>
       <c r="Q10" t="s">
         <v>740</v>
@@ -15823,28 +13995,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D11" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E11" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F11" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="G11" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H11" t="s">
-        <v>1563</v>
+        <v>1436</v>
       </c>
       <c r="I11" t="s">
-        <v>1564</v>
+        <v>1437</v>
       </c>
       <c r="J11" t="s">
-        <v>1565</v>
+        <v>1438</v>
       </c>
       <c r="Q11" t="s">
         <v>740</v>
@@ -15858,28 +14030,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D12" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E12" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F12" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="G12" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H12" t="s">
-        <v>1566</v>
+        <v>1439</v>
       </c>
       <c r="I12" t="s">
-        <v>1564</v>
+        <v>1437</v>
       </c>
       <c r="J12" t="s">
-        <v>1567</v>
+        <v>1440</v>
       </c>
       <c r="R12" t="s">
         <v>741</v>
@@ -15896,25 +14068,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D13" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E13" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F13" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="G13" t="s">
-        <v>1546</v>
+        <v>1419</v>
       </c>
       <c r="H13" t="s">
-        <v>1568</v>
+        <v>1441</v>
       </c>
       <c r="I13" t="s">
-        <v>1569</v>
+        <v>1442</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
@@ -15952,28 +14124,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D14" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E14" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F14" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K14" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L14" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M14" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O14" s="20" t="s">
         <v>736</v>
@@ -16008,28 +14180,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D15" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E15" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F15" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="K15" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L15" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M15" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>736</v>
@@ -16061,28 +14233,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D16" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E16" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F16" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K16" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L16" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M16" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O16" s="20" t="s">
         <v>736</v>
@@ -16111,28 +14283,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D17" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E17" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F17" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K17" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L17" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M17" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O17" s="20" t="s">
         <v>736</v>
@@ -16164,28 +14336,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D18" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E18" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F18" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="K18" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L18" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M18" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>736</v>
@@ -16217,28 +14389,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D19" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E19" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F19" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K19" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L19" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M19" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O19" s="20" t="s">
         <v>736</v>
@@ -16261,28 +14433,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D20" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E20" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F20" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K20" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L20" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M20" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>736</v>
@@ -16297,7 +14469,7 @@
         <v>751</v>
       </c>
       <c r="V20" t="s">
-        <v>1571</v>
+        <v>1444</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -16311,28 +14483,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D21" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E21" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F21" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="K21" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L21" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M21" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>736</v>
@@ -16347,7 +14519,7 @@
         <v>751</v>
       </c>
       <c r="V21" t="s">
-        <v>1572</v>
+        <v>1445</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -16361,28 +14533,28 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D22" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E22" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="F22" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K22" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L22" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M22" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O22" s="20" t="s">
         <v>736</v>
@@ -16397,7 +14569,7 @@
         <v>751</v>
       </c>
       <c r="V22" t="s">
-        <v>1573</v>
+        <v>1446</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -16411,28 +14583,28 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D23" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E23" t="s">
-        <v>1540</v>
+        <v>1413</v>
       </c>
       <c r="F23" t="s">
-        <v>1545</v>
+        <v>1418</v>
       </c>
       <c r="K23" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L23" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M23" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O23" s="20" t="s">
         <v>736</v>
@@ -16461,28 +14633,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D24" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E24" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F24" t="s">
-        <v>1574</v>
+        <v>1447</v>
       </c>
       <c r="K24" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L24" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M24" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O24" s="20" t="s">
         <v>736</v>
@@ -16517,28 +14689,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D25" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E25" t="s">
-        <v>1574</v>
+        <v>1447</v>
       </c>
       <c r="F25" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="K25" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L25" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M25" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="P25" s="20" t="s">
         <v>736</v>
@@ -16567,28 +14739,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D26" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E26" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="F26" t="s">
-        <v>1574</v>
+        <v>1447</v>
       </c>
       <c r="K26" t="s">
-        <v>1551</v>
+        <v>1424</v>
       </c>
       <c r="L26" t="s">
-        <v>1552</v>
+        <v>1425</v>
       </c>
       <c r="M26" t="s">
-        <v>1570</v>
+        <v>1443</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>1557</v>
+        <v>1430</v>
       </c>
       <c r="O26" s="20" t="s">
         <v>736</v>
@@ -16626,31 +14798,31 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>1539</v>
+        <v>1412</v>
       </c>
       <c r="D27" t="s">
-        <v>1535</v>
+        <v>1408</v>
       </c>
       <c r="E27" t="s">
-        <v>1574</v>
+        <v>1447</v>
       </c>
       <c r="F27" t="s">
-        <v>1541</v>
+        <v>1414</v>
       </c>
       <c r="H27" t="s">
-        <v>1575</v>
+        <v>1448</v>
       </c>
       <c r="I27" t="s">
-        <v>1576</v>
+        <v>1449</v>
       </c>
       <c r="J27" t="s">
-        <v>1577</v>
+        <v>1450</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>736</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>1578</v>
+        <v>1451</v>
       </c>
       <c r="Q27" t="s">
         <v>746</v>
@@ -16688,7 +14860,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -16726,82 +14898,82 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16809,19 +14981,19 @@
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16829,19 +15001,19 @@
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -16849,59 +15021,59 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16909,19 +15081,19 @@
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -16929,39 +15101,39 @@
       <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -16969,99 +15141,99 @@
       <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17069,139 +15241,139 @@
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -17209,39 +15381,39 @@
       <c r="A27" s="8">
         <v>1</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -17249,39 +15421,39 @@
       <c r="A29" s="9">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7">
-        <v>1</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -17289,99 +15461,99 @@
       <c r="A31" s="10">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="7">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -17389,59 +15561,59 @@
       <c r="A36" s="11">
         <v>1</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7">
-        <v>1</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -17449,19 +15621,19 @@
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -17469,39 +15641,39 @@
       <c r="A40" s="10">
         <v>1</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -17509,19 +15681,19 @@
       <c r="A42" s="9">
         <v>1</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -17529,19 +15701,19 @@
       <c r="A43" s="8">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -17549,119 +15721,119 @@
       <c r="A44" s="10">
         <v>1</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="7">
-        <v>1</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -17669,19 +15841,19 @@
       <c r="A50" s="9">
         <v>1</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -17689,39 +15861,39 @@
       <c r="A51" s="9">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="7">
-        <v>1</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -17729,19 +15901,19 @@
       <c r="A53" s="9">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -17749,39 +15921,39 @@
       <c r="A54" s="9">
         <v>1</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="7">
-        <v>1</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -17789,19 +15961,19 @@
       <c r="A56" s="9">
         <v>1</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -17809,19 +15981,19 @@
       <c r="A57" s="9">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -17829,19 +16001,19 @@
       <c r="A58" s="9">
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -17849,39 +16021,39 @@
       <c r="A59" s="9">
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="7">
-        <v>1</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -17928,34 +16100,34 @@
         <v>458</v>
       </c>
       <c r="G1" t="s">
-        <v>1579</v>
+        <v>1452</v>
       </c>
       <c r="H1" t="s">
-        <v>1580</v>
+        <v>1453</v>
       </c>
       <c r="I1" t="s">
-        <v>1581</v>
+        <v>1454</v>
       </c>
       <c r="J1" t="s">
-        <v>1582</v>
+        <v>1455</v>
       </c>
       <c r="K1" t="s">
-        <v>1583</v>
+        <v>1456</v>
       </c>
       <c r="L1" t="s">
-        <v>1584</v>
+        <v>1457</v>
       </c>
       <c r="M1" t="s">
-        <v>1585</v>
+        <v>1458</v>
       </c>
       <c r="N1" t="s">
-        <v>1586</v>
+        <v>1459</v>
       </c>
       <c r="O1" t="s">
         <v>928</v>
       </c>
       <c r="P1" t="s">
-        <v>1587</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -17963,49 +16135,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1588</v>
+        <v>1461</v>
       </c>
       <c r="C2" t="s">
-        <v>1589</v>
+        <v>1462</v>
       </c>
       <c r="D2" t="s">
-        <v>1590</v>
+        <v>1463</v>
       </c>
       <c r="E2" t="s">
-        <v>1591</v>
+        <v>1464</v>
       </c>
       <c r="F2" t="s">
-        <v>1592</v>
+        <v>1465</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1593</v>
+        <v>1466</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>1594</v>
+        <v>1467</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>1595</v>
+        <v>1468</v>
       </c>
       <c r="J2" t="s">
-        <v>1596</v>
+        <v>1469</v>
       </c>
       <c r="K2" t="s">
-        <v>1597</v>
+        <v>1470</v>
       </c>
       <c r="L2" t="s">
-        <v>1598</v>
+        <v>1471</v>
       </c>
       <c r="M2" t="s">
-        <v>1599</v>
+        <v>1472</v>
       </c>
       <c r="N2" t="s">
-        <v>1600</v>
+        <v>1473</v>
       </c>
       <c r="O2" t="s">
-        <v>1601</v>
+        <v>1474</v>
       </c>
       <c r="P2" t="s">
-        <v>1602</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -18013,49 +16185,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1588</v>
+        <v>1461</v>
       </c>
       <c r="C3" t="s">
-        <v>1589</v>
+        <v>1462</v>
       </c>
       <c r="D3" t="s">
-        <v>1603</v>
+        <v>1476</v>
       </c>
       <c r="E3" t="s">
-        <v>1604</v>
+        <v>1477</v>
       </c>
       <c r="F3" t="s">
-        <v>1605</v>
+        <v>1478</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1593</v>
+        <v>1466</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1606</v>
+        <v>1479</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>1595</v>
+        <v>1468</v>
       </c>
       <c r="J3" t="s">
-        <v>1596</v>
+        <v>1469</v>
       </c>
       <c r="K3" t="s">
-        <v>1597</v>
+        <v>1470</v>
       </c>
       <c r="L3" t="s">
-        <v>1598</v>
+        <v>1471</v>
       </c>
       <c r="M3" t="s">
-        <v>1599</v>
+        <v>1472</v>
       </c>
       <c r="N3" t="s">
-        <v>1607</v>
+        <v>1480</v>
       </c>
       <c r="O3" t="s">
-        <v>1608</v>
+        <v>1481</v>
       </c>
       <c r="P3" t="s">
-        <v>1602</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18063,49 +16235,49 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1588</v>
+        <v>1461</v>
       </c>
       <c r="C4" t="s">
-        <v>1589</v>
+        <v>1462</v>
       </c>
       <c r="D4" t="s">
-        <v>1609</v>
+        <v>1482</v>
       </c>
       <c r="E4" t="s">
-        <v>1610</v>
+        <v>1483</v>
       </c>
       <c r="F4" t="s">
-        <v>1611</v>
+        <v>1484</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>1593</v>
+        <v>1466</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>1612</v>
+        <v>1485</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1595</v>
+        <v>1468</v>
       </c>
       <c r="J4" t="s">
-        <v>1596</v>
+        <v>1469</v>
       </c>
       <c r="K4" t="s">
-        <v>1613</v>
+        <v>1486</v>
       </c>
       <c r="L4" t="s">
-        <v>1598</v>
+        <v>1471</v>
       </c>
       <c r="M4" t="s">
-        <v>1599</v>
+        <v>1472</v>
       </c>
       <c r="N4" t="s">
-        <v>1607</v>
+        <v>1480</v>
       </c>
       <c r="O4" t="s">
-        <v>1614</v>
+        <v>1487</v>
       </c>
       <c r="P4" t="s">
-        <v>1602</v>
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -18138,26 +16310,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1615</v>
+        <v>1488</v>
       </c>
       <c r="B2" t="s">
-        <v>1616</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1617</v>
+        <v>1490</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1618</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1619</v>
+        <v>1492</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1620</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -18165,71 +16337,71 @@
         <v>569</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1621</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1622</v>
+        <v>1495</v>
       </c>
       <c r="B6" t="s">
-        <v>1623</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1624</v>
+        <v>1497</v>
       </c>
       <c r="B7" t="s">
-        <v>1625</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1626</v>
+        <v>1499</v>
       </c>
       <c r="B8" t="s">
-        <v>1627</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1628</v>
+        <v>1501</v>
       </c>
       <c r="B9" t="s">
-        <v>1629</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1630</v>
+        <v>1503</v>
       </c>
       <c r="B10" t="s">
-        <v>1631</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1632</v>
+        <v>1505</v>
       </c>
       <c r="B11" t="s">
-        <v>1633</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1634</v>
+        <v>1507</v>
       </c>
       <c r="B12" t="s">
-        <v>1635</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1636</v>
+        <v>1509</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1637</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -18237,7 +16409,7 @@
         <v>737</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1638</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -18245,7 +16417,7 @@
         <v>467</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1639</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -18253,7 +16425,7 @@
         <v>747</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1640</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -18261,7 +16433,7 @@
         <v>742</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1641</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -18269,7 +16441,7 @@
         <v>752</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1642</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -18277,7 +16449,7 @@
         <v>760</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1643</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -18285,7 +16457,7 @@
         <v>763</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1644</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -18293,7 +16465,7 @@
         <v>766</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1645</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -18301,7 +16473,7 @@
         <v>468</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1646</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -18309,7 +16481,7 @@
         <v>756</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1647</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -18324,1471 +16496,1371 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="5"/>
+    <col min="6" max="9" width="9" style="6"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:12">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:12">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:12">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:12">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:12">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:12">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:12">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:12">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:12">
-      <c r="A34" s="6">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="6">
-        <v>1</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="6">
-        <v>1</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:12">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" customHeight="1" spans="1:12">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" customHeight="1" spans="1:12">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" customHeight="1" spans="1:12">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" customHeight="1" spans="1:12">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" customHeight="1" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" customHeight="1" spans="1:12">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" customHeight="1" spans="1:12">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" customHeight="1" spans="1:12">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" customHeight="1" spans="1:12">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" customHeight="1" spans="1:12">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" customHeight="1" spans="1:12">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" customHeight="1" spans="1:12">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" customHeight="1" spans="1:12">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" customHeight="1" spans="1:12">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" customHeight="1" spans="1:12">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" customHeight="1" spans="1:12">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" customHeight="1" spans="1:12">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" customHeight="1" spans="1:12">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:12">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" customHeight="1" spans="1:12">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" customHeight="1" spans="1:12">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -20123,7 +18195,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -20161,7 +18233,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -20182,7 +18254,7 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>489</v>
       </c>
       <c r="J3">
@@ -20220,7 +18292,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -20241,7 +18313,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -20249,7 +18321,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -20267,7 +18339,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -20275,7 +18347,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -20296,7 +18368,7 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>512</v>
       </c>
       <c r="J6">
@@ -20334,7 +18406,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -20355,7 +18427,7 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>525</v>
       </c>
       <c r="J7">
@@ -20389,9 +18461,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -20419,16 +18491,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -20559,16 +18631,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -20609,16 +18681,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -20659,16 +18731,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -20709,16 +18781,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -20756,16 +18828,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -20866,16 +18938,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -21000,16 +19072,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -21101,16 +19173,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -21205,16 +19277,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>565656</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -21309,16 +19381,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -21345,7 +19417,7 @@
       <c r="P11" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="4" t="s">
         <v>673</v>
       </c>
       <c r="R11" s="21" t="s">
@@ -21416,16 +19488,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -21449,7 +19521,7 @@
       <c r="P12" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="4" t="s">
         <v>688</v>
       </c>
       <c r="R12" s="21" t="s">
@@ -21520,16 +19592,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>790200</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -21553,7 +19625,7 @@
       <c r="P13" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="4" t="s">
         <v>187</v>
       </c>
       <c r="R13" s="20" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -1299,7 +1299,7 @@
     <t>ЗАБЫТЫЙ ТРОН</t>
   </si>
   <si>
-    <t>&lt;fs=50&gt;&lt;ls=80&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ:&lt;/f&gt; изгоните эту карту, чтобы либо получить 1 реликвию, либо, если вы удовлетворяете требованиям, немедленно выполнить 1 из ваших выполненных секретных целей или невыполненных секретных целей.&lt;/ls&gt;&lt;/fs&gt;</t>
+    <t>&lt;fs=42&gt;&lt;ls=67&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ:&lt;/f&gt; изгоните эту карту, чтобы получить 1 реликвию.&lt;ls=46&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ:&lt;/f&gt; изгоните эту карту, чтобы немедленно выполнить либо 1 из ваших невыполненных секретных целей, либо выполненную секретную цель другого игрока, если вы удовлетворяете её условиям.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Затерянные в ветрах времени ответы скрываются в этом скорбном сооружении с одной единственной надписью: «Кнар».&lt;/fs&gt;</t>
@@ -8468,7 +8468,7 @@
   <sheetPr/>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A74" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R92" sqref="R92:R99"/>
     </sheetView>
   </sheetViews>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12975" tabRatio="796" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -7442,8 +7442,8 @@
   <sheetPr/>
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10112,10 +10112,18 @@
         <v>974</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="P56" s="1">
+        <v>213</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>156</v>
+      </c>
+      <c r="R56" s="1">
+        <v>775</v>
+      </c>
+      <c r="S56" s="1">
+        <v>775</v>
+      </c>
     </row>
     <row r="57" customHeight="1" spans="1:19">
       <c r="A57" s="1">
@@ -10151,10 +10159,18 @@
         <v>1175</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="P57" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>-120</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1138</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1846</v>
+      </c>
     </row>
     <row r="58" customHeight="1" spans="1:19">
       <c r="A58" s="1">
@@ -11526,8 +11542,8 @@
   <sheetPr/>
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="9" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1445">
   <si>
     <t>Count</t>
   </si>
@@ -3874,6 +3874,21 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Родная раса этой планеты погибла до того, как достигла звёзд. Смертоносный эфир до сих пор насыщает атмосферу этой безжизненной планеты.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>Legendary Secondary</t>
+  </si>
+  <si>
+    <t>XLegendary</t>
+  </si>
+  <si>
+    <t>YLegendary</t>
+  </si>
+  <si>
+    <t>XSizeLegendary</t>
+  </si>
+  <si>
+    <t>YSizeLegendary</t>
+  </si>
+  <si>
     <t>Images\Planets\US\57.png</t>
   </si>
   <si>
@@ -3883,12 +3898,18 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Погребённая в глубине звёздной пыли, эта планета окутана тайнами: многие корабли, потерянные в её окрестностях, исчезают навсегда.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>ФРАКТАЛЬНЫЕ ВРАТА</t>
+  </si>
+  <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы убрать 1 из ваших кораблей с игрового поля и разместить этот отряд в смежной системе, в которой нет кораблей другого игрока.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Пропавшие рядом с этой планетой корабли обнаруживались по всей галактике. Этому феномену не было логичного объяснения.&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Госпожа</t>
+  </si>
+  <si>
     <t>Images\Planets\US\62.png</t>
   </si>
   <si>
@@ -3898,12 +3919,18 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Здесь расположена библиотека древнего императора. Местные жители любят рассказывать посетителям загадочные истории и злобном духе-обманщике.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>МИСТИЧЕСКАЯ БИБЛИОТЕКА</t>
+  </si>
+  <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы изгнать 1 из ваших нефракционных технологий, не являющихся улучшениями отрядов, и получить технологию с таким же количеством требований.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;«Позвольте мне помочь», — засмеялся странный голос, когда терминал засветился с сообщением об отказе в доступе.&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Призма</t>
+  </si>
+  <si>
     <t>Images\Planets\US\63.png</t>
   </si>
   <si>
@@ -3913,12 +3940,18 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Необычайно интенсивная геотермальная активность делает эту планету идеальным местом для исчезновения всего, что совет предпочёл бы забыть.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>СЕКРЕТНЫЙ ОБЪЕКТ СОВЕТА</t>
+  </si>
+  <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;После раскрытия карты политики, вы можете перевернуть эту карту, чтобы предсказать вслух результат голосования по этой карте политики. Если предсказание окажется верным, возьмите 1 секретную цель.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Немногие знают точное местоположение замаскированной станции. О происходящем внутри неё знают ещё меньше.&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Пепел</t>
+  </si>
+  <si>
     <t>Images\Planets\US\64.png</t>
   </si>
   <si>
@@ -3928,12 +3961,18 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Местные жители этого малоиз-&lt;br&gt;вестного мира — единственные, кто умеет безопасно обращаться с древними сооружениями, покрывающими поверхность.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>БИФАЗНЫЕ ГЕНЕРАТОРЫ</t>
+  </si>
+  <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить 1 жетон пограничья в системе, в которой нет планет.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Крик пробивался сквозь какофонию странной машины: «Хитрость — в том, чтобы смотреть на то, чего нет!»&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Эхо</t>
+  </si>
+  <si>
     <t>Images\Planets\US\65.png</t>
   </si>
   <si>
@@ -3943,12 +3982,18 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Безжизненный камень на далёкой орбите вокруг красного карлика. Здесь расположено печально известное кладбище списанных кораблей.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>ИМПЕРСКАЯ ТРОФЕЙНАЯ ВЕРФЬ</t>
+  </si>
+  <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить крейсер из вашего снабжения в любой системе, в которой есть хотя бы 1 ваш корабль.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Среди обломков и металлолома всё ещё можно обнаружить пригодные для полёта корабли.&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Тишина</t>
+  </si>
+  <si>
     <t>Images\Planets\Codex\84.png</t>
   </si>
   <si>
@@ -3961,13 +4006,16 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Кустодия Вигилия. Полностью оборудованная резиденция Келерес. Настоящая крепость в самом сердце Мекатол-Сити. Десять тысяч сотрудников приходят и уходят ежедневно, и Келерес видят их всех.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=54&gt;Кустодия Вигилия&lt;/fs&gt;</t>
+    <t>КУСТОДИЯ ВИГИЛИЯ</t>
   </si>
   <si>
     <t>&lt;fs=60&gt;&lt;ls=50&gt;Пока вы контролируете Мекатол-Рекс, он получает способности &lt;push=0;40&gt;&lt;f=Russo One;60;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА 5»&lt;/f&gt;&lt;push=0;-40&gt; и &lt;push=0;40&gt;&lt;f=Russo One;60;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-40&gt;, как если бы это был отряд.&lt;ls=80&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Когда другой игрок получает победное очко, используя карту стратегии Экспансия, получите 2 жетона приказов.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=44&gt;Мир великолепен, война достославна.&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>Кустодия Вигилия</t>
   </si>
   <si>
     <t>Images\Promissory\Promissory_Back.png</t>
@@ -4442,7 +4490,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4455,6 +4503,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4980,16 +5035,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4998,129 +5050,133 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5134,11 +5190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5148,7 +5204,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5478,1246 +5534,1246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="18" customWidth="1"/>
-    <col min="7" max="10" width="9" style="16"/>
-    <col min="11" max="12" width="9" style="17"/>
-    <col min="13" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="19" customWidth="1"/>
+    <col min="7" max="10" width="9" style="17"/>
+    <col min="11" max="12" width="9" style="18"/>
+    <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19">
-        <v>1</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="20">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19">
-        <v>1</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="20">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19">
-        <v>1</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="20">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="19">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="20">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="20">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19">
-        <v>1</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19">
-        <v>1</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19">
-        <v>1</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="20">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19">
-        <v>1</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="20">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19">
-        <v>1</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19">
-        <v>1</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="20">
+        <v>1</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19">
-        <v>1</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="20">
+        <v>1</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="20">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="20">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19">
-        <v>1</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="20">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19">
-        <v>1</v>
-      </c>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="20">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19">
-        <v>1</v>
-      </c>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="20">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19">
-        <v>1</v>
-      </c>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="20">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19">
-        <v>1</v>
-      </c>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="20">
+        <v>1</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19">
-        <v>1</v>
-      </c>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="20">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19">
-        <v>1</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="20">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19">
-        <v>1</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="20">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19">
-        <v>1</v>
-      </c>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="20">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19">
-        <v>1</v>
-      </c>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="20">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19">
-        <v>1</v>
-      </c>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="20">
+        <v>1</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19">
-        <v>1</v>
-      </c>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="20">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="19">
-        <v>1</v>
-      </c>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="20">
+        <v>1</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19">
-        <v>1</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="20">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19">
-        <v>1</v>
-      </c>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="20">
+        <v>1</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19">
-        <v>1</v>
-      </c>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="20">
+        <v>1</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="19">
-        <v>1</v>
-      </c>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="20">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19">
-        <v>1</v>
-      </c>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="20">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="19">
-        <v>1</v>
-      </c>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="20">
+        <v>1</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="19">
-        <v>1</v>
-      </c>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="20">
+        <v>1</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="19">
-        <v>1</v>
-      </c>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="20">
+        <v>1</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19">
-        <v>1</v>
-      </c>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="20">
+        <v>1</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19">
-        <v>1</v>
-      </c>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="20">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19">
-        <v>1</v>
-      </c>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="20">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="19">
-        <v>1</v>
-      </c>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="20">
+        <v>1</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="19">
-        <v>1</v>
-      </c>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="20">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="19">
-        <v>1</v>
-      </c>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="20">
+        <v>1</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="19">
-        <v>1</v>
-      </c>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="20">
+        <v>1</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="19">
-        <v>1</v>
-      </c>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="20">
+        <v>1</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="19">
-        <v>1</v>
-      </c>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="20">
+        <v>1</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7234,13 +7290,13 @@
       <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -7252,7 +7308,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7272,13 +7328,13 @@
       <c r="E3" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -7287,7 +7343,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7307,13 +7363,13 @@
       <c r="E4" t="s">
         <v>938</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -7322,10 +7378,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="25" t="s">
         <v>933</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="25" t="s">
         <v>940</v>
       </c>
     </row>
@@ -7345,10 +7401,10 @@
       <c r="E5" t="s">
         <v>942</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -7357,7 +7413,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7377,13 +7433,13 @@
       <c r="E6" t="s">
         <v>944</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -7392,7 +7448,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7412,13 +7468,13 @@
       <c r="E7" t="s">
         <v>947</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -7427,7 +7483,7 @@
       <c r="L7" t="s">
         <v>949</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7442,8 +7498,8 @@
   <sheetPr/>
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P$1:S$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7462,8 +7518,8 @@
     <col min="13" max="13" width="11.8" customWidth="1"/>
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
     <col min="16" max="19" width="5.71428571428571" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.9238095238095" customWidth="1"/>
-    <col min="21" max="29" width="9.78095238095238" customWidth="1"/>
+    <col min="20" max="22" width="9.78095238095238" customWidth="1"/>
+    <col min="24" max="29" width="9.78095238095238" customWidth="1"/>
     <col min="30" max="119" width="10.8857142857143" customWidth="1"/>
     <col min="120" max="1019" width="11.8857142857143" customWidth="1"/>
     <col min="1020" max="10019" width="12.8857142857143" customWidth="1"/>
@@ -7471,70 +7527,70 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>968</v>
       </c>
     </row>
@@ -8750,7 +8806,7 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="Q27" s="1">
         <v>135</v>
@@ -10066,16 +10122,16 @@
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="Q55" s="1">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="R55" s="1">
-        <v>780</v>
+        <v>835</v>
       </c>
       <c r="S55" s="1">
-        <v>780</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:19">
@@ -11540,10 +11596,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11563,82 +11619,99 @@
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
     <col min="16" max="19" width="5.71428571428571" style="2" customWidth="1"/>
     <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
-    <col min="21" max="29" width="9.78095238095238" customWidth="1"/>
-    <col min="30" max="119" width="10.8857142857143" customWidth="1"/>
-    <col min="120" max="1019" width="11.8857142857143" customWidth="1"/>
-    <col min="1020" max="10019" width="12.8857142857143" customWidth="1"/>
-    <col min="10020" max="16377" width="13.8857142857143" customWidth="1"/>
+    <col min="21" max="22" width="9.78095238095238" customWidth="1"/>
+    <col min="24" max="27" width="9.78095238095238" style="3" customWidth="1"/>
+    <col min="28" max="30" width="9.78095238095238" customWidth="1"/>
+    <col min="31" max="120" width="10.8857142857143" customWidth="1"/>
+    <col min="121" max="1020" width="11.8857142857143" customWidth="1"/>
+    <col min="1021" max="10020" width="12.8857142857143" customWidth="1"/>
+    <col min="10021" max="16378" width="13.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:27">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W1" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11646,10 +11719,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -11666,7 +11739,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="N2" t="s">
         <v>1179</v>
@@ -11684,17 +11757,24 @@
       <c r="S2" s="1">
         <v>1648</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" customHeight="1" spans="1:22">
+      <c r="T2" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11702,10 +11782,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11722,7 +11802,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
       <c r="N3" t="s">
         <v>1179</v>
@@ -11740,17 +11820,24 @@
       <c r="S3" s="1">
         <v>1075</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>1251</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" customHeight="1" spans="1:22">
+      <c r="T3" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:27">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11758,10 +11845,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -11778,35 +11865,42 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="N4" t="s">
         <v>1179</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <v>118</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>14</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="5">
         <v>951</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="5">
         <v>961</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>1254</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:22">
+      <c r="T4" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:27">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -11814,10 +11908,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -11834,7 +11928,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="N5" t="s">
         <v>1179</v>
@@ -11852,17 +11946,24 @@
       <c r="S5" s="1">
         <v>1290</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:22">
+      <c r="T5" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -11870,10 +11971,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -11890,7 +11991,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
       <c r="N6" t="s">
         <v>1179</v>
@@ -11908,17 +12009,24 @@
       <c r="S6" s="1">
         <v>1316</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>1266</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" customHeight="1" spans="1:22">
+      <c r="T6" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:27">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -11926,10 +12034,10 @@
         <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -11939,40 +12047,47 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="N7" t="s">
         <v>974</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="2">
-        <v>-698</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2546</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1320</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>1274</v>
-      </c>
+      <c r="P7" s="1">
+        <v>-504</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-714</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2206</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1762</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="1"/>
@@ -13867,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13878,13 +13993,13 @@
         <v>406</v>
       </c>
       <c r="C3" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="E3" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="F3" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13895,13 +14010,13 @@
         <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="E4" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="F4" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13912,16 +14027,16 @@
         <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="E5" t="s">
-        <v>1283</v>
+        <v>1299</v>
       </c>
       <c r="F5" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -13958,10 +14073,10 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>1284</v>
+        <v>1300</v>
       </c>
       <c r="E1" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="F1" t="s">
         <v>186</v>
@@ -13981,19 +14096,19 @@
         <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -14007,19 +14122,19 @@
         <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -14033,19 +14148,19 @@
         <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -14089,7 +14204,7 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="D1" t="s">
         <v>430</v>
@@ -14104,22 +14219,22 @@
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="I1" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="J1" t="s">
-        <v>1298</v>
+        <v>1314</v>
       </c>
       <c r="K1" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="L1" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="M1" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="N1" t="s">
         <v>723</v>
@@ -14131,34 +14246,34 @@
         <v>725</v>
       </c>
       <c r="Q1" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
       <c r="R1" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="S1" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="T1" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="U1" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
       <c r="V1" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="W1" t="s">
-        <v>1308</v>
+        <v>1324</v>
       </c>
       <c r="X1" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="Y1" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
       <c r="Z1" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -14166,16 +14281,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="D2" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="K2" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
       <c r="M2" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="U2" t="s">
         <v>741</v>
@@ -14186,18 +14301,18 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="D3" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="K3" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="L3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="N3" s="24" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q3" t="s">
@@ -14230,25 +14345,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="C4" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D4" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="E4" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F4" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K4" t="s">
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="M4" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
       <c r="Q4" t="s">
         <v>746</v>
@@ -14268,22 +14383,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D5" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="E5" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="F5" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K5" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
       <c r="M5" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="U5" t="s">
         <v>741</v>
@@ -14297,28 +14412,28 @@
         <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D6" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="E6" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F6" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G6" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H6" t="s">
-        <v>1328</v>
+        <v>1344</v>
       </c>
       <c r="I6" t="s">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="J6" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
       <c r="U6" t="s">
         <v>740</v>
@@ -14329,22 +14444,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D7" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="E7" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F7" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K7" t="s">
-        <v>1331</v>
+        <v>1347</v>
       </c>
       <c r="M7" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="s">
         <v>741</v>
@@ -14361,25 +14476,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D8" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E8" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F8" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K8" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L8" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M8" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="s">
         <v>740</v>
@@ -14396,40 +14511,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1334</v>
+        <v>1350</v>
       </c>
       <c r="C9" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D9" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E9" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F9" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G9" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H9" t="s">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="I9" t="s">
-        <v>1336</v>
+        <v>1352</v>
       </c>
       <c r="J9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="N9" s="24" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N9" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>1338</v>
+      <c r="P9" s="25" t="s">
+        <v>1354</v>
       </c>
       <c r="Q9" t="s">
         <v>751</v>
@@ -14467,37 +14582,37 @@
         <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D10" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E10" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F10" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="G10" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H10" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="I10" t="s">
-        <v>1340</v>
+        <v>1356</v>
       </c>
       <c r="J10" t="s">
-        <v>1341</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>1343</v>
+        <v>1357</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>1359</v>
       </c>
       <c r="Q10" t="s">
         <v>740</v>
@@ -14520,28 +14635,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D11" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E11" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F11" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="G11" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H11" t="s">
-        <v>1344</v>
+        <v>1360</v>
       </c>
       <c r="I11" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
       <c r="J11" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="Q11" t="s">
         <v>740</v>
@@ -14555,28 +14670,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E12" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F12" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G12" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H12" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="I12" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
       <c r="J12" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="R12" t="s">
         <v>741</v>
@@ -14593,33 +14708,33 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D13" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E13" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F13" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="G13" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="H13" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
       <c r="I13" t="s">
-        <v>1350</v>
+        <v>1366</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="25" t="s">
         <v>750</v>
       </c>
       <c r="Q13" t="s">
@@ -14649,30 +14764,30 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D14" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E14" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F14" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K14" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L14" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O14" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q14" t="s">
@@ -14705,30 +14820,30 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D15" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E15" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F15" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="K15" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L15" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M15" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O15" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O15" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q15" t="s">
@@ -14758,30 +14873,30 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D16" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E16" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F16" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K16" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L16" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M16" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O16" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O16" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q16" t="s">
@@ -14808,30 +14923,30 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D17" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E17" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F17" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K17" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L17" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M17" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O17" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O17" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q17" t="s">
@@ -14861,30 +14976,30 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D18" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E18" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F18" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="K18" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L18" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M18" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O18" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O18" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q18" t="s">
@@ -14914,30 +15029,30 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D19" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E19" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F19" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K19" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L19" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M19" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O19" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O19" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q19" t="s">
@@ -14958,30 +15073,30 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D20" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E20" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F20" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K20" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L20" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M20" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O20" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O20" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q20" t="s">
@@ -14994,7 +15109,7 @@
         <v>751</v>
       </c>
       <c r="V20" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -15008,30 +15123,30 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D21" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E21" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F21" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="K21" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L21" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M21" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O21" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O21" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q21" t="s">
@@ -15044,7 +15159,7 @@
         <v>751</v>
       </c>
       <c r="V21" t="s">
-        <v>1353</v>
+        <v>1369</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -15058,30 +15173,30 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D22" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E22" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="F22" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K22" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L22" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M22" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O22" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O22" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q22" t="s">
@@ -15094,7 +15209,7 @@
         <v>751</v>
       </c>
       <c r="V22" t="s">
-        <v>1354</v>
+        <v>1370</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -15108,30 +15223,30 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D23" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E23" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F23" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="K23" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L23" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M23" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O23" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O23" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q23" t="s">
@@ -15158,30 +15273,30 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D24" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E24" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F24" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="K24" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L24" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M24" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O24" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O24" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q24" t="s">
@@ -15214,30 +15329,30 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D25" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E25" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="F25" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="K25" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L25" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M25" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P25" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="P25" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q25" t="s">
@@ -15264,30 +15379,30 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D26" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E26" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="F26" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="K26" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="L26" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="M26" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O26" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O26" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q26" t="s">
@@ -15323,31 +15438,31 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="D27" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="E27" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="F27" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="H27" t="s">
-        <v>1356</v>
+        <v>1372</v>
       </c>
       <c r="I27" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="J27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N27" s="24" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N27" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="P27" s="24" t="s">
-        <v>1359</v>
+      <c r="P27" s="25" t="s">
+        <v>1375</v>
       </c>
       <c r="Q27" t="s">
         <v>746</v>
@@ -15383,7 +15498,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -15414,34 +15529,34 @@
         <v>458</v>
       </c>
       <c r="G1" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
       <c r="H1" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="I1" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
       <c r="J1" t="s">
-        <v>1363</v>
+        <v>1379</v>
       </c>
       <c r="K1" t="s">
-        <v>1364</v>
+        <v>1380</v>
       </c>
       <c r="L1" t="s">
-        <v>1365</v>
+        <v>1381</v>
       </c>
       <c r="M1" t="s">
-        <v>1366</v>
+        <v>1382</v>
       </c>
       <c r="N1" t="s">
-        <v>1367</v>
+        <v>1383</v>
       </c>
       <c r="O1" t="s">
         <v>928</v>
       </c>
       <c r="P1" t="s">
-        <v>1368</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15449,49 +15564,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="C2" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
       <c r="D2" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="E2" t="s">
-        <v>1372</v>
+        <v>1388</v>
       </c>
       <c r="F2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>1375</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>1376</v>
+        <v>1389</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>1392</v>
       </c>
       <c r="J2" t="s">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="K2" t="s">
-        <v>1378</v>
+        <v>1394</v>
       </c>
       <c r="L2" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="M2" t="s">
-        <v>1380</v>
+        <v>1396</v>
       </c>
       <c r="N2" t="s">
-        <v>1381</v>
+        <v>1397</v>
       </c>
       <c r="O2" t="s">
-        <v>1382</v>
+        <v>1398</v>
       </c>
       <c r="P2" t="s">
-        <v>1383</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -15499,49 +15614,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="C3" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
       <c r="D3" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="E3" t="s">
-        <v>1385</v>
+        <v>1401</v>
       </c>
       <c r="F3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>1376</v>
+        <v>1402</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>1392</v>
       </c>
       <c r="J3" t="s">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="K3" t="s">
-        <v>1378</v>
+        <v>1394</v>
       </c>
       <c r="L3" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="M3" t="s">
-        <v>1380</v>
+        <v>1396</v>
       </c>
       <c r="N3" t="s">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="O3" t="s">
-        <v>1389</v>
+        <v>1405</v>
       </c>
       <c r="P3" t="s">
-        <v>1383</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -15549,49 +15664,49 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="C4" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
       <c r="D4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>1390</v>
       </c>
-      <c r="E4" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" s="25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>1392</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" t="s">
         <v>1393</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1377</v>
-      </c>
       <c r="K4" t="s">
-        <v>1394</v>
+        <v>1410</v>
       </c>
       <c r="L4" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="M4" t="s">
-        <v>1380</v>
+        <v>1396</v>
       </c>
       <c r="N4" t="s">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="O4" t="s">
-        <v>1395</v>
+        <v>1411</v>
       </c>
       <c r="P4" t="s">
-        <v>1383</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -15624,178 +15739,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1396</v>
+        <v>1412</v>
       </c>
       <c r="B2" t="s">
-        <v>1397</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1399</v>
+        <v>1414</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1401</v>
+        <v>1416</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1402</v>
+      <c r="B5" s="25" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1403</v>
+        <v>1419</v>
       </c>
       <c r="B6" t="s">
-        <v>1404</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
       <c r="B7" t="s">
-        <v>1406</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1407</v>
+        <v>1423</v>
       </c>
       <c r="B8" t="s">
-        <v>1408</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1409</v>
+        <v>1425</v>
       </c>
       <c r="B9" t="s">
-        <v>1410</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1411</v>
+        <v>1427</v>
       </c>
       <c r="B10" t="s">
-        <v>1412</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1413</v>
+        <v>1429</v>
       </c>
       <c r="B11" t="s">
-        <v>1414</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1415</v>
+        <v>1431</v>
       </c>
       <c r="B12" t="s">
-        <v>1416</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>1418</v>
+        <v>1433</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>1419</v>
+      <c r="B14" s="25" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>1420</v>
+      <c r="B15" s="25" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>1421</v>
+      <c r="B16" s="25" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>1422</v>
+      <c r="B17" s="25" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>1423</v>
+      <c r="B18" s="25" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>1424</v>
+      <c r="B19" s="25" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>1425</v>
+      <c r="B20" s="25" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>1426</v>
+      <c r="B21" s="25" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>1427</v>
+      <c r="B22" s="25" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>1428</v>
+      <c r="B23" s="25" t="s">
+        <v>1444</v>
       </c>
     </row>
   </sheetData>
@@ -15930,7 +16045,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -15950,7 +16065,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -15970,7 +16085,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -16030,7 +16145,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16050,7 +16165,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -16090,7 +16205,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -16190,7 +16305,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -16330,7 +16445,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -16370,7 +16485,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -16410,7 +16525,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -16510,7 +16625,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15">
+      <c r="A36" s="16">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -16570,7 +16685,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13">
+      <c r="A39" s="14">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -16590,7 +16705,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -16630,7 +16745,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13">
+      <c r="A42" s="14">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -16650,7 +16765,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -16670,7 +16785,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14">
+      <c r="A44" s="15">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -16790,7 +16905,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13">
+      <c r="A50" s="14">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -16810,7 +16925,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13">
+      <c r="A51" s="14">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -16850,7 +16965,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13">
+      <c r="A53" s="14">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -16870,7 +16985,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13">
+      <c r="A54" s="14">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -16910,7 +17025,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13">
+      <c r="A56" s="14">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -16930,7 +17045,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="13">
+      <c r="A57" s="14">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -16950,7 +17065,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="13">
+      <c r="A58" s="14">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -16970,7 +17085,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="13">
+      <c r="A59" s="14">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -17027,7 +17142,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="11"/>
+    <col min="6" max="9" width="9" style="12"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -18522,7 +18637,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -18548,7 +18663,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -18629,7 +18744,7 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -18720,7 +18835,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -18735,13 +18850,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -18758,7 +18873,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18779,13 +18894,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="25" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -18794,13 +18909,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -18817,7 +18932,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -18838,7 +18953,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -18846,7 +18961,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -18864,7 +18979,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -18872,7 +18987,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -18893,13 +19008,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="25" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -18908,13 +19023,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="25" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -18931,7 +19046,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -18952,13 +19067,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="25" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -18986,9 +19101,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="8" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="9" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="9" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -19016,16 +19131,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -19156,16 +19271,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -19189,10 +19304,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19206,16 +19321,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -19239,10 +19354,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19256,16 +19371,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -19289,10 +19404,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="24" t="s">
+      <c r="AK4" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19306,16 +19421,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -19339,10 +19454,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AK5" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19353,16 +19468,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -19389,64 +19504,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="24" t="s">
+      <c r="Z6" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="24" t="s">
+      <c r="AC6" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="24" t="s">
+      <c r="AD6" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="24" t="s">
+      <c r="AE6" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="24" t="s">
+      <c r="AF6" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="24" t="s">
+      <c r="AG6" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="24" t="s">
+      <c r="AH6" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="24" t="s">
+      <c r="AI6" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="24" t="s">
+      <c r="AJ6" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="24" t="s">
+      <c r="AK6" s="25" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -19463,16 +19578,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -19499,61 +19614,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="V7" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="X7" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="24" t="s">
+      <c r="Y7" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="24" t="s">
+      <c r="Z7" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="24" t="s">
+      <c r="AA7" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AC7" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="24" t="s">
+      <c r="AD7" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="24" t="s">
+      <c r="AE7" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="24" t="s">
+      <c r="AF7" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="24" t="s">
+      <c r="AG7" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="24" t="s">
+      <c r="AH7" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="24" t="s">
+      <c r="AI7" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="24" t="s">
+      <c r="AJ7" s="25" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -19597,16 +19712,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -19627,61 +19742,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="24" t="s">
+      <c r="AA8" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="24" t="s">
+      <c r="AC8" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="24" t="s">
+      <c r="AD8" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="24" t="s">
+      <c r="AE8" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="24" t="s">
+      <c r="AF8" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="24" t="s">
+      <c r="AG8" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="24" t="s">
+      <c r="AH8" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="24" t="s">
+      <c r="AI8" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="24" t="s">
+      <c r="AJ8" s="25" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -19698,16 +19813,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -19734,7 +19849,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="25" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -19755,22 +19870,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA9" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB9" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AD9" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AE9" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AF9" s="25" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -19788,7 +19903,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="24" t="s">
+      <c r="AR9" s="25" t="s">
         <v>656</v>
       </c>
     </row>
@@ -19802,16 +19917,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>565656</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -19832,61 +19947,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="25" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AD10" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AE10" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="24" t="s">
+      <c r="AF10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AG10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="24" t="s">
+      <c r="AH10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="24" t="s">
+      <c r="AI10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="24" t="s">
+      <c r="AJ10" s="25" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -19906,16 +20021,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -19939,64 +20054,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="24" t="s">
+      <c r="U11" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="V11" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="24" t="s">
+      <c r="W11" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="24" t="s">
+      <c r="Y11" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="24" t="s">
+      <c r="AB11" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="24" t="s">
+      <c r="AC11" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="24" t="s">
+      <c r="AD11" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="24" t="s">
+      <c r="AE11" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="24" t="s">
+      <c r="AF11" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="24" t="s">
+      <c r="AG11" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="24" t="s">
+      <c r="AH11" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="24" t="s">
+      <c r="AI11" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="24" t="s">
+      <c r="AJ11" s="25" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -20013,16 +20128,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -20043,61 +20158,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="24" t="s">
+      <c r="T12" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="24" t="s">
+      <c r="V12" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AB12" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AC12" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="24" t="s">
+      <c r="AD12" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="24" t="s">
+      <c r="AE12" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="24" t="s">
+      <c r="AF12" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="24" t="s">
+      <c r="AG12" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="24" t="s">
+      <c r="AH12" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="24" t="s">
+      <c r="AI12" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="24" t="s">
+      <c r="AJ12" s="25" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -20117,16 +20232,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>790200</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -20147,58 +20262,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="24" t="s">
+      <c r="T13" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="24" t="s">
+      <c r="V13" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="24" t="s">
+      <c r="AA13" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="24" t="s">
+      <c r="AB13" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="24" t="s">
+      <c r="AC13" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="24" t="s">
+      <c r="AD13" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="24" t="s">
+      <c r="AE13" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="24" t="s">
+      <c r="AF13" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="24" t="s">
+      <c r="AG13" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="24" t="s">
+      <c r="AH13" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="24" t="s">
+      <c r="AI13" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="24" t="s">
+      <c r="AJ13" s="25" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -20418,19 +20533,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -20462,16 +20577,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -20524,7 +20639,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -20580,10 +20695,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -20639,7 +20754,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -20680,10 +20795,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -20786,7 +20901,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -20877,7 +20992,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="25" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -20933,7 +21048,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -20942,10 +21057,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="25" t="s">
         <v>778</v>
       </c>
     </row>
@@ -20989,7 +21104,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="25" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -20998,7 +21113,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21042,7 +21157,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -21095,7 +21210,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -21104,7 +21219,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21145,7 +21260,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -21201,7 +21316,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="25" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -21210,10 +21325,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="25" t="s">
         <v>795</v>
       </c>
     </row>
@@ -21257,7 +21372,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -21266,7 +21381,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21316,7 +21431,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -21372,7 +21487,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -21381,7 +21496,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21434,10 +21549,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -21493,7 +21608,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -21543,28 +21658,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="24" t="s">
+      <c r="X29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="24" t="s">
+      <c r="Y29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="24" t="s">
+      <c r="Z29" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -21579,13 +21694,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="24" t="s">
+      <c r="AE29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="24" t="s">
+      <c r="AF29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="24" t="s">
+      <c r="AG29" s="25" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21626,16 +21741,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="24" t="s">
+      <c r="P30" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -21650,13 +21765,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="24" t="s">
+      <c r="X30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="24" t="s">
+      <c r="Y30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="24" t="s">
+      <c r="Z30" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -21668,16 +21783,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="24" t="s">
+      <c r="AD30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="24" t="s">
+      <c r="AE30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="24" t="s">
+      <c r="AF30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="24" t="s">
+      <c r="AG30" s="25" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21727,7 +21842,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -21739,13 +21854,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="24" t="s">
+      <c r="X31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="24" t="s">
+      <c r="Y31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="24" t="s">
+      <c r="Z31" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -21757,16 +21872,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="24" t="s">
+      <c r="AD31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="24" t="s">
+      <c r="AE31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="24" t="s">
+      <c r="AF31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="24" t="s">
+      <c r="AG31" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -21822,10 +21937,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="24" t="s">
+      <c r="R32" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -21837,13 +21952,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="24" t="s">
+      <c r="X32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="24" t="s">
+      <c r="Y32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="24" t="s">
+      <c r="Z32" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -21855,16 +21970,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="24" t="s">
+      <c r="AD32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="24" t="s">
+      <c r="AE32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="24" t="s">
+      <c r="AF32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="24" t="s">
+      <c r="AG32" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -21920,7 +22035,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -21929,7 +22044,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="24" t="s">
+      <c r="X33" s="25" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -21950,13 +22065,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="24" t="s">
+      <c r="AE33" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="24" t="s">
+      <c r="AF33" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="24" t="s">
+      <c r="AG33" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -22000,10 +22115,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="24" t="s">
+      <c r="Q34" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="24" t="s">
+      <c r="R34" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -22033,10 +22148,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="24" t="s">
+      <c r="AE34" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="24" t="s">
+      <c r="AF34" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -22095,10 +22210,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="24" t="s">
+      <c r="R35" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -22128,10 +22243,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="24" t="s">
+      <c r="AE35" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="24" t="s">
+      <c r="AF35" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -22220,7 +22335,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="24" t="s">
+      <c r="AE36" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -22279,7 +22394,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -22309,7 +22424,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="24" t="s">
+      <c r="AE37" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -22392,10 +22507,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="24" t="s">
+      <c r="AE38" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="24" t="s">
+      <c r="AF38" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -22445,7 +22560,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="24" t="s">
+      <c r="Q39" s="25" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -22475,7 +22590,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="24" t="s">
+      <c r="AE39" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -22561,7 +22676,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="24" t="s">
+      <c r="AE40" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1456">
   <si>
     <t>Count</t>
   </si>
@@ -3889,6 +3889,30 @@
     <t>YSizeLegendary</t>
   </si>
   <si>
+    <t>XLegendaryBack</t>
+  </si>
+  <si>
+    <t>YLegendaryBack</t>
+  </si>
+  <si>
+    <t>XSizeLegendaryBack</t>
+  </si>
+  <si>
+    <t>YSizeLegendaryBack</t>
+  </si>
+  <si>
+    <t>HasCrosshairLegendary</t>
+  </si>
+  <si>
+    <t>HasCrosshairLegendaryBack</t>
+  </si>
+  <si>
+    <t>Background Image Front Ability</t>
+  </si>
+  <si>
+    <t>Legendary Planet Name Back</t>
+  </si>
+  <si>
     <t>Images\Planets\US\57.png</t>
   </si>
   <si>
@@ -3898,18 +3922,21 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Погребённая в глубине звёздной пыли, эта планета окутана тайнами: многие корабли, потерянные в её окрестностях, исчезают навсегда.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>ФРАКТАЛЬНЫЕ ВРАТА</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы убрать 1 из ваших кораблей с игрового поля и разместить этот отряд в смежной системе, в которой нет кораблей другого игрока.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Пропавшие рядом с этой планетой корабли обнаруживались по всей галактике. Этому феномену не было логичного объяснения.&lt;/fs&gt;</t>
+    <t>&lt;fs=64&gt;ФРАКТАЛЬНЫЕ ВРАТА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=67&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы убрать 1 из ваших кораблей с игрового поля и разместить этот отряд в смежной системе, в которой нет кораблей другого игрока.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=68&gt;Пропавшие рядом с этой плане-&lt;br&gt;той корабли обнаруживались по всей галактике. Этому феномену не было логичного объяснения.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Госпожа</t>
   </si>
   <si>
+    <t>Images\Planets\Legendary_Front_Background_a.png</t>
+  </si>
+  <si>
     <t>Images\Planets\US\62.png</t>
   </si>
   <si>
@@ -3919,13 +3946,13 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Здесь расположена библиотека древнего императора. Местные жители любят рассказывать посетителям загадочные истории и злобном духе-обманщике.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>МИСТИЧЕСКАЯ БИБЛИОТЕКА</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы изгнать 1 из ваших нефракционных технологий, не являющихся улучшениями отрядов, и получить технологию с таким же количеством требований.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;«Позвольте мне помочь», — засмеялся странный голос, когда терминал засветился с сообщением об отказе в доступе.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;МИСТИЧЕСКАЯ БИБЛИОТЕКА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=67&gt;Вы можете перевернуть эту кар-&lt;br&gt;ту в конце вашего хода, чтобы изгнать 1 из ваших нефракцион-&lt;br&gt;ных технологий, не являющихся улучшениями отрядов, и получить технологию с таким же количеством требований.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=68&gt;«Позвольте мне помочь», — засмеялся странный голос, когда терминал засветился с сообще-&lt;br&gt;нием об отказе в доступе.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Призма</t>
@@ -3940,13 +3967,13 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Необычайно интенсивная геотермальная активность делает эту планету идеальным местом для исчезновения всего, что совет предпочёл бы забыть.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>СЕКРЕТНЫЙ ОБЪЕКТ СОВЕТА</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;После раскрытия карты политики, вы можете перевернуть эту карту, чтобы предсказать вслух результат голосования по этой карте политики. Если предсказание окажется верным, возьмите 1 секретную цель.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Немногие знают точное местоположение замаскированной станции. О происходящем внутри неё знают ещё меньше.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;СЕКРЕТНЫЙ ОБЪЕКТ СОВЕТА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=67&gt;После раскрытия карты поли-&lt;br&gt;тики, вы можете перевернуть эту карту, чтобы предсказать вслух результат голосования по этой карте политики. Если предска-&lt;br&gt;зание окажется верным, возьмите 1 секретную цель.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=68&gt;Немногие знают точное место-&lt;br&gt;положение замаскированной станции. О происходящем внутри неё знают ещё меньше.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Пепел</t>
@@ -3961,13 +3988,13 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Местные жители этого малоиз-&lt;br&gt;вестного мира — единственные, кто умеет безопасно обращаться с древними сооружениями, покрывающими поверхность.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>БИФАЗНЫЕ ГЕНЕРАТОРЫ</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить 1 жетон пограничья в системе, в которой нет планет.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Крик пробивался сквозь какофонию странной машины: «Хитрость — в том, чтобы смотреть на то, чего нет!»&lt;/fs&gt;</t>
+    <t>&lt;fs=64&gt;БИФАЗНЫЕ ГЕНЕРАТОРЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=50&gt;&lt;ls=80&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить 1 жетон пограничья в системе, в которой нет планет.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;&lt;ls=68&gt;Крик пробивался сквозь какофонию странной машины: «Хитрость — в том, чтобы смотреть на то, чего нет!»&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Эхо</t>
@@ -3982,13 +4009,13 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Безжизненный камень на далёкой орбите вокруг красного карлика. Здесь расположено печально известное кладбище списанных кораблей.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>ИМПЕРСКАЯ ТРОФЕЙНАЯ ВЕРФЬ</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить крейсер из вашего снабжения в любой системе, в которой есть хотя бы 1 ваш корабль.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Среди обломков и металлолома всё ещё можно обнаружить пригодные для полёта корабли.&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;ИМПЕРСКАЯ ТРОФЕЙНАЯ ВЕРФЬ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=67&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы разместить крейсер из вашего снабжения в любой системе, в которой есть хотя бы 1 ваш корабль.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;&lt;ls=68&gt;Среди обломков и металлолома всё ещё можно обнаружить пригодные для полёта корабли.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Тишина</t>
@@ -4006,16 +4033,22 @@
     <t>&lt;ls=68&gt;&lt;fs=40&gt;Кустодия Вигилия. Полностью оборудованная резиденция Келерес. Настоящая крепость в самом сердце Мекатол-Сити. Десять тысяч сотрудников приходят и уходят ежедневно, и Келерес видят их всех.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>КУСТОДИЯ ВИГИЛИЯ</t>
-  </si>
-  <si>
-    <t>&lt;fs=60&gt;&lt;ls=50&gt;Пока вы контролируете Мекатол-Рекс, он получает способности &lt;push=0;40&gt;&lt;f=Russo One;60;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА 5»&lt;/f&gt;&lt;push=0;-40&gt; и &lt;push=0;40&gt;&lt;f=Russo One;60;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-40&gt;, как если бы это был отряд.&lt;ls=80&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Когда другой игрок получает победное очко, используя карту стратегии Экспансия, получите 2 жетона приказов.&lt;/ls&gt;&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Мир великолепен, война достославна.&lt;/fs&gt;</t>
+    <t>&lt;fs=64&gt;КУСТОДИЯ ВИГИЛИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;&lt;ls=64&gt;Пока вы контролируете Мекатол-Рекс, он получает способности &lt;push=0;12&gt;&lt;f=Russo One;34;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА 5»&lt;/f&gt;&lt;push=0;-12&gt; и &lt;push=0;12&gt;&lt;f=Russo One;34;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-12&gt;, как если бы это был отряд.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Когда другой игрок получает победное очко, используя карту стратегии «Экспансия», получите&lt;br&gt;2 жетона приказов.&lt;/ls&gt;&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=42&gt;&lt;ls=68&gt;Мир великолепен,&lt;br&gt;война достославна.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Кустодия Вигилия</t>
+  </si>
+  <si>
+    <t>Images\Planets\Legendary_Background_Exhausted.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=48&gt;Кустодия Вигилия&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Images\Promissory\Promissory_Back.png</t>
@@ -5165,7 +5198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5173,6 +5206,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5527,1253 +5561,1253 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="19" customWidth="1"/>
-    <col min="7" max="10" width="9" style="17"/>
-    <col min="11" max="12" width="9" style="18"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="20" customWidth="1"/>
+    <col min="7" max="10" width="9" style="18"/>
+    <col min="11" max="12" width="9" style="19"/>
+    <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20">
-        <v>1</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20">
-        <v>1</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20">
-        <v>1</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <v>1</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21">
+        <v>1</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20">
-        <v>1</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="21">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="21">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>1</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21">
+        <v>1</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20">
-        <v>1</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="21">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="21">
+        <v>1</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>1</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="21">
+        <v>1</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="21">
+        <v>1</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20">
-        <v>1</v>
-      </c>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="21">
+        <v>1</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="21">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20">
-        <v>1</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="21">
+        <v>1</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="21">
+        <v>1</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="21">
+        <v>1</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20">
-        <v>1</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="21">
+        <v>1</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="20">
-        <v>1</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="21">
+        <v>1</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20">
-        <v>1</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="21">
+        <v>1</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="20">
-        <v>1</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="21">
+        <v>1</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20">
-        <v>1</v>
-      </c>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="21">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20">
-        <v>1</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="21">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20">
-        <v>1</v>
-      </c>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="21">
+        <v>1</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20">
-        <v>1</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="20">
-        <v>1</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="21">
+        <v>1</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="20">
-        <v>1</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="21">
+        <v>1</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="20">
-        <v>1</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="21">
+        <v>1</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="20">
-        <v>1</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="21">
+        <v>1</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="20">
-        <v>1</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="21">
+        <v>1</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="20">
-        <v>1</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="21">
+        <v>1</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="20">
-        <v>1</v>
-      </c>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="21">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="20">
-        <v>1</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="21">
+        <v>1</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="20">
-        <v>1</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="21">
+        <v>1</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="20">
-        <v>1</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="21">
+        <v>1</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="20">
-        <v>1</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="21">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="20">
-        <v>1</v>
-      </c>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="21">
+        <v>1</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="25" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="20">
-        <v>1</v>
-      </c>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="21">
+        <v>1</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="20">
-        <v>1</v>
-      </c>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="21">
+        <v>1</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="20">
-        <v>1</v>
-      </c>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="21">
+        <v>1</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="20">
-        <v>1</v>
-      </c>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="21">
+        <v>1</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="20">
-        <v>1</v>
-      </c>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="21">
+        <v>1</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="20">
-        <v>1</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="21">
+        <v>1</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="20">
-        <v>1</v>
-      </c>
-      <c r="B60" s="23" t="s">
+      <c r="A60" s="21">
+        <v>1</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="20">
-        <v>1</v>
-      </c>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="21">
+        <v>1</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="20">
-        <v>1</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="A62" s="21">
+        <v>1</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7290,13 +7324,13 @@
       <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -7308,7 +7342,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7328,13 +7362,13 @@
       <c r="E3" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -7343,7 +7377,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7363,13 +7397,13 @@
       <c r="E4" t="s">
         <v>938</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -7378,10 +7412,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>940</v>
       </c>
     </row>
@@ -7401,10 +7435,10 @@
       <c r="E5" t="s">
         <v>942</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -7413,7 +7447,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7433,13 +7467,13 @@
       <c r="E6" t="s">
         <v>944</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -7448,7 +7482,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7468,13 +7502,13 @@
       <c r="E7" t="s">
         <v>947</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -7483,7 +7517,7 @@
       <c r="L7" t="s">
         <v>949</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -11596,10 +11630,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11620,15 +11654,15 @@
     <col min="16" max="19" width="5.71428571428571" style="2" customWidth="1"/>
     <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
     <col min="21" max="22" width="9.78095238095238" customWidth="1"/>
-    <col min="24" max="27" width="9.78095238095238" style="3" customWidth="1"/>
-    <col min="28" max="30" width="9.78095238095238" customWidth="1"/>
-    <col min="31" max="120" width="10.8857142857143" customWidth="1"/>
+    <col min="24" max="30" width="9.78095238095238" style="3" customWidth="1"/>
+    <col min="31" max="35" width="10.8857142857143" style="3" customWidth="1"/>
+    <col min="36" max="120" width="10.8857142857143" customWidth="1"/>
     <col min="121" max="1020" width="11.8857142857143" customWidth="1"/>
     <col min="1021" max="10020" width="12.8857142857143" customWidth="1"/>
     <col min="10021" max="16378" width="13.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
+    <row r="1" customHeight="1" spans="1:35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11710,8 +11744,32 @@
       <c r="AA1" s="6" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" customHeight="1" spans="1:27">
+      <c r="AB1" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11719,10 +11777,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -11739,7 +11797,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="N2" t="s">
         <v>1179</v>
@@ -11758,23 +11816,51 @@
         <v>1648</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" customHeight="1" spans="1:27">
+        <v>1262</v>
+      </c>
+      <c r="X2" s="3">
+        <v>-451</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>215</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1432</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1352</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>214</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>-99</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1372</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1375</v>
+      </c>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11782,10 +11868,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1256</v>
+        <v>1265</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11802,7 +11888,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
       <c r="N3" t="s">
         <v>1179</v>
@@ -11821,23 +11907,51 @@
         <v>1075</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>1260</v>
+        <v>1269</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>1261</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" customHeight="1" spans="1:27">
+        <v>1270</v>
+      </c>
+      <c r="X3" s="3">
+        <v>-416</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>182</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1409</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1351</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>372</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1020</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11845,10 +11959,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1263</v>
+        <v>1272</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -11865,7 +11979,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="N4" t="s">
         <v>1179</v>
@@ -11884,23 +11998,51 @@
         <v>961</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:27">
+        <v>1277</v>
+      </c>
+      <c r="X4" s="3">
+        <v>-425</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>196</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1338</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1269</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>424</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>99</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>896</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>867</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -11908,10 +12050,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1270</v>
+        <v>1279</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -11928,7 +12070,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>1271</v>
+        <v>1280</v>
       </c>
       <c r="N5" t="s">
         <v>1179</v>
@@ -11947,23 +12089,51 @@
         <v>1290</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>1272</v>
+        <v>1281</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:27">
+        <v>1284</v>
+      </c>
+      <c r="X5" s="3">
+        <v>-656</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1779</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1644</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>266</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-97</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1196</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1294</v>
+      </c>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -11971,10 +12141,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>1276</v>
+        <v>1285</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1277</v>
+        <v>1286</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -11991,7 +12161,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>1278</v>
+        <v>1287</v>
       </c>
       <c r="N6" t="s">
         <v>1179</v>
@@ -12010,23 +12180,51 @@
         <v>1316</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>1279</v>
+        <v>1288</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>1280</v>
+        <v>1289</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>1282</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" customFormat="1" customHeight="1" spans="1:27">
+        <v>1291</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-610</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1793</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1650</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>284</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-103</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1196</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1294</v>
+      </c>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -12034,10 +12232,10 @@
         <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -12047,14 +12245,14 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>1285</v>
+        <v>1294</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1286</v>
+        <v>1295</v>
       </c>
       <c r="N7" t="s">
         <v>974</v>
@@ -12073,21 +12271,53 @@
         <v>1762</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>1287</v>
+        <v>1296</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+        <v>1299</v>
+      </c>
+      <c r="X7" s="3">
+        <v>-476</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>-309</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1593</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1420</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-804</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1906</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1730</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="1"/>
@@ -13982,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13993,13 +14223,13 @@
         <v>406</v>
       </c>
       <c r="C3" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="E3" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="F3" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14010,13 +14240,13 @@
         <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="E4" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="F4" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -14027,16 +14257,16 @@
         <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="D5" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="E5" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="F5" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -14073,10 +14303,10 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="E1" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="F1" t="s">
         <v>186</v>
@@ -14096,19 +14326,19 @@
         <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -14122,19 +14352,19 @@
         <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -14148,19 +14378,19 @@
         <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -14204,7 +14434,7 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="D1" t="s">
         <v>430</v>
@@ -14219,22 +14449,22 @@
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="I1" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="J1" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="K1" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="L1" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="M1" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="N1" t="s">
         <v>723</v>
@@ -14246,34 +14476,34 @@
         <v>725</v>
       </c>
       <c r="Q1" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="R1" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="S1" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="T1" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="U1" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
       <c r="V1" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="W1" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="X1" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="Y1" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="Z1" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -14281,16 +14511,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="D2" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="K2" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="M2" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="U2" t="s">
         <v>741</v>
@@ -14301,18 +14531,18 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="D3" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="K3" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="L3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="N3" s="25" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q3" t="s">
@@ -14345,25 +14575,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C4" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D4" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="E4" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F4" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K4" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="M4" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="Q4" t="s">
         <v>746</v>
@@ -14383,22 +14613,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D5" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="E5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K5" t="s">
         <v>1341</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>1342</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1331</v>
       </c>
       <c r="U5" t="s">
         <v>741</v>
@@ -14412,28 +14642,28 @@
         <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D6" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="E6" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F6" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="G6" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H6" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="I6" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="J6" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="U6" t="s">
         <v>740</v>
@@ -14444,22 +14674,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D7" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="E7" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F7" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K7" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
       <c r="M7" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="Q7" t="s">
         <v>741</v>
@@ -14476,25 +14706,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D8" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E8" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F8" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="K8" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L8" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M8" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="Q8" t="s">
         <v>740</v>
@@ -14511,40 +14741,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1350</v>
+        <v>1361</v>
       </c>
       <c r="C9" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D9" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E9" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F9" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="G9" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H9" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="I9" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
       <c r="J9" t="s">
-        <v>1353</v>
-      </c>
-      <c r="N9" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N9" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>1354</v>
+      <c r="P9" s="26" t="s">
+        <v>1365</v>
       </c>
       <c r="Q9" t="s">
         <v>751</v>
@@ -14582,37 +14812,37 @@
         <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D10" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E10" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F10" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="G10" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H10" t="s">
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="I10" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="J10" t="s">
-        <v>1357</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>1359</v>
+        <v>1368</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>1370</v>
       </c>
       <c r="Q10" t="s">
         <v>740</v>
@@ -14635,28 +14865,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D11" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E11" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F11" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="G11" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H11" t="s">
-        <v>1360</v>
+        <v>1371</v>
       </c>
       <c r="I11" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="J11" t="s">
-        <v>1362</v>
+        <v>1373</v>
       </c>
       <c r="Q11" t="s">
         <v>740</v>
@@ -14670,28 +14900,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D12" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E12" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F12" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="G12" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H12" t="s">
-        <v>1363</v>
+        <v>1374</v>
       </c>
       <c r="I12" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="J12" t="s">
-        <v>1364</v>
+        <v>1375</v>
       </c>
       <c r="R12" t="s">
         <v>741</v>
@@ -14708,33 +14938,33 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D13" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E13" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F13" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="G13" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="H13" t="s">
-        <v>1365</v>
+        <v>1376</v>
       </c>
       <c r="I13" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="26" t="s">
         <v>750</v>
       </c>
       <c r="Q13" t="s">
@@ -14764,30 +14994,30 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D14" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E14" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F14" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="K14" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L14" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M14" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O14" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O14" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q14" t="s">
@@ -14820,30 +15050,30 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D15" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E15" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F15" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="K15" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L15" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M15" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O15" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O15" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q15" t="s">
@@ -14873,30 +15103,30 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D16" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E16" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F16" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K16" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L16" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M16" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O16" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q16" t="s">
@@ -14923,30 +15153,30 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D17" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E17" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F17" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="K17" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L17" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M17" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O17" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q17" t="s">
@@ -14976,30 +15206,30 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D18" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E18" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F18" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="K18" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L18" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O18" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O18" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q18" t="s">
@@ -15029,30 +15259,30 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D19" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E19" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F19" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K19" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L19" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M19" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O19" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q19" t="s">
@@ -15073,30 +15303,30 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D20" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E20" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F20" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="K20" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L20" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M20" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O20" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O20" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q20" t="s">
@@ -15109,7 +15339,7 @@
         <v>751</v>
       </c>
       <c r="V20" t="s">
-        <v>1368</v>
+        <v>1379</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -15123,30 +15353,30 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D21" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E21" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F21" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="K21" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L21" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M21" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O21" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O21" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q21" t="s">
@@ -15159,7 +15389,7 @@
         <v>751</v>
       </c>
       <c r="V21" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -15173,30 +15403,30 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D22" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E22" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F22" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K22" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L22" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M22" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O22" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O22" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q22" t="s">
@@ -15209,7 +15439,7 @@
         <v>751</v>
       </c>
       <c r="V22" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -15223,30 +15453,30 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D23" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E23" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="F23" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="K23" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L23" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M23" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O23" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O23" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q23" t="s">
@@ -15273,30 +15503,30 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D24" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E24" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F24" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="K24" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L24" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M24" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O24" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O24" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q24" t="s">
@@ -15329,30 +15559,30 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D25" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E25" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="F25" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="K25" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L25" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M25" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="P25" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P25" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q25" t="s">
@@ -15379,30 +15609,30 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D26" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E26" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F26" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="K26" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L26" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="M26" t="s">
-        <v>1367</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O26" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O26" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q26" t="s">
@@ -15438,31 +15668,31 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D27" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="E27" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="F27" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="H27" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="I27" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
       <c r="J27" t="s">
-        <v>1374</v>
-      </c>
-      <c r="N27" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N27" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>1375</v>
+      <c r="P27" s="26" t="s">
+        <v>1386</v>
       </c>
       <c r="Q27" t="s">
         <v>746</v>
@@ -15529,34 +15759,34 @@
         <v>458</v>
       </c>
       <c r="G1" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="H1" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="I1" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="J1" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="K1" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="L1" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="M1" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="N1" t="s">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="O1" t="s">
         <v>928</v>
       </c>
       <c r="P1" t="s">
-        <v>1384</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15564,49 +15794,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="C2" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="D2" t="s">
-        <v>1387</v>
+        <v>1398</v>
       </c>
       <c r="E2" t="s">
-        <v>1388</v>
+        <v>1399</v>
       </c>
       <c r="F2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>1392</v>
+        <v>1400</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>1403</v>
       </c>
       <c r="J2" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="K2" t="s">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="L2" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="M2" t="s">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="N2" t="s">
-        <v>1397</v>
+        <v>1408</v>
       </c>
       <c r="O2" t="s">
-        <v>1398</v>
+        <v>1409</v>
       </c>
       <c r="P2" t="s">
-        <v>1399</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -15614,49 +15844,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="C3" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="D3" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="E3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="F3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>1392</v>
-      </c>
       <c r="J3" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="K3" t="s">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="L3" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="M3" t="s">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="N3" t="s">
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="O3" t="s">
-        <v>1405</v>
+        <v>1416</v>
       </c>
       <c r="P3" t="s">
-        <v>1399</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -15664,49 +15894,49 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="C4" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="L4" t="s">
         <v>1406</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
         <v>1407</v>
       </c>
-      <c r="F4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>1409</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>1392</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="P4" t="s">
         <v>1410</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -15739,178 +15969,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
       <c r="B2" t="s">
-        <v>1413</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>1415</v>
+        <v>1425</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1417</v>
+        <v>1427</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>1418</v>
+      <c r="B5" s="26" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1419</v>
+        <v>1430</v>
       </c>
       <c r="B6" t="s">
-        <v>1420</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1421</v>
+        <v>1432</v>
       </c>
       <c r="B7" t="s">
-        <v>1422</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1423</v>
+        <v>1434</v>
       </c>
       <c r="B8" t="s">
-        <v>1424</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1425</v>
+        <v>1436</v>
       </c>
       <c r="B9" t="s">
-        <v>1426</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1427</v>
+        <v>1438</v>
       </c>
       <c r="B10" t="s">
-        <v>1428</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1429</v>
+        <v>1440</v>
       </c>
       <c r="B11" t="s">
-        <v>1430</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1431</v>
+        <v>1442</v>
       </c>
       <c r="B12" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>1434</v>
+        <v>1444</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>1435</v>
+      <c r="B14" s="26" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>1436</v>
+      <c r="B15" s="26" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>1437</v>
+      <c r="B16" s="26" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>1438</v>
+      <c r="B17" s="26" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>1439</v>
+      <c r="B18" s="26" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>1440</v>
+      <c r="B19" s="26" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>1441</v>
+      <c r="B20" s="26" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>1442</v>
+      <c r="B21" s="26" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>1443</v>
+      <c r="B22" s="26" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>1444</v>
+      <c r="B23" s="26" t="s">
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -16045,7 +16275,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -16065,7 +16295,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -16085,7 +16315,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -16145,7 +16375,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16165,7 +16395,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -16205,7 +16435,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -16305,7 +16535,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -16445,7 +16675,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -16485,7 +16715,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -16525,7 +16755,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -16625,7 +16855,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16">
+      <c r="A36" s="17">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -16685,7 +16915,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -16705,7 +16935,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="15">
+      <c r="A40" s="16">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -16745,7 +16975,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -16765,7 +16995,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13">
+      <c r="A43" s="14">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -16785,7 +17015,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -16905,7 +17135,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14">
+      <c r="A50" s="15">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -16925,7 +17155,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14">
+      <c r="A51" s="15">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -16965,7 +17195,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14">
+      <c r="A53" s="15">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -16985,7 +17215,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -17025,7 +17255,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14">
+      <c r="A56" s="15">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -17045,7 +17275,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -17065,7 +17295,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -17085,7 +17315,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -17142,7 +17372,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="12"/>
+    <col min="6" max="9" width="9" style="13"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -18637,7 +18867,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -18663,7 +18893,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -18835,7 +19065,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -18850,13 +19080,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -18873,7 +19103,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18894,13 +19124,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -18909,13 +19139,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -18932,7 +19162,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -18953,7 +19183,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -18961,7 +19191,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -18979,7 +19209,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -18987,7 +19217,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -19008,13 +19238,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="26" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -19023,13 +19253,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="26" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -19046,7 +19276,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -19067,13 +19297,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="26" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -19101,9 +19331,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="10" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -19131,16 +19361,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -19271,16 +19501,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -19304,10 +19534,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19321,16 +19551,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -19354,10 +19584,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AK3" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19371,16 +19601,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -19404,10 +19634,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="AK4" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19421,16 +19651,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -19454,10 +19684,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="AK5" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19468,16 +19698,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -19504,64 +19734,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="W6" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="25" t="s">
+      <c r="AE6" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="25" t="s">
+      <c r="AF6" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="25" t="s">
+      <c r="AG6" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="25" t="s">
+      <c r="AH6" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="25" t="s">
+      <c r="AI6" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AJ6" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="25" t="s">
+      <c r="AK6" s="26" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -19578,16 +19808,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -19614,61 +19844,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="25" t="s">
+      <c r="AC7" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AD7" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="25" t="s">
+      <c r="AF7" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="AG7" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="AI7" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -19712,16 +19942,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -19742,61 +19972,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="25" t="s">
+      <c r="AC8" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AD8" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="25" t="s">
+      <c r="AE8" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="25" t="s">
+      <c r="AF8" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="25" t="s">
+      <c r="AG8" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="25" t="s">
+      <c r="AH8" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="25" t="s">
+      <c r="AI8" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -19813,16 +20043,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -19849,7 +20079,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="26" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -19870,22 +20100,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AB9" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="25" t="s">
+      <c r="AC9" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AD9" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="25" t="s">
+      <c r="AF9" s="26" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -19903,7 +20133,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="25" t="s">
+      <c r="AR9" s="26" t="s">
         <v>656</v>
       </c>
     </row>
@@ -19917,16 +20147,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>565656</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -19947,61 +20177,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="25" t="s">
+      <c r="V10" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="25" t="s">
+      <c r="AC10" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AE10" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="AF10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="25" t="s">
+      <c r="AG10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="25" t="s">
+      <c r="AH10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="25" t="s">
+      <c r="AI10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="25" t="s">
+      <c r="AJ10" s="26" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -20021,16 +20251,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -20054,64 +20284,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="25" t="s">
+      <c r="AF11" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="25" t="s">
+      <c r="AG11" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AH11" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="AI11" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="25" t="s">
+      <c r="AJ11" s="26" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -20128,16 +20358,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -20158,61 +20388,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="25" t="s">
+      <c r="AE12" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="AF12" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="25" t="s">
+      <c r="AG12" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="25" t="s">
+      <c r="AH12" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="25" t="s">
+      <c r="AI12" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="25" t="s">
+      <c r="AJ12" s="26" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -20232,16 +20462,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>790200</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -20262,58 +20492,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="25" t="s">
+      <c r="AD13" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="25" t="s">
+      <c r="AE13" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="25" t="s">
+      <c r="AF13" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="25" t="s">
+      <c r="AG13" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="25" t="s">
+      <c r="AH13" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="25" t="s">
+      <c r="AI13" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="25" t="s">
+      <c r="AJ13" s="26" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -20533,19 +20763,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -20577,16 +20807,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -20639,7 +20869,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -20695,10 +20925,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -20754,7 +20984,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -20795,10 +21025,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -20901,7 +21131,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -20992,7 +21222,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="26" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -21048,7 +21278,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -21057,10 +21287,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="26" t="s">
         <v>778</v>
       </c>
     </row>
@@ -21104,7 +21334,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="26" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -21113,7 +21343,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21157,7 +21387,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -21210,7 +21440,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -21219,7 +21449,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21260,7 +21490,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -21316,7 +21546,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="26" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -21325,10 +21555,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="26" t="s">
         <v>795</v>
       </c>
     </row>
@@ -21372,7 +21602,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="26" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -21381,7 +21611,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21431,7 +21661,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -21487,7 +21717,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -21496,7 +21726,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21549,10 +21779,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -21608,7 +21838,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -21658,28 +21888,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="P29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="25" t="s">
+      <c r="X29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="25" t="s">
+      <c r="Y29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="25" t="s">
+      <c r="Z29" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -21694,13 +21924,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AE29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="25" t="s">
+      <c r="AF29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="25" t="s">
+      <c r="AG29" s="26" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21741,16 +21971,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -21765,13 +21995,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="25" t="s">
+      <c r="X30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="25" t="s">
+      <c r="Y30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="25" t="s">
+      <c r="Z30" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -21783,16 +22013,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="25" t="s">
+      <c r="AD30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="25" t="s">
+      <c r="AE30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="25" t="s">
+      <c r="AF30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="25" t="s">
+      <c r="AG30" s="26" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21842,7 +22072,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -21854,13 +22084,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="25" t="s">
+      <c r="X31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="25" t="s">
+      <c r="Y31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="25" t="s">
+      <c r="Z31" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -21872,16 +22102,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="25" t="s">
+      <c r="AD31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="25" t="s">
+      <c r="AE31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="25" t="s">
+      <c r="AF31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="25" t="s">
+      <c r="AG31" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -21937,10 +22167,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -21952,13 +22182,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="25" t="s">
+      <c r="X32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="25" t="s">
+      <c r="Y32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="25" t="s">
+      <c r="Z32" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -21970,16 +22200,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="25" t="s">
+      <c r="AD32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="25" t="s">
+      <c r="AE32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="25" t="s">
+      <c r="AF32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="25" t="s">
+      <c r="AG32" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -22035,7 +22265,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -22044,7 +22274,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="25" t="s">
+      <c r="X33" s="26" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -22065,13 +22295,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="25" t="s">
+      <c r="AE33" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="25" t="s">
+      <c r="AF33" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="25" t="s">
+      <c r="AG33" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -22115,10 +22345,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="R34" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -22148,10 +22378,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="25" t="s">
+      <c r="AE34" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="25" t="s">
+      <c r="AF34" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -22210,10 +22440,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -22243,10 +22473,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="25" t="s">
+      <c r="AE35" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="25" t="s">
+      <c r="AF35" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -22335,7 +22565,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="25" t="s">
+      <c r="AE36" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -22394,7 +22624,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -22424,7 +22654,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="25" t="s">
+      <c r="AE37" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -22507,10 +22737,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="25" t="s">
+      <c r="AE38" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="25" t="s">
+      <c r="AF38" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -22560,7 +22790,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="26" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -22590,7 +22820,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="25" t="s">
+      <c r="AE39" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -22676,7 +22906,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="25" t="s">
+      <c r="AE40" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="12"/>
+    <workbookView windowWidth="22215" windowHeight="10710" tabRatio="796" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -4036,7 +4036,7 @@
     <t>&lt;fs=64&gt;КУСТОДИЯ ВИГИЛИЯ&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=40&gt;&lt;ls=64&gt;Пока вы контролируете Мекатол-Рекс, он получает способности &lt;push=0;12&gt;&lt;f=Russo One;34;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА 5»&lt;/f&gt;&lt;push=0;-12&gt; и &lt;push=0;12&gt;&lt;f=Russo One;34;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-12&gt;, как если бы это был отряд.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Когда другой игрок получает победное очко, используя карту стратегии «Экспансия», получите&lt;br&gt;2 жетона приказов.&lt;/ls&gt;&lt;/fs&gt;</t>
+    <t>&lt;fs=36&gt;&lt;ls=58&gt;Пока вы контролируете Мекатол-Рекс, он получает способности &lt;push=0;8&gt;&lt;f=Russo One;34;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА 5»&lt;/f&gt;&lt;push=0;-8&gt; и &lt;push=0;8&gt;&lt;f=Russo One;34;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-8&gt;, как если бы&lt;br&gt;это был отряд.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Когда другой игрок получает победное очко за контроль Мекатол-Рекса, используя карту стратегии «Экспансия», получите&lt;br&gt;2 жетона приказов.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=42&gt;&lt;ls=68&gt;Мир великолепен,&lt;br&gt;война достославна.&lt;/ls&gt;&lt;/fs&gt;</t>
@@ -5198,13 +5198,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5568,1246 +5567,1246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="18" customWidth="1"/>
-    <col min="2" max="2" width="18" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="20" customWidth="1"/>
-    <col min="7" max="10" width="9" style="18"/>
-    <col min="11" max="12" width="9" style="19"/>
-    <col min="13" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="19" customWidth="1"/>
+    <col min="7" max="10" width="9" style="17"/>
+    <col min="11" max="12" width="9" style="18"/>
+    <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21">
-        <v>1</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="20">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="20">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21">
-        <v>1</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="20">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="20">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21">
-        <v>1</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21">
-        <v>1</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="20">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21">
-        <v>1</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21">
-        <v>1</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="20">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21">
-        <v>1</v>
-      </c>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="20">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21">
-        <v>1</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21">
-        <v>1</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="20">
+        <v>1</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21">
-        <v>1</v>
-      </c>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21">
-        <v>1</v>
-      </c>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="20">
+        <v>1</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21">
-        <v>1</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="20">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21">
-        <v>1</v>
-      </c>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="20">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21">
-        <v>1</v>
-      </c>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="20">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21">
-        <v>1</v>
-      </c>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="20">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21">
-        <v>1</v>
-      </c>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="20">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21">
-        <v>1</v>
-      </c>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="20">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21">
-        <v>1</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="20">
+        <v>1</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21">
-        <v>1</v>
-      </c>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="20">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21">
-        <v>1</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="20">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21">
-        <v>1</v>
-      </c>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="20">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21">
-        <v>1</v>
-      </c>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="20">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21">
-        <v>1</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="20">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21">
-        <v>1</v>
-      </c>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="20">
+        <v>1</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21">
-        <v>1</v>
-      </c>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="20">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21">
-        <v>1</v>
-      </c>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="20">
+        <v>1</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21">
-        <v>1</v>
-      </c>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="20">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="21">
-        <v>1</v>
-      </c>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="20">
+        <v>1</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="21">
-        <v>1</v>
-      </c>
-      <c r="B48" s="24" t="s">
+      <c r="A48" s="20">
+        <v>1</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="21">
-        <v>1</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="20">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="21">
-        <v>1</v>
-      </c>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="20">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="21">
-        <v>1</v>
-      </c>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="20">
+        <v>1</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="21">
-        <v>1</v>
-      </c>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="20">
+        <v>1</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="21">
-        <v>1</v>
-      </c>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="20">
+        <v>1</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="21">
-        <v>1</v>
-      </c>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="20">
+        <v>1</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="21">
-        <v>1</v>
-      </c>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="20">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21">
-        <v>1</v>
-      </c>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="20">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="21">
-        <v>1</v>
-      </c>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="20">
+        <v>1</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="21">
-        <v>1</v>
-      </c>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="20">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="21">
-        <v>1</v>
-      </c>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="20">
+        <v>1</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="21">
-        <v>1</v>
-      </c>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="20">
+        <v>1</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="21">
-        <v>1</v>
-      </c>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="20">
+        <v>1</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="21">
-        <v>1</v>
-      </c>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="20">
+        <v>1</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7324,13 +7323,13 @@
       <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -7342,7 +7341,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7362,13 +7361,13 @@
       <c r="E3" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -7377,7 +7376,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7397,13 +7396,13 @@
       <c r="E4" t="s">
         <v>938</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -7412,10 +7411,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>933</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>940</v>
       </c>
     </row>
@@ -7435,10 +7434,10 @@
       <c r="E5" t="s">
         <v>942</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -7447,7 +7446,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7467,13 +7466,13 @@
       <c r="E6" t="s">
         <v>944</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -7482,7 +7481,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7502,13 +7501,13 @@
       <c r="E7" t="s">
         <v>947</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -7517,7 +7516,7 @@
       <c r="L7" t="s">
         <v>949</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7618,13 +7617,13 @@
       <c r="S1" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>968</v>
       </c>
     </row>
@@ -11633,7 +11632,7 @@
   <dimension ref="A1:AI98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11720,52 +11719,52 @@
       <c r="S1" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -11815,16 +11814,16 @@
       <c r="S2" s="1">
         <v>1648</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>1262</v>
       </c>
       <c r="X2" s="3">
@@ -11851,12 +11850,12 @@
       <c r="AE2" s="3">
         <v>1375</v>
       </c>
-      <c r="AF2" s="8"/>
+      <c r="AF2" s="6"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="6" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -11906,16 +11905,16 @@
       <c r="S3" s="1">
         <v>1075</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>1270</v>
       </c>
       <c r="X3" s="3">
@@ -11942,12 +11941,12 @@
       <c r="AE3" s="3">
         <v>1015</v>
       </c>
-      <c r="AF3" s="8"/>
+      <c r="AF3" s="6"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="6" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -11985,28 +11984,28 @@
         <v>1179</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="5">
+      <c r="P4" s="1">
         <v>118</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="1">
         <v>14</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="1">
         <v>951</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="1">
         <v>961</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="6" t="s">
         <v>1275</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>1277</v>
       </c>
       <c r="X4" s="3">
@@ -12033,12 +12032,12 @@
       <c r="AE4" s="3">
         <v>867</v>
       </c>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="6"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AI4" s="6" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -12088,16 +12087,16 @@
       <c r="S5" s="1">
         <v>1290</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="6" t="s">
         <v>1281</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="6" t="s">
         <v>1283</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="6" t="s">
         <v>1284</v>
       </c>
       <c r="X5" s="3">
@@ -12124,12 +12123,12 @@
       <c r="AE5" s="3">
         <v>1294</v>
       </c>
-      <c r="AF5" s="8"/>
+      <c r="AF5" s="6"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="6" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -12179,16 +12178,16 @@
       <c r="S6" s="1">
         <v>1316</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="6" t="s">
         <v>1291</v>
       </c>
       <c r="X6" s="3">
@@ -12215,12 +12214,12 @@
       <c r="AE6" s="3">
         <v>1294</v>
       </c>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="6"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="6" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -12270,16 +12269,16 @@
       <c r="S7" s="1">
         <v>1762</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>1296</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>1299</v>
       </c>
       <c r="X7" s="3">
@@ -12306,16 +12305,16 @@
       <c r="AE7" s="3">
         <v>1730</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="6" t="s">
         <v>1043</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AI7" s="6" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -12333,7 +12332,6 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -12354,7 +12352,6 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -12375,7 +12372,6 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -12396,7 +12392,6 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -12417,7 +12412,6 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -12438,7 +12432,6 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -12459,7 +12452,6 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -12480,7 +12472,6 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -12501,7 +12492,6 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -12522,7 +12512,6 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -12543,7 +12532,6 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -12564,7 +12552,6 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -12585,7 +12572,6 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -12606,7 +12592,6 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -12627,7 +12612,6 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -12648,7 +12632,6 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -12669,7 +12652,6 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -12690,7 +12672,6 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -12711,7 +12692,6 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -12732,7 +12712,6 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -12753,7 +12732,6 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -12774,7 +12752,6 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -12795,7 +12772,6 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -12816,7 +12792,6 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -12837,7 +12812,6 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -12858,7 +12832,6 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -12879,7 +12852,6 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -12900,7 +12872,6 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -12921,7 +12892,6 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -12942,7 +12912,6 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -12963,7 +12932,6 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -12984,7 +12952,6 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -13005,7 +12972,6 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -13026,7 +12992,6 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -13047,7 +13012,6 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -13068,7 +13032,6 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -13089,7 +13052,6 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -13110,7 +13072,6 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -13131,7 +13092,6 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -13152,7 +13112,6 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -13173,7 +13132,6 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -13194,7 +13152,6 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -13215,7 +13172,6 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -13236,7 +13192,6 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -13257,7 +13212,6 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -13278,7 +13232,6 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -13299,7 +13252,6 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -13320,7 +13272,6 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -13341,7 +13292,6 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -13362,7 +13312,6 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -13372,7 +13321,6 @@
     <row r="58" customHeight="1" spans="1:19">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -13383,7 +13331,6 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -13393,7 +13340,6 @@
     <row r="59" customHeight="1" spans="1:19">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -13404,7 +13350,6 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -13414,7 +13359,6 @@
     <row r="60" customHeight="1" spans="1:19">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -13425,7 +13369,6 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -13435,7 +13378,6 @@
     <row r="61" customHeight="1" spans="1:19">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -13446,7 +13388,6 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -13456,7 +13397,6 @@
     <row r="62" customHeight="1" spans="1:19">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -13467,7 +13407,6 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -13477,7 +13416,6 @@
     <row r="63" customHeight="1" spans="1:19">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -13488,7 +13426,6 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -13498,7 +13435,6 @@
     <row r="64" customHeight="1" spans="1:19">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -13509,7 +13445,6 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -13519,7 +13454,6 @@
     <row r="65" customHeight="1" spans="1:19">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -13530,7 +13464,6 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -13540,7 +13473,6 @@
     <row r="66" customHeight="1" spans="1:19">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -13551,7 +13483,6 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -13561,7 +13492,6 @@
     <row r="67" customHeight="1" spans="1:19">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -13572,7 +13502,6 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -13582,7 +13511,6 @@
     <row r="68" customHeight="1" spans="1:19">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -13593,7 +13521,6 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -13603,7 +13530,6 @@
     <row r="69" customHeight="1" spans="1:19">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -13614,7 +13540,6 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -13624,7 +13549,6 @@
     <row r="70" customHeight="1" spans="1:19">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -13635,7 +13559,6 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -13645,7 +13568,6 @@
     <row r="71" customHeight="1" spans="1:19">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -13656,7 +13578,6 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -13666,7 +13587,6 @@
     <row r="72" customHeight="1" spans="1:19">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -13677,7 +13597,6 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -13687,7 +13606,6 @@
     <row r="73" customHeight="1" spans="1:19">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -13698,7 +13616,6 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -13708,7 +13625,6 @@
     <row r="74" customHeight="1" spans="1:19">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -13719,7 +13635,6 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -13729,7 +13644,6 @@
     <row r="75" customHeight="1" spans="1:19">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -13740,7 +13654,6 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -13750,7 +13663,6 @@
     <row r="76" customHeight="1" spans="1:19">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -13761,7 +13673,6 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -13771,7 +13682,6 @@
     <row r="77" customHeight="1" spans="1:19">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -13782,7 +13692,6 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -13792,7 +13701,6 @@
     <row r="78" customHeight="1" spans="1:19">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -13803,7 +13711,6 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -13813,7 +13720,6 @@
     <row r="79" customHeight="1" spans="1:19">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -13824,7 +13730,6 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -13834,7 +13739,6 @@
     <row r="80" customHeight="1" spans="1:19">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -13845,7 +13749,6 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -13855,7 +13758,6 @@
     <row r="81" customHeight="1" spans="1:19">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -13866,7 +13768,6 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -13876,7 +13777,6 @@
     <row r="82" customHeight="1" spans="1:19">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -13887,7 +13787,6 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -13897,7 +13796,6 @@
     <row r="83" customHeight="1" spans="1:19">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -13908,7 +13806,6 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -13918,7 +13815,6 @@
     <row r="84" customHeight="1" spans="1:19">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -13929,7 +13825,6 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -13950,7 +13845,6 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85"/>
       <c r="O85" s="1"/>
     </row>
     <row r="86" customHeight="1" spans="1:15">
@@ -14542,7 +14436,7 @@
       <c r="L3" t="s">
         <v>1345</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q3" t="s">
@@ -14767,13 +14661,13 @@
       <c r="J9" t="s">
         <v>1364</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="25" t="s">
         <v>1365</v>
       </c>
       <c r="Q9" t="s">
@@ -14835,13 +14729,13 @@
       <c r="J10" t="s">
         <v>1368</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>1369</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>1370</v>
       </c>
       <c r="Q10" t="s">
@@ -14961,10 +14855,10 @@
       <c r="J13" t="s">
         <v>807</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="25" t="s">
         <v>750</v>
       </c>
       <c r="Q13" t="s">
@@ -15014,10 +14908,10 @@
       <c r="M14" t="s">
         <v>1378</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q14" t="s">
@@ -15070,10 +14964,10 @@
       <c r="M15" t="s">
         <v>1378</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q15" t="s">
@@ -15123,10 +15017,10 @@
       <c r="M16" t="s">
         <v>1378</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q16" t="s">
@@ -15173,10 +15067,10 @@
       <c r="M17" t="s">
         <v>1378</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q17" t="s">
@@ -15226,10 +15120,10 @@
       <c r="M18" t="s">
         <v>1378</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q18" t="s">
@@ -15279,10 +15173,10 @@
       <c r="M19" t="s">
         <v>1378</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q19" t="s">
@@ -15323,10 +15217,10 @@
       <c r="M20" t="s">
         <v>1378</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q20" t="s">
@@ -15373,10 +15267,10 @@
       <c r="M21" t="s">
         <v>1378</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q21" t="s">
@@ -15423,10 +15317,10 @@
       <c r="M22" t="s">
         <v>1378</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q22" t="s">
@@ -15473,10 +15367,10 @@
       <c r="M23" t="s">
         <v>1378</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q23" t="s">
@@ -15523,10 +15417,10 @@
       <c r="M24" t="s">
         <v>1378</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q24" t="s">
@@ -15579,10 +15473,10 @@
       <c r="M25" t="s">
         <v>1378</v>
       </c>
-      <c r="N25" s="26" t="s">
+      <c r="N25" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q25" t="s">
@@ -15629,10 +15523,10 @@
       <c r="M26" t="s">
         <v>1378</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="O26" s="26" t="s">
+      <c r="O26" s="25" t="s">
         <v>736</v>
       </c>
       <c r="Q26" t="s">
@@ -15688,10 +15582,10 @@
       <c r="J27" t="s">
         <v>1385</v>
       </c>
-      <c r="N27" s="26" t="s">
+      <c r="N27" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="P27" s="26" t="s">
+      <c r="P27" s="25" t="s">
         <v>1386</v>
       </c>
       <c r="Q27" t="s">
@@ -15808,13 +15702,13 @@
       <c r="F2" t="s">
         <v>1400</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>1401</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>1402</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>1403</v>
       </c>
       <c r="J2" t="s">
@@ -15858,13 +15752,13 @@
       <c r="F3" t="s">
         <v>1413</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>1401</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>1414</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>1403</v>
       </c>
       <c r="J3" t="s">
@@ -15908,13 +15802,13 @@
       <c r="F4" t="s">
         <v>1419</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>1401</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>1420</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>1403</v>
       </c>
       <c r="J4" t="s">
@@ -15979,7 +15873,7 @@
       <c r="A3" t="s">
         <v>1425</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -15987,7 +15881,7 @@
       <c r="A4" t="s">
         <v>1427</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -15995,7 +15889,7 @@
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -16059,7 +15953,7 @@
       <c r="A13" t="s">
         <v>1444</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -16067,7 +15961,7 @@
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -16075,7 +15969,7 @@
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -16083,7 +15977,7 @@
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -16091,7 +15985,7 @@
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -16099,7 +15993,7 @@
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>1450</v>
       </c>
     </row>
@@ -16107,7 +16001,7 @@
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -16115,7 +16009,7 @@
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -16123,7 +16017,7 @@
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -16131,7 +16025,7 @@
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -16139,7 +16033,7 @@
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -16275,7 +16169,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -16295,7 +16189,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -16315,7 +16209,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -16375,7 +16269,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16395,7 +16289,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -16435,7 +16329,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -16535,7 +16429,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -16675,7 +16569,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -16715,7 +16609,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -16755,7 +16649,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -16855,7 +16749,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -16915,7 +16809,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -16935,7 +16829,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -16975,7 +16869,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -16995,7 +16889,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -17015,7 +16909,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -17135,7 +17029,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -17155,7 +17049,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -17195,7 +17089,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -17215,7 +17109,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -17255,7 +17149,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -17275,7 +17169,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -17295,7 +17189,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -17315,7 +17209,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -17372,7 +17266,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="13"/>
+    <col min="6" max="9" width="9" style="12"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -18867,7 +18761,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -18893,7 +18787,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -19065,7 +18959,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -19080,13 +18974,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -19103,7 +18997,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19124,13 +19018,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -19139,13 +19033,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -19162,7 +19056,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -19183,7 +19077,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -19191,7 +19085,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -19209,7 +19103,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -19217,7 +19111,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -19238,13 +19132,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -19253,13 +19147,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -19276,7 +19170,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -19297,13 +19191,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -19331,9 +19225,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="10" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="9" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="9" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -19361,16 +19255,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -19501,16 +19395,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -19534,10 +19428,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AK2" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19551,16 +19445,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -19584,10 +19478,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19601,16 +19495,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -19634,10 +19528,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="26" t="s">
+      <c r="AK4" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19651,16 +19545,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -19684,10 +19578,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="26" t="s">
+      <c r="AK5" s="25" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19698,16 +19592,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -19734,64 +19628,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="26" t="s">
+      <c r="W6" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AB6" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AD6" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="26" t="s">
+      <c r="AE6" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="26" t="s">
+      <c r="AF6" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="26" t="s">
+      <c r="AH6" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="26" t="s">
+      <c r="AI6" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="26" t="s">
+      <c r="AJ6" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="26" t="s">
+      <c r="AK6" s="25" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -19808,16 +19702,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -19844,61 +19738,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="U7" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="26" t="s">
+      <c r="V7" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="W7" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="X7" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="26" t="s">
+      <c r="AD7" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="26" t="s">
+      <c r="AE7" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="26" t="s">
+      <c r="AF7" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="26" t="s">
+      <c r="AG7" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="26" t="s">
+      <c r="AH7" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="26" t="s">
+      <c r="AI7" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="AJ7" s="25" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -19942,16 +19836,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -19972,61 +19866,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T8" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="X8" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AD8" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AF8" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="26" t="s">
+      <c r="AH8" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="26" t="s">
+      <c r="AI8" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="AJ8" s="25" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -20043,16 +19937,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -20079,7 +19973,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="25" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -20100,22 +19994,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AB9" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AD9" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="26" t="s">
+      <c r="AF9" s="25" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -20133,7 +20027,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="26" t="s">
+      <c r="AR9" s="25" t="s">
         <v>656</v>
       </c>
     </row>
@@ -20147,16 +20041,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>565656</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -20177,61 +20071,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="25" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="26" t="s">
+      <c r="V10" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="26" t="s">
+      <c r="AB10" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="26" t="s">
+      <c r="AC10" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="26" t="s">
+      <c r="AD10" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="26" t="s">
+      <c r="AE10" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="26" t="s">
+      <c r="AF10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AG10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="26" t="s">
+      <c r="AH10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="26" t="s">
+      <c r="AI10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="26" t="s">
+      <c r="AJ10" s="25" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -20251,16 +20145,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -20284,64 +20178,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="26" t="s">
+      <c r="X11" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="26" t="s">
+      <c r="Y11" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="26" t="s">
+      <c r="AB11" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="26" t="s">
+      <c r="AC11" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="26" t="s">
+      <c r="AD11" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="26" t="s">
+      <c r="AF11" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="26" t="s">
+      <c r="AG11" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="26" t="s">
+      <c r="AH11" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="26" t="s">
+      <c r="AI11" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="26" t="s">
+      <c r="AJ11" s="25" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -20358,16 +20252,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -20388,61 +20282,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="26" t="s">
+      <c r="S12" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="26" t="s">
+      <c r="V12" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="26" t="s">
+      <c r="W12" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="26" t="s">
+      <c r="X12" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="26" t="s">
+      <c r="AB12" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="26" t="s">
+      <c r="AC12" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="26" t="s">
+      <c r="AD12" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="26" t="s">
+      <c r="AE12" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="26" t="s">
+      <c r="AF12" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="26" t="s">
+      <c r="AG12" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="26" t="s">
+      <c r="AH12" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="26" t="s">
+      <c r="AI12" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="26" t="s">
+      <c r="AJ12" s="25" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -20462,16 +20356,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>790200</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -20492,58 +20386,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="26" t="s">
+      <c r="T13" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="U13" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="26" t="s">
+      <c r="V13" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="26" t="s">
+      <c r="W13" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="26" t="s">
+      <c r="AB13" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="26" t="s">
+      <c r="AC13" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="26" t="s">
+      <c r="AD13" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="26" t="s">
+      <c r="AE13" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="26" t="s">
+      <c r="AF13" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="26" t="s">
+      <c r="AG13" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="26" t="s">
+      <c r="AH13" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="26" t="s">
+      <c r="AI13" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="26" t="s">
+      <c r="AJ13" s="25" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -20763,19 +20657,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -20807,16 +20701,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -20869,7 +20763,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -20925,10 +20819,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -20984,7 +20878,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -21025,10 +20919,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -21131,7 +21025,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -21222,7 +21116,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="25" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -21278,7 +21172,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -21287,10 +21181,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="25" t="s">
         <v>778</v>
       </c>
     </row>
@@ -21334,7 +21228,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="25" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -21343,7 +21237,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21387,7 +21281,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -21440,7 +21334,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -21449,7 +21343,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21490,7 +21384,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="25" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -21546,7 +21440,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="25" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -21555,10 +21449,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="25" t="s">
         <v>795</v>
       </c>
     </row>
@@ -21602,7 +21496,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="25" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -21611,7 +21505,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21661,7 +21555,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -21717,7 +21611,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="25" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -21726,7 +21620,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="25" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21779,10 +21673,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="Q21" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -21838,7 +21732,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="Q22" s="25" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -21888,28 +21782,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="26" t="s">
+      <c r="N29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="26" t="s">
+      <c r="O29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="26" t="s">
+      <c r="P29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="26" t="s">
+      <c r="Q29" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="26" t="s">
+      <c r="X29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="26" t="s">
+      <c r="Y29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="26" t="s">
+      <c r="Z29" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -21924,13 +21818,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="26" t="s">
+      <c r="AE29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="26" t="s">
+      <c r="AF29" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="26" t="s">
+      <c r="AG29" s="25" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21971,16 +21865,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O30" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="26" t="s">
+      <c r="P30" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -21995,13 +21889,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="26" t="s">
+      <c r="X30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="26" t="s">
+      <c r="Y30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="26" t="s">
+      <c r="Z30" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -22013,16 +21907,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="26" t="s">
+      <c r="AD30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="26" t="s">
+      <c r="AE30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="26" t="s">
+      <c r="AF30" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="26" t="s">
+      <c r="AG30" s="25" t="s">
         <v>584</v>
       </c>
     </row>
@@ -22072,7 +21966,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P31" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -22084,13 +21978,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="26" t="s">
+      <c r="X31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="26" t="s">
+      <c r="Y31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="26" t="s">
+      <c r="Z31" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -22102,16 +21996,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="26" t="s">
+      <c r="AD31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="26" t="s">
+      <c r="AE31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="26" t="s">
+      <c r="AF31" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="26" t="s">
+      <c r="AG31" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -22167,10 +22061,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="26" t="s">
+      <c r="Q32" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="26" t="s">
+      <c r="R32" s="25" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -22182,13 +22076,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="26" t="s">
+      <c r="X32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="26" t="s">
+      <c r="Y32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="26" t="s">
+      <c r="Z32" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -22200,16 +22094,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="26" t="s">
+      <c r="AD32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="26" t="s">
+      <c r="AE32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="26" t="s">
+      <c r="AF32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="26" t="s">
+      <c r="AG32" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -22265,7 +22159,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="26" t="s">
+      <c r="Q33" s="25" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -22274,7 +22168,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="26" t="s">
+      <c r="X33" s="25" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -22295,13 +22189,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="26" t="s">
+      <c r="AE33" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="26" t="s">
+      <c r="AF33" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="26" t="s">
+      <c r="AG33" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -22345,10 +22239,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="26" t="s">
+      <c r="Q34" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="26" t="s">
+      <c r="R34" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -22378,10 +22272,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="26" t="s">
+      <c r="AE34" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="26" t="s">
+      <c r="AF34" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -22440,10 +22334,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="26" t="s">
+      <c r="Q35" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="26" t="s">
+      <c r="R35" s="25" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -22473,10 +22367,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="26" t="s">
+      <c r="AE35" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="26" t="s">
+      <c r="AF35" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -22565,7 +22459,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="AE36" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -22624,7 +22518,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="25" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -22654,7 +22548,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="26" t="s">
+      <c r="AE37" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -22737,10 +22631,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="26" t="s">
+      <c r="AE38" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="26" t="s">
+      <c r="AF38" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -22790,7 +22684,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="26" t="s">
+      <c r="Q39" s="25" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -22820,7 +22714,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="26" t="s">
+      <c r="AE39" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -22906,7 +22800,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="26" t="s">
+      <c r="AE40" s="25" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22215" windowHeight="10710" tabRatio="796" activeTab="12"/>
+    <workbookView windowWidth="22695" windowHeight="8955" tabRatio="796" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="1581">
   <si>
     <t>Count</t>
   </si>
@@ -4051,31 +4051,415 @@
     <t>&lt;fs=48&gt;Кустодия Вигилия&lt;/fs&gt;</t>
   </si>
   <si>
+    <t>Title Color</t>
+  </si>
+  <si>
     <t>Images\Promissory\Promissory_Back.png</t>
   </si>
   <si>
-    <t>Images\Promissory\Promissory_Background_@[CardInRow].png</t>
-  </si>
-  <si>
-    <t>COLORED PROMISSORY NOTE</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Promissory Introduction.&lt;/b&gt;&lt;br&gt;&lt;br&gt;Description of effect.@[HR]&lt;ac&gt;&lt;i&gt;Lore and Flavor Text&lt;br&gt;Thank goodness for&lt;br&gt;&lt;b&gt;everything&lt;/b&gt;!&lt;br&gt;Especially centering! :)&lt;/i&gt;&lt;/ac&gt;</t>
-  </si>
-  <si>
-    <t>Images\Promissory\Promissory_Background_Normal.png</t>
-  </si>
-  <si>
-    <t>GLOBAL PROMISSORY NOTE</t>
-  </si>
-  <si>
     <t>Images\Promissory\Promissory_Background_Racial.png</t>
   </si>
   <si>
+    <t>&lt;fs=60&gt;Секреты производства&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Когда хотя бы 1 ваш отряд использует способность &lt;/f&gt;&lt;push=0;14&gt;&lt;f=Russo One;34;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-14&gt;:&lt;/f&gt;&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите эту карту перед собой лицевой стороной вверх, чтобы добавить +4 к общему значению производства ваших отрядов и уменьшить общую цену произведённых отрядов на 1.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале фазы статуса верните эту карту обещания играющему за Судостроителей Оси.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF00FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;    Ключи    &lt;br&gt;Шифрования&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Эта планета имеет технологическую специализацию любого цвета.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF01FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Торговый альянс&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=56&gt;&lt;fs=37&gt;Когда вы получаете эту карту, если вы не играете за Келдарскую Торговую Конфедерацию, положите её перед собой лицевой стороной вверх.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете использовать способность командира Келдарской Торговой Конфедерации, если она разблокирована.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активировали систему, в которой есть хотя бы 1 отряд игрока Келдарской Торговой Конфедерации, верните эту карту обещания игроку, играющего за Келдарскую Торговую Конфедерацию.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF02FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Карцинизация&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда 1 из ваших кораб-&lt;br&gt;лей (кроме истребителей) уничтожен во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете разместить 2 истребителя из вашего снабжения в космосе этой системы.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В конце этого боя верните эту карту игроку, играю-&lt;br&gt;щему за Хиранскую&lt;br&gt;Орду.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF03FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=56&gt;Алгоритмическая Репликация&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите 1 карту действий из стопки сброса карт действий и добавьте её в свою руку.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем изгоните эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF04FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Боевые Учения&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда 1 из ваших кораблей должен быть уничтожен:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вместо этого поместите эту карту лицевой стороной вверх рядом со своим планшетом фракции.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале фазы статуса верните эту карту игроку, играющему за Флотилию Ди-Мон.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF05FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Поправка Эдин&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте политики. Предскажите вслух результат голосования по этой карте. Если ваше предсказание верно, разместите 1 жетон приказа из снабжения другого игрока в системе, в которой есть ваши отряды.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Мандат Эдин.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF06FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Подпольный&lt;br&gt;    Рынок    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;Когда вы должны получить реликвию из колоды реликвий:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете взять 1 дополни-&lt;br&gt;тельную карту реликвии. Выберите 1 карту, которую получите, а вторую верните в колоду реликвий; затем перемешайте эту колоду.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Манипуляторов&lt;br&gt;Флорзен.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF07FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;    Отдел    &lt;br&gt;пропаганды&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;Когда вы получаете контроль над планетой во время тактического действия:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если в активной системе нет кораблей других игроков, вы можете произвести до 2 кораблей в этой системе.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Содружество Свободных Систем.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF08FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Лидеры Рейда&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После активации системы:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Выберите 1 ваш корабль (кроме истребителей); во время этого действия этот отряд получает способность &lt;/f&gt;&lt;push=0;16&gt;&lt;f=Russo One;37;0;0;0;0&gt;«БОМБАРДИРОВКА 5 (×2)»&lt;/f&gt;&lt;push=0;-16&gt; и значение мест на борту 2.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В конце этого действия верните эту карту игроку, играющему за Рейдеров Гемины.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF09FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Реле Готи&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите эту карту перед собой лицевой стороной вверх, чтобы произвести до 2 кораблей в системе, в которой есть хотя бы 1 ваш корабль.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале фазы статуса верните эту карту игроку, играющему за Странников Готи.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF10FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Действующая база «ПРГ»&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается на 2.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF11FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Прорицание&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту перед собой лицевой стороной вверх.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете смотреть карту общей цели на планшете фракции игрока, играющего за Авгуров Иликсума.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активируете систему, в которой есть хотя бы 1 отряд игрока, играющего за авгуров Иликсума, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF12FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Вассалитет&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;В начале боя:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавляйте +1 к результатам боевых проверок каждого вашего истребителя во время этого боя. Игрок, играющий за Берсерков Кьяленгарда, захватывает каждый ваш истребитель, уничтоженный во время этого боя.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Берсерков Кьяленгарда.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF13FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;ИИ-сканер&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете посмотреть либо верхнюю карту колод разведок культурной, опасной и промышленной планеты, либо верхнюю карту колоды реликвий.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Гильдию Коллекк.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF14FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Комбинаторный&lt;br&gt;    взрыв    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;В начале вторжения:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите эту карту перед собой лицевой стороной вверх. Отряды других игроков теряют способности &lt;/f&gt;&lt;push=0;16&gt;&lt;f=Russo One;37;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-16&gt; и &lt;/f&gt;&lt;push=0;16&gt;&lt;f=Russo One;37;0;0;0;0&gt;«ПЛАНЕТАРНЫЙ ЩИТ»&lt;/f&gt;&lt;push=0;-16&gt; во время этого действия.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале вашего следующего хода верните эту карту игроку, играющему&lt;br&gt;за Орден Колума.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF15FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Благословение Королев&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту лицевой стороной вверх перед собой. Уберите 1 ваш жетон приказа с игрового поля.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале фазы статуса верните эту карту игроку, играющему за Трибунал Корталии.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF16FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Поправка Кайро&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте. Предскажите вслух результат голосования по ней. Если предсказание окажется верным, разместите 3 отряда пехоты из вашего снабжения на подконтрольной вам планете.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Общину Кайро.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF17FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Трофеи войны&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите её перед собой лицевой стороной вверх, чтобы разведать 1 подконтрольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале хода игрока, играющего за Осколки Ланефир, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF18FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Доверенный советник&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале космического боя, в котором вы участвуете:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете разместить до 2 истребителей из вашего снабжения в космосе активной системы.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Династию Ли-Джо.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF19FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Глас камней&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Во время тактического действия, когда вы используете способность &lt;/f&gt;&lt;push=0;14&gt;&lt;f=Russo One;34;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-14&gt;&lt;f=Myriad Pro&gt; и наносите хотя бы 1 попадание:&lt;/f&gt;&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;За каждое нанесённое вами попадание вы можете вместо этого разместить 1 отряд пехоты из вашего снабжения на планете, против которой была использована способность.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Л’токк Кхраск.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF20FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Быстрая реконструкция&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете переместить до 2 ваших ПСО на подконт-&lt;br&gt;рольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Протекторат Мирведы.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF21FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Секреты Плетения&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;В начале космического боя, если вы защищаетесь:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете потратить количест-&lt;br&gt;во влияния, равное значению цены 1 из кораблей вашего противника в активной системе, чтобы разместить отряд этого типа из своего снабжения в этой системе.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Мерцание морфеусов.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF22FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Дар Прозрения&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту перед собой лицевой стороной вверх.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, один раз за ход после броска кубика, можете перебросить этот кубик.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активируете систему, в которой есть хотя бы 1 отряд игрока, играющего за Мико-Ментори, верните&lt;br&gt;ему эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF23FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Наставление&lt;br&gt;    Нивин    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага «Передвижение» этого тактического действия игнорируйте эффекты аномалий.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Звёздных Королей Нивин.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF24FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Навигатор Нокара&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время этого боя активная система смежна с каждой системой с подконтрольной вам планетой для отступления.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В конце этого боя верните эту карту игроку, играю-&lt;br&gt;щему за Пиратов Нокара.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF25FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Разжечь Революцию&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту перед собой лицевой стороной вверх. Перевер-&lt;br&gt;ните 1 подконтрольную вам планету, затем подго-&lt;br&gt;товьте 1 подконтрольную вам неродную планету (кроме Мекатол-Рекса).&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале фазы статуса верните эту карту игроку, играющему за Лигу Олрадинов.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF26FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=56&gt;Благосклонность&lt;br&gt;    Родуна    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы исследуете технологию и игнорируете требование:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете проигнорировать 1 дополнительное требование того же цвета.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Фанатиков Родуна.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF27FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Автоматоны&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В конце вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете прикрепить эту карту к неродной подконтрольной вам планете (кроме Мекатол-Рекса). Эта планета имеет способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;, как если бы это был отряд.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF28FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Планы внутри&lt;br&gt;    Планов    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы берёте 1 или более карт секретных целей:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Возьмите 1 дополнитель-&lt;br&gt;ную карту секретной цели. Верните 1 из этих карт в колоду секретных целей и перемешайте эту колоду.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Синдикат Тнелис.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF29FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Сделка с ваденом&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете перевернуть эту карту и потратить любое количество товаров; за каждый потраченный товар добавьте +1 к значению полёта 1 вашего корабля (кроме истребителя).&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Банковские Кланы&lt;br&gt;ваденов.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF30FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Милость Клана&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=59&gt;&lt;fs=39&gt;&lt;f=Myriad Pro&gt;В начале раунда космического боя:&lt;/f&gt;&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Игрок, играющий за Вайлерианс-&lt;br&gt;ких разорителей сбрасывает 1 карту действий с руки. Затем передвиньте все ваши корабли из активной системы в смежную систему, в которой нет кораблей других игроков; космический бой завершается вничью.&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем положите в эту систему жетон приказа из вашего снабжения и верните эту карту игроку, играющему за Вайлерианских&lt;br&gt;Разорителей.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF31FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Налоговая Гавань&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение влияния этой планеты увеличивается&lt;br&gt;на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF32FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Центр Вещания&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>FF33FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Резервный Банк&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается&lt;br&gt;на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF34FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Орбитальная Верфь&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>FF35FF</t>
+  </si>
+  <si>
+    <t>&lt;fs=51&gt;Гиперкинетический Боеприпас&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как вы бросите кубики для проверки способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-17&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы наносите хотя бы 1 попадание во время этой проверки, нанесите 1 дополнительное попадание.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Зелиана.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF36FF</t>
+  </si>
+  <si>
+    <t>Images\Logo_Codex1.png</t>
+  </si>
+  <si>
+    <t>Images\Factions\Arborec.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Безвыходное положение Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как другой игрок передвигает корабли в систему, где есть хотя бы 1 ваш отряд:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете разместить жетон приказа из снабжения этого игрока в любой неродной системе.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему&lt;br&gt;за арбореков.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF37FF</t>
+  </si>
+  <si>
+    <t>Images\Factions\Letnev.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=56&gt;    Военное    &lt;br&gt;финансирование Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После того как вы и ваш противник бросили кубики во время космического боя:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете перебросить все кубики вашего противника.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете перебросить любые ваши кубики.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему за Баронат Летнев.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF38FF</t>
+  </si>
+  <si>
+    <t>Images\Factions\Yin.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Мутаген серого&lt;br&gt;    жара Ω    &lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В начале наземного боя против хотя бы 2 отрядов наземных войск, кроме отрядов Братства Инь:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Замените 1 из отрядов пехоты вашего оппонента на 1 отряд пехоты из вашего снабжения.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему за&lt;br&gt;Братство Инь.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF39FF</t>
+  </si>
+  <si>
     <t>Images\Factions\Winnu.png</t>
   </si>
   <si>
-    <t>RACIAL PROMISSORY NOTE</t>
+    <t>&lt;fs=60&gt;Уступка Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;Когда игрок, играющий за Винну, использует основную способность карты стратегии:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вам не нужно тратить или размещать жетон приказа, чтобы применить второстепенную способность этой карты стратегии.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему за винну.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF40FF</t>
+  </si>
+  <si>
+    <t>Images\Factions\L1Z1X.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=56&gt;Кибернетическая модификация Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы получаете жетоны приказов во время фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Получите 1 дополнительный жетон приказа.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему за психосеть Л1З1КС.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF41FF</t>
+  </si>
+  <si>
+    <t>Images\Factions\Keleres.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=60&gt;Поправка Келерес&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте политики. Предскажите вслух результат голосования по ней. Если предсказание окажется верным, возьмите 1 карту действия и получите 2 товара.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту обещания игроку, играющему за&lt;br&gt;Келерес Совета.&lt;/fs&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>FF42FF</t>
   </si>
   <si>
     <t>Phase</t>
@@ -4183,9 +4567,6 @@
     <t>CARRYALL</t>
   </si>
   <si>
-    <t>Images\Logo_Codex1.png</t>
-  </si>
-  <si>
     <t>Images\Tech\Tech_Back_Basic.png</t>
   </si>
   <si>
@@ -4345,9 +4726,6 @@
     <t>THE AUGURS OF ILYXUM</t>
   </si>
   <si>
-    <t>FF00FF</t>
-  </si>
-  <si>
     <t>@[Dice,3,3]@[Bar]@[SD]&lt;br&gt;@[Cancel]@[PS]</t>
   </si>
   <si>
@@ -4376,9 +4754,6 @@
   </si>
   <si>
     <t>PDS II - @[Dice,1,5]@[Bar]@[PS]@[Bar]@[DSC]&lt;br&gt;PDS I - @[Dice,1,6]@[Bar]@[PS]@[Bar]@[SC]</t>
-  </si>
-  <si>
-    <t>Images\Factions\Arborec.png</t>
   </si>
   <si>
     <t>THE ARBOREC</t>
@@ -4523,7 +4898,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4536,6 +4911,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5068,16 +5449,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5086,130 +5464,134 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5223,11 +5605,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5237,7 +5619,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5567,1246 +5949,1246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="19" customWidth="1"/>
-    <col min="7" max="10" width="9" style="17"/>
-    <col min="11" max="12" width="9" style="18"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="20" customWidth="1"/>
+    <col min="5" max="5" width="44.7142857142857" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="20" customWidth="1"/>
+    <col min="7" max="10" width="9" style="18"/>
+    <col min="11" max="12" width="9" style="19"/>
+    <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20">
-        <v>1</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20">
-        <v>1</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20">
-        <v>1</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <v>1</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21">
+        <v>1</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20">
-        <v>1</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="21">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="21">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>1</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21">
+        <v>1</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20">
-        <v>1</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="21">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="21">
+        <v>1</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>1</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="21">
+        <v>1</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="21">
+        <v>1</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20">
-        <v>1</v>
-      </c>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="21">
+        <v>1</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="21">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20">
-        <v>1</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="21">
+        <v>1</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="21">
+        <v>1</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="21">
+        <v>1</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20">
-        <v>1</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="21">
+        <v>1</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="20">
-        <v>1</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="21">
+        <v>1</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20">
-        <v>1</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="21">
+        <v>1</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="20">
-        <v>1</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="21">
+        <v>1</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20">
-        <v>1</v>
-      </c>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="21">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20">
-        <v>1</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="21">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20">
-        <v>1</v>
-      </c>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="21">
+        <v>1</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20">
-        <v>1</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="20">
-        <v>1</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="21">
+        <v>1</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="20">
-        <v>1</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="21">
+        <v>1</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="20">
-        <v>1</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="21">
+        <v>1</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="20">
-        <v>1</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="21">
+        <v>1</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="20">
-        <v>1</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="21">
+        <v>1</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="20">
-        <v>1</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="21">
+        <v>1</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="20">
-        <v>1</v>
-      </c>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="21">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="20">
-        <v>1</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="21">
+        <v>1</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="20">
-        <v>1</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="21">
+        <v>1</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="20">
-        <v>1</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="21">
+        <v>1</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="20">
-        <v>1</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="21">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="20">
-        <v>1</v>
-      </c>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="21">
+        <v>1</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="25" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="20">
-        <v>1</v>
-      </c>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="21">
+        <v>1</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="20">
-        <v>1</v>
-      </c>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="21">
+        <v>1</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="20">
-        <v>1</v>
-      </c>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="21">
+        <v>1</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="20">
-        <v>1</v>
-      </c>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="21">
+        <v>1</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="20">
-        <v>1</v>
-      </c>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="21">
+        <v>1</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="20">
-        <v>1</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="21">
+        <v>1</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="20">
-        <v>1</v>
-      </c>
-      <c r="B60" s="23" t="s">
+      <c r="A60" s="21">
+        <v>1</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="20">
-        <v>1</v>
-      </c>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="21">
+        <v>1</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="20">
-        <v>1</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="A62" s="21">
+        <v>1</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7323,13 +7705,13 @@
       <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -7341,7 +7723,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7361,13 +7743,13 @@
       <c r="E3" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -7376,7 +7758,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7396,13 +7778,13 @@
       <c r="E4" t="s">
         <v>938</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -7411,10 +7793,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>940</v>
       </c>
     </row>
@@ -7434,10 +7816,10 @@
       <c r="E5" t="s">
         <v>942</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -7446,7 +7828,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7466,13 +7848,13 @@
       <c r="E6" t="s">
         <v>944</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -7481,7 +7863,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7501,13 +7883,13 @@
       <c r="E7" t="s">
         <v>947</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -7516,7 +7898,7 @@
       <c r="L7" t="s">
         <v>949</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="26" t="s">
         <v>933</v>
       </c>
     </row>
@@ -7550,7 +7932,7 @@
     <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
     <col min="13" max="13" width="11.8" customWidth="1"/>
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
-    <col min="16" max="19" width="5.71428571428571" style="2" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="4" customWidth="1"/>
     <col min="20" max="22" width="9.78095238095238" customWidth="1"/>
     <col min="24" max="29" width="9.78095238095238" customWidth="1"/>
     <col min="30" max="119" width="10.8857142857143" customWidth="1"/>
@@ -7560,70 +7942,70 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>968</v>
       </c>
     </row>
@@ -11631,7 +12013,7 @@
   <sheetPr/>
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -11650,11 +12032,11 @@
     <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
     <col min="13" max="13" width="11.8" customWidth="1"/>
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
-    <col min="16" max="19" width="5.71428571428571" style="2" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="4" customWidth="1"/>
     <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
     <col min="21" max="22" width="9.78095238095238" customWidth="1"/>
-    <col min="24" max="30" width="9.78095238095238" style="3" customWidth="1"/>
-    <col min="31" max="35" width="10.8857142857143" style="3" customWidth="1"/>
+    <col min="24" max="30" width="9.78095238095238" style="5" customWidth="1"/>
+    <col min="31" max="35" width="10.8857142857143" style="5" customWidth="1"/>
     <col min="36" max="120" width="10.8857142857143" customWidth="1"/>
     <col min="121" max="1020" width="11.8857142857143" customWidth="1"/>
     <col min="1021" max="10020" width="12.8857142857143" customWidth="1"/>
@@ -11662,109 +12044,109 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="7" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -11814,48 +12196,48 @@
       <c r="S2" s="1">
         <v>1648</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="5">
         <v>-451</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="5">
         <v>215</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="5">
         <v>1432</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="5">
         <v>1352</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="5">
         <v>214</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="5">
         <v>-99</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="5">
         <v>1372</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="5">
         <v>1375</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="8" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -11905,48 +12287,48 @@
       <c r="S3" s="1">
         <v>1075</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="8" t="s">
         <v>1270</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="5">
         <v>-416</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="5">
         <v>182</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="5">
         <v>1409</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="5">
         <v>1351</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="5">
         <v>372</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="5">
         <v>39</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>1020</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="5">
         <v>1015</v>
       </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="8" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -11996,48 +12378,48 @@
       <c r="S4" s="1">
         <v>961</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="5">
         <v>-425</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="5">
         <v>196</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="5">
         <v>1338</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="5">
         <v>1269</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="5">
         <v>424</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="5">
         <v>99</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>896</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="5">
         <v>867</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3" t="s">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AI4" s="8" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -12087,48 +12469,48 @@
       <c r="S5" s="1">
         <v>1290</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="5">
         <v>-656</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="5">
         <v>35</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="5">
         <v>1779</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="5">
         <v>1644</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="5">
         <v>266</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="5">
         <v>-97</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="5">
         <v>1196</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="5">
         <v>1294</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3" t="s">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AI5" s="8" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -12178,48 +12560,48 @@
       <c r="S6" s="1">
         <v>1316</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="8" t="s">
         <v>1291</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="5">
         <v>-610</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="5">
         <v>19</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="5">
         <v>1793</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="5">
         <v>1650</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="5">
         <v>284</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="5">
         <v>-103</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>1196</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="5">
         <v>1294</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3" t="s">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AI6" s="8" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -12269,52 +12651,52 @@
       <c r="S7" s="1">
         <v>1762</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="8" t="s">
         <v>1299</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="5">
         <v>-476</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="5">
         <v>-309</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="5">
         <v>1593</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="5">
         <v>1420</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="5">
         <v>24</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="5">
         <v>-804</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>1906</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="5">
         <v>1730</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AG7" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="AI7" s="6" t="s">
+      <c r="AI7" s="8" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -14068,102 +14450,1052 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="48.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="14.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G1" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F3" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G3" t="s">
         <v>1307</v>
       </c>
-      <c r="F4" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F4" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G4" t="s">
         <v>1310</v>
       </c>
-      <c r="F5" t="s">
-        <v>1305</v>
-      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -14197,10 +15529,10 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>1311</v>
+        <v>1439</v>
       </c>
       <c r="E1" t="s">
-        <v>1312</v>
+        <v>1440</v>
       </c>
       <c r="F1" t="s">
         <v>186</v>
@@ -14220,19 +15552,19 @@
         <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1313</v>
+        <v>1441</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1314</v>
+        <v>1442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1315</v>
+        <v>1443</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1316</v>
+        <v>1444</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1317</v>
+        <v>1445</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -14246,19 +15578,19 @@
         <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1313</v>
+        <v>1441</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1314</v>
+        <v>1442</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1315</v>
+        <v>1443</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1318</v>
+        <v>1446</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1319</v>
+        <v>1447</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -14272,19 +15604,19 @@
         <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1313</v>
+        <v>1441</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1314</v>
+        <v>1442</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1315</v>
+        <v>1443</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1320</v>
+        <v>1448</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1321</v>
+        <v>1449</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -14328,7 +15660,7 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>1322</v>
+        <v>1450</v>
       </c>
       <c r="D1" t="s">
         <v>430</v>
@@ -14343,22 +15675,22 @@
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>1323</v>
+        <v>1451</v>
       </c>
       <c r="I1" t="s">
-        <v>1324</v>
+        <v>1452</v>
       </c>
       <c r="J1" t="s">
-        <v>1325</v>
+        <v>1453</v>
       </c>
       <c r="K1" t="s">
-        <v>1326</v>
+        <v>1454</v>
       </c>
       <c r="L1" t="s">
-        <v>1327</v>
+        <v>1455</v>
       </c>
       <c r="M1" t="s">
-        <v>1328</v>
+        <v>1456</v>
       </c>
       <c r="N1" t="s">
         <v>723</v>
@@ -14370,34 +15702,34 @@
         <v>725</v>
       </c>
       <c r="Q1" t="s">
-        <v>1329</v>
+        <v>1457</v>
       </c>
       <c r="R1" t="s">
-        <v>1330</v>
+        <v>1458</v>
       </c>
       <c r="S1" t="s">
-        <v>1331</v>
+        <v>1459</v>
       </c>
       <c r="T1" t="s">
-        <v>1332</v>
+        <v>1460</v>
       </c>
       <c r="U1" t="s">
-        <v>1333</v>
+        <v>1461</v>
       </c>
       <c r="V1" t="s">
-        <v>1334</v>
+        <v>1462</v>
       </c>
       <c r="W1" t="s">
-        <v>1335</v>
+        <v>1463</v>
       </c>
       <c r="X1" t="s">
-        <v>1336</v>
+        <v>1464</v>
       </c>
       <c r="Y1" t="s">
-        <v>1337</v>
+        <v>1465</v>
       </c>
       <c r="Z1" t="s">
-        <v>1338</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -14405,16 +15737,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1339</v>
+        <v>1467</v>
       </c>
       <c r="D2" t="s">
-        <v>1340</v>
+        <v>1468</v>
       </c>
       <c r="K2" t="s">
-        <v>1341</v>
+        <v>1469</v>
       </c>
       <c r="M2" t="s">
-        <v>1342</v>
+        <v>1470</v>
       </c>
       <c r="U2" t="s">
         <v>741</v>
@@ -14425,18 +15757,18 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1339</v>
+        <v>1467</v>
       </c>
       <c r="D3" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="K3" t="s">
-        <v>1344</v>
+        <v>1472</v>
       </c>
       <c r="L3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="N3" s="25" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q3" t="s">
@@ -14469,25 +15801,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1346</v>
+        <v>1414</v>
       </c>
       <c r="C4" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D4" t="s">
-        <v>1340</v>
+        <v>1468</v>
       </c>
       <c r="E4" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F4" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K4" t="s">
-        <v>1350</v>
+        <v>1477</v>
       </c>
       <c r="M4" t="s">
-        <v>1351</v>
+        <v>1478</v>
       </c>
       <c r="Q4" t="s">
         <v>746</v>
@@ -14507,22 +15839,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D5" t="s">
-        <v>1340</v>
+        <v>1468</v>
       </c>
       <c r="E5" t="s">
-        <v>1352</v>
+        <v>1479</v>
       </c>
       <c r="F5" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K5" t="s">
-        <v>1341</v>
+        <v>1469</v>
       </c>
       <c r="M5" t="s">
-        <v>1342</v>
+        <v>1470</v>
       </c>
       <c r="U5" t="s">
         <v>741</v>
@@ -14536,28 +15868,28 @@
         <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D6" t="s">
-        <v>1340</v>
+        <v>1468</v>
       </c>
       <c r="E6" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F6" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="G6" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H6" t="s">
-        <v>1355</v>
+        <v>1482</v>
       </c>
       <c r="I6" t="s">
-        <v>1356</v>
+        <v>1483</v>
       </c>
       <c r="J6" t="s">
-        <v>1357</v>
+        <v>1484</v>
       </c>
       <c r="U6" t="s">
         <v>740</v>
@@ -14568,22 +15900,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D7" t="s">
-        <v>1340</v>
+        <v>1468</v>
       </c>
       <c r="E7" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F7" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K7" t="s">
-        <v>1358</v>
+        <v>1485</v>
       </c>
       <c r="M7" t="s">
-        <v>1357</v>
+        <v>1484</v>
       </c>
       <c r="Q7" t="s">
         <v>741</v>
@@ -14600,25 +15932,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D8" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E8" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F8" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K8" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L8" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M8" t="s">
-        <v>1357</v>
+        <v>1484</v>
       </c>
       <c r="Q8" t="s">
         <v>740</v>
@@ -14635,40 +15967,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1361</v>
+        <v>1488</v>
       </c>
       <c r="C9" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D9" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E9" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F9" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="G9" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H9" t="s">
-        <v>1362</v>
+        <v>1489</v>
       </c>
       <c r="I9" t="s">
-        <v>1363</v>
+        <v>1490</v>
       </c>
       <c r="J9" t="s">
-        <v>1364</v>
-      </c>
-      <c r="N9" s="25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="N9" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>1365</v>
+      <c r="P9" s="26" t="s">
+        <v>1492</v>
       </c>
       <c r="Q9" t="s">
         <v>751</v>
@@ -14706,37 +16038,37 @@
         <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D10" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E10" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F10" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="G10" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H10" t="s">
-        <v>1366</v>
+        <v>1493</v>
       </c>
       <c r="I10" t="s">
-        <v>1367</v>
+        <v>1494</v>
       </c>
       <c r="J10" t="s">
-        <v>1368</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>1369</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>1370</v>
+        <v>1495</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>1497</v>
       </c>
       <c r="Q10" t="s">
         <v>740</v>
@@ -14759,28 +16091,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D11" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E11" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F11" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="G11" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H11" t="s">
-        <v>1371</v>
+        <v>1498</v>
       </c>
       <c r="I11" t="s">
-        <v>1372</v>
+        <v>1499</v>
       </c>
       <c r="J11" t="s">
-        <v>1373</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="s">
         <v>740</v>
@@ -14794,28 +16126,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D12" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E12" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F12" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="G12" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H12" t="s">
-        <v>1374</v>
+        <v>1501</v>
       </c>
       <c r="I12" t="s">
-        <v>1372</v>
+        <v>1499</v>
       </c>
       <c r="J12" t="s">
-        <v>1375</v>
+        <v>1502</v>
       </c>
       <c r="R12" t="s">
         <v>741</v>
@@ -14832,33 +16164,33 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D13" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E13" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F13" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="G13" t="s">
-        <v>1354</v>
+        <v>1481</v>
       </c>
       <c r="H13" t="s">
-        <v>1376</v>
+        <v>1503</v>
       </c>
       <c r="I13" t="s">
-        <v>1377</v>
+        <v>1504</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="26" t="s">
         <v>750</v>
       </c>
       <c r="Q13" t="s">
@@ -14888,30 +16220,30 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D14" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E14" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F14" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K14" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L14" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M14" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O14" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O14" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q14" t="s">
@@ -14944,30 +16276,30 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D15" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E15" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F15" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="K15" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L15" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M15" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O15" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O15" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q15" t="s">
@@ -14997,30 +16329,30 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D16" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E16" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F16" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K16" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L16" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O16" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q16" t="s">
@@ -15047,30 +16379,30 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D17" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E17" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F17" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K17" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L17" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M17" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O17" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q17" t="s">
@@ -15100,30 +16432,30 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D18" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E18" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="K18" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L18" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M18" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O18" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O18" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q18" t="s">
@@ -15153,30 +16485,30 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D19" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E19" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F19" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K19" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L19" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O19" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q19" t="s">
@@ -15197,30 +16529,30 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D20" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E20" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F20" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K20" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L20" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M20" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O20" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O20" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q20" t="s">
@@ -15233,7 +16565,7 @@
         <v>751</v>
       </c>
       <c r="V20" t="s">
-        <v>1379</v>
+        <v>1506</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -15247,30 +16579,30 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D21" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E21" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F21" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="K21" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L21" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M21" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O21" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O21" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q21" t="s">
@@ -15283,7 +16615,7 @@
         <v>751</v>
       </c>
       <c r="V21" t="s">
-        <v>1380</v>
+        <v>1507</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -15297,30 +16629,30 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D22" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E22" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="F22" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K22" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L22" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M22" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O22" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O22" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q22" t="s">
@@ -15333,7 +16665,7 @@
         <v>751</v>
       </c>
       <c r="V22" t="s">
-        <v>1381</v>
+        <v>1508</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -15347,30 +16679,30 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D23" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E23" t="s">
-        <v>1348</v>
+        <v>1475</v>
       </c>
       <c r="F23" t="s">
-        <v>1353</v>
+        <v>1480</v>
       </c>
       <c r="K23" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L23" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M23" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O23" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O23" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q23" t="s">
@@ -15397,30 +16729,30 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D24" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E24" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F24" t="s">
-        <v>1382</v>
+        <v>1509</v>
       </c>
       <c r="K24" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L24" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M24" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O24" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O24" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q24" t="s">
@@ -15453,30 +16785,30 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D25" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E25" t="s">
-        <v>1382</v>
+        <v>1509</v>
       </c>
       <c r="F25" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="K25" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L25" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M25" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="P25" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="P25" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q25" t="s">
@@ -15503,30 +16835,30 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D26" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E26" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="F26" t="s">
-        <v>1382</v>
+        <v>1509</v>
       </c>
       <c r="K26" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
       <c r="L26" t="s">
-        <v>1360</v>
+        <v>1487</v>
       </c>
       <c r="M26" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O26" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O26" s="26" t="s">
         <v>736</v>
       </c>
       <c r="Q26" t="s">
@@ -15562,31 +16894,31 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="D27" t="s">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="E27" t="s">
-        <v>1382</v>
+        <v>1509</v>
       </c>
       <c r="F27" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="H27" t="s">
-        <v>1383</v>
+        <v>1510</v>
       </c>
       <c r="I27" t="s">
-        <v>1384</v>
+        <v>1511</v>
       </c>
       <c r="J27" t="s">
-        <v>1385</v>
-      </c>
-      <c r="N27" s="25" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N27" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>1386</v>
+      <c r="P27" s="26" t="s">
+        <v>1513</v>
       </c>
       <c r="Q27" t="s">
         <v>746</v>
@@ -15653,34 +16985,34 @@
         <v>458</v>
       </c>
       <c r="G1" t="s">
-        <v>1387</v>
+        <v>1514</v>
       </c>
       <c r="H1" t="s">
-        <v>1388</v>
+        <v>1515</v>
       </c>
       <c r="I1" t="s">
-        <v>1389</v>
+        <v>1516</v>
       </c>
       <c r="J1" t="s">
-        <v>1390</v>
+        <v>1517</v>
       </c>
       <c r="K1" t="s">
-        <v>1391</v>
+        <v>1518</v>
       </c>
       <c r="L1" t="s">
-        <v>1392</v>
+        <v>1519</v>
       </c>
       <c r="M1" t="s">
-        <v>1393</v>
+        <v>1520</v>
       </c>
       <c r="N1" t="s">
-        <v>1394</v>
+        <v>1521</v>
       </c>
       <c r="O1" t="s">
         <v>928</v>
       </c>
       <c r="P1" t="s">
-        <v>1395</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15688,49 +17020,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1396</v>
+        <v>1523</v>
       </c>
       <c r="C2" t="s">
-        <v>1397</v>
+        <v>1524</v>
       </c>
       <c r="D2" t="s">
-        <v>1398</v>
+        <v>1525</v>
       </c>
       <c r="E2" t="s">
-        <v>1399</v>
+        <v>1526</v>
       </c>
       <c r="F2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>1403</v>
+        <v>1307</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>1529</v>
       </c>
       <c r="J2" t="s">
-        <v>1404</v>
+        <v>1530</v>
       </c>
       <c r="K2" t="s">
-        <v>1405</v>
+        <v>1531</v>
       </c>
       <c r="L2" t="s">
-        <v>1406</v>
+        <v>1532</v>
       </c>
       <c r="M2" t="s">
-        <v>1407</v>
+        <v>1533</v>
       </c>
       <c r="N2" t="s">
-        <v>1408</v>
+        <v>1534</v>
       </c>
       <c r="O2" t="s">
-        <v>1409</v>
+        <v>1535</v>
       </c>
       <c r="P2" t="s">
-        <v>1410</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -15738,49 +17070,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1396</v>
+        <v>1523</v>
       </c>
       <c r="C3" t="s">
-        <v>1397</v>
+        <v>1524</v>
       </c>
       <c r="D3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="E3" t="s">
-        <v>1412</v>
+        <v>1537</v>
       </c>
       <c r="F3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>1403</v>
+        <v>1538</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>1529</v>
       </c>
       <c r="J3" t="s">
-        <v>1404</v>
+        <v>1530</v>
       </c>
       <c r="K3" t="s">
-        <v>1405</v>
+        <v>1531</v>
       </c>
       <c r="L3" t="s">
-        <v>1406</v>
+        <v>1532</v>
       </c>
       <c r="M3" t="s">
-        <v>1407</v>
+        <v>1533</v>
       </c>
       <c r="N3" t="s">
-        <v>1415</v>
+        <v>1540</v>
       </c>
       <c r="O3" t="s">
-        <v>1416</v>
+        <v>1541</v>
       </c>
       <c r="P3" t="s">
-        <v>1410</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -15788,49 +17120,49 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1396</v>
+        <v>1523</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1524</v>
       </c>
       <c r="D4" t="s">
-        <v>1417</v>
+        <v>1542</v>
       </c>
       <c r="E4" t="s">
-        <v>1418</v>
+        <v>1543</v>
       </c>
       <c r="F4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>1403</v>
+        <v>1544</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>1529</v>
       </c>
       <c r="J4" t="s">
-        <v>1404</v>
+        <v>1530</v>
       </c>
       <c r="K4" t="s">
-        <v>1421</v>
+        <v>1546</v>
       </c>
       <c r="L4" t="s">
-        <v>1406</v>
+        <v>1532</v>
       </c>
       <c r="M4" t="s">
-        <v>1407</v>
+        <v>1533</v>
       </c>
       <c r="N4" t="s">
-        <v>1415</v>
+        <v>1540</v>
       </c>
       <c r="O4" t="s">
-        <v>1422</v>
+        <v>1547</v>
       </c>
       <c r="P4" t="s">
-        <v>1410</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -15863,178 +17195,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1423</v>
+        <v>1548</v>
       </c>
       <c r="B2" t="s">
-        <v>1424</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>1426</v>
+        <v>1550</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1428</v>
+        <v>1552</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>1429</v>
+      <c r="B5" s="26" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1430</v>
+        <v>1555</v>
       </c>
       <c r="B6" t="s">
-        <v>1431</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1432</v>
+        <v>1557</v>
       </c>
       <c r="B7" t="s">
-        <v>1433</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1434</v>
+        <v>1559</v>
       </c>
       <c r="B8" t="s">
-        <v>1435</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1436</v>
+        <v>1561</v>
       </c>
       <c r="B9" t="s">
-        <v>1437</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1438</v>
+        <v>1563</v>
       </c>
       <c r="B10" t="s">
-        <v>1439</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1440</v>
+        <v>1565</v>
       </c>
       <c r="B11" t="s">
-        <v>1441</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1442</v>
+        <v>1567</v>
       </c>
       <c r="B12" t="s">
-        <v>1443</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>1445</v>
+        <v>1569</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>1446</v>
+      <c r="B14" s="26" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>1447</v>
+      <c r="B15" s="26" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>1448</v>
+      <c r="B16" s="26" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>1449</v>
+      <c r="B17" s="26" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>1450</v>
+      <c r="B18" s="26" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>1451</v>
+      <c r="B19" s="26" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>1452</v>
+      <c r="B20" s="26" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>1453</v>
+      <c r="B21" s="26" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>1454</v>
+      <c r="B22" s="26" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>1455</v>
+      <c r="B23" s="26" t="s">
+        <v>1580</v>
       </c>
     </row>
   </sheetData>
@@ -16048,10 +17380,10 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -16169,7 +17501,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -16189,7 +17521,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -16209,7 +17541,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -16269,7 +17601,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16289,7 +17621,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -16329,7 +17661,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -16429,7 +17761,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -16569,7 +17901,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -16609,7 +17941,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -16649,7 +17981,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -16749,7 +18081,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16">
+      <c r="A36" s="17">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -16809,7 +18141,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -16829,7 +18161,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="15">
+      <c r="A40" s="16">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -16869,7 +18201,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -16889,7 +18221,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13">
+      <c r="A43" s="14">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -16909,7 +18241,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -17029,7 +18361,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14">
+      <c r="A50" s="15">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -17049,7 +18381,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14">
+      <c r="A51" s="15">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -17089,7 +18421,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14">
+      <c r="A53" s="15">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -17109,7 +18441,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -17149,7 +18481,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14">
+      <c r="A56" s="15">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -17169,7 +18501,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -17189,7 +18521,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -17209,7 +18541,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -17266,7 +18598,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="12"/>
+    <col min="6" max="9" width="9" style="13"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -18761,7 +20093,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -18787,7 +20119,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -18959,7 +20291,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -18974,13 +20306,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -18997,7 +20329,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19018,13 +20350,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -19033,13 +20365,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -19056,7 +20388,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -19077,7 +20409,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -19085,7 +20417,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -19103,7 +20435,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -19111,7 +20443,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -19132,13 +20464,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="26" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -19147,13 +20479,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="26" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -19170,7 +20502,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -19191,13 +20523,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="26" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -19225,9 +20557,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="10" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -19255,16 +20587,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -19395,16 +20727,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -19428,10 +20760,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19445,16 +20777,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -19478,10 +20810,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AK3" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19495,16 +20827,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -19528,10 +20860,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="AK4" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19545,16 +20877,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -19578,10 +20910,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="AK5" s="26" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19592,16 +20924,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -19628,64 +20960,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="W6" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="25" t="s">
+      <c r="AE6" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="25" t="s">
+      <c r="AF6" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="25" t="s">
+      <c r="AG6" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="25" t="s">
+      <c r="AH6" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="25" t="s">
+      <c r="AI6" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AJ6" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="25" t="s">
+      <c r="AK6" s="26" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -19702,16 +21034,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -19738,61 +21070,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="25" t="s">
+      <c r="AC7" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AD7" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="25" t="s">
+      <c r="AF7" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="AG7" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="AI7" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -19836,16 +21168,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -19866,61 +21198,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="25" t="s">
+      <c r="AC8" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AD8" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="25" t="s">
+      <c r="AE8" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="25" t="s">
+      <c r="AF8" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="25" t="s">
+      <c r="AG8" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="25" t="s">
+      <c r="AH8" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="25" t="s">
+      <c r="AI8" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -19937,16 +21269,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -19973,7 +21305,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="26" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -19994,22 +21326,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AB9" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="25" t="s">
+      <c r="AC9" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AD9" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="25" t="s">
+      <c r="AF9" s="26" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -20027,7 +21359,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="25" t="s">
+      <c r="AR9" s="26" t="s">
         <v>656</v>
       </c>
     </row>
@@ -20041,16 +21373,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>565656</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -20071,61 +21403,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="25" t="s">
+      <c r="V10" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="25" t="s">
+      <c r="AC10" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AE10" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="AF10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="25" t="s">
+      <c r="AG10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="25" t="s">
+      <c r="AH10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="25" t="s">
+      <c r="AI10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="25" t="s">
+      <c r="AJ10" s="26" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -20145,16 +21477,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -20178,64 +21510,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="25" t="s">
+      <c r="AF11" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="25" t="s">
+      <c r="AG11" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AH11" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="AI11" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="25" t="s">
+      <c r="AJ11" s="26" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -20252,16 +21584,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -20282,61 +21614,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="25" t="s">
+      <c r="AE12" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="AF12" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="25" t="s">
+      <c r="AG12" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="25" t="s">
+      <c r="AH12" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="25" t="s">
+      <c r="AI12" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="25" t="s">
+      <c r="AJ12" s="26" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -20356,16 +21688,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>790200</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -20386,58 +21718,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="25" t="s">
+      <c r="AD13" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="25" t="s">
+      <c r="AE13" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="25" t="s">
+      <c r="AF13" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="25" t="s">
+      <c r="AG13" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="25" t="s">
+      <c r="AH13" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="25" t="s">
+      <c r="AI13" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="25" t="s">
+      <c r="AJ13" s="26" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -20657,19 +21989,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -20701,16 +22033,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -20763,7 +22095,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -20819,10 +22151,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -20878,7 +22210,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -20919,10 +22251,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -21025,7 +22357,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -21116,7 +22448,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="26" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -21172,7 +22504,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -21181,10 +22513,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="26" t="s">
         <v>778</v>
       </c>
     </row>
@@ -21228,7 +22560,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="26" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -21237,7 +22569,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21281,7 +22613,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -21334,7 +22666,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -21343,7 +22675,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21384,7 +22716,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -21440,7 +22772,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="26" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -21449,10 +22781,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="26" t="s">
         <v>795</v>
       </c>
     </row>
@@ -21496,7 +22828,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="26" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -21505,7 +22837,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21555,7 +22887,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -21611,7 +22943,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="26" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -21620,7 +22952,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="26" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21673,10 +23005,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -21732,7 +23064,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -21782,28 +23114,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="P29" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="25" t="s">
+      <c r="X29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="25" t="s">
+      <c r="Y29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="25" t="s">
+      <c r="Z29" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -21818,13 +23150,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AE29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="25" t="s">
+      <c r="AF29" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="25" t="s">
+      <c r="AG29" s="26" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21865,16 +23197,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -21889,13 +23221,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="25" t="s">
+      <c r="X30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="25" t="s">
+      <c r="Y30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="25" t="s">
+      <c r="Z30" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -21907,16 +23239,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="25" t="s">
+      <c r="AD30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="25" t="s">
+      <c r="AE30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="25" t="s">
+      <c r="AF30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="25" t="s">
+      <c r="AG30" s="26" t="s">
         <v>584</v>
       </c>
     </row>
@@ -21966,7 +23298,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -21978,13 +23310,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="25" t="s">
+      <c r="X31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="25" t="s">
+      <c r="Y31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="25" t="s">
+      <c r="Z31" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -21996,16 +23328,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="25" t="s">
+      <c r="AD31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="25" t="s">
+      <c r="AE31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="25" t="s">
+      <c r="AF31" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="25" t="s">
+      <c r="AG31" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -22061,10 +23393,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="26" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -22076,13 +23408,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="25" t="s">
+      <c r="X32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="25" t="s">
+      <c r="Y32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="25" t="s">
+      <c r="Z32" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -22094,16 +23426,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="25" t="s">
+      <c r="AD32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="25" t="s">
+      <c r="AE32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="25" t="s">
+      <c r="AF32" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="25" t="s">
+      <c r="AG32" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -22159,7 +23491,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="26" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -22168,7 +23500,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="25" t="s">
+      <c r="X33" s="26" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -22189,13 +23521,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="25" t="s">
+      <c r="AE33" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="25" t="s">
+      <c r="AF33" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="25" t="s">
+      <c r="AG33" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -22239,10 +23571,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="R34" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -22272,10 +23604,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="25" t="s">
+      <c r="AE34" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="25" t="s">
+      <c r="AF34" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -22334,10 +23666,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="26" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -22367,10 +23699,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="25" t="s">
+      <c r="AE35" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="25" t="s">
+      <c r="AF35" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -22459,7 +23791,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="25" t="s">
+      <c r="AE36" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -22518,7 +23850,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="26" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -22548,7 +23880,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="25" t="s">
+      <c r="AE37" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -22631,10 +23963,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="25" t="s">
+      <c r="AE38" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="25" t="s">
+      <c r="AF38" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -22684,7 +24016,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="26" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -22714,7 +24046,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="25" t="s">
+      <c r="AE39" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -22800,7 +24132,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="25" t="s">
+      <c r="AE40" s="26" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165" tabRatio="796" activeTab="10"/>
+    <workbookView windowWidth="14400" windowHeight="12255" tabRatio="796" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="2435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="2436">
   <si>
     <t>Count</t>
   </si>
@@ -3368,7 +3368,7 @@
     <t>&lt;fc=1ABCB6&gt;&lt;fs=40&gt;Дружелюбный Дипломат&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта обладает способностью карт способностей подконтрольных легендарных планет, даже если эти карты перевёрнуты. Вы можете позволить другому игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта обладает способностью карт способностей подконтрольных легендарных планет, даже если эти карты перевёрнуты.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Вы можете позволить другому игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Известный в совете, Кордо имел репутацию переговорщика по совместным проектам по всей галактике.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4610,7 +4610,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту рядом с игровым полем. Во время этого раунда игры каждая подконтрольная вам планета получает способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;, как если бы это был отряд.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В конце этого раунда игры изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Война — это хаос, а хаос стоит дорого. Всё, что я делаю - это слежу, чтобы нужные корабли оказались в нужном месте в нужный время».&lt;/ls&gt;&lt;/f&gt;</t>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Война — это хаос, а хаос стоит дорого. Всё, что я делаю — это слежу, чтобы нужные корабли оказались в нужном месте в нужный время».&lt;/ls&gt;&lt;/f&gt;</t>
   </si>
   <si>
     <t>Images\Factions\Custom\Olradin_icon.png</t>
@@ -5018,7 +5018,7 @@
     <t>&lt;fs=64&gt;Дилн Хартуул&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fc=08F5DD&gt;&lt;fs=36&gt;Вице-адмирал 15-й группы флота&lt;/fs&gt;&lt;/fc&gt;</t>
+    <t>&lt;fc=08F5DD&gt;&lt;fs=35&gt;Вице-адмирал 15-й группы флота&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
     <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Уберите 1 свой жетон приказа с игрового поля и получите 1 жетон приказа. Во время этого тактического действия добавляйте +1 к значению полёта каждого вашего корабля и результатам боевых проверок каждого вашего корабля.&lt;/ls&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=60&gt;В конце этого хода изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
@@ -5135,457 +5135,460 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должны быть корабли хотя бы в 2 системах с полем астероидов.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Каждый ваш дредноут и солнце войны без способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ ФЛОТЫ!»&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Leaders\Front Heroes\34.png</t>
+  </si>
+  <si>
+    <t>Images\Leaders\Back Heroes\34.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Катаклизм&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=E81008&gt;&lt;fs=40&gt;Космическое Столкновение&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Зелиан Р&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=E81008&gt;&lt;fs=40&gt;Разрушитель&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=59&gt;&lt;f=Myriad Pro;39;1;0;0;0&gt;После того как вы передвинули отряд со способностью &lt;/f&gt;&lt;push=0;13&gt;&lt;f=Russo One;31;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-13&gt;&lt;f=Myriad Pro;39;1;0;0;0&gt; в неродную систему (кроме Мекатол-Рекса):&lt;/f&gt;&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;39;1;0;0;0&gt;Можете получить товары, равные сумме значений ресурсов планет в этой системе. Если вы это делаете, уничтожьте все отряды на планетах в этой системе и замените фрагмент поля с этой системой на фрагмент поля астероидов Зелиана.&lt;/ls&gt;&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=59&gt;Затем изгоните эту карту и все карты планет, соответствующие заменённому фрагменту.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ МИРЫ!»&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Factions\Custom\Relic_icon.png</t>
+  </si>
+  <si>
+    <t>FFE535</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;JR-XS455-O&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=F4DB5A&gt;&lt;fs=36&gt;Прототип утерянного титана&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;переверните эту карту и выберите игрока; этот игрок получает 1 товар или может потратить 3 очка ресурсов, чтобы разместить сооружение на подконтрольной ему планете.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;36;1;0;1;0&gt;&lt;ls=56&gt;«У меня нет имени». Титан помолчал, затем прямо обратился к Дарту. «Ты, — сказал он, указывая. — могу я стать Дарт II?». «К-Как насчёт... Джуниор? — предложил Дарт. — Я бы не хотел, чтобы нас спутали. Мы уже так похожи». Титан наклонил голову и торжественно кивнул: «Да. Да, это правда». Он отвернулся в сторону от парочки. «Джуниор. Да. Мне нравится это имя. Я бы хотел пойти с вами».&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Factions\Naalu.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;З’еу Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Агент Нефешш&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;переверните эту карту и выберите игрока; этот игрок может совершить тактическое действие в неродной системе, не размещая жетон приказа; эта система считается активированной.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;— ... и поэтому Летнев никогда не будут сотрудничать с фанатиками и экстремистами шикрай! — рявкнул посол Бемосиль. Галактический совет разразился злобными криками.&lt;ls=51&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;— Очень хорошо, милый мой, — прошипел в его мыслях бархатный голос, пока он купался в тепле похвалы.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;М’абан Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Хрустальная чародейка&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должны быть наземные войска в системе Мекатол-Рекс или смежной с ней.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В любое время:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете посмотреть карты обещаний на руке ваших соседей, а также на верхнюю и нижнюю карту колоды политики.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Первая среди чародеек К’веш, М’абан получила в дар улучшения из кристаллов радия, позволившие её разуму петь сразу тысячам Наалу.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Factions\Yin.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Брат Милор Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Очищенный огнём&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После уничтожения отряда любого игрока:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку разместить 2 истребителя из своего снабжения в систему, где находился уничтоженный отряд, если это был корабль, или 2 отряда пехоты на планету, где находился уничтоженный отряд, если это был наземный отряд.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Братья... — сказал Милор, не скрывая слёз и наблюдая, как корабли разрываются в небе на части. — Мы не забудем их! Во имя Дэриэна, мы сражаемся до последнего!» Толпа разразилась ликующими возгласами.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Брат Омар Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Верный иньскому волчку&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; используйте одну из своих фракционных способностей.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет зелёному требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы исследуете технологию, который владеет другой игрок, вы можете вернуть 1 свой отряд пехоты в снабжение, чтобы проигнорировать все требования этой технологии.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Говорят, что генетическое веретено Омара — величайший прорыв Братства со времён первого запретного исследования Дэриэна много веков тому назад.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Перезагрузка волчка Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Благословение Инь&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Даннел из десятых Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Верховный жрец Инь&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;высадите 3 отряда пехоты или меньше из вашего снабжения на любые неродные планеты, после чего разыграйте вторжение на этих планетах; игроки не могут использовать способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; против этих отрядов.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;По приказу Даннела они вырабатывали свои волчки до предела, и спустя всего несколько недель в Братство приняли тысячи новых адептов. Таков потенциал Инь.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Factions\Xxcha.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Политический узел данных Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Глас совета&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Ззекир Гром Ω&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Сердце совета&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы переворачиваете карты планет, суммируйте значения их ресурсов и влияния.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Рассматривайте результат так, как если бы это были или ресурсы, или влияние.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Никого не удивило, что решение по аннексии в галактическом совете не прошло. Гром это лично гарантировал, а в итоге все задолжали Ззча.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Images\Factions\Keleres.png</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;Ксандер Алексин Виктори III&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Чудотворец&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В любое время:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить любому игроку потратить продукцию, как если бы это были товары.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Это просто невероятно, как он умудряется растянуть пару ауреев. Находить деньги там, где их нет. Этот человек мог бы финансировать армию за те же деньги, на которые вы или я могли бы пообедать. Ужасающе, правда».&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Суффи Ан&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Суффи Ан&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=36&gt;Работа в нескольких ракурсах&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; потратьте 1 товар после того как разыграете карту действия с компонентным действием.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы совершили компонентное действие:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете совершить ещё одно действие.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Суффи просмотрела контракты: «Значит, мне заплатят дважды... по одному разу два разных подрядчика... за выполнение одной и той же работы. В чём подвох?»&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Овервинг Зета&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Артемирис Восходящий&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Кууаси Аун Джалатай&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Трибун Келерес&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Серебряная Стая».&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале раунда космического боя в системе, содержащей подконтрольную вам планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Разместите свой флагман и в сумме до 2 крейсеров и/или эсминцев из вашего снабжения в активную систему.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Доблесть. Благодать. Мудрость.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Операция «Архон»&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Колдовской час&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Одлинн Мирр&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Королевство Ззча».&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете отдать 6 дополнительных голосов или меньше по этой карте политики. Предскажите вслух результат голосования по ней. За каждого игрока, который проголосовал за другой результат, получите 1 товар и 1 жетон приказа.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Мир. Сообщество. Сдерживание.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Завет Эрвана&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fc=&gt;&lt;fs=40&gt;Ветра перемен&lt;/fs&gt;&lt;/fc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;Харка Лидс&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Коалиция Ментака».&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;открывайте карты из колоды карт действий, пока не откроете 3 карты действий, которые имеют компонентное действие. Возьмите эти карты, а остальные замешайте обратно в колоду.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+  </si>
+  <si>
+    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Власть. Сила. Эффективность.&lt;/ls&gt;&lt;/f&gt;</t>
+  </si>
+  <si>
+    <t>Leader Picture</t>
+  </si>
+  <si>
+    <t>Alliance Name</t>
+  </si>
+  <si>
+    <t>Alliance SubName</t>
+  </si>
+  <si>
+    <t>Leader Active Text</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ОСИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;РОЕВАЯ ИНЖЕНЕРИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС БЕНТОРОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=36&gt;МАРКЕТИНГОВЫЕ КОНСУЛЬТАНТЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КЕЛДАРИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;СТЫКОВОЧНЫЕ РЕТРАНСЛЯТОРЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;ТОРГОВЫЙ АЛЬЯНС КЕЛДАРИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ХИРАНЦЕВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;БИОМИМЕТИЧЕСКИЕ КОМПОЗИТЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ЦИМИЙЦЕВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=36&gt;КИБЕРНЕТИЧЕСКИЕ АУГМЕНТАЦИИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ДИ-МОН&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;РАЗНООБРАЗНОЕ СНАРЯЖЕНИЕ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ЭДИНОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ИМПЕРСКАЯ УТОНЧЁННОСТЬ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ФЛОРЗЕНОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ТЕНЕВОЙ БИЗНЕС&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=44&gt;АЛЬЯНС СВОБОДНЫХ СИСТЕМ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ЧРЕЗВЫЧАЙНАЯ МОБИЛИЗАЦИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ГЕМИНЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;БОЕВАЯ ОРДА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ГОТИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;БЛАГОСЛОВЕНИЕ БЕЗДНЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС «ПРГ»&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;РЕЗЕРВЫ ДЮРАНИУМА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС АВГУРОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;СОВЕТЫ ОРАКУЛА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КЬЯЛЕНГАРДА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ОТРЯДЫ БЕРСЕРКОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КОЛЛЕК&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;МАРШРУТЫ КОНТРАБАНДИСТОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КОЛУМОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=30&gt;УСОВЕРШЕНСТВОВАННЫЕ АЛГОРИТМЫ СТРЕЛЬБЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КОРТАЛИИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ПОСЛЫ КОРТАЛИИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС КАЙРО&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ОКОНЧАТЕЛЬНЫЙ ПЛЕБИСЦИТ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ЛАНЕФИРОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ЛИНИИ СНАБЖЕНИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ЛИ-ДЖО&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ХИТРОСПЛЕТЕНИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС Л’ТОКК&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ДРУИДИЧЕСКОЕ ОБРАЩЕНИЕ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС МИРВЕДЫ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ОРБИТАЛЬНОЕ ЗАЦЕПЛЕНИЕ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС МОРФЕУСОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;НЕПОСТИЖИМОЕ СИЯНИЕ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС МИКО-МЕНТОРИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=36&gt;ИНДУЦИРОВАННЫЕ ГАЛЛЮЦИНАЦИИ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС НИВИН&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;БЕЗЖАЛОСТНАЯ ИНКВИЗИЦИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС НОКАРА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ОФИЦЕР ВЫСШЕГО РАНГА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ОЛРАДИНОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=28&gt;НАЦИОНАЛИЗИРОВАННАЯ ПРОМЫШЛЕННОСТЬ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС МЕХАТРОНИКОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ТАЙНЫ АРХИВА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС РО’ДНА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;БЫСТРАЯ СБОРКА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ТНЕЛИС&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ДРУГ МОЕГО ДРУГА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ВАДЕНОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=36&gt;НЕДОБРОСОВЕСТНЫЙ ФИНАНСИСТ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ВАЙЛЕРИАНЦЕВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ШТУРМОВАЯ ТАКТИКА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ВЕЛДИРОВ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ВНЕШТАТНЫЙ ЮРИСТ&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=64&gt;АЛЬЯНС ЗЕЛИАНА&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=40&gt;ОБЕЩАНИЯ РАЗРУШЕНИЯ&lt;/fs&gt;</t>
+  </si>
+  <si>
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Каждый ваш дредноут и солнце войны без способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ ФЛОТЫ!»&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Leaders\Front Heroes\34.png</t>
-  </si>
-  <si>
-    <t>Images\Leaders\Back Heroes\34.png</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Катаклизм&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=E81008&gt;&lt;fs=40&gt;Космическое Столкновение&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Зелиан Р&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=E81008&gt;&lt;fs=40&gt;Разрушитель&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=59&gt;&lt;f=Myriad Pro;39;1;0;0;0&gt;После того как вы передвинули отряд со способностью &lt;/f&gt;&lt;push=0;13&gt;&lt;f=Russo One;31;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-13&gt;&lt;f=Myriad Pro;39;1;0;0;0&gt; в неродную систему (кроме Мекатол-Рекса):&lt;/f&gt;&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;39;1;0;0;0&gt;Можете получить товары, равные сумме значений ресурсов планет в этой системе. Если вы это делаете, уничтожьте все отряды на планетах в этой системе и замените фрагмент поля с этой системой на фрагмент поля астероидов Зелиана.&lt;/ls&gt;&lt;ls=47&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=59&gt;Затем изгоните эту карту и все карты планет, соответствующие заменённому фрагменту.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ МИРЫ!»&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Factions\Custom\Relic_icon.png</t>
-  </si>
-  <si>
-    <t>FFE535</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;JR-XS455-O&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=F4DB5A&gt;&lt;fs=36&gt;Прототип утерянного титана&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;переверните эту карту и выберите игрока; этот игрок получает 1 товар или может потратить 3 очка ресурсов, чтобы разместить сооружение на подконтрольной ему планете.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;36;1;0;1;0&gt;&lt;ls=56&gt;«У меня нет имени». Титан помолчал, затем прямо обратился к Дарту. «Ты, — сказал он, указывая. — могу я стать Дарт II?». «К-Как насчёт... Джуниор? — предложил Дарт. — Я бы не хотел, чтобы нас спутали. Мы уже так похожи». Титан наклонил голову и торжественно кивнул: «Да. Да, это правда». Он отвернулся в сторону от парочки. «Джуниор. Да. Мне нравится это имя. Я бы хотел пойти с вами».&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Factions\Naalu.png</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;З’еу Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Агент Нефешш&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;переверните эту карту и выберите игрока; этот игрок может совершить тактическое действие в неродной системе, не размещая жетон приказа; эта система считается активированной.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;— ... и поэтому Летнев никогда не будут сотрудничать с фанатиками и экстремистами шикрай! — рявкнул посол Бемосиль. Галактический совет разразился злобными криками.&lt;ls=51&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;— Очень хорошо, милый мой, — прошипел в его мыслях бархатный голос, пока он купался в тепле похвалы.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;М’абан Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Хрустальная чародейка&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должны быть наземные войска в системе Мекатол-Рекс или смежной с ней.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В любое время:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете посмотреть карты обещаний на руке ваших соседей, а также на верхнюю и нижнюю карту колоды политики.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Первая среди чародеек К’веш, М’абан получила в дар улучшения из кристаллов радия, позволившие её разуму петь сразу тысячам Наалу.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Factions\Yin.png</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Брат Милор Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Очищенный огнём&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После уничтожения отряда любого игрока:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку разместить 2 истребителя из своего снабжения в систему, где находился уничтоженный отряд, если это был корабль, или 2 отряда пехоты на планету, где находился уничтоженный отряд, если это был наземный отряд.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Братья... — сказал Милор, не скрывая слёз и наблюдая, как корабли разрываются в небе на части. — Мы не забудем их! Во имя Дэриэна, мы сражаемся до последнего!» Толпа разразилась ликующими возгласами.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Брат Омар Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Верный иньскому волчку&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; используйте одну из своих фракционных способностей.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет зелёному требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы исследуете технологию, который владеет другой игрок, вы можете вернуть 1 свой отряд пехоты в снабжение, чтобы проигнорировать все требования этой технологии.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Говорят, что генетическое веретено Омара — величайший прорыв Братства со времён первого запретного исследования Дэриэна много веков тому назад.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Перезагрузка волчка Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Благословение Инь&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Даннел из десятых Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Верховный жрец Инь&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;высадите 3 отряда пехоты или меньше из вашего снабжения на любые неродные планеты, после чего разыграйте вторжение на этих планетах; игроки не могут использовать способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; против этих отрядов.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;По приказу Даннела они вырабатывали свои волчки до предела, и спустя всего несколько недель в Братство приняли тысячи новых адептов. Таков потенциал Инь.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Factions\Xxcha.png</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Политический узел данных Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Глас совета&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Ззекир Гром Ω&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Сердце совета&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы переворачиваете карты планет, суммируйте значения их ресурсов и влияния.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Рассматривайте результат так, как если бы это были или ресурсы, или влияние.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Никого не удивило, что решение по аннексии в галактическом совете не прошло. Гром это лично гарантировал, а в итоге все задолжали Ззча.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Images\Factions\Keleres.png</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;Ксандер Алексин Виктори III&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Чудотворец&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В любое время:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить любому игроку потратить продукцию, как если бы это были товары.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Это просто невероятно, как он умудряется растянуть пару ауреев. Находить деньги там, где их нет. Этот человек мог бы финансировать армию за те же деньги, на которые вы или я могли бы пообедать. Ужасающе, правда».&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Суффи Ан&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Суффи Ан&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=36&gt;Работа в нескольких ракурсах&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; потратьте 1 товар после того как разыграете карту действия с компонентным действием.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы совершили компонентное действие:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете совершить ещё одно действие.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Суффи просмотрела контракты: «Значит, мне заплатят дважды... по одному разу два разных подрядчика... за выполнение одной и той же работы. В чём подвох?»&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Овервинг Зета&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Артемирис Восходящий&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Кууаси Аун Джалатай&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Трибун Келерес&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Серебряная Стая».&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале раунда космического боя в системе, содержащей подконтрольную вам планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Разместите свой флагман и в сумме до 2 крейсеров и/или эсминцев из вашего снабжения в активную систему.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Доблесть. Благодать. Мудрость.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Операция «Архон»&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Колдовской час&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Одлинн Мирр&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Королевство Ззча».&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете отдать 6 дополнительных голосов или меньше по этой карте политики. Предскажите вслух результат голосования по ней. За каждого игрока, который проголосовал за другой результат, получите 1 товар и 1 жетон приказа.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Мир. Сообщество. Сдерживание.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Завет Эрвана&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fc=&gt;&lt;fs=40&gt;Ветра перемен&lt;/fs&gt;&lt;/fc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;Харка Лидс&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Доступно, если в ходе подготовки вы выбрали фракцию «Коалиция Ментака».&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;открывайте карты из колоды карт действий, пока не откроете 3 карты действий, которые имеют компонентное действие. Возьмите эти карты, а остальные замешайте обратно в колоду.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
-  </si>
-  <si>
-    <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Власть. Сила. Эффективность.&lt;/ls&gt;&lt;/f&gt;</t>
-  </si>
-  <si>
-    <t>Leader Picture</t>
-  </si>
-  <si>
-    <t>Alliance Name</t>
-  </si>
-  <si>
-    <t>Alliance SubName</t>
-  </si>
-  <si>
-    <t>Leader Active Text</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ОСИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;РОЕВАЯ ИНЖЕНЕРИЯ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС БЕНТОРОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=36&gt;МАРКЕТИНГОВЫЕ КОНСУЛЬТАНТЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КЕЛДАРИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;СТЫКОВОЧНЫЕ РЕТРАНСЛЯТОРЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;ТОРГОВЫЙ АЛЬЯНС КЕЛДАРИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ХИРАНЦЕВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;БИОМИМЕТИЧЕСКИЕ КОМПОЗИТЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ЦИМИЙЦЕВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=36&gt;КИБЕРНЕТИЧЕСКИЕ АУГМЕНТАЦИИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ДИ-МОН&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;РАЗНООБРАЗНОЕ СНАРЯЖЕНИЕ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ЭДИНОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ИМПЕРСКАЯ УТОНЧЁННОСТЬ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ФЛОРЗЕНОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ТЕНЕВОЙ БИЗНЕС&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=44&gt;АЛЬЯНС СВОБОДНЫХ СИСТЕМ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ЧРЕЗВЫЧАЙНАЯ МОБИЛИЗАЦИЯ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ГЕМИНЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;БОЕВАЯ ОРДА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ГОТИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;БЛАГОСЛОВЕНИЕ БЕЗДНЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС «ПРГ»&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;РЕЗЕРВЫ ДЮРАНИУМА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС АВГУРОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;СОВЕТЫ ОРАКУЛА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КЬЯЛЕНГАРДА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ОТРЯДЫ БЕРСЕРКОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КОЛЛЕК&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;МАРШРУТЫ КОНТРАБАНДИСТОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КОЛУМОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=30&gt;УСОВЕРШЕНСТВОВАННЫЕ АЛГОРИТМЫ СТРЕЛЬБЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КОРТАЛИИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ПОСЛЫ КОРТАЛИИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС КАЙРО&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ОКОНЧАТЕЛЬНЫЙ ПЛЕБИСЦИТ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ЛАНЕФИРОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ЛИНИИ СНАБЖЕНИЯ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ЛИ-ДЖО&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ХИТРОСПЛЕТЕНИЯ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС Л’ТОКК&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ДРУИДИЧЕСКОЕ ОБРАЩЕНИЕ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС МИРВЕДЫ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ОРБИТАЛЬНОЕ ЗАЦЕПЛЕНИЕ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС МОРФЕУСОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;НЕПОСТИЖИМОЕ СИЯНИЕ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС МИКО-МЕНТОРИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=36&gt;ИНДУЦИРОВАННЫЕ ГАЛЛЮЦИНАЦИИ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС НИВИН&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;БЕЗЖАЛОСТНАЯ ИНКВИЗИЦИЯ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС НОКАРА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ОФИЦЕР ВЫСШЕГО РАНГА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ОЛРАДИНОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=28&gt;НАЦИОНАЛИЗИРОВАННАЯ ПРОМЫШЛЕННОСТЬ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС МЕХАТРОНИКОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ТАЙНЫ АРХИВА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС РО’ДНА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;БЫСТРАЯ СБОРКА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ТНЕЛИС&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ДРУГ МОЕГО ДРУГА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ВАДЕНОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=36&gt;НЕДОБРОСОВЕСТНЫЙ ФИНАНСИСТ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ВАЙЛЕРИАНЦЕВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ШТУРМОВАЯ ТАКТИКА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ВЕЛДИРОВ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ВНЕШТАТНЫЙ ЮРИСТ&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=64&gt;АЛЬЯНС ЗЕЛИАНА&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;ОБЕЩАНИЯ РАЗРУШЕНИЯ&lt;/fs&gt;</t>
   </si>
   <si>
     <t>Description</t>
@@ -9783,10 +9786,10 @@
   <sheetPr/>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:P116"/>
+      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15483,8 +15486,8 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:H36"/>
     </sheetView>
@@ -16426,7 +16429,7 @@
         <v>1813</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>1663</v>
+        <v>1814</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>1653</v>
@@ -16474,19 +16477,19 @@
         <v>433</v>
       </c>
       <c r="F1" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="G1" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="I1" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J1" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="K1" t="s">
         <v>719</v>
@@ -16504,7 +16507,7 @@
         <v>725</v>
       </c>
       <c r="P1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -16518,13 +16521,13 @@
         <v>472</v>
       </c>
       <c r="D2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>475</v>
@@ -16533,7 +16536,7 @@
         <v>623</v>
       </c>
       <c r="I2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -16542,7 +16545,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16556,13 +16559,13 @@
         <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>489</v>
@@ -16577,7 +16580,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16591,13 +16594,13 @@
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E4" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>504</v>
@@ -16612,10 +16615,10 @@
         <v>6</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16629,10 +16632,10 @@
         <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="E5" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>507</v>
@@ -16647,7 +16650,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16661,13 +16664,13 @@
         <v>508</v>
       </c>
       <c r="D6" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E6" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>512</v>
@@ -16682,7 +16685,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16696,13 +16699,13 @@
         <v>522</v>
       </c>
       <c r="D7" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>525</v>
@@ -16714,10 +16717,10 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
@@ -16764,67 +16767,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>453</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>319</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:19">
@@ -16835,10 +16838,10 @@
         <v>873</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -16855,10 +16858,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="N2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
@@ -16882,10 +16885,10 @@
         <v>873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -16902,10 +16905,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="N3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
@@ -16929,10 +16932,10 @@
         <v>873</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -16949,10 +16952,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="N4" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
@@ -16976,10 +16979,10 @@
         <v>873</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -16996,10 +16999,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N5" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
@@ -17023,10 +17026,10 @@
         <v>873</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -17043,10 +17046,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="N6" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
@@ -17070,10 +17073,10 @@
         <v>873</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -17090,10 +17093,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="N7" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
@@ -17117,10 +17120,10 @@
         <v>873</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -17137,10 +17140,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="N8" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
@@ -17164,10 +17167,10 @@
         <v>873</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -17184,10 +17187,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="N9" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
@@ -17211,10 +17214,10 @@
         <v>873</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -17231,10 +17234,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="N10" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
@@ -17258,10 +17261,10 @@
         <v>873</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -17278,10 +17281,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="N11" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
@@ -17305,10 +17308,10 @@
         <v>873</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -17325,10 +17328,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="N12" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1">
@@ -17352,10 +17355,10 @@
         <v>873</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -17372,10 +17375,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="N13" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
@@ -17399,10 +17402,10 @@
         <v>873</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -17419,10 +17422,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="N14" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
@@ -17446,10 +17449,10 @@
         <v>873</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -17466,10 +17469,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="N15" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1">
@@ -17493,10 +17496,10 @@
         <v>873</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -17513,10 +17516,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="N16" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1">
@@ -17540,10 +17543,10 @@
         <v>873</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -17560,10 +17563,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="N17" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1">
@@ -17587,10 +17590,10 @@
         <v>873</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -17607,10 +17610,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="N18" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
@@ -17634,10 +17637,10 @@
         <v>873</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -17654,10 +17657,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="N19" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
@@ -17681,10 +17684,10 @@
         <v>873</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -17701,10 +17704,10 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="N20" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
@@ -17728,10 +17731,10 @@
         <v>873</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -17748,13 +17751,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="N21" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -17777,10 +17780,10 @@
         <v>873</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -17797,10 +17800,10 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="N22" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1">
@@ -17824,10 +17827,10 @@
         <v>873</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -17844,10 +17847,10 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="N23" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1">
@@ -17871,10 +17874,10 @@
         <v>873</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -17891,10 +17894,10 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="N24" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1">
@@ -17918,10 +17921,10 @@
         <v>873</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -17938,10 +17941,10 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="N25" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
@@ -17965,10 +17968,10 @@
         <v>873</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -17985,10 +17988,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="N26" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
@@ -18012,10 +18015,10 @@
         <v>873</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -18032,10 +18035,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="N27" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
@@ -18059,10 +18062,10 @@
         <v>873</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -18079,10 +18082,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="N28" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
@@ -18106,10 +18109,10 @@
         <v>873</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -18126,10 +18129,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="N29" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
@@ -18153,10 +18156,10 @@
         <v>873</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -18173,10 +18176,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="N30" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1">
@@ -18200,10 +18203,10 @@
         <v>873</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -18220,10 +18223,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="N31" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
@@ -18247,10 +18250,10 @@
         <v>873</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -18267,10 +18270,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="N32" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
@@ -18294,10 +18297,10 @@
         <v>873</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -18314,10 +18317,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="N33" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
@@ -18341,10 +18344,10 @@
         <v>873</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -18361,10 +18364,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="N34" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1">
@@ -18388,10 +18391,10 @@
         <v>873</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -18408,10 +18411,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="N35" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1">
@@ -18435,10 +18438,10 @@
         <v>873</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -18455,10 +18458,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="N36" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1">
@@ -18482,10 +18485,10 @@
         <v>873</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -18502,10 +18505,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="N37" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
@@ -18529,10 +18532,10 @@
         <v>873</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -18549,10 +18552,10 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="N38" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
@@ -18576,10 +18579,10 @@
         <v>873</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -18596,10 +18599,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N39" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1">
@@ -18623,10 +18626,10 @@
         <v>873</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -18643,10 +18646,10 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="N40" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1">
@@ -18670,10 +18673,10 @@
         <v>873</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -18690,10 +18693,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="N41" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1">
@@ -18717,10 +18720,10 @@
         <v>873</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -18737,10 +18740,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="N42" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1">
@@ -18764,10 +18767,10 @@
         <v>873</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E43" s="1">
         <v>4</v>
@@ -18784,10 +18787,10 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="N43" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1">
@@ -18811,10 +18814,10 @@
         <v>873</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -18831,10 +18834,10 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="N44" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1">
@@ -18858,10 +18861,10 @@
         <v>873</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -18878,10 +18881,10 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="N45" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
@@ -18905,10 +18908,10 @@
         <v>873</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -18925,10 +18928,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="N46" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1">
@@ -18952,10 +18955,10 @@
         <v>873</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -18972,10 +18975,10 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="N47" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
@@ -18999,10 +19002,10 @@
         <v>873</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -19019,10 +19022,10 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="N48" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1">
@@ -19046,10 +19049,10 @@
         <v>873</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -19066,10 +19069,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="N49" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
@@ -19093,10 +19096,10 @@
         <v>873</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -19113,10 +19116,10 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="N50" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
@@ -19140,10 +19143,10 @@
         <v>873</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E51" s="1">
         <v>4</v>
@@ -19160,10 +19163,10 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="N51" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
@@ -19187,10 +19190,10 @@
         <v>873</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -19207,10 +19210,10 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="N52" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1">
@@ -19234,10 +19237,10 @@
         <v>873</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -19254,10 +19257,10 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N53" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1">
@@ -19281,10 +19284,10 @@
         <v>873</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -19301,10 +19304,10 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N54" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
@@ -19328,10 +19331,10 @@
         <v>873</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -19348,10 +19351,10 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="N55" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
@@ -19375,10 +19378,10 @@
         <v>873</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -19395,10 +19398,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N56" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1">
@@ -19422,10 +19425,10 @@
         <v>873</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
@@ -19442,10 +19445,10 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="N57" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1">
@@ -19469,10 +19472,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -19489,10 +19492,10 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N58" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1">
@@ -19516,10 +19519,10 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
@@ -19536,10 +19539,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="N59" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1">
@@ -19563,10 +19566,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -19583,10 +19586,10 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="N60" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1">
@@ -19610,10 +19613,10 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -19630,10 +19633,10 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="N61" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1">
@@ -19657,10 +19660,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -19677,10 +19680,10 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="N62" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1">
@@ -19704,10 +19707,10 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -19726,10 +19729,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="N63" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1">
@@ -19753,10 +19756,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -19773,10 +19776,10 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="N64" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1">
@@ -19800,10 +19803,10 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -19822,10 +19825,10 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="N65" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1">
@@ -19849,10 +19852,10 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -19869,10 +19872,10 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="N66" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1">
@@ -19896,10 +19899,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -19916,10 +19919,10 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="N67" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1">
@@ -19943,10 +19946,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -19965,10 +19968,10 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="N68" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1">
@@ -19992,10 +19995,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -20014,10 +20017,10 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="N69" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1">
@@ -20041,10 +20044,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -20061,10 +20064,10 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="N70" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1">
@@ -20088,10 +20091,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -20108,10 +20111,10 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="N71" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1">
@@ -20135,10 +20138,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -20155,10 +20158,10 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="N72" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1">
@@ -20182,10 +20185,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -20202,10 +20205,10 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="N73" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1">
@@ -20229,10 +20232,10 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
@@ -20249,10 +20252,10 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N74" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1">
@@ -20276,10 +20279,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -20296,10 +20299,10 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="N75" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1">
@@ -20323,10 +20326,10 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -20343,10 +20346,10 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="N76" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1">
@@ -20370,10 +20373,10 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -20390,10 +20393,10 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N77" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1">
@@ -20417,10 +20420,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -20437,10 +20440,10 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="N78" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1">
@@ -20464,10 +20467,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -20484,10 +20487,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N79" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1">
@@ -20866,106 +20869,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>453</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>319</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:35">
@@ -20976,10 +20979,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -20996,10 +20999,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="N2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
@@ -21015,16 +21018,16 @@
         <v>1648</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="X2" s="4">
         <v>-451</v>
@@ -21053,10 +21056,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:35">
@@ -21067,10 +21070,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -21087,10 +21090,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="N3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
@@ -21106,16 +21109,16 @@
         <v>1075</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="X3" s="4">
         <v>-416</v>
@@ -21144,10 +21147,10 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:35">
@@ -21158,10 +21161,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -21178,10 +21181,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="N4" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
@@ -21197,16 +21200,16 @@
         <v>961</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="X4" s="4">
         <v>-425</v>
@@ -21235,10 +21238,10 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:35">
@@ -21249,10 +21252,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -21269,10 +21272,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="N5" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
@@ -21288,16 +21291,16 @@
         <v>1290</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="X5" s="4">
         <v>-656</v>
@@ -21326,10 +21329,10 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:35">
@@ -21340,10 +21343,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -21360,10 +21363,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
@@ -21379,16 +21382,16 @@
         <v>1316</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="X6" s="4">
         <v>-610</v>
@@ -21417,10 +21420,10 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:35">
@@ -21431,10 +21434,10 @@
         <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -21444,17 +21447,17 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="N7" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
@@ -21470,16 +21473,16 @@
         <v>1762</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="X7" s="4">
         <v>-476</v>
@@ -21506,16 +21509,16 @@
         <v>1730</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:19">
@@ -23302,10 +23305,10 @@
         <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H1" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23314,7 +23317,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -23328,19 +23331,19 @@
         <v>873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>874</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G3" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -23351,19 +23354,19 @@
         <v>873</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>905</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="G4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -23374,19 +23377,19 @@
         <v>873</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>929</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="G5" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -23397,19 +23400,19 @@
         <v>873</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>952</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="G6" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -23420,19 +23423,19 @@
         <v>873</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>975</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="G7" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -23443,19 +23446,19 @@
         <v>873</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>999</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G8" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -23466,19 +23469,19 @@
         <v>873</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="G9" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -23489,19 +23492,19 @@
         <v>873</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="G10" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -23512,19 +23515,19 @@
         <v>873</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="G11" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23535,19 +23538,19 @@
         <v>873</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G12" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -23558,19 +23561,19 @@
         <v>873</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G13" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -23581,19 +23584,19 @@
         <v>873</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G14" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -23604,19 +23607,19 @@
         <v>873</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="G15" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -23627,19 +23630,19 @@
         <v>873</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="G16" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -23650,19 +23653,19 @@
         <v>873</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="G17" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -23673,19 +23676,19 @@
         <v>873</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G18" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -23696,19 +23699,19 @@
         <v>873</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G19" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -23719,19 +23722,19 @@
         <v>873</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G20" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -23742,19 +23745,19 @@
         <v>873</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="G21" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -23765,19 +23768,19 @@
         <v>873</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="G22" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -23788,19 +23791,19 @@
         <v>873</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="G23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -23811,19 +23814,19 @@
         <v>873</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="G24" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -23834,19 +23837,19 @@
         <v>873</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="G25" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -23857,19 +23860,19 @@
         <v>873</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="G26" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -23880,19 +23883,19 @@
         <v>873</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1443</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="G27" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -23903,19 +23906,19 @@
         <v>873</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="G28" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -23926,19 +23929,19 @@
         <v>873</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="G29" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -23949,19 +23952,19 @@
         <v>873</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G30" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -23972,19 +23975,19 @@
         <v>873</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="G31" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -23995,19 +23998,19 @@
         <v>873</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="G32" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -24018,19 +24021,19 @@
         <v>873</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="G33" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -24041,19 +24044,19 @@
         <v>873</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="G34" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -24064,19 +24067,19 @@
         <v>873</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="G35" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -24087,19 +24090,19 @@
         <v>873</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="G36" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -24110,19 +24113,19 @@
         <v>873</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="G37" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -24133,19 +24136,19 @@
         <v>873</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="G38" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -24156,19 +24159,19 @@
         <v>873</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1650</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="G39" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -24176,22 +24179,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="G40" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -24199,22 +24202,22 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="G41" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:7">
@@ -24222,22 +24225,22 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>1689</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="G42" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -24245,22 +24248,22 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G43" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -24268,22 +24271,22 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G44" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -24294,19 +24297,19 @@
         <v>389</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1712</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="G45" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="46" spans="4:6">
@@ -24350,10 +24353,10 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="F1" t="s">
         <v>186</v>
@@ -24373,19 +24376,19 @@
         <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -24399,19 +24402,19 @@
         <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -24425,19 +24428,19 @@
         <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -24481,37 +24484,37 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D1" t="s">
         <v>430</v>
       </c>
       <c r="E1" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="F1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G1" t="s">
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="I1" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="J1" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="K1" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="L1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="M1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N1" t="s">
         <v>723</v>
@@ -24523,34 +24526,34 @@
         <v>725</v>
       </c>
       <c r="Q1" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="R1" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="S1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="T1" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="U1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="V1" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="W1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="X1" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="Y1" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="Z1" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -24558,16 +24561,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D2" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="K2" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="M2" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="U2" t="s">
         <v>741</v>
@@ -24578,16 +24581,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D3" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="K3" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="L3" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="N3" s="29" t="s">
         <v>736</v>
@@ -24622,25 +24625,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C4" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D4" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F4" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K4" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="M4" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="Q4" t="s">
         <v>746</v>
@@ -24660,22 +24663,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D5" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E5" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="F5" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K5" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="M5" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="U5" t="s">
         <v>741</v>
@@ -24689,28 +24692,28 @@
         <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D6" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F6" t="s">
         <v>2330</v>
       </c>
-      <c r="F6" t="s">
-        <v>2329</v>
-      </c>
       <c r="G6" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H6" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="I6" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J6" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="U6" t="s">
         <v>740</v>
@@ -24721,22 +24724,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D7" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E7" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F7" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="M7" t="s">
         <v>2339</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2338</v>
       </c>
       <c r="Q7" t="s">
         <v>741</v>
@@ -24753,25 +24756,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D8" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E8" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F8" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K8" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L8" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M8" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="Q8" t="s">
         <v>740</v>
@@ -24788,31 +24791,31 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C9" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D9" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E9" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F9" t="s">
         <v>2330</v>
       </c>
-      <c r="F9" t="s">
-        <v>2329</v>
-      </c>
       <c r="G9" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H9" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="I9" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="J9" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="N9" s="29" t="s">
         <v>736</v>
@@ -24821,7 +24824,7 @@
         <v>758</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="Q9" t="s">
         <v>751</v>
@@ -24859,37 +24862,37 @@
         <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D10" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E10" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F10" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G10" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H10" t="s">
+        <v>2348</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2350</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>2347</v>
       </c>
-      <c r="I10" t="s">
-        <v>2348</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2349</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>2346</v>
-      </c>
       <c r="O10" s="29" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="Q10" t="s">
         <v>740</v>
@@ -24912,28 +24915,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D11" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E11" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F11" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="G11" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H11" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="I11" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="J11" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="Q11" t="s">
         <v>740</v>
@@ -24947,28 +24950,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D12" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E12" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F12" t="s">
         <v>2330</v>
       </c>
-      <c r="F12" t="s">
-        <v>2329</v>
-      </c>
       <c r="G12" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H12" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="I12" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="J12" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="R12" t="s">
         <v>741</v>
@@ -24985,25 +24988,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D13" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E13" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F13" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G13" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H13" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="I13" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
@@ -25041,28 +25044,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D14" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E14" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F14" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K14" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L14" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M14" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O14" s="29" t="s">
         <v>736</v>
@@ -25097,28 +25100,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D15" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E15" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F15" t="s">
         <v>2330</v>
       </c>
-      <c r="F15" t="s">
-        <v>2329</v>
-      </c>
       <c r="K15" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L15" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M15" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O15" s="29" t="s">
         <v>736</v>
@@ -25150,28 +25153,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D16" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E16" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F16" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K16" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L16" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M16" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O16" s="29" t="s">
         <v>736</v>
@@ -25200,28 +25203,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D17" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E17" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F17" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K17" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L17" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M17" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O17" s="29" t="s">
         <v>736</v>
@@ -25253,28 +25256,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D18" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E18" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F18" t="s">
         <v>2330</v>
       </c>
-      <c r="F18" t="s">
-        <v>2329</v>
-      </c>
       <c r="K18" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L18" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M18" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>736</v>
@@ -25306,28 +25309,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D19" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E19" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F19" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K19" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L19" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M19" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>736</v>
@@ -25350,28 +25353,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D20" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E20" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F20" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K20" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L20" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M20" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>736</v>
@@ -25386,7 +25389,7 @@
         <v>751</v>
       </c>
       <c r="V20" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -25400,28 +25403,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D21" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E21" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F21" t="s">
         <v>2330</v>
       </c>
-      <c r="F21" t="s">
-        <v>2329</v>
-      </c>
       <c r="K21" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L21" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M21" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>736</v>
@@ -25436,7 +25439,7 @@
         <v>751</v>
       </c>
       <c r="V21" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -25450,28 +25453,28 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D22" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E22" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F22" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K22" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L22" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M22" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>736</v>
@@ -25486,7 +25489,7 @@
         <v>751</v>
       </c>
       <c r="V22" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -25500,28 +25503,28 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D23" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E23" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F23" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K23" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L23" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M23" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>736</v>
@@ -25550,28 +25553,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D24" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E24" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="F24" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="K24" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L24" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M24" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>736</v>
@@ -25606,28 +25609,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D25" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E25" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="F25" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="K25" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L25" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M25" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>736</v>
@@ -25656,28 +25659,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D26" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E26" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="F26" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="K26" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="L26" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="M26" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>736</v>
@@ -25715,31 +25718,31 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D27" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E27" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="F27" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="H27" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="I27" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="J27" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="N27" s="29" t="s">
         <v>736</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q27" t="s">
         <v>746</v>
@@ -25806,34 +25809,34 @@
         <v>458</v>
       </c>
       <c r="G1" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="H1" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="I1" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="J1" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="K1" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="L1" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="M1" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="N1" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="O1" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="P1" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -25841,49 +25844,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C2" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D2" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E2" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="F2" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="J2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="K2" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="L2" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="M2" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="N2" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="O2" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="P2" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -25891,49 +25894,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C3" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D3" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>2394</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>2384</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2388</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="P3" t="s">
         <v>2391</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2392</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>2381</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>2393</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>2383</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2384</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2385</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2386</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2387</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2394</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -25941,49 +25944,49 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D4" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="E4" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="F4" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="J4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="K4" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="L4" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="M4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="N4" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="O4" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="P4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
   </sheetData>
@@ -26016,26 +26019,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26043,71 +26046,71 @@
         <v>569</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B6" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B7" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B8" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="B9" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B10" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B11" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="B12" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -26115,7 +26118,7 @@
         <v>737</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -26123,7 +26126,7 @@
         <v>467</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -26131,7 +26134,7 @@
         <v>747</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -26139,7 +26142,7 @@
         <v>742</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -26147,7 +26150,7 @@
         <v>752</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -26155,7 +26158,7 @@
         <v>760</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -26163,7 +26166,7 @@
         <v>763</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -26171,7 +26174,7 @@
         <v>766</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -26179,7 +26182,7 @@
         <v>468</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -26187,7 +26190,7 @@
         <v>756</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165" tabRatio="796" firstSheet="7" activeTab="16"/>
+    <workbookView windowWidth="14400" windowHeight="12255" tabRatio="796" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -7028,7 +7028,7 @@
     <t>DFDA23</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Экстренное развёртывание&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Экстренное развёртывание&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;&lt;/f&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;переверните эту карту, чтобы разместить или переместить вашу базу на подконтрольную вам планету, на которой нет базы.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7058,7 +7058,7 @@
     <t>B61FCE</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Объединённые Репликаторы&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Объединённые Репликаторы&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Когда хотя бы 1 ваш отряд использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;, можете перевернуть эту карту, чтобы поменять значение производства этого отряда со значением производства другого отряда на игровом поле, или добавлять +2 к общему значению производства этих отрядов.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7067,10 +7067,10 @@
     <t>Келдарская Торговая Конфедерация</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Экстренная Мобилизация&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;Келдарская Торговая Конфедерация&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Экстренная Мобилизация&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=32&gt;Келдарская Торговая Конфедерация&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;В конце вашего хода можете перевернуть эту карту и потратить 1 жетон из вашего стратегического резерва, чтобы убрать жетон приказа из системы, в которой есть хотя бы 1 ваша база.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7136,7 +7136,7 @@
     <t>Флотилия Ди-Мон</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Программы принудительной мобилизации&lt;/fs&gt;</t>
+    <t>&lt;fs=36&gt;Программы принудительной мобилизации&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Флотилия Ди-Мон&lt;/fs&gt;</t>
@@ -7175,7 +7175,7 @@
     <t>DDD143</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Зашифрованный Торговый Узел&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Зашифрованный Торговый Узел&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Можете перевернуть эту карту, чтобы позволить игроку обменять 1 из его реликвий или карт политики в рамках сделки.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Вы всегда голосуете последним во время фазы политики. После принятия решения, за которое вы проголосовали или которое вы предсказали, каждый игрок, проголосовавший за этот результат, получает 1 продукцию.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7208,7 +7208,7 @@
     <t>&lt;fs=64&gt;Сеть послов&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=40&gt;Содружество Свободных Систем&lt;/fs&gt;</t>
+    <t>&lt;fs=36&gt;Содружество Свободных Систем&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;В начале фазы политики вы можете выбрать и перевернуть 1 культурную, 1 опасную и 1 промышленную планету любых игроков.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Когда вы отдаёте хотя бы 1 голос и переворачиваете для голосования хотя бы по 1 планете каждого из 3 типов, можете отдать 4 дополнительных голоса.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7223,7 +7223,7 @@
     <t>8247AC</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Оперативная ударная группа&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Оперативная ударная группа&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;В начале наземного боя вы можете бросить 1 кубик за каждый из ваших наземных отрядов (не более 2) на этой планете. За каждый результат, равный или превышающий значение боя этого отряда, нанесите 1 попадание, которое ваш противник должен присвоить одному из своих наземных отрядов.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7232,7 +7232,7 @@
     <t>Рейдеры Гемины</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Импланты Боевых Маршей&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Импланты Боевых Маршей&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Рейдеры Гемины&lt;/fs&gt;</t>
@@ -7256,7 +7256,7 @@
     <t>Странники Готи</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Сетевая система управления&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Сетевая система управления&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Странники Готи&lt;/fs&gt;</t>
@@ -7268,7 +7268,7 @@
     <t>CB662E</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Параллельное Производство&lt;/fs&gt;</t>
+    <t>&lt;fs=55&gt;Параллельное Производство&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Когда вы производите хотя бы 1 отряд, можете произвести 1 дополнительный отряд в каждой из 2 систем, в которых есть хотя бы 1 ваш корабль и хотя бы 1 ваш жетон приказа.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7277,10 +7277,10 @@
     <t>Горнодобывающий консорциум «ПРГ»</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Сверхскоростные двигатели&lt;/fs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fs=40&gt;Горнодобывающий консорциум «ПРГ»&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Сверхскоростные двигатели&lt;/fs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fs=30&gt;Горнодобывающий консорциум «ПРГ»&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Во время передвижения, можете добавить +1 к значению полёта каждого вашего корабля, который не перевозит отряды.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7313,7 +7313,7 @@
     <t>F6DF8E</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Когнитивное хранилище данных&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Когнитивное хранилище данных&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;В начале фазы статуса вы можете потратить 3 товара, чтобы исследовать 1 технологию.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7358,7 +7358,7 @@
     <t>D53815</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Замаскированные Застрельщики&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Замаскированные Застрельщики&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;В начале космического боя вы можете выбрать 1 ваш корабль в активной системе, который не начинал действие в этой системе; бросьте кубик. При результате, равном или превышающем значение боя этого корабля, нанесите 1 попадание, которое ваш противник должен присвоить 1 из своих кораблей.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7367,7 +7367,7 @@
     <t>Орден Колума</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Прикладная Биотермодинамика&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Прикладная Биотермодинамика&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Орден Колума&lt;/fs&gt;</t>
@@ -7469,7 +7469,7 @@
     <t>C4662C</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Передовые Тактические Системы&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Передовые Тактические Системы&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;После того как вы изгнали хотя бы 1 фрагмент реликвии, разведали планету или жетон пограничья, положите 1 продукцию на эту карту.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В начале раунда боя уберите любое количество продукции с этой карты, чтобы перебросить такое же количество или меньше кубиков во время этого раунда боя.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7520,7 +7520,7 @@
     <t>Протекторат Мирведы</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Орбитальная защитная сеть&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Орбитальная защитная сеть&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Протекторат Мирведы&lt;/fs&gt;</t>
@@ -7565,7 +7565,7 @@
     <t>Мико-Ментори</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Психоактивное Вооружение&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Психоактивное Вооружение&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Мико-Ментори&lt;/fs&gt;</t>
@@ -7589,7 +7589,7 @@
     <t>Звёздные Короли Нивин</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Ракеты пробуждения пустоты&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Ракеты пробуждения пустоты&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Звёздные Короли Нивин&lt;/fs&gt;</t>
@@ -7628,7 +7628,7 @@
     <t>Лига Олрадинов</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Операции под чужим флагом&lt;/fs&gt;</t>
+    <t>&lt;fs=54&gt;Операции под чужим флагом&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Лига Олрадинов&lt;/fs&gt;</t>
@@ -7643,7 +7643,7 @@
     <t>06EFF3</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Геосимпатический Ускоритель&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Геосимпатический Ускоритель&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;После того как вы активировали систему, можете перевернуть подконтрольную вам планету того же типа, что и планета в активной системе, чтобы добавить +1 к значению полёта каждого вашего корабля во время этого тактического действия.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -7679,7 +7679,7 @@
     <t>Мехатроника Ро’Дна</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Контрактные обязательства&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Контрактные обязательства&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Мехатроника Ро’Дна&lt;/fs&gt;</t>
@@ -7697,7 +7697,7 @@
     <t>Синдикат Тнелис</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Полётная система Дедалона&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Полётная система Дедалона&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Синдикат Тнелис&lt;/fs&gt;</t>
@@ -7736,7 +7736,7 @@
     <t>D6EF3D</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Ударные отряды Кровоза&lt;/fs&gt;</t>
+    <t>&lt;fs=56&gt;Ударные отряды Кровоза&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;После того как корабль другого игрока использовал способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; для отмены попадания, нанесённого вашими отрядами или способностями, можете перевернуть эту карту, чтобы уничтожить этот отряд.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;После того как вы наносите хотя бы 1 попадание во время раунда боя, можете потратить 1 товар, чтобы нанести 1 дополнительное попадание.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -8267,13 +8267,13 @@
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Этот отряд может быть уничтожен только присвоенным ему попаданием.&lt;/ls&gt;&lt;/f&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Тяжёлый бомбардировщик I&lt;/fs&gt;</t>
+    <t>&lt;fs=54&gt;Тяжёлый бомбардировщик I&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Истребитель Ли-Джо&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Тяжёлый бомбардировщик II&lt;/fs&gt;</t>
+    <t>&lt;fs=54&gt;Тяжёлый бомбардировщик II&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=64&gt;Элита Оро-Жин&lt;/fs&gt;</t>
@@ -8403,7 +8403,7 @@
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Когда отряд в этой системе должен быть уничтожен, вы можете вместо этого убрать его с игрового поля.&lt;/ls&gt;&lt;/f&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Хранитель Вспышки Пустоты I&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Хранитель Вспышки Пустоты I&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Мех Нивин&lt;/fs&gt;</t>
@@ -8412,7 +8412,7 @@
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;После того как игрок активировал систему, вы можете выбрать этот отряд в активной системе, чтобы он стал повреждённым. Затем разместите или переместите жетон раны в эту систему.&lt;/ls&gt;&lt;/f&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Хранитель Вспышки Пустоты II [СЖК]&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Хранитель Вспышки Пустоты II&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=64&gt;Анна Регия&lt;/fs&gt;</t>
@@ -8541,7 +8541,7 @@
     <t>&lt;fs=40&gt;эсминец Синдиката&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Блокадопрорыватель II [КК]&lt;/fs&gt;</t>
+    <t>&lt;fs=64&gt;Блокадопрорыватель II&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Этот корабль может передвигаться через системы, в которых есть корабли других игроков.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -8628,7 +8628,7 @@
     <t>&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;ls=75&gt;Этот отряд нельзя уничтожить картой действия «Прямое попадание».&lt;/ls&gt;&lt;/f&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=64&gt;Штормовой Призыватель Авроры&lt;/fs&gt;</t>
+    <t>&lt;fs=44&gt;Штормовой Призыватель Авроры&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=40&gt;Мех Велдир&lt;/fs&gt;</t>
@@ -25970,7 +25970,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C169"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26002,7 +26002,7 @@
       <c r="C1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2266</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -26091,7 +26091,7 @@
       <c r="C2" s="6" t="s">
         <v>2287</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2288</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -26154,7 +26154,7 @@
       <c r="C3" s="6" t="s">
         <v>2294</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>2288</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -26221,7 +26221,7 @@
       <c r="C4" s="6" t="s">
         <v>2297</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>2298</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -26284,7 +26284,7 @@
       <c r="C5" s="6" t="s">
         <v>2304</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>2298</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -26349,7 +26349,7 @@
       <c r="C6" s="6" t="s">
         <v>2307</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>2308</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -26414,7 +26414,7 @@
       <c r="C7" s="6" t="s">
         <v>2314</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>2315</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -26479,7 +26479,7 @@
       <c r="C8" s="6" t="s">
         <v>2322</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>2323</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -26542,7 +26542,7 @@
       <c r="C9" s="6" t="s">
         <v>2330</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>2331</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -26607,7 +26607,7 @@
       <c r="C10" s="6" t="s">
         <v>2337</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>2338</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -26674,7 +26674,7 @@
       <c r="C11" s="6" t="s">
         <v>2343</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>2338</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -26739,7 +26739,7 @@
       <c r="C12" s="6" t="s">
         <v>2346</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>2347</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -26804,7 +26804,7 @@
       <c r="C13" s="6" t="s">
         <v>2353</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>2354</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -26867,7 +26867,7 @@
       <c r="C14" s="6" t="s">
         <v>2359</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>2354</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -26932,7 +26932,7 @@
       <c r="C15" s="6" t="s">
         <v>2362</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>2363</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -26999,7 +26999,7 @@
       <c r="C16" s="6" t="s">
         <v>2370</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>2371</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -27062,7 +27062,7 @@
       <c r="C17" s="6" t="s">
         <v>2374</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>2371</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -27125,7 +27125,7 @@
       <c r="C18" s="6" t="s">
         <v>2377</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>2378</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -27192,7 +27192,7 @@
       <c r="C19" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>2384</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -27259,7 +27259,7 @@
       <c r="C20" s="6" t="s">
         <v>2389</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>2384</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -27324,7 +27324,7 @@
       <c r="C21" s="6" t="s">
         <v>2392</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>2393</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -27387,7 +27387,7 @@
       <c r="C22" s="6" t="s">
         <v>2397</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>2398</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -27452,7 +27452,7 @@
       <c r="C23" s="6" t="s">
         <v>2404</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>2398</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -27515,7 +27515,7 @@
       <c r="C24" s="6" t="s">
         <v>2407</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>2408</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -27580,7 +27580,7 @@
       <c r="C25" s="6" t="s">
         <v>2413</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>2408</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -27647,7 +27647,7 @@
       <c r="C26" s="6" t="s">
         <v>2416</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>2417</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -27712,7 +27712,7 @@
       <c r="C27" s="6" t="s">
         <v>2422</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>2417</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -27777,7 +27777,7 @@
       <c r="C28" s="6" t="s">
         <v>2425</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>2426</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -27842,7 +27842,7 @@
       <c r="C29" s="6" t="s">
         <v>2432</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>2426</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -27905,7 +27905,7 @@
       <c r="C30" s="6" t="s">
         <v>2435</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>2436</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -27970,7 +27970,7 @@
       <c r="C31" s="6" t="s">
         <v>2441</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>2436</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -28035,7 +28035,7 @@
       <c r="C32" s="6" t="s">
         <v>2444</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>2445</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -28100,7 +28100,7 @@
       <c r="C33" s="6" t="s">
         <v>2451</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>2452</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -28165,7 +28165,7 @@
       <c r="C34" s="6" t="s">
         <v>2458</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>2459</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -28230,7 +28230,7 @@
       <c r="C35" s="6" t="s">
         <v>2463</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>2464</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -28295,7 +28295,7 @@
       <c r="C36" s="6" t="s">
         <v>2470</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>2464</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -28360,7 +28360,7 @@
       <c r="C37" s="6" t="s">
         <v>2473</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>2474</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -28425,7 +28425,7 @@
       <c r="C38" s="6" t="s">
         <v>2481</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>2482</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -28488,7 +28488,7 @@
       <c r="C39" s="6" t="s">
         <v>2488</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>2489</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -28553,7 +28553,7 @@
       <c r="C40" s="6" t="s">
         <v>2494</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>2495</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -28616,7 +28616,7 @@
       <c r="C41" s="6" t="s">
         <v>2499</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>2495</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -28679,7 +28679,7 @@
       <c r="C42" s="6" t="s">
         <v>2502</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>2503</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -28746,7 +28746,7 @@
       <c r="C43" s="6" t="s">
         <v>2508</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>2503</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -28811,7 +28811,7 @@
       <c r="C44" s="6" t="s">
         <v>2511</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>2512</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -28876,7 +28876,7 @@
       <c r="C45" s="6" t="s">
         <v>2517</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>2518</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -28939,7 +28939,7 @@
       <c r="C46" s="6" t="s">
         <v>2524</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>2525</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -29002,7 +29002,7 @@
       <c r="C47" s="6" t="s">
         <v>2530</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>2525</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -29067,7 +29067,7 @@
       <c r="C48" s="6" t="s">
         <v>2533</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>2534</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -29130,7 +29130,7 @@
       <c r="C49" s="6" t="s">
         <v>2539</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>2540</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -29195,7 +29195,7 @@
       <c r="C50" s="6" t="s">
         <v>2547</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>2548</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -29258,7 +29258,7 @@
       <c r="C51" s="6" t="s">
         <v>2554</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="6" t="s">
         <v>2555</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -29331,7 +29331,7 @@
       <c r="C52" s="6" t="s">
         <v>2557</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>2558</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -29400,7 +29400,7 @@
       <c r="C53" s="6" t="s">
         <v>2560</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>2561</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -29473,7 +29473,7 @@
       <c r="C54" s="6" t="s">
         <v>2563</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>2564</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -29542,7 +29542,7 @@
       <c r="C55" s="6" t="s">
         <v>2566</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="6" t="s">
         <v>2567</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -29615,7 +29615,7 @@
       <c r="C56" s="6" t="s">
         <v>2569</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="6" t="s">
         <v>2570</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -29676,7 +29676,7 @@
       <c r="C57" s="6" t="s">
         <v>2573</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>2570</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -29741,7 +29741,7 @@
       <c r="C58" s="6" t="s">
         <v>2575</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>2576</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -29810,7 +29810,7 @@
       <c r="C59" s="6" t="s">
         <v>2578</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="6" t="s">
         <v>2579</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -29883,7 +29883,7 @@
       <c r="C60" s="6" t="s">
         <v>2581</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="6" t="s">
         <v>2582</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -29956,7 +29956,7 @@
       <c r="C61" s="6" t="s">
         <v>2584</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>2582</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -30035,7 +30035,7 @@
       <c r="C62" s="6" t="s">
         <v>2586</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>2587</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -30104,7 +30104,7 @@
       <c r="C63" s="6" t="s">
         <v>2589</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="6" t="s">
         <v>2590</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -30177,7 +30177,7 @@
       <c r="C64" s="6" t="s">
         <v>2586</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="6" t="s">
         <v>2587</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -30246,7 +30246,7 @@
       <c r="C65" s="6" t="s">
         <v>2592</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="6" t="s">
         <v>2593</v>
       </c>
       <c r="E65" s="5"/>
@@ -30313,7 +30313,7 @@
       <c r="C66" s="6" t="s">
         <v>2594</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="6" t="s">
         <v>2593</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -30386,7 +30386,7 @@
       <c r="C67" s="6" t="s">
         <v>2596</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="6" t="s">
         <v>2597</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -30459,7 +30459,7 @@
       <c r="C68" s="6" t="s">
         <v>2599</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="6" t="s">
         <v>2600</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -30532,7 +30532,7 @@
       <c r="C69" s="6" t="s">
         <v>2602</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="6" t="s">
         <v>2600</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -30611,7 +30611,7 @@
       <c r="C70" s="6" t="s">
         <v>2603</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="6" t="s">
         <v>2604</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -30680,7 +30680,7 @@
       <c r="C71" s="6" t="s">
         <v>2606</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="6" t="s">
         <v>2607</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -30753,7 +30753,7 @@
       <c r="C72" s="6" t="s">
         <v>2609</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="6" t="s">
         <v>2610</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -30822,7 +30822,7 @@
       <c r="C73" s="6" t="s">
         <v>2612</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="6" t="s">
         <v>2613</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -30895,7 +30895,7 @@
       <c r="C74" s="6" t="s">
         <v>2615</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="6" t="s">
         <v>2616</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -30966,7 +30966,7 @@
       <c r="C75" s="6" t="s">
         <v>2618</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="6" t="s">
         <v>2616</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -31041,7 +31041,7 @@
       <c r="C76" s="6" t="s">
         <v>2619</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="6" t="s">
         <v>2620</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -31110,7 +31110,7 @@
       <c r="C77" s="6" t="s">
         <v>2622</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="6" t="s">
         <v>2623</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -31183,7 +31183,7 @@
       <c r="C78" s="6" t="s">
         <v>2625</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="6" t="s">
         <v>2626</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -31252,7 +31252,7 @@
       <c r="C79" s="6" t="s">
         <v>2628</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="6" t="s">
         <v>2629</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -31325,7 +31325,7 @@
       <c r="C80" s="6" t="s">
         <v>2631</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="6" t="s">
         <v>2629</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -31398,7 +31398,7 @@
       <c r="C81" s="6" t="s">
         <v>2633</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="6" t="s">
         <v>2634</v>
       </c>
       <c r="E81" s="5"/>
@@ -31469,7 +31469,7 @@
       <c r="C82" s="6" t="s">
         <v>2635</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>2634</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -31546,7 +31546,7 @@
       <c r="C83" s="6" t="s">
         <v>2637</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>2638</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -31615,7 +31615,7 @@
       <c r="C84" s="6" t="s">
         <v>2640</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="6" t="s">
         <v>2641</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -31688,7 +31688,7 @@
       <c r="C85" s="6" t="s">
         <v>2643</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="6" t="s">
         <v>2644</v>
       </c>
       <c r="E85" s="5" t="s">
@@ -31757,7 +31757,7 @@
       <c r="C86" s="6" t="s">
         <v>2646</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="6" t="s">
         <v>2647</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -31830,7 +31830,7 @@
       <c r="C87" s="6" t="s">
         <v>2649</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="6" t="s">
         <v>2650</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -31891,7 +31891,7 @@
       <c r="C88" s="6" t="s">
         <v>2652</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="6" t="s">
         <v>2650</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -31956,7 +31956,7 @@
       <c r="C89" s="6" t="s">
         <v>2654</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="6" t="s">
         <v>2655</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -32025,7 +32025,7 @@
       <c r="C90" s="6" t="s">
         <v>2657</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="6" t="s">
         <v>2658</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -32098,7 +32098,7 @@
       <c r="C91" s="6" t="s">
         <v>2660</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="6" t="s">
         <v>2661</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -32167,7 +32167,7 @@
       <c r="C92" s="6" t="s">
         <v>2663</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>2664</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -32240,7 +32240,7 @@
       <c r="C93" s="6" t="s">
         <v>2666</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="6" t="s">
         <v>2667</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -32313,7 +32313,7 @@
       <c r="C94" s="6" t="s">
         <v>2669</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="6" t="s">
         <v>2667</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -32390,7 +32390,7 @@
       <c r="C95" s="6" t="s">
         <v>2671</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="6" t="s">
         <v>2672</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -32459,7 +32459,7 @@
       <c r="C96" s="6" t="s">
         <v>2674</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="6" t="s">
         <v>2675</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -32532,7 +32532,7 @@
       <c r="C97" s="6" t="s">
         <v>2677</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="6" t="s">
         <v>2678</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -32601,7 +32601,7 @@
       <c r="C98" s="6" t="s">
         <v>2680</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="6" t="s">
         <v>2681</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -32674,7 +32674,7 @@
       <c r="C99" s="6" t="s">
         <v>2683</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="6" t="s">
         <v>2684</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -32743,7 +32743,7 @@
       <c r="C100" s="6" t="s">
         <v>2686</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="6" t="s">
         <v>2687</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -32816,7 +32816,7 @@
       <c r="C101" s="6" t="s">
         <v>2689</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="6" t="s">
         <v>2690</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -32885,7 +32885,7 @@
       <c r="C102" s="6" t="s">
         <v>2692</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="6" t="s">
         <v>2693</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -32958,7 +32958,7 @@
       <c r="C103" s="6" t="s">
         <v>2695</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="6" t="s">
         <v>2696</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -33027,7 +33027,7 @@
       <c r="C104" s="6" t="s">
         <v>2698</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="6" t="s">
         <v>2699</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -33100,7 +33100,7 @@
       <c r="C105" s="6" t="s">
         <v>2701</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="6" t="s">
         <v>2702</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -33169,7 +33169,7 @@
       <c r="C106" s="6" t="s">
         <v>2704</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="6" t="s">
         <v>2705</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -33242,7 +33242,7 @@
       <c r="C107" s="6" t="s">
         <v>2707</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="6" t="s">
         <v>2708</v>
       </c>
       <c r="E107" s="5"/>
@@ -33309,7 +33309,7 @@
       <c r="C108" s="6" t="s">
         <v>2709</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="6" t="s">
         <v>2708</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -33384,7 +33384,7 @@
       <c r="C109" s="6" t="s">
         <v>2710</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="6" t="s">
         <v>2711</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -33453,7 +33453,7 @@
       <c r="C110" s="6" t="s">
         <v>2713</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="6" t="s">
         <v>2714</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -33526,7 +33526,7 @@
       <c r="C111" s="6" t="s">
         <v>2716</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="6" t="s">
         <v>2717</v>
       </c>
       <c r="E111" s="5"/>
@@ -33597,7 +33597,7 @@
       <c r="C112" s="6" t="s">
         <v>2718</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="6" t="s">
         <v>2717</v>
       </c>
       <c r="E112" s="5"/>
@@ -33674,7 +33674,7 @@
       <c r="C113" s="6" t="s">
         <v>2719</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="6" t="s">
         <v>2720</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -33743,7 +33743,7 @@
       <c r="C114" s="6" t="s">
         <v>2722</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="6" t="s">
         <v>2723</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -33816,7 +33816,7 @@
       <c r="C115" s="6" t="s">
         <v>2725</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="6" t="s">
         <v>2726</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -33879,7 +33879,7 @@
       <c r="C116" s="6" t="s">
         <v>2728</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="6" t="s">
         <v>2726</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -33948,7 +33948,7 @@
       <c r="C117" s="6" t="s">
         <v>2729</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -34017,7 +34017,7 @@
       <c r="C118" s="6" t="s">
         <v>2732</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="6" t="s">
         <v>2733</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -34090,7 +34090,7 @@
       <c r="C119" s="6" t="s">
         <v>2735</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="6" t="s">
         <v>2736</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -34159,7 +34159,7 @@
       <c r="C120" s="6" t="s">
         <v>2738</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="6" t="s">
         <v>2739</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -34232,7 +34232,7 @@
       <c r="C121" s="6" t="s">
         <v>2741</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="6" t="s">
         <v>2742</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -34293,7 +34293,7 @@
       <c r="C122" s="6" t="s">
         <v>2744</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="6" t="s">
         <v>2742</v>
       </c>
       <c r="E122" s="9" t="s">
@@ -34358,7 +34358,7 @@
       <c r="C123" s="6" t="s">
         <v>2746</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="6" t="s">
         <v>2747</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -34427,7 +34427,7 @@
       <c r="C124" s="6" t="s">
         <v>2749</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="6" t="s">
         <v>2750</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -34500,7 +34500,7 @@
       <c r="C125" s="6" t="s">
         <v>2752</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="6" t="s">
         <v>2753</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -34569,7 +34569,7 @@
       <c r="C126" s="6" t="s">
         <v>2755</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="6" t="s">
         <v>2753</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -34644,7 +34644,7 @@
       <c r="C127" s="6" t="s">
         <v>2756</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="6" t="s">
         <v>2757</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -34717,7 +34717,7 @@
       <c r="C128" s="6" t="s">
         <v>2759</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="6" t="s">
         <v>2760</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -34788,7 +34788,7 @@
       <c r="C129" s="6" t="s">
         <v>2762</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="6" t="s">
         <v>2760</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -34863,7 +34863,7 @@
       <c r="C130" s="6" t="s">
         <v>2764</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="6" t="s">
         <v>2765</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -34932,7 +34932,7 @@
       <c r="C131" s="6" t="s">
         <v>2767</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="6" t="s">
         <v>2768</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -35005,7 +35005,7 @@
       <c r="C132" s="6" t="s">
         <v>2770</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="6" t="s">
         <v>2771</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -35074,7 +35074,7 @@
       <c r="C133" s="6" t="s">
         <v>2773</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="6" t="s">
         <v>2771</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -35143,7 +35143,7 @@
       <c r="C134" s="6" t="s">
         <v>2775</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="6" t="s">
         <v>2776</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -35216,7 +35216,7 @@
       <c r="C135" s="6" t="s">
         <v>2778</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="6" t="s">
         <v>2779</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -35285,7 +35285,7 @@
       <c r="C136" s="6" t="s">
         <v>2781</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="6" t="s">
         <v>2782</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -35358,7 +35358,7 @@
       <c r="C137" s="6" t="s">
         <v>2784</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="6" t="s">
         <v>2785</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -35427,7 +35427,7 @@
       <c r="C138" s="6" t="s">
         <v>2788</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="6" t="s">
         <v>2785</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -35508,7 +35508,7 @@
       <c r="C139" s="6" t="s">
         <v>2790</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="6" t="s">
         <v>2791</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -35577,7 +35577,7 @@
       <c r="C140" s="6" t="s">
         <v>2793</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="6" t="s">
         <v>2794</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -35650,7 +35650,7 @@
       <c r="C141" s="6" t="s">
         <v>2796</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="6" t="s">
         <v>2797</v>
       </c>
       <c r="E141" s="5"/>
@@ -35719,7 +35719,7 @@
       <c r="C142" s="6" t="s">
         <v>2798</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="6" t="s">
         <v>2797</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -35794,7 +35794,7 @@
       <c r="C143" s="6" t="s">
         <v>2800</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="6" t="s">
         <v>2801</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -35863,7 +35863,7 @@
       <c r="C144" s="6" t="s">
         <v>2803</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="6" t="s">
         <v>2804</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -35936,7 +35936,7 @@
       <c r="C145" s="6" t="s">
         <v>2806</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="6" t="s">
         <v>2807</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -36005,7 +36005,7 @@
       <c r="C146" s="6" t="s">
         <v>2809</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="6" t="s">
         <v>2810</v>
       </c>
       <c r="E146" s="5" t="s">
@@ -36078,7 +36078,7 @@
       <c r="C147" s="6" t="s">
         <v>2812</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="6" t="s">
         <v>2813</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -36151,7 +36151,7 @@
       <c r="C148" s="6" t="s">
         <v>2815</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="6" t="s">
         <v>2813</v>
       </c>
       <c r="E148" s="5" t="s">
@@ -36230,7 +36230,7 @@
       <c r="C149" s="6" t="s">
         <v>2817</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="6" t="s">
         <v>2818</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -36299,7 +36299,7 @@
       <c r="C150" s="6" t="s">
         <v>2820</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="6" t="s">
         <v>2821</v>
       </c>
       <c r="E150" s="5" t="s">
@@ -36372,7 +36372,7 @@
       <c r="C151" s="6" t="s">
         <v>2823</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="6" t="s">
         <v>2824</v>
       </c>
       <c r="E151" s="5"/>
@@ -36443,7 +36443,7 @@
       <c r="C152" s="6" t="s">
         <v>2825</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="6" t="s">
         <v>2824</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -36522,7 +36522,7 @@
       <c r="C153" s="6" t="s">
         <v>2827</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="6" t="s">
         <v>2828</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -36591,7 +36591,7 @@
       <c r="C154" s="6" t="s">
         <v>2830</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="6" t="s">
         <v>2831</v>
       </c>
       <c r="E154" s="5" t="s">
@@ -36664,7 +36664,7 @@
       <c r="C155" s="6" t="s">
         <v>2833</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="6" t="s">
         <v>2834</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -36733,7 +36733,7 @@
       <c r="C156" s="6" t="s">
         <v>2836</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="6" t="s">
         <v>2834</v>
       </c>
       <c r="E156" s="5" t="s">
@@ -36806,7 +36806,7 @@
       <c r="C157" s="6" t="s">
         <v>2838</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="6" t="s">
         <v>2839</v>
       </c>
       <c r="E157" s="5" t="s">
@@ -36875,7 +36875,7 @@
       <c r="C158" s="6" t="s">
         <v>2842</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="6" t="s">
         <v>2843</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -36942,7 +36942,7 @@
       <c r="C159" s="6" t="s">
         <v>2847</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="6" t="s">
         <v>2848</v>
       </c>
       <c r="E159" s="5" t="s">
@@ -37003,7 +37003,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="10"/>
@@ -37034,7 +37034,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -37065,7 +37065,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -37096,7 +37096,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -37127,7 +37127,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -37158,7 +37158,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -37189,7 +37189,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -37220,7 +37220,7 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -37251,7 +37251,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -37282,7 +37282,7 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12885" tabRatio="796" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -3065,7 +3065,7 @@
     <t>&lt;fc=13DFF1&gt;&lt;fs=40&gt;Полемарх&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите отряды из вашего снабжения в количестве, равном вашим начальным отрядам, в любой комбинации в космосе любых систем, в которых есть хотя бы 1 ваше сооружение и нет кораблей других игроков, или на подконтрольных вам планетах.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите отряды из вашего снабжения в количестве, равном вашим начальным отрядам, в любой комбинации на любых подконтрольных вам планетах и/или в космосе любых систем, в которых есть хотя бы 1 ваше сооружение и нет кораблей других игроков.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;ls=62&gt;«Срок истёк, требования не выполнены. Теперь действовать будем мы». Эмиссар начал отве-&lt;br&gt;чать, но его прервали — по связи Полемарх услышал сигналы тре-&lt;br&gt;воги и панический голос, произно-&lt;br&gt;сящий: «Они — они повсюду!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3368,7 +3368,7 @@
     <t>&lt;fc=1ABCB6&gt;&lt;fs=40&gt;Дружелюбный Дипломат&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта обладает способ-&lt;br&gt;ностью карт способностей подконтрольных легендарных планет, даже если эти карты перевёрнуты.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Вы можете позволить другому игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта обладает текстовой способностью каждой карты способностей подконтрольных легендарных планет, даже если эти карты перевёрнуты.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Вы можете позволить другому игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Известный в совете, Кордо имел репутацию переговорщика по совместным проектам по всей галактике.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -6491,7 +6491,7 @@
     <t>&lt;fs=64&gt;ФРАКТАЛЬНЫЕ ВРАТА&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;fs=42&gt;&lt;ls=67&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы убрать 1 из ваших кораблей с игрового поля и разместить этот отряд в смежной системе, в которой нет кораблей другого игрока.&lt;/ls&gt;&lt;/fs&gt;</t>
+    <t>&lt;fs=50&gt;&lt;ls=80&gt;Вы можете перевернуть эту карту в конце вашего хода, чтобы переместить 1 из ваших кораблей в смежную систему, в которой нет кораблей других игроков.&lt;/ls&gt;&lt;/fs&gt;</t>
   </si>
   <si>
     <t>&lt;fs=42&gt;&lt;ls=68&gt;Пропавшие рядом с этой плане-&lt;br&gt;той корабли обнаруживались по всей галактике. Этому феномену не было логичного объяснения.&lt;/ls&gt;&lt;/fs&gt;</t>
@@ -9606,7 +9606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9636,15 +9636,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9996,55 +9999,55 @@
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="27" customWidth="1"/>
-    <col min="5" max="5" width="44.7142857142857" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="28" customWidth="1"/>
+    <col min="5" max="5" width="44.7142857142857" style="28" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="28" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="9" style="26"/>
+    <col min="11" max="12" width="9" style="27"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -10053,18 +10056,18 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -10073,18 +10076,18 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -10093,18 +10096,18 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -10113,18 +10116,18 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -10133,18 +10136,18 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -10153,18 +10156,18 @@
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -10173,18 +10176,18 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10193,18 +10196,18 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -10213,18 +10216,18 @@
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -10233,18 +10236,18 @@
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -10253,18 +10256,18 @@
       <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -10273,18 +10276,18 @@
       <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28">
+      <c r="A15" s="29">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -10293,18 +10296,18 @@
       <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28">
+      <c r="A16" s="29">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -10313,18 +10316,18 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28">
+      <c r="A17" s="29">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -10333,18 +10336,18 @@
       <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="28">
+      <c r="A18" s="29">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -10353,18 +10356,18 @@
       <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="28">
+      <c r="A19" s="29">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -10373,18 +10376,18 @@
       <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -10393,18 +10396,18 @@
       <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="28">
+      <c r="A21" s="29">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -10413,18 +10416,18 @@
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="28">
+      <c r="A22" s="29">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -10433,18 +10436,18 @@
       <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="28">
+      <c r="A23" s="29">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -10453,18 +10456,18 @@
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="28">
+      <c r="A24" s="29">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -10473,18 +10476,18 @@
       <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="28">
+      <c r="A25" s="29">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -10493,18 +10496,18 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="28">
+      <c r="A26" s="29">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -10513,18 +10516,18 @@
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="28">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -10533,18 +10536,18 @@
       <c r="E27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="28">
+      <c r="A28" s="29">
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -10553,18 +10556,18 @@
       <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="28">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -10573,18 +10576,18 @@
       <c r="E29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="28">
+      <c r="A30" s="29">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -10593,18 +10596,18 @@
       <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="28">
+      <c r="A31" s="29">
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -10613,18 +10616,18 @@
       <c r="E31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="32" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28">
+      <c r="A32" s="29">
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -10633,18 +10636,18 @@
       <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="32" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="28">
+      <c r="A33" s="29">
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -10653,18 +10656,18 @@
       <c r="E33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="28">
+      <c r="A34" s="29">
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -10673,18 +10676,18 @@
       <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="28">
+      <c r="A35" s="29">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -10693,18 +10696,18 @@
       <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="28">
+      <c r="A36" s="29">
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -10713,18 +10716,18 @@
       <c r="E36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="28">
+      <c r="A37" s="29">
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -10733,18 +10736,18 @@
       <c r="E37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="28">
+      <c r="A38" s="29">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -10753,18 +10756,18 @@
       <c r="E38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="28">
+      <c r="A39" s="29">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -10773,18 +10776,18 @@
       <c r="E39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="28">
+      <c r="A40" s="29">
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -10793,18 +10796,18 @@
       <c r="E40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="28">
+      <c r="A41" s="29">
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -10813,18 +10816,18 @@
       <c r="E41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="28">
+      <c r="A42" s="29">
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -10833,18 +10836,18 @@
       <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="28">
+      <c r="A43" s="29">
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -10853,18 +10856,18 @@
       <c r="E43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="28">
+      <c r="A44" s="29">
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -10873,18 +10876,18 @@
       <c r="E44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="28">
+      <c r="A45" s="29">
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -10893,18 +10896,18 @@
       <c r="E45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="28">
+      <c r="A46" s="29">
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -10913,18 +10916,18 @@
       <c r="E46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="28">
+      <c r="A47" s="29">
         <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -10933,18 +10936,18 @@
       <c r="E47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="28">
+      <c r="A48" s="29">
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -10953,18 +10956,18 @@
       <c r="E48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="28">
+      <c r="A49" s="29">
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -10973,18 +10976,18 @@
       <c r="E49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="28">
+      <c r="A50" s="29">
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -10993,18 +10996,18 @@
       <c r="E50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="32" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="28">
+      <c r="A51" s="29">
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -11013,18 +11016,18 @@
       <c r="E51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="28">
+      <c r="A52" s="29">
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -11033,18 +11036,18 @@
       <c r="E52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="32" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="28">
+      <c r="A53" s="29">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -11053,18 +11056,18 @@
       <c r="E53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="28">
+      <c r="A54" s="29">
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -11073,18 +11076,18 @@
       <c r="E54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="28">
+      <c r="A55" s="29">
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -11093,18 +11096,18 @@
       <c r="E55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="32" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="28">
+      <c r="A56" s="29">
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -11113,18 +11116,18 @@
       <c r="E56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="28">
+      <c r="A57" s="29">
         <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -11133,18 +11136,18 @@
       <c r="E57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="28">
+      <c r="A58" s="29">
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -11153,18 +11156,18 @@
       <c r="E58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="32" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="28">
+      <c r="A59" s="29">
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -11173,18 +11176,18 @@
       <c r="E59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="32" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="28">
+      <c r="A60" s="29">
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -11193,18 +11196,18 @@
       <c r="E60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="28">
+      <c r="A61" s="29">
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -11213,18 +11216,18 @@
       <c r="E61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="28">
+      <c r="A62" s="29">
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -11233,7 +11236,7 @@
       <c r="E62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="32" t="s">
         <v>182</v>
       </c>
     </row>
@@ -11248,20 +11251,20 @@
   <sheetPr/>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="27.8857142857143" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.1714285714286" style="17" customWidth="1"/>
-    <col min="4" max="16" width="9" style="17"/>
-    <col min="17" max="17" width="14.4380952380952" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="27.8857142857143" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.1714285714286" style="18" customWidth="1"/>
+    <col min="4" max="16" width="9" style="18"/>
+    <col min="17" max="17" width="14.4380952380952" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11899,7 +11902,7 @@
       <c r="N13" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="19" t="s">
         <v>973</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -18027,13 +18030,13 @@
       <c r="E2" t="s">
         <v>1821</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>1822</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -18045,7 +18048,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18065,13 +18068,13 @@
       <c r="E3" t="s">
         <v>1825</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>1826</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -18080,7 +18083,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18100,13 +18103,13 @@
       <c r="E4" t="s">
         <v>1828</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>1829</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -18115,10 +18118,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="33" t="s">
         <v>1823</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="33" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -18138,10 +18141,10 @@
       <c r="E5" t="s">
         <v>1832</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -18150,7 +18153,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18170,13 +18173,13 @@
       <c r="E6" t="s">
         <v>1834</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>1835</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -18185,7 +18188,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="33" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18205,13 +18208,13 @@
       <c r="E7" t="s">
         <v>1837</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>1838</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -18220,7 +18223,7 @@
       <c r="L7" t="s">
         <v>1839</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="33" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -22335,8 +22338,8 @@
   <sheetPr/>
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22521,7 +22524,7 @@
       <c r="T2" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>2115</v>
       </c>
       <c r="V2" s="14" t="s">
@@ -37641,13 +37644,13 @@
       <c r="F2" t="s">
         <v>2866</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>2867</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>2868</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="33" t="s">
         <v>2869</v>
       </c>
       <c r="J2" t="s">
@@ -37691,13 +37694,13 @@
       <c r="F3" t="s">
         <v>2878</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>2867</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>2879</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="33" t="s">
         <v>2869</v>
       </c>
       <c r="J3" t="s">
@@ -37741,13 +37744,13 @@
       <c r="F4" t="s">
         <v>2884</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>2867</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="33" t="s">
         <v>2885</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="33" t="s">
         <v>2869</v>
       </c>
       <c r="J4" t="s">
@@ -37812,7 +37815,7 @@
       <c r="A3" t="s">
         <v>2890</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>2891</v>
       </c>
     </row>
@@ -37820,7 +37823,7 @@
       <c r="A4" t="s">
         <v>2892</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>2893</v>
       </c>
     </row>
@@ -37828,7 +37831,7 @@
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>2894</v>
       </c>
     </row>
@@ -37892,7 +37895,7 @@
       <c r="A13" t="s">
         <v>2909</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>2910</v>
       </c>
     </row>
@@ -37900,7 +37903,7 @@
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>2911</v>
       </c>
     </row>
@@ -37908,7 +37911,7 @@
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>2912</v>
       </c>
     </row>
@@ -37916,7 +37919,7 @@
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>2913</v>
       </c>
     </row>
@@ -37924,7 +37927,7 @@
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>2914</v>
       </c>
     </row>
@@ -37932,7 +37935,7 @@
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>2915</v>
       </c>
     </row>
@@ -37940,7 +37943,7 @@
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>2916</v>
       </c>
     </row>
@@ -37948,7 +37951,7 @@
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>2917</v>
       </c>
     </row>
@@ -37956,7 +37959,7 @@
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>2918</v>
       </c>
     </row>
@@ -37964,7 +37967,7 @@
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>2919</v>
       </c>
     </row>
@@ -37972,7 +37975,7 @@
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>2920</v>
       </c>
     </row>
@@ -38108,7 +38111,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -38128,7 +38131,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -38148,7 +38151,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -38208,7 +38211,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -38228,7 +38231,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="24">
+      <c r="A13" s="25">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -38268,7 +38271,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24">
+      <c r="A15" s="25">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -38368,7 +38371,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -38508,7 +38511,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -38548,7 +38551,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="23">
+      <c r="A29" s="24">
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -38588,7 +38591,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="24">
+      <c r="A31" s="25">
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -38688,7 +38691,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25">
+      <c r="A36" s="26">
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -38748,7 +38751,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="23">
+      <c r="A39" s="24">
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -38768,7 +38771,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24">
+      <c r="A40" s="25">
         <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -38808,7 +38811,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="23">
+      <c r="A42" s="24">
         <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -38828,7 +38831,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -38848,7 +38851,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="24">
+      <c r="A44" s="25">
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -38968,7 +38971,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="23">
+      <c r="A50" s="24">
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -38988,7 +38991,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="23">
+      <c r="A51" s="24">
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -39028,7 +39031,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="23">
+      <c r="A53" s="24">
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -39048,7 +39051,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="23">
+      <c r="A54" s="24">
         <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -39088,7 +39091,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="23">
+      <c r="A56" s="24">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -39108,7 +39111,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="23">
+      <c r="A57" s="24">
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -39128,7 +39131,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="23">
+      <c r="A58" s="24">
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -39148,7 +39151,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="23">
+      <c r="A59" s="24">
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -39198,14 +39201,14 @@
   <sheetPr/>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="20"/>
+    <col min="6" max="9" width="9" style="22"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -39416,7 +39419,7 @@
       <c r="J7" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="9" t="s">
         <v>338</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -40700,7 +40703,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -40726,7 +40729,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -40898,7 +40901,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -40913,13 +40916,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -40936,7 +40939,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="19">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -40957,13 +40960,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -40972,13 +40975,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -40995,7 +40998,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="19">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -41016,7 +41019,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -41024,7 +41027,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -41042,7 +41045,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -41050,7 +41053,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="19">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -41071,13 +41074,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="33" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -41086,13 +41089,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="33" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -41109,7 +41112,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="19">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -41130,13 +41133,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="17" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="33" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -41164,9 +41167,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="16" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="17" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="17" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -41194,16 +41197,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -41334,16 +41337,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -41367,10 +41370,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="33" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41384,16 +41387,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -41417,10 +41420,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="32" t="s">
+      <c r="AK3" s="33" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41434,16 +41437,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -41467,10 +41470,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="32" t="s">
+      <c r="AK4" s="33" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41484,16 +41487,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -41517,10 +41520,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="32" t="s">
+      <c r="AK5" s="33" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41531,16 +41534,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -41567,64 +41570,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="AE6" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AF6" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="AG6" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="32" t="s">
+      <c r="AH6" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="32" t="s">
+      <c r="AI6" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="32" t="s">
+      <c r="AJ6" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="32" t="s">
+      <c r="AK6" s="33" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -41641,16 +41644,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -41677,61 +41680,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="Z7" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AA7" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="32" t="s">
+      <c r="AC7" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AD7" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="32" t="s">
+      <c r="AF7" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="32" t="s">
+      <c r="AG7" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="32" t="s">
+      <c r="AI7" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="32" t="s">
+      <c r="AJ7" s="33" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -41775,16 +41778,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -41805,61 +41808,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="32" t="s">
+      <c r="W8" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AC8" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AD8" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AF8" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AI8" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -41876,16 +41879,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -41912,7 +41915,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="33" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -41933,22 +41936,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AA9" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AB9" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="32" t="s">
+      <c r="AC9" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="32" t="s">
+      <c r="AD9" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="32" t="s">
+      <c r="AE9" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="32" t="s">
+      <c r="AF9" s="33" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -41966,7 +41969,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="32" t="s">
+      <c r="AR9" s="33" t="s">
         <v>656</v>
       </c>
     </row>
@@ -41980,16 +41983,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>565656</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -42010,61 +42013,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="33" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="W10" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="X10" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="32" t="s">
+      <c r="AA10" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="32" t="s">
+      <c r="AB10" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="32" t="s">
+      <c r="AC10" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AD10" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="32" t="s">
+      <c r="AE10" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="32" t="s">
+      <c r="AF10" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="32" t="s">
+      <c r="AG10" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="32" t="s">
+      <c r="AH10" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="32" t="s">
+      <c r="AI10" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="32" t="s">
+      <c r="AJ10" s="33" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -42084,16 +42087,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -42117,64 +42120,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="32" t="s">
+      <c r="W11" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="32" t="s">
+      <c r="X11" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="32" t="s">
+      <c r="Y11" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="32" t="s">
+      <c r="AA11" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="32" t="s">
+      <c r="AB11" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="32" t="s">
+      <c r="AC11" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="32" t="s">
+      <c r="AD11" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="32" t="s">
+      <c r="AF11" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="32" t="s">
+      <c r="AG11" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="32" t="s">
+      <c r="AH11" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="32" t="s">
+      <c r="AI11" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="32" t="s">
+      <c r="AJ11" s="33" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -42191,16 +42194,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -42221,61 +42224,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="34" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="32" t="s">
+      <c r="T12" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="32" t="s">
+      <c r="W12" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="32" t="s">
+      <c r="X12" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="32" t="s">
+      <c r="AA12" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="32" t="s">
+      <c r="AB12" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="32" t="s">
+      <c r="AC12" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AD12" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="32" t="s">
+      <c r="AE12" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="32" t="s">
+      <c r="AF12" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="32" t="s">
+      <c r="AG12" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="32" t="s">
+      <c r="AH12" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="32" t="s">
+      <c r="AI12" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="32" t="s">
+      <c r="AJ12" s="33" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -42295,16 +42298,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>790200</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="17">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -42325,58 +42328,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AD13" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AH13" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="32" t="s">
+      <c r="AI13" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="33" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -42596,19 +42599,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>736</v>
       </c>
     </row>
@@ -42640,16 +42643,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -42702,7 +42705,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -42758,10 +42761,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="33" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -42817,7 +42820,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="33" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -42858,10 +42861,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="33" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -42964,7 +42967,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -43055,7 +43058,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="33" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -43111,7 +43114,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="33" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -43120,10 +43123,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="33" t="s">
         <v>778</v>
       </c>
     </row>
@@ -43167,7 +43170,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="33" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -43176,7 +43179,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="33" t="s">
         <v>736</v>
       </c>
     </row>
@@ -43220,7 +43223,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -43273,7 +43276,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="33" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -43282,7 +43285,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="33" t="s">
         <v>736</v>
       </c>
     </row>
@@ -43323,7 +43326,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="33" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -43379,7 +43382,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="33" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -43388,10 +43391,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="33" t="s">
         <v>795</v>
       </c>
     </row>
@@ -43435,7 +43438,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="33" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -43444,7 +43447,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="33" t="s">
         <v>736</v>
       </c>
     </row>
@@ -43494,7 +43497,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="33" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -43550,7 +43553,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="33" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -43559,7 +43562,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="33" t="s">
         <v>736</v>
       </c>
     </row>
@@ -43612,10 +43615,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="32" t="s">
+      <c r="R21" s="33" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -43671,7 +43674,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="33" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -43721,28 +43724,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="32" t="s">
+      <c r="N29" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="32" t="s">
+      <c r="Q29" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="32" t="s">
+      <c r="X29" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="32" t="s">
+      <c r="Y29" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="32" t="s">
+      <c r="Z29" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -43757,13 +43760,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="32" t="s">
+      <c r="AE29" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="32" t="s">
+      <c r="AF29" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="32" t="s">
+      <c r="AG29" s="33" t="s">
         <v>584</v>
       </c>
     </row>
@@ -43804,16 +43807,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -43828,13 +43831,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="32" t="s">
+      <c r="X30" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="32" t="s">
+      <c r="Y30" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="32" t="s">
+      <c r="Z30" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -43846,16 +43849,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="32" t="s">
+      <c r="AD30" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="32" t="s">
+      <c r="AE30" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="32" t="s">
+      <c r="AF30" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="32" t="s">
+      <c r="AG30" s="33" t="s">
         <v>584</v>
       </c>
     </row>
@@ -43905,7 +43908,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -43917,13 +43920,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="32" t="s">
+      <c r="X31" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="32" t="s">
+      <c r="Y31" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -43935,16 +43938,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="32" t="s">
+      <c r="AD31" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="32" t="s">
+      <c r="AE31" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="32" t="s">
+      <c r="AF31" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="32" t="s">
+      <c r="AG31" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -44000,10 +44003,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="32" t="s">
+      <c r="Q32" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="32" t="s">
+      <c r="R32" s="33" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -44015,13 +44018,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="32" t="s">
+      <c r="X32" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="32" t="s">
+      <c r="Y32" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -44033,16 +44036,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="32" t="s">
+      <c r="AD32" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="32" t="s">
+      <c r="AE32" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="32" t="s">
+      <c r="AF32" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="32" t="s">
+      <c r="AG32" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -44098,7 +44101,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="32" t="s">
+      <c r="Q33" s="33" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -44107,7 +44110,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="32" t="s">
+      <c r="X33" s="33" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -44128,13 +44131,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="32" t="s">
+      <c r="AE33" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="32" t="s">
+      <c r="AF33" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="32" t="s">
+      <c r="AG33" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -44178,10 +44181,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="32" t="s">
+      <c r="Q34" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="33" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -44211,10 +44214,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="32" t="s">
+      <c r="AE34" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="32" t="s">
+      <c r="AF34" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -44273,10 +44276,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="32" t="s">
+      <c r="Q35" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="33" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -44306,10 +44309,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="32" t="s">
+      <c r="AE35" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="32" t="s">
+      <c r="AF35" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -44398,7 +44401,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="32" t="s">
+      <c r="AE36" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -44457,7 +44460,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="33" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -44487,7 +44490,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="32" t="s">
+      <c r="AE37" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -44570,10 +44573,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="32" t="s">
+      <c r="AE38" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="32" t="s">
+      <c r="AF38" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -44623,7 +44626,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="32" t="s">
+      <c r="Q39" s="33" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -44653,7 +44656,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="32" t="s">
+      <c r="AE39" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -44739,7 +44742,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="32" t="s">
+      <c r="AE40" s="33" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165" tabRatio="796" firstSheet="6" activeTab="14"/>
+    <workbookView windowWidth="14400" windowHeight="12975" tabRatio="796" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -6650,7 +6650,7 @@
     <t>&lt;fs=60&gt;    Ключи    &lt;br&gt;Шифрования&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Эта планета имеет технологическую специализацию любого цвета.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Эта планета имеет техно-&lt;br&gt;логическую специализа-&lt;br&gt;цию любого цвета.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.8745;0;0;0;0;0;1.8196;0;0;0;0;0;0.3843;0;0;0;0;0;1;0;-0.8745;-0.8196;0.6157;0;1</t>
@@ -6665,7 +6665,7 @@
     <t>&lt;fs=60&gt;Торговый альянс&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=56&gt;&lt;fs=37&gt;Когда вы получаете эту карту, если вы не играете за Келдарскую Торговую Конфедерацию, положите её перед собой лицевой стороной вверх.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете использовать способность командира Келдарской Торговой Конфедерации, если она разблокирована.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активировали систему, в которой есть хотя бы 1 отряд игрока Келдарской Торговой Конфедерации, верните эту карту обещания игроку, играющего за Келдарскую Торговую Конфедерацию.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=56&gt;&lt;fs=37&gt;Когда вы получаете эту карту, если вы не играете за Келдарскую Торго-&lt;br&gt;вую Конфедерацию, положите её пе-&lt;br&gt;ред собой лицевой стороной вверх.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете использовать способность командира Келдарской Торговой Конфедерации, если она разблоки-&lt;br&gt;рована.&lt;ls=44&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активировали систему, в которой есть хотя бы 1 отряд игрока Келдарской Торговой Конфедера-&lt;br&gt;ции, верните эту карту обещания игроку, играющему за Келдарскую Торговую Конфедерацию.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.8667;0;0;0;0;0;1.098;0;0;0;0;0;0.4235;0;0;0;0;0;1;0;-0.8667;-0.098;0.5765;0;1</t>
@@ -6695,7 +6695,7 @@
     <t>&lt;fs=56&gt;Алгоритмическая Репликация&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите 1 карту действий из стопки сброса карт действий и добавьте её в свою руку.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем изгоните эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;выберите 1 карту действий из стопки сброса карт действий и возьмите её себе в руку.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем изгоните эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.1608;0;0;0;0;0;1.1608;0;0;0;0;0;1.1608;0;0;0;0;0;1;0;-0.1608;-0.1608;-0.1608;0;1</t>
@@ -6725,7 +6725,7 @@
     <t>&lt;fs=60&gt;Поправка Эдин&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте политики. Предскажите вслух результат голосования по этой карте. Если ваше предсказание верно, разместите 1 жетон приказа из снабжения другого игрока в системе, в которой есть ваши отряды.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Мандат Эдин.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте политики. Предскажите вслух результат голосования по этой карте. Если ваше предсказание верно, разместите 1 жетон приказа из снабжения другого игрока в системе, в которой есть ваши отряды.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту&lt;br&gt;игроку, играющему за&lt;br&gt;Мандат Эдин.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.7373;0;0;0;0;0;0.9255;0;0;0;0;0;1.6;0;0;0;0;0;1;0;0.2627;0.0745;-0.6;0;1</t>
@@ -6797,7 +6797,7 @@
     <t>&lt;fs=60&gt;Действующая база «ПРГ»&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается на 2.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;прикрепите эту карту к подконтрольной вам неродной планете.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается&lt;br&gt;на 2.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.298;0;0;0;0;0;0.8941;0;0;0;0;0;1.6941;0;0;0;0;0;1;0;0.702;0.1059;-0.6941;0;1</t>
@@ -6812,7 +6812,7 @@
     <t>&lt;fs=60&gt;Прорицание&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту перед собой лицевой стороной вверх.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете смотреть карту общей цели на планшете фракции игрока, играющего за Авгуров Иликсума.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активируете систему, в которой есть хотя бы 1 отряд игрока, играющего за авгуров Иликсума, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту перед собой лицевой стороной вверх.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Пока эта карта лежит перед вами, вы можете смотреть карту общей цели на планшете фракции игрока, играющего&lt;br&gt;за Авгуров Иликсума.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы активируете систему, в которой есть хотя бы 1 отряд игрока, играющего за авгуров Иликсума, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.5098;0;0;0;0;0;1.1451;0;0;0;0;0;0.4784;0;0;0;0;0;1;0;0.4902;-0.1451;0.5216;0;1</t>
@@ -6824,7 +6824,7 @@
     <t>&lt;fs=60&gt;Вассалитет&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;В начале боя:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавляйте +1 к результатам боевых проверок каждого вашего истребителя во время этого боя. Игрок, играющий за Берсерков Кьяленгарда, захватывает каждый ваш истребитель, уничтоженный во время этого боя.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Берсерков Кьяленгарда.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;В начале боя:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Добавляйте +1 к результатам боевых проверок каждого вашего истребителя во время этого боя. Игрок, играющий за Берсерков Кьяленгарда, захватывает каждый ваш истребитель, уничтоженный во время этого боя.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Берсерков&lt;br&gt;Кьяленгарда.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.5373;0;0;0;0;0;1.9294;0;0;0;0;0;0.1569;0;0;0;0;0;1;0;-0.5373;-0.9294;0.8431;0;1</t>
@@ -6878,7 +6878,7 @@
     <t>&lt;fs=60&gt;Поправка Кайро&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте. Предскажите вслух результат голосования по ней. Если предсказание окажется верным, разместите 3 отряда пехоты из вашего снабжения на подконтрольной вам планете.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Общину Кайро.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;&lt;f=Myriad Pro&gt;После раскрытия карты политики:&lt;/f&gt;&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы не можете голосовать по этой карте. Предскажите вслух результат голосования по ней. Если предсказание окажется верным, размести-&lt;br&gt;те 3 отряда пехоты из вашего снабжения на подконтроль-&lt;br&gt;ной вам планете.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Общину Кайро.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.7804;0;0;0;0;0;0.5725;0;0;0;0;0;1.0039;0;0;0;0;0;1;0;-0.7804;0.4275;-0.0039;0;1</t>
@@ -6893,7 +6893,7 @@
     <t>&lt;fs=60&gt;Трофеи войны&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите её перед собой лицевой стороной вверх, чтобы разведать 1 подконтрольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале хода игрока, играющего за Осколки Ланефир, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите её перед собой лицевой стороной вверх, чтобы разведать 1 подкон-&lt;br&gt;трольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале хода игрока, играющего за Осколки Ланефир, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.6941;0;0;0;0;0;0.5255;0;0;0;0;0;1.4196;0;0;0;0;0;1;0;-0.6941;0.4745;-0.4196;0;1</t>
@@ -6923,7 +6923,7 @@
     <t>&lt;fs=60&gt;Глас камней&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Во время тактического действия, когда вы используете способность &lt;/f&gt;&lt;push=0;14&gt;&lt;f=Russo One;34;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-14&gt;&lt;f=Myriad Pro&gt; и наносите хотя бы 1 попадание:&lt;/f&gt;&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;За каждое нанесённое вами попадание вы можете вместо этого разместить 1 отряд пехоты из вашего снабжения на планете, против которой была использована способность.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Л’токк Кхраск.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=63&gt;&lt;fs=42&gt;&lt;f=Myriad Pro&gt;Во время тактического дей-&lt;br&gt;ствия, когда вы используете способность &lt;/f&gt;&lt;push=0;14&gt;&lt;f=Russo One;34;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-14&gt;&lt;f=Myriad Pro&gt; и наносите хотя бы 1 попадание:&lt;/f&gt;&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;За каждое нанесённое вами попадание вы можете вместо этого разместить 1 отряд пехоты из вашего снабжения на планете, против которой была использована способность.&lt;ls=50&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту&lt;br&gt;игроку, играющему за&lt;br&gt;Л’токк Кхраск.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.6275;0;0;0;0;0;1.0353;0;0;0;0;0;1.7961;0;0;0;0;0;1;0;0.3725;-0.0353;-0.7961;0;1</t>
@@ -6980,7 +6980,7 @@
     <t>&lt;fs=60&gt;Наставление&lt;br&gt;    Нивин    &lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага «Передвижение» этого тактического действия игнорируйте эффекты аномалий.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Звёздных Королей Нивин.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Во время шага «Передви-&lt;br&gt;жение» этого тактического действия игнорируйте эффекты аномалий.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Звёздных Королей Нивин.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.8863;0;0;0;0;0;0.8941;0;0;0;0;0;0.8784;0;0;0;0;0;1;0;0.1137;0.1059;0.1216;0;1</t>
@@ -7025,7 +7025,7 @@
     <t>&lt;fs=56&gt;Благосклонность&lt;br&gt;    Родуна    &lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы исследуете технологию и игнорируете требование:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете проигнорировать 1 дополнительное требование того же цвета.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Фанатиков Родуна.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Когда вы исследуете тех-&lt;br&gt;нологию и игнорируете требование:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Вы можете проигнори-&lt;br&gt;ровать 1 дополнительное требование того же цвета.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему за Фанатиков Родуна.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.8745;0;0;0;0;0;0.3608;0;0;0;0;0;0.4314;0;0;0;0;0;1;0;-0.8745;0.6392;0.5686;0;1</t>
@@ -7040,7 +7040,7 @@
     <t>&lt;fs=60&gt;Автоматоны&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В конце вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете прикрепить эту карту к неродной подконтрольной вам планете (кроме Мекатол-Рекса). Эта планета имеет способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;, как если бы это был отряд.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;В конце вашего хода:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Можете прикрепить эту карту к неродной подкон-&lt;br&gt;трольной вам планете (кроме Мекатол-Рекса).&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Эта планета имеет способ-&lt;br&gt;ность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;, как если бы это был отряд.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.4667;0;0;0;0;0;1.6941;0;0;0;0;0;0.4627;0;0;0;0;0;1;0;-0.4667;-0.6941;0.5373;0;1</t>
@@ -7097,7 +7097,7 @@
     <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Налоговая Гавань&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение влияния этой планеты увеличивается&lt;br&gt;на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение влияния этой планеты увеличивается на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.8431;0;0;0;0;0;0.5569;0;0;0;0;0;0.3922;0;0;0;0;0;1;0;-0.8431;0.4431;0.6078;0;1</t>
@@ -7115,7 +7115,7 @@
     <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Резервный Банк&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается&lt;br&gt;на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=69&gt;&lt;fs=46&gt;Когда вы получаете эту карту, вы должны прикрепить её к неродной подконтрольной вам планете (кроме Мекатол-Рекса), на которой нет филиала.&lt;ls=55&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Значение ресурсов этой планеты увеличивается на 1.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;fs=51&gt;    Филиал    &lt;br&gt;Орбитальная Верфь&lt;/fs&gt;</t>
@@ -7124,7 +7124,7 @@
     <t>&lt;fs=51&gt;Гиперкинетический Боеприпас&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как вы бросите кубики для проверки способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-17&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы наносите хотя бы 1 попадание во время этой проверки, нанесите 1 дополнительное попадание.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Зелиана.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;Перед тем как вы бросите кубики для проверки способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«БОМБАРДИ-&lt;br&gt;РОВКА»&lt;/f&gt;&lt;push=-4;-17&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Если вы наносите хотя бы 1 попадание во время этой проверки, нанесите 1 дополнительное попадание.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Затем верните эту карту игроку, играющему&lt;br&gt;за Зелиана.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>0.4392;0;0;0;0;0;1.9373;0;0;0;0;0;1.9137;0;0;0;0;0;1;0;0.5608;-0.9373;-0.9137;0;1</t>
@@ -24977,7 +24977,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:J39"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25236,7 +25236,7 @@
       <c r="D9" s="9" t="s">
         <v>2192</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>2193</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -25940,7 +25940,7 @@
       <c r="D31" s="9" t="s">
         <v>2297</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>2298</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -26068,7 +26068,7 @@
       <c r="D35" s="9" t="s">
         <v>2316</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>2317</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -26100,7 +26100,7 @@
       <c r="D36" s="9" t="s">
         <v>2321</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>2317</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -26132,7 +26132,7 @@
       <c r="D37" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>2323</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -26164,7 +26164,7 @@
       <c r="D38" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>2323</v>
       </c>
       <c r="F38" s="10" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12975" tabRatio="796" activeTab="14"/>
+    <workbookView windowWidth="20340" windowHeight="12255" tabRatio="796" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -6911,7 +6911,7 @@
     <t>&lt;fs=60&gt;Трофеи войны&lt;/fs&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите эту карту перед собой лицевой стороной вверх, чтобы разведать 1 подконтрольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале хода игрока, играющего за Осколки Ланефир, верните ему эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;fs=50&gt;&lt;f=Myriad Pro&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;Положите эту карту перед собой лицевой стороной вверх, чтобы разведать 1 подконтрольную вам планету.&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;В начале хода игрока, играющего за Осколки Ланефир, верните ему&lt;br&gt;эту карту.&lt;/fs&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>1.6941;0;0;0;0;0;0.5255;0;0;0;0;0;1.4196;0;0;0;0;0;1;0;-0.6941;0.4745;-0.4196;0;1</t>
@@ -9822,7 +9822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9847,10 +9847,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10218,55 +10214,55 @@
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="29" customWidth="1"/>
-    <col min="5" max="5" width="44.7142857142857" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="27" customWidth="1"/>
+    <col min="5" max="5" width="44.7142857142857" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="27" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="9" style="28"/>
+    <col min="11" max="12" width="9" style="26"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -10275,18 +10271,18 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -10295,18 +10291,18 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -10315,18 +10311,18 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -10335,18 +10331,18 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -10355,18 +10351,18 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -10375,18 +10371,18 @@
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -10395,18 +10391,18 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10415,18 +10411,18 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -10435,18 +10431,18 @@
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -10455,18 +10451,18 @@
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -10475,18 +10471,18 @@
       <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -10495,18 +10491,18 @@
       <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="30">
+      <c r="A15" s="28">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -10515,18 +10511,18 @@
       <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -10535,18 +10531,18 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="30">
+      <c r="A17" s="28">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -10555,18 +10551,18 @@
       <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -10575,18 +10571,18 @@
       <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -10595,18 +10591,18 @@
       <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -10615,18 +10611,18 @@
       <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="30">
+      <c r="A21" s="28">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -10635,18 +10631,18 @@
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -10655,18 +10651,18 @@
       <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -10675,18 +10671,18 @@
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -10695,18 +10691,18 @@
       <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="30">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -10715,18 +10711,18 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -10735,18 +10731,18 @@
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="30">
+      <c r="A27" s="28">
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -10755,18 +10751,18 @@
       <c r="E27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -10775,18 +10771,18 @@
       <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="30">
+      <c r="A29" s="28">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -10795,18 +10791,18 @@
       <c r="E29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="30">
+      <c r="A30" s="28">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -10815,18 +10811,18 @@
       <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="30">
+      <c r="A31" s="28">
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -10835,18 +10831,18 @@
       <c r="E31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="30">
+      <c r="A32" s="28">
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -10855,18 +10851,18 @@
       <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="30">
+      <c r="A33" s="28">
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -10875,18 +10871,18 @@
       <c r="E33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="30">
+      <c r="A34" s="28">
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -10895,18 +10891,18 @@
       <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="30">
+      <c r="A35" s="28">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -10915,18 +10911,18 @@
       <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="30">
+      <c r="A36" s="28">
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -10935,18 +10931,18 @@
       <c r="E36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="30">
+      <c r="A37" s="28">
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -10955,18 +10951,18 @@
       <c r="E37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="30">
+      <c r="A38" s="28">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -10975,18 +10971,18 @@
       <c r="E38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="30">
+      <c r="A39" s="28">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -10995,18 +10991,18 @@
       <c r="E39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="30">
+      <c r="A40" s="28">
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -11015,18 +11011,18 @@
       <c r="E40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="30">
+      <c r="A41" s="28">
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -11035,18 +11031,18 @@
       <c r="E41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="30">
+      <c r="A42" s="28">
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -11055,18 +11051,18 @@
       <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="30">
+      <c r="A43" s="28">
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -11075,18 +11071,18 @@
       <c r="E43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="30">
+      <c r="A44" s="28">
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -11095,18 +11091,18 @@
       <c r="E44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="30">
+      <c r="A45" s="28">
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -11115,18 +11111,18 @@
       <c r="E45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="30">
+      <c r="A46" s="28">
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -11135,18 +11131,18 @@
       <c r="E46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="30">
+      <c r="A47" s="28">
         <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -11155,18 +11151,18 @@
       <c r="E47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="30">
+      <c r="A48" s="28">
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -11175,18 +11171,18 @@
       <c r="E48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="30">
+      <c r="A49" s="28">
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -11195,18 +11191,18 @@
       <c r="E49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="30">
+      <c r="A50" s="28">
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -11215,18 +11211,18 @@
       <c r="E50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="30">
+      <c r="A51" s="28">
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -11235,18 +11231,18 @@
       <c r="E51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="30">
+      <c r="A52" s="28">
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -11255,18 +11251,18 @@
       <c r="E52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="30">
+      <c r="A53" s="28">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -11275,18 +11271,18 @@
       <c r="E53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="30">
+      <c r="A54" s="28">
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -11295,18 +11291,18 @@
       <c r="E54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="30">
+      <c r="A55" s="28">
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -11315,18 +11311,18 @@
       <c r="E55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="30">
+      <c r="A56" s="28">
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -11335,18 +11331,18 @@
       <c r="E56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="31" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="30">
+      <c r="A57" s="28">
         <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -11355,18 +11351,18 @@
       <c r="E57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="31" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="30">
+      <c r="A58" s="28">
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -11375,18 +11371,18 @@
       <c r="E58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="30">
+      <c r="A59" s="28">
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -11395,18 +11391,18 @@
       <c r="E59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="31" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="30">
+      <c r="A60" s="28">
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -11415,18 +11411,18 @@
       <c r="E60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="30">
+      <c r="A61" s="28">
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -11435,18 +11431,18 @@
       <c r="E61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="30">
+      <c r="A62" s="28">
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -11455,7 +11451,7 @@
       <c r="E62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="31" t="s">
         <v>182</v>
       </c>
     </row>
@@ -11478,12 +11474,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="27.8857142857143" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.1714285714286" style="19" customWidth="1"/>
-    <col min="4" max="16" width="9" style="19"/>
-    <col min="17" max="17" width="14.4380952380952" style="19" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="27.8857142857143" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.1714285714286" style="17" customWidth="1"/>
+    <col min="4" max="16" width="9" style="17"/>
+    <col min="17" max="17" width="14.4380952380952" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -12121,7 +12117,7 @@
       <c r="N13" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="18" t="s">
         <v>973</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -18249,13 +18245,13 @@
       <c r="E2" t="s">
         <v>1821</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>1822</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>623</v>
       </c>
       <c r="I2" t="s">
@@ -18267,7 +18263,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18287,13 +18283,13 @@
       <c r="E3" t="s">
         <v>1825</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>1826</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>639</v>
       </c>
       <c r="K3">
@@ -18302,7 +18298,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="32" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18322,13 +18318,13 @@
       <c r="E4" t="s">
         <v>1828</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>1829</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>565656</v>
       </c>
       <c r="K4">
@@ -18337,10 +18333,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="32" t="s">
         <v>1823</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -18360,10 +18356,10 @@
       <c r="E5" t="s">
         <v>1832</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>666</v>
       </c>
       <c r="K5">
@@ -18372,7 +18368,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18392,13 +18388,13 @@
       <c r="E6" t="s">
         <v>1834</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>1835</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>682</v>
       </c>
       <c r="K6">
@@ -18407,7 +18403,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="32" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18427,13 +18423,13 @@
       <c r="E7" t="s">
         <v>1837</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>1838</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>790200</v>
       </c>
       <c r="K7">
@@ -18442,7 +18438,7 @@
       <c r="L7" t="s">
         <v>1839</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="32" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -18476,7 +18472,7 @@
     <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
     <col min="13" max="13" width="11.8" customWidth="1"/>
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
-    <col min="16" max="19" width="5.71428571428571" style="12" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="10" customWidth="1"/>
     <col min="20" max="22" width="9.78095238095238" customWidth="1"/>
     <col min="24" max="29" width="9.78095238095238" customWidth="1"/>
     <col min="30" max="119" width="10.8857142857143" customWidth="1"/>
@@ -18486,70 +18482,70 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1840</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>1841</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1842</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>1843</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>1844</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>1845</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>1846</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>1847</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>1848</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>1849</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>1850</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>1851</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>1852</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>1853</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>1855</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>1856</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>1857</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>1858</v>
       </c>
     </row>
@@ -22576,11 +22572,11 @@
     <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
     <col min="13" max="13" width="11.8" customWidth="1"/>
     <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
-    <col min="16" max="19" width="5.71428571428571" style="12" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="10" customWidth="1"/>
     <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
     <col min="21" max="22" width="9.78095238095238" customWidth="1"/>
-    <col min="24" max="30" width="9.78095238095238" style="13" customWidth="1"/>
-    <col min="31" max="35" width="10.8857142857143" style="13" customWidth="1"/>
+    <col min="24" max="30" width="9.78095238095238" style="11" customWidth="1"/>
+    <col min="31" max="35" width="10.8857142857143" style="11" customWidth="1"/>
     <col min="36" max="120" width="10.8857142857143" customWidth="1"/>
     <col min="121" max="1020" width="11.8857142857143" customWidth="1"/>
     <col min="1021" max="10020" width="12.8857142857143" customWidth="1"/>
@@ -22588,109 +22584,109 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1840</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>1841</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1842</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>1843</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>1844</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>1845</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>1846</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>1847</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>1848</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>1849</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>1850</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>1851</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>1852</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>1853</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>1855</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>1856</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>1857</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>1858</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>2098</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>2099</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>2100</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="13" t="s">
         <v>2101</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="13" t="s">
         <v>2102</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="13" t="s">
         <v>2103</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>2104</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="13" t="s">
         <v>2105</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="13" t="s">
         <v>2106</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="13" t="s">
         <v>2107</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="13" t="s">
         <v>2108</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="13" t="s">
         <v>2109</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="13" t="s">
         <v>2110</v>
       </c>
     </row>
@@ -22740,48 +22736,48 @@
       <c r="S2" s="9">
         <v>1648</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>2115</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="14" t="s">
         <v>2116</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="11">
         <v>-451</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="11">
         <v>215</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="11">
         <v>1432</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="11">
         <v>1352</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="11">
         <v>214</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="11">
         <v>-99</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="11">
         <v>1372</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="11">
         <v>1375</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="14" t="s">
         <v>2112</v>
       </c>
     </row>
@@ -22831,48 +22827,48 @@
       <c r="S3" s="9">
         <v>1075</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="14" t="s">
         <v>2122</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="14" t="s">
         <v>2123</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="14" t="s">
         <v>2124</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="14" t="s">
         <v>2125</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="11">
         <v>-416</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="11">
         <v>182</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="11">
         <v>1409</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="11">
         <v>1351</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB3" s="11">
         <v>372</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="11">
         <v>39</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="11">
         <v>1020</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="11">
         <v>1015</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="14" t="s">
         <v>2120</v>
       </c>
     </row>
@@ -22922,48 +22918,48 @@
       <c r="S4" s="9">
         <v>961</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="14" t="s">
         <v>2129</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="14" t="s">
         <v>2130</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="14" t="s">
         <v>2131</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="14" t="s">
         <v>2132</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="11">
         <v>-425</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="11">
         <v>196</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="11">
         <v>1338</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="11">
         <v>1269</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="11">
         <v>424</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="11">
         <v>99</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="11">
         <v>896</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="11">
         <v>867</v>
       </c>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13" t="s">
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AI4" s="16" t="s">
+      <c r="AI4" s="14" t="s">
         <v>2127</v>
       </c>
     </row>
@@ -23013,48 +23009,48 @@
       <c r="S5" s="9">
         <v>1290</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="14" t="s">
         <v>2136</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="14" t="s">
         <v>2137</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="14" t="s">
         <v>2139</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="11">
         <v>-656</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="11">
         <v>35</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="11">
         <v>1779</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="11">
         <v>1644</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="11">
         <v>266</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="11">
         <v>-97</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="11">
         <v>1196</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="11">
         <v>1294</v>
       </c>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13" t="s">
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="14" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -23104,48 +23100,48 @@
       <c r="S6" s="9">
         <v>1316</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="14" t="s">
         <v>2143</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="14" t="s">
         <v>2146</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="11">
         <v>-610</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="11">
         <v>19</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="11">
         <v>1793</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="11">
         <v>1650</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="11">
         <v>284</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="11">
         <v>-103</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="11">
         <v>1196</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6" s="11">
         <v>1294</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13" t="s">
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AI6" s="16" t="s">
+      <c r="AI6" s="14" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -23195,52 +23191,52 @@
       <c r="S7" s="9">
         <v>1762</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="14" t="s">
         <v>2151</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="14" t="s">
         <v>2152</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="V7" s="14" t="s">
         <v>2153</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="14" t="s">
         <v>2154</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="11">
         <v>-476</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="11">
         <v>-309</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="11">
         <v>1593</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="11">
         <v>1420</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="11">
         <v>24</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="11">
         <v>-804</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="11">
         <v>1906</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="11">
         <v>1730</v>
       </c>
-      <c r="AF7" s="16" t="s">
+      <c r="AF7" s="14" t="s">
         <v>1921</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="14" t="s">
         <v>1921</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="11" t="s">
         <v>2155</v>
       </c>
-      <c r="AI7" s="16" t="s">
+      <c r="AI7" s="14" t="s">
         <v>2156</v>
       </c>
     </row>
@@ -24999,7 +24995,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25038,25 +25034,25 @@
       <c r="J1" s="4" t="s">
         <v>2161</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>2162</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>2163</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="4" t="s">
         <v>2164</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>2165</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2166</v>
       </c>
     </row>
@@ -25073,15 +25069,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="10">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9">
@@ -25114,15 +25110,15 @@
       <c r="J3" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="9">
@@ -25155,15 +25151,15 @@
       <c r="J4" s="4" t="s">
         <v>2176</v>
       </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>2177</v>
       </c>
     </row>
@@ -25198,15 +25194,15 @@
       <c r="J5" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="9">
@@ -25239,15 +25235,15 @@
       <c r="J6" s="4" t="s">
         <v>2187</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9">
@@ -25280,15 +25276,15 @@
       <c r="J7" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -25321,15 +25317,15 @@
       <c r="J8" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="9">
@@ -25344,7 +25340,7 @@
       <c r="D9" s="9" t="s">
         <v>2198</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="4" t="s">
         <v>2199</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -25362,15 +25358,15 @@
       <c r="J9" s="4" t="s">
         <v>2202</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="9">
@@ -25403,15 +25399,15 @@
       <c r="J10" s="4" t="s">
         <v>2207</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="9">
@@ -25444,15 +25440,15 @@
       <c r="J11" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9">
@@ -25485,15 +25481,15 @@
       <c r="J12" s="4" t="s">
         <v>2217</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9">
@@ -25526,15 +25522,15 @@
       <c r="J13" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="9">
@@ -25567,17 +25563,17 @@
       <c r="J14" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <v>2</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9">
@@ -25610,15 +25606,15 @@
       <c r="J15" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="9">
@@ -25651,15 +25647,15 @@
       <c r="J16" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="9">
@@ -25692,15 +25688,15 @@
       <c r="J17" s="4" t="s">
         <v>2239</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="9">
@@ -25733,15 +25729,15 @@
       <c r="J18" s="6">
         <v>7.57e+90</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="9">
@@ -25756,7 +25752,7 @@
       <c r="D19" s="9" t="s">
         <v>2244</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="4" t="s">
         <v>2245</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -25774,15 +25770,15 @@
       <c r="J19" s="4" t="s">
         <v>2248</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="9">
@@ -25815,15 +25811,15 @@
       <c r="J20" s="4" t="s">
         <v>2253</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="9">
@@ -25838,7 +25834,7 @@
       <c r="D21" s="9" t="s">
         <v>2254</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="4" t="s">
         <v>2255</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -25856,15 +25852,15 @@
       <c r="J21" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="9">
@@ -25879,7 +25875,7 @@
       <c r="D22" s="9" t="s">
         <v>2259</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="4" t="s">
         <v>2260</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -25897,15 +25893,15 @@
       <c r="J22" s="4" t="s">
         <v>2263</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="9">
@@ -25938,15 +25934,15 @@
       <c r="J23" s="4" t="s">
         <v>2268</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="9">
@@ -25979,15 +25975,15 @@
       <c r="J24" s="4">
         <v>995978</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="9">
@@ -26020,15 +26016,15 @@
       <c r="J25" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="9">
@@ -26061,15 +26057,15 @@
       <c r="J26" s="4" t="s">
         <v>2282</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="9">
@@ -26102,15 +26098,15 @@
       <c r="J27" s="4" t="s">
         <v>2287</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="9">
@@ -26143,15 +26139,15 @@
       <c r="J28" s="4" t="s">
         <v>2292</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="9">
@@ -26184,15 +26180,15 @@
       <c r="J29" s="4" t="s">
         <v>2297</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="9">
@@ -26225,15 +26221,15 @@
       <c r="J30" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="9">
@@ -26266,15 +26262,15 @@
       <c r="J31" s="4">
         <v>979473</v>
       </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10" t="s">
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4" t="s">
         <v>2307</v>
       </c>
     </row>
@@ -26309,15 +26305,15 @@
       <c r="J32" s="4" t="s">
         <v>2312</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="9">
@@ -26350,15 +26346,15 @@
       <c r="J33" s="4" t="s">
         <v>2317</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="9">
@@ -26391,15 +26387,15 @@
       <c r="J34" s="4" t="s">
         <v>2322</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="9">
@@ -26432,19 +26428,19 @@
       <c r="J35" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10">
-        <v>1</v>
-      </c>
-      <c r="N35" s="10" t="s">
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>2328</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="9">
@@ -26477,19 +26473,19 @@
       <c r="J36" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="N36" s="11" t="s">
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>2328</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="9">
@@ -26522,19 +26518,19 @@
       <c r="J37" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11" t="s">
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="7" t="s">
         <v>2328</v>
       </c>
-      <c r="Q37" s="10"/>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="9">
@@ -26567,19 +26563,19 @@
       <c r="J38" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10">
-        <v>1</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="11" t="s">
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="7" t="s">
         <v>2328</v>
       </c>
-      <c r="Q38" s="10"/>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="9">
@@ -26612,15 +26608,15 @@
       <c r="J39" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="9">
@@ -26643,13 +26639,13 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="9">
@@ -26672,13 +26668,13 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42" customHeight="1" spans="1:17">
       <c r="A42" s="9">
@@ -26701,13 +26697,13 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="9">
@@ -26730,13 +26726,13 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="9">
@@ -26759,13 +26755,13 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="9">
@@ -26788,13 +26784,13 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="9"/>
@@ -38627,13 +38623,13 @@
       <c r="F2" t="s">
         <v>2938</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>2939</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>2940</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>2941</v>
       </c>
       <c r="J2" t="s">
@@ -38677,13 +38673,13 @@
       <c r="F3" t="s">
         <v>2950</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>2939</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>2951</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>2941</v>
       </c>
       <c r="J3" t="s">
@@ -38727,13 +38723,13 @@
       <c r="F4" t="s">
         <v>2956</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>2939</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>2957</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>2941</v>
       </c>
       <c r="J4" t="s">
@@ -38798,7 +38794,7 @@
       <c r="A3" t="s">
         <v>2962</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>2963</v>
       </c>
     </row>
@@ -38806,7 +38802,7 @@
       <c r="A4" t="s">
         <v>2964</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>2965</v>
       </c>
     </row>
@@ -38814,7 +38810,7 @@
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>2966</v>
       </c>
     </row>
@@ -38878,7 +38874,7 @@
       <c r="A13" t="s">
         <v>2981</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>2982</v>
       </c>
     </row>
@@ -38886,7 +38882,7 @@
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>2983</v>
       </c>
     </row>
@@ -38894,7 +38890,7 @@
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>2984</v>
       </c>
     </row>
@@ -38902,7 +38898,7 @@
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>2985</v>
       </c>
     </row>
@@ -38910,7 +38906,7 @@
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>2986</v>
       </c>
     </row>
@@ -38918,7 +38914,7 @@
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>2987</v>
       </c>
     </row>
@@ -38926,7 +38922,7 @@
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>2988</v>
       </c>
     </row>
@@ -38934,7 +38930,7 @@
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>2989</v>
       </c>
     </row>
@@ -38942,7 +38938,7 @@
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>2990</v>
       </c>
     </row>
@@ -38950,7 +38946,7 @@
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>2991</v>
       </c>
     </row>
@@ -38958,7 +38954,7 @@
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>2992</v>
       </c>
     </row>
@@ -39094,7 +39090,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -39114,7 +39110,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -39134,7 +39130,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -39194,7 +39190,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -39214,7 +39210,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -39254,7 +39250,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -39354,7 +39350,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -39494,7 +39490,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -39534,7 +39530,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -39574,7 +39570,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="26">
+      <c r="A31" s="24">
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -39674,7 +39670,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="27">
+      <c r="A36" s="25">
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -39734,7 +39730,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -39754,7 +39750,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="26">
+      <c r="A40" s="24">
         <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -39794,7 +39790,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="25">
+      <c r="A42" s="23">
         <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -39814,7 +39810,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="24">
+      <c r="A43" s="22">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -39834,7 +39830,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="26">
+      <c r="A44" s="24">
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -39954,7 +39950,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="25">
+      <c r="A50" s="23">
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -39974,7 +39970,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="25">
+      <c r="A51" s="23">
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -40014,7 +40010,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="25">
+      <c r="A53" s="23">
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -40034,7 +40030,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="25">
+      <c r="A54" s="23">
         <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -40074,7 +40070,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="25">
+      <c r="A56" s="23">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -40094,7 +40090,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="25">
+      <c r="A57" s="23">
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -40114,7 +40110,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="25">
+      <c r="A58" s="23">
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -40134,7 +40130,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="25">
+      <c r="A59" s="23">
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -40191,7 +40187,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="9" width="9" style="23"/>
+    <col min="6" max="9" width="9" style="21"/>
     <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
     <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
@@ -41686,7 +41682,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -41712,7 +41708,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -41884,7 +41880,7 @@
       <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>475</v>
       </c>
       <c r="J2">
@@ -41899,13 +41895,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -41922,7 +41918,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -41943,13 +41939,13 @@
       <c r="H3" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>489</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -41958,13 +41954,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="32" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -41981,7 +41977,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -42002,7 +41998,7 @@
       <c r="H4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>504</v>
       </c>
       <c r="J4">
@@ -42010,7 +42006,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -42028,7 +42024,7 @@
       <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>507</v>
       </c>
       <c r="J5">
@@ -42036,7 +42032,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -42057,13 +42053,13 @@
       <c r="H6" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>512</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -42072,13 +42068,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="32" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -42095,7 +42091,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -42116,13 +42112,13 @@
       <c r="H7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>525</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="32" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -42150,9 +42146,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="18" customWidth="1"/>
-    <col min="6" max="7" width="15.7809523809524" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="16" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
@@ -42180,16 +42176,16 @@
       <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>533</v>
       </c>
       <c r="H1" t="s">
@@ -42320,16 +42316,16 @@
       <c r="C2" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>572</v>
       </c>
       <c r="H2" t="s">
@@ -42353,10 +42349,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="32" t="s">
         <v>581</v>
       </c>
     </row>
@@ -42370,16 +42366,16 @@
       <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>571</v>
       </c>
       <c r="H3" t="s">
@@ -42403,10 +42399,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="32" t="s">
         <v>581</v>
       </c>
     </row>
@@ -42420,16 +42416,16 @@
       <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>582</v>
       </c>
       <c r="H4" t="s">
@@ -42453,10 +42449,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="34" t="s">
+      <c r="AK4" s="32" t="s">
         <v>581</v>
       </c>
     </row>
@@ -42470,16 +42466,16 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>573</v>
       </c>
       <c r="H5" t="s">
@@ -42503,10 +42499,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="32" t="s">
         <v>581</v>
       </c>
     </row>
@@ -42517,16 +42513,16 @@
       <c r="B6" t="s">
         <v>569</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>586</v>
       </c>
       <c r="H6" t="s">
@@ -42553,64 +42549,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="X6" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="34" t="s">
+      <c r="Y6" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="34" t="s">
+      <c r="AA6" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AC6" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="34" t="s">
+      <c r="AD6" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="34" t="s">
+      <c r="AE6" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="34" t="s">
+      <c r="AF6" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="34" t="s">
+      <c r="AG6" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="34" t="s">
+      <c r="AH6" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="34" t="s">
+      <c r="AI6" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="34" t="s">
+      <c r="AJ6" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="34" t="s">
+      <c r="AK6" s="32" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -42627,16 +42623,16 @@
       <c r="B7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>586</v>
       </c>
       <c r="H7" t="s">
@@ -42663,61 +42659,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="34" t="s">
+      <c r="X7" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="34" t="s">
+      <c r="Y7" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="34" t="s">
+      <c r="AB7" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="34" t="s">
+      <c r="AC7" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AD7" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="34" t="s">
+      <c r="AE7" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="34" t="s">
+      <c r="AF7" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="34" t="s">
+      <c r="AG7" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="34" t="s">
+      <c r="AH7" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="34" t="s">
+      <c r="AI7" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="34" t="s">
+      <c r="AJ7" s="32" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -42761,16 +42757,16 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>623</v>
       </c>
       <c r="H8" t="s">
@@ -42791,61 +42787,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="34" t="s">
+      <c r="X8" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="34" t="s">
+      <c r="AC8" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="34" t="s">
+      <c r="AD8" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="34" t="s">
+      <c r="AE8" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="34" t="s">
+      <c r="AF8" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AG8" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="34" t="s">
+      <c r="AI8" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -42862,16 +42858,16 @@
       <c r="C9" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>639</v>
       </c>
       <c r="H9" t="s">
@@ -42898,7 +42894,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="32" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -42919,22 +42915,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="AB9" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="34" t="s">
+      <c r="AC9" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD9" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="34" t="s">
+      <c r="AE9" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="34" t="s">
+      <c r="AF9" s="32" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -42952,7 +42948,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="34" t="s">
+      <c r="AR9" s="32" t="s">
         <v>656</v>
       </c>
     </row>
@@ -42966,16 +42962,16 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>565656</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>504</v>
       </c>
       <c r="H10" t="s">
@@ -42996,61 +42992,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="32" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="U10" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="V10" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="34" t="s">
+      <c r="X10" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="34" t="s">
+      <c r="AA10" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="34" t="s">
+      <c r="AB10" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="34" t="s">
+      <c r="AC10" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="34" t="s">
+      <c r="AD10" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="34" t="s">
+      <c r="AE10" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="34" t="s">
+      <c r="AF10" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="34" t="s">
+      <c r="AG10" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="34" t="s">
+      <c r="AH10" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="34" t="s">
+      <c r="AI10" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="34" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -43070,16 +43066,16 @@
       <c r="C11" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>666</v>
       </c>
       <c r="H11" t="s">
@@ -43103,64 +43099,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="32" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="34" t="s">
+      <c r="X11" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="Y11" s="34" t="s">
+      <c r="Y11" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="AA11" s="34" t="s">
+      <c r="AA11" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB11" s="34" t="s">
+      <c r="AB11" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC11" s="34" t="s">
+      <c r="AC11" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD11" s="34" t="s">
+      <c r="AD11" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE11" s="34" t="s">
+      <c r="AE11" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF11" s="34" t="s">
+      <c r="AF11" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="AG11" s="34" t="s">
+      <c r="AG11" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="AH11" s="34" t="s">
+      <c r="AH11" s="32" t="s">
         <v>679</v>
       </c>
-      <c r="AI11" s="34" t="s">
+      <c r="AI11" s="32" t="s">
         <v>680</v>
       </c>
-      <c r="AJ11" s="34" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>654</v>
       </c>
       <c r="AK11" t="s">
@@ -43177,16 +43173,16 @@
       <c r="C12" t="s">
         <v>622</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>682</v>
       </c>
       <c r="H12" t="s">
@@ -43207,61 +43203,61 @@
       <c r="O12" t="s">
         <v>686</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="32" t="s">
         <v>687</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="T12" s="34" t="s">
+      <c r="T12" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="34" t="s">
+      <c r="U12" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="V12" s="34" t="s">
+      <c r="V12" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="W12" s="34" t="s">
+      <c r="W12" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="X12" s="34" t="s">
+      <c r="X12" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="AA12" s="34" t="s">
+      <c r="AA12" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB12" s="34" t="s">
+      <c r="AB12" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC12" s="34" t="s">
+      <c r="AC12" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD12" s="34" t="s">
+      <c r="AD12" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE12" s="34" t="s">
+      <c r="AE12" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF12" s="34" t="s">
+      <c r="AF12" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="AG12" s="34" t="s">
+      <c r="AG12" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="AH12" s="34" t="s">
+      <c r="AH12" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="AI12" s="34" t="s">
+      <c r="AI12" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="AJ12" s="34" t="s">
+      <c r="AJ12" s="32" t="s">
         <v>694</v>
       </c>
       <c r="AK12" t="s">
@@ -43281,16 +43277,16 @@
       <c r="C13" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>790200</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>790200</v>
       </c>
       <c r="H13" t="s">
@@ -43311,58 +43307,58 @@
       <c r="O13" t="s">
         <v>700</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="32" t="s">
         <v>703</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="T13" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="U13" s="34" t="s">
+      <c r="U13" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="V13" s="34" t="s">
+      <c r="V13" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="W13" s="34" t="s">
+      <c r="W13" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="AB13" s="34" t="s">
+      <c r="AB13" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="AC13" s="34" t="s">
+      <c r="AC13" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="AD13" s="34" t="s">
+      <c r="AD13" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AE13" s="34" t="s">
+      <c r="AE13" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="AF13" s="34" t="s">
+      <c r="AF13" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="34" t="s">
+      <c r="AG13" s="32" t="s">
         <v>705</v>
       </c>
-      <c r="AH13" s="34" t="s">
+      <c r="AH13" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="AI13" s="34" t="s">
+      <c r="AI13" s="32" t="s">
         <v>707</v>
       </c>
-      <c r="AJ13" s="34" t="s">
+      <c r="AJ13" s="32" t="s">
         <v>694</v>
       </c>
       <c r="AK13" t="s">
@@ -43582,19 +43578,19 @@
       <c r="K2" t="s">
         <v>734</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="32" t="s">
         <v>736</v>
       </c>
     </row>
@@ -43626,16 +43622,16 @@
       <c r="J3" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T3" t="s">
@@ -43688,7 +43684,7 @@
       <c r="O4" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T4" t="s">
@@ -43744,10 +43740,10 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="32" t="s">
         <v>750</v>
       </c>
       <c r="T5" t="s">
@@ -43803,7 +43799,7 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="32" t="s">
         <v>755</v>
       </c>
       <c r="T6" t="s">
@@ -43844,10 +43840,10 @@
       <c r="J7" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="32" t="s">
         <v>759</v>
       </c>
       <c r="T7" t="s">
@@ -43950,7 +43946,7 @@
       <c r="N9" t="s">
         <v>754</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T9" t="s">
@@ -44041,7 +44037,7 @@
       <c r="L11" t="s">
         <v>772</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="32" t="s">
         <v>773</v>
       </c>
       <c r="T11" t="s">
@@ -44097,7 +44093,7 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="32" t="s">
         <v>777</v>
       </c>
       <c r="O12">
@@ -44106,10 +44102,10 @@
       <c r="P12">
         <v>3</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="32" t="s">
         <v>778</v>
       </c>
     </row>
@@ -44153,7 +44149,7 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="32" t="s">
         <v>782</v>
       </c>
       <c r="O13">
@@ -44162,7 +44158,7 @@
       <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="32" t="s">
         <v>736</v>
       </c>
     </row>
@@ -44206,7 +44202,7 @@
       <c r="N14" t="s">
         <v>744</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T14" t="s">
@@ -44259,7 +44255,7 @@
       <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="32" t="s">
         <v>777</v>
       </c>
       <c r="O15">
@@ -44268,7 +44264,7 @@
       <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="32" t="s">
         <v>736</v>
       </c>
     </row>
@@ -44309,7 +44305,7 @@
       <c r="L16" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" s="32" t="s">
         <v>791</v>
       </c>
       <c r="T16" t="s">
@@ -44365,7 +44361,7 @@
       <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="32" t="s">
         <v>782</v>
       </c>
       <c r="O17">
@@ -44374,10 +44370,10 @@
       <c r="P17">
         <v>4</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="32" t="s">
         <v>795</v>
       </c>
     </row>
@@ -44421,7 +44417,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="32" t="s">
         <v>799</v>
       </c>
       <c r="O18">
@@ -44430,7 +44426,7 @@
       <c r="P18">
         <v>8</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="32" t="s">
         <v>736</v>
       </c>
     </row>
@@ -44480,7 +44476,7 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="32" t="s">
         <v>755</v>
       </c>
       <c r="T19" t="s">
@@ -44536,7 +44532,7 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="32" t="s">
         <v>777</v>
       </c>
       <c r="O20">
@@ -44545,7 +44541,7 @@
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q20" s="32" t="s">
         <v>736</v>
       </c>
     </row>
@@ -44598,10 +44594,10 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="R21" s="32" t="s">
         <v>750</v>
       </c>
       <c r="T21" t="s">
@@ -44657,7 +44653,7 @@
       <c r="L22" t="s">
         <v>810</v>
       </c>
-      <c r="Q22" s="34" t="s">
+      <c r="Q22" s="32" t="s">
         <v>791</v>
       </c>
       <c r="T22" t="s">
@@ -44707,28 +44703,28 @@
       <c r="K29" t="s">
         <v>734</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="Q29" s="34" t="s">
+      <c r="Q29" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="X29" s="34" t="s">
+      <c r="X29" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Y29" s="34" t="s">
+      <c r="Y29" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Z29" s="34" t="s">
+      <c r="Z29" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AA29" t="s">
@@ -44743,13 +44739,13 @@
       <c r="AD29" t="s">
         <v>584</v>
       </c>
-      <c r="AE29" s="34" t="s">
+      <c r="AE29" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF29" s="34" t="s">
+      <c r="AF29" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AG29" s="34" t="s">
+      <c r="AG29" s="32" t="s">
         <v>584</v>
       </c>
     </row>
@@ -44790,16 +44786,16 @@
       <c r="L30" t="s">
         <v>813</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T30" t="s">
@@ -44814,13 +44810,13 @@
       <c r="W30" t="s">
         <v>741</v>
       </c>
-      <c r="X30" s="34" t="s">
+      <c r="X30" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Y30" s="34" t="s">
+      <c r="Y30" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Z30" s="34" t="s">
+      <c r="Z30" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AA30" t="s">
@@ -44832,16 +44828,16 @@
       <c r="AC30" t="s">
         <v>584</v>
       </c>
-      <c r="AD30" s="34" t="s">
+      <c r="AD30" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AE30" s="34" t="s">
+      <c r="AE30" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF30" s="34" t="s">
+      <c r="AF30" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AG30" s="34" t="s">
+      <c r="AG30" s="32" t="s">
         <v>584</v>
       </c>
     </row>
@@ -44891,7 +44887,7 @@
       <c r="O31" t="s">
         <v>745</v>
       </c>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T31" t="s">
@@ -44903,13 +44899,13 @@
       <c r="V31" t="s">
         <v>746</v>
       </c>
-      <c r="X31" s="34" t="s">
+      <c r="X31" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Y31" s="34" t="s">
+      <c r="Y31" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Z31" s="34" t="s">
+      <c r="Z31" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AA31" t="s">
@@ -44921,16 +44917,16 @@
       <c r="AC31" t="s">
         <v>584</v>
       </c>
-      <c r="AD31" s="34" t="s">
+      <c r="AD31" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AE31" s="34" t="s">
+      <c r="AE31" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF31" s="34" t="s">
+      <c r="AF31" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AG31" s="34" t="s">
+      <c r="AG31" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AH31">
@@ -44986,10 +44982,10 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="34" t="s">
+      <c r="Q32" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="R32" s="32" t="s">
         <v>750</v>
       </c>
       <c r="T32" t="s">
@@ -45001,13 +44997,13 @@
       <c r="V32" t="s">
         <v>751</v>
       </c>
-      <c r="X32" s="34" t="s">
+      <c r="X32" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Y32" s="34" t="s">
+      <c r="Y32" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Z32" s="34" t="s">
+      <c r="Z32" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AA32" t="s">
@@ -45019,16 +45015,16 @@
       <c r="AC32" t="s">
         <v>584</v>
       </c>
-      <c r="AD32" s="34" t="s">
+      <c r="AD32" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AE32" s="34" t="s">
+      <c r="AE32" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF32" s="34" t="s">
+      <c r="AF32" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AG32" s="34" t="s">
+      <c r="AG32" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AH32">
@@ -45084,7 +45080,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="32" t="s">
         <v>755</v>
       </c>
       <c r="T33" t="s">
@@ -45093,7 +45089,7 @@
       <c r="U33" t="s">
         <v>740</v>
       </c>
-      <c r="X33" s="34" t="s">
+      <c r="X33" s="32" t="s">
         <v>584</v>
       </c>
       <c r="Y33" t="s">
@@ -45114,13 +45110,13 @@
       <c r="AD33" t="s">
         <v>584</v>
       </c>
-      <c r="AE33" s="34" t="s">
+      <c r="AE33" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF33" s="34" t="s">
+      <c r="AF33" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AG33" s="34" t="s">
+      <c r="AG33" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AI33">
@@ -45164,10 +45160,10 @@
       <c r="L34" t="s">
         <v>813</v>
       </c>
-      <c r="Q34" s="34" t="s">
+      <c r="Q34" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="R34" s="34" t="s">
+      <c r="R34" s="32" t="s">
         <v>759</v>
       </c>
       <c r="T34" t="s">
@@ -45197,10 +45193,10 @@
       <c r="AD34" t="s">
         <v>584</v>
       </c>
-      <c r="AE34" s="34" t="s">
+      <c r="AE34" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF34" s="34" t="s">
+      <c r="AF34" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AG34" t="s">
@@ -45259,10 +45255,10 @@
       <c r="P35">
         <v>12</v>
       </c>
-      <c r="Q35" s="34" t="s">
+      <c r="Q35" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="R35" s="34" t="s">
+      <c r="R35" s="32" t="s">
         <v>759</v>
       </c>
       <c r="T35" t="s">
@@ -45292,10 +45288,10 @@
       <c r="AD35" t="s">
         <v>584</v>
       </c>
-      <c r="AE35" s="34" t="s">
+      <c r="AE35" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF35" s="34" t="s">
+      <c r="AF35" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AG35" t="s">
@@ -45384,7 +45380,7 @@
       <c r="AD36" t="s">
         <v>584</v>
       </c>
-      <c r="AE36" s="34" t="s">
+      <c r="AE36" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AF36" t="s">
@@ -45443,7 +45439,7 @@
       <c r="N37" t="s">
         <v>754</v>
       </c>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="32" t="s">
         <v>739</v>
       </c>
       <c r="T37" t="s">
@@ -45473,7 +45469,7 @@
       <c r="AD37" t="s">
         <v>584</v>
       </c>
-      <c r="AE37" s="34" t="s">
+      <c r="AE37" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AF37" t="s">
@@ -45556,10 +45552,10 @@
       <c r="AD38" t="s">
         <v>584</v>
       </c>
-      <c r="AE38" s="34" t="s">
+      <c r="AE38" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="AF38" s="34" t="s">
+      <c r="AF38" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AG38" t="s">
@@ -45609,7 +45605,7 @@
       <c r="L39" t="s">
         <v>813</v>
       </c>
-      <c r="Q39" s="34" t="s">
+      <c r="Q39" s="32" t="s">
         <v>773</v>
       </c>
       <c r="T39" t="s">
@@ -45639,7 +45635,7 @@
       <c r="AD39" t="s">
         <v>584</v>
       </c>
-      <c r="AE39" s="34" t="s">
+      <c r="AE39" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AF39" t="s">
@@ -45725,7 +45721,7 @@
       <c r="AD40" t="s">
         <v>584</v>
       </c>
-      <c r="AE40" s="34" t="s">
+      <c r="AE40" s="32" t="s">
         <v>584</v>
       </c>
       <c r="AF40" t="s">

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9780" tabRatio="796" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="14100" windowHeight="12975" tabRatio="796" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6949" uniqueCount="2719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="2719">
   <si>
     <t>Count</t>
   </si>
@@ -2915,7 +2915,7 @@
     <t>&lt;fc=186AE7&gt;&lt;fs=40&gt;Уважаемый торговец&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В конце тактического действия игрока:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку потратить 2 товара или 2 продукции, чтобы разместить базу из его снабжения на подконтрольной ему планете в активной системе.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В конце тактического действия игрока:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку потратить 2 товара или 2 продук-&lt;br&gt;ции, чтобы разместить базу из его снабжения на подконтроль-&lt;br&gt;ной ему планете в активной системе.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Просто доверьтесь мне, эти товары будут стоить вдвое больше через несколько месяцев... Откуда я их взял? Просто проверьте манифест, и если этого недостаточно... Просто поверьте мне на слово, эти товары надёжны».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -2954,7 +2954,7 @@
     <t>&lt;fc=186AE7&gt;&lt;fs=40&gt;Адмирал Торгового флота&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того, как игрок активировал систему (кроме Мекатол-Рекса):&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете разместить 1 базу на подконтрольной вам планете в этой системе, конвертировать вашу продукцию в товары и использовать способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; каждого вашего отряда в активной системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того, как игрок активировал систему (кроме Мекатол-Рекса):&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете разместить 1 базу на подкон-&lt;br&gt;трольной вам планете в этой системе, конвертировать вашу продукцию в&lt;br&gt;товары и использовать способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; каждого вашего&lt;br&gt;отряда в активной системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Титус Флавий стоял на мос-&lt;br&gt;тике своего корабля и говорил&lt;br&gt;в микрофон. Его слова были обращены к экипажу, к флоту и к самой планете внизу: «Они не возьмут наш дом так легко».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3017,7 +3017,7 @@
     <t>&lt;fc=13DFF1&gt;&lt;fs=40&gt;Полемарх&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите отряды из вашего снабжения в количестве, равном вашим начальным отрядам, в любой комбинации в космосе любых систем, в которых есть хотя бы 1 ваше сооружение и нет кораблей других игроков, или на подконтрольных вам планетах.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите отряды из вашего снабжения в количестве, равном вашим начальным отрядам, в любой комбинации в космосе любых систем, в которых есть хотя бы 1 ваше сооружение и нет кораблей других игроков, или на подконтрольных&lt;br&gt;вам планетах.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;40;1;0;1;0&gt;&lt;ls=62&gt;«Срок истёк, требования не выполнены. Теперь действовать будем мы». Эмиссар начал отве-&lt;br&gt;чать, но его прервали — по связи Полемарх услышал сигналы тре-&lt;br&gt;воги и панический голос, произно-&lt;br&gt;сящий: «Они — они повсюду!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3035,7 +3035,7 @@
     <t>&lt;fc=AD5F51&gt;&lt;fs=40&gt;Наблюдатель&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок сбрасывает или изгоняет карту действий:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку взять 1 карту действий.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок сбрасывает или изгоняет карту действий:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить&lt;br&gt;этому игроку взять 1 карту действий.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Скхоту X-12 было поручено анализировать страте-&lt;br&gt;гические решения, учиться на них и пересматривать протоколы по мере необходимости. Боевые дни остались далеко позади.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3062,7 +3062,7 @@
     <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt; у вас должно быть на игровом поле хотя бы 10 отрядов пехоты.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как вы получаете контроль над планетой во время тактического действия:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете сбросить 1 карту действий, чтобы разместить или переместить мех на эту планету.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как вы получаете контроль над планетой во время тактического действия:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете сбросить 1 карту действий, чтобы разместить или переместить мех на&lt;br&gt;эту планету.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;Корил Феракс оторвал собственное лицо во время безумного наземного боя в джунглях Сакулага. Теперь он координирует операции вторжения, чтобы обеспечить быстрое развёртывание цимийских механизированных дивизий.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3125,7 +3125,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должна быть хотя бы 1 технология улучшения корабля.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет красному требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В начале космического боя в системе, в которой есть 3 или более разных типов ваших кораблей (кроме истребителей), нанесите 1 попадание.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет красному требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В начале космического боя в системе, в которой есть 3 или более разных типов ваших кораблей (кроме истре-&lt;br&gt;бителей), нанесите&lt;br&gt;1 попадание.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Лицо капитана Ментаков исказилось от ужаса, когда первый залп маленького флота в одно мгновение уничтожил один из её ведущих крейсеров.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3188,7 +3188,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; в игре должен быть хотя бы 1 закон.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда любой игровой эффект позволяет вам выполнить общую цель, можете вместо этого взять&lt;br&gt;1 секретную цель.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда любой игровой эффект позволяет вам выполнить общую цель, можете вместо этого взять 1 секретную цель.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Высшая судья Мандата обладает успокаивающей аурой. Её голос звучит, как гармония.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3206,7 +3206,7 @@
     <t>&lt;fc=DDD143&gt;&lt;fs=40&gt;Живая Воля&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;за каждый жетон сигила на игровом поле раскройте 1 карту политики. Примените эффект каждой карты политики в любом порядке, как если бы вы отдали 1 голос за результат по вашему выбору. Другие игроки не могут применять способности во время этого действия.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;за каждый жетон сигила на игровом поле раскройте 1 карту политики. Примените эффект каждой карты полити-&lt;br&gt;ки в любом порядке, как если бы вы отдали 1 голос за результат по вашему выбору. Другие игроки не могут применять способности во время&lt;br&gt;этого действия.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Мы — реквизит на сцене жизни, и независимо от того, насколько нежная, насколько изысканная... Ложь останется ложью».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3224,7 +3224,7 @@
     <t>&lt;fc=06FAB3&gt;&lt;fs=40&gt;Дилер Чёрного Рынка&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В начале хода игрока:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку убрать прикрепление с подконтрольной ему неродной планеты и прикрепить его к подконтрольной ему неродной планете (кроме Мекатол-Рекса), в этой или смежной системе.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В начале хода игрока:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку убрать прикрепление с подконтрольной ему неродной планеты и прикрепить его к подконтрольной ему неродной планете (кроме Мекатол-Рекса)&lt;br&gt;в этой или смежной системе.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Глаза Сала Гавды метались из стороны в сторону, пока он думал. «Потребуется 2 недели, чтобы увезти артефакт с планеты, и ещё 4, чтобы переправить его к месту назначения; однако вам нужно оплатить наши услуги заранее, если только вы не готовы рискнуть сохранностью ваших артефактов».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3266,7 +3266,7 @@
     <t>&lt;fc=06FAB3&gt;&lt;fs=36&gt;Администратор Тысячи Разумов&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите 2 истребителя из вашего снабжения в каждой системе, в которой есть хотя бы 1 подконтрольная вам планета и нет кораблей других игроков. Затем можете убрать 1 прикрепление с любой планеты в системе, в которой есть хотя бы 1 ваш корабль, и прикрепить его к 1 планете в вашей родной системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите 2 истребителя из вашего снабжения в каждой системе, в которой есть хотя бы 1 подконтрольная вам планета и нет кораблей других игроков. Затем можете убрать 1 прик-&lt;br&gt;репление с любой планеты в системе, в которой есть хотя бы 1 ваш корабль, и прикрепить его к 1 планете в вашей родной системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;Бануа Гоуэн взглянул на своего помощника, а затем снова на голограмму, отображающую различные миры под контролем Флорзен. Он кивнул, произнёс: «Время пришло. Разбудите их». После этого на поверхности каждого мира появились странные символы.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3284,7 +3284,7 @@
     <t>&lt;fc=1ABCB6&gt;&lt;fs=40&gt;Дружелюбный Дипломат&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта обладает способ-&lt;br&gt;ностью карт способностей подконтрольных легендарных планет, даже если эти карты перевёрнуты.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Вы можете позволить другому игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта обладает текстовой способностью каждой карты способностей подконтроль-&lt;br&gt;ных легендарных планет, даже если эти карты перевёрнуты.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Вы можете позволить друго-&lt;br&gt;му игроку использовать способность этой карты.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Известный в совете, Кордо имел репутацию переговорщика по совместным проектам по всей галактике.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3308,7 +3308,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; на игровом поле нет неподконтрольных планет (кроме легендарных).&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время тактического действия, после того, как вы получаете контроль&lt;br&gt;над неродной планетой в активной системе,&lt;br&gt;в которой есть хотя бы&lt;br&gt;1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете произвести 1 корабль в этой системе.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время тактического действия, после того, как&lt;br&gt;вы получаете контроль&lt;br&gt;над неродной планетой&lt;br&gt;в активной системе,&lt;br&gt;в которой есть хотя&lt;br&gt;бы 1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете произвести 1&lt;br&gt;корабль в этой системе.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Первый президент Содружества была избрана за то, что была миротворцем и дипломатом. Это было&lt;br&gt;мирное время.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3326,7 +3326,7 @@
     <t>&lt;fc=1ABCB6&gt;&lt;fs=40&gt;Вдохновляющий Оратор&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;подготовьте подкон-&lt;br&gt;трольную неродную планету (кроме Мекатол-Рекса), уберите все отряды с этой планеты в снабжение и прикрепите к ней эту карту.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Отряды нельзя высаживать, производить или размещать на этой планете.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;подготовьте подкон-&lt;br&gt;трольную неродную планету (кроме Мекатол-Рекса), уберите все отряды&lt;br&gt;с этой планеты в снабжение и прикрепите к ней эту карту.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Отряды нельзя высаживать, производить или размещать&lt;br&gt;на этой планете.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Завершение его речи было встречено рёвом тысяч, когда Граф отступил от трибуны и посмотрел на звёзды. Там — он знал — галактика впервые обретает свой голос.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3344,7 +3344,7 @@
     <t>&lt;fc=607F97&gt;&lt;fs=40&gt;Вестники Рейдов&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда активный игрок наносит хотя бы 1 попадание во время раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку нанести 1 дополнительное попадание.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда активный игрок наносит хотя бы 1 попада-&lt;br&gt;ние во время раунда боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку нанести 1 дополнительное попадание.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Этот день надолго запомнится тем, кто будет после нас. Так дадим же им больше поводов воспевать наши деяния и пить в нашу честь!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3431,7 +3431,7 @@
     <t>&lt;fc=1AE6E1&gt;&lt;fs=40&gt;Смотритель Миров&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок производит хотя бы 1 отряд:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку либо добавить +2 к общему значению производства, либо получить 1 товар.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок производит хотя бы 1 отряд:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку либо добавить +2 к общему значению производства, либо&lt;br&gt;получить 1 товар.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Судостроение Готи — загадка биоинженерии... на грани колдовства.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3467,7 +3467,7 @@
     <t>&lt;fc=1AE6E1&gt;&lt;fs=40&gt;Всематерь Готи&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;можете заменить 1 ваш корабль (кроме истребителей) другим кораблём из своего снаб-&lt;br&gt;жения в каждой системе. Цена нового корабля может превышать цену заменяемого на 2 или меньше.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;можете заменить 1 ваш корабль (кроме истребителей) дру-&lt;br&gt;гим кораблём из своего снабжения в каждой системе. Цена нового корабля может превышать цену заменяемого на 2 или меньше.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Флоты множились на глазах у разведчиков — колоссальные, пульсирующие, клубящиеся в космической бездне. Зрелище устрашающего биологического могущества, сравнимого только с Вуил’Райт.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3485,7 +3485,7 @@
     <t>&lt;fc=F1B823&gt;&lt;fs=40&gt;Пламя Консорциума&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 отряд игрока использует спо-&lt;br&gt;собность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы добавить +3 к общему значению произ-&lt;br&gt;водства отрядов этого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 отряд игрока использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы добавить +3 к общему значению произ-&lt;br&gt;водства отрядов этого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;У Консорциума долгая и славная история промышленного раз-&lt;br&gt;вития на границах цивилиза-&lt;br&gt;ции, и зачастую одной лишь его репутации хватает, чтобы привлекать новых инженеров.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3506,7 +3506,7 @@
     <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; у вас должны быть корабли (кроме истребителей) в одной системе с общей ценой не менее 10.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы используете спо-&lt;br&gt;собность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt; хотя бы 1 вашего отряда:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете добавить +1 к общему значению производства ваших отрядов за каждую вашу базу на игровом поле.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы используете спо-&lt;br&gt;собность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt; хотя бы 1 вашего отряда:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете добавить +1 к обще-&lt;br&gt;му значению производства ваших отрядов за каждую вашу базу на игровом поле.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Консорциум известен своей беспрецедентной трудовой этикой, хотя задаваться вопросами о методах её достижения считается&lt;br&gt;дурным тоном.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3542,7 +3542,7 @@
     <t>&lt;fc=F6DF8E&gt;&lt;fs=40&gt;Оратор&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как игрок разведал легендарную планету или планету с технологической специализацией:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку получить 2 товара.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как игрок разведал легендарную планету или планету с технологической специализацией:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку получить&lt;br&gt;2 товара.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Клодхо был одним из лучших ораторов Авгуров, мастером излагать истины Оракула простым языком, понятным каждому.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3566,7 +3566,7 @@
     <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt; выиграйте бой в системе, в которой есть леген-&lt;br&gt;дарная планета или планета с технологической специализацией.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет жёлтому требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Когда вы отдаёте хотя бы 1 голос, отдайте 1 дополни-&lt;br&gt;тельный голос за каждые 2 изученные вами технологии.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет жёлтому требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Когда вы отдаёте хотя бы&lt;br&gt;1 голос, отдайте 1 допол-&lt;br&gt;нительный голос за&lt;br&gt;каждые 2 изученные&lt;br&gt;вами технологии.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;Лачис была удивительно одарённой чтецом, способной разобраться в самых глубоких бреднях ИИ. Она нашла новое применение своим талантам в махинациях галактического совета.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3587,7 +3587,7 @@
     <t>&lt;fc=F6DF8E&gt;&lt;fs=40&gt;Ткачиха&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;возьмите 3 карты целей из одной любой колоды общих целей. Вы можете заменить карту общей цели на вашем планшете фракции.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем верните оставшиеся карты под низ соответствующих колод и изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;возьмите 3 карты целей из одной любой колоды общих целей. Вы можете заменить карту общей цели на вашем планшете фракции.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем верните оставшиеся карты&lt;br&gt;под низ соответствующих колод и изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;У Оракула всегда будет ответ; важнее всего задать правильный вопрос.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3623,7 +3623,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должно быть на игровом поле 2 жетона славы.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;При исследовании технологии улучшения, каждая ваша технология улучшения может удовлетворять 1 требованию, которое она разделяет с исследуемой вами технологией.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;При исследовании техно-&lt;br&gt;логии улучшения, каждая ваша технология улучшения может удовлетворять 1 требованию, которое она разделяет с исследуемой вами технологией.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Твунговот умел выжимать из солдат больше, чем они могли дать, хотя обсуждать, как именно, было бы невежливо.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3641,7 +3641,7 @@
     <t>&lt;fc=F4191E&gt;&lt;fs=40&gt;Почётный Скальд&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;за каждую систему, в которой есть жетон славы, можете убрать 1 жетона приказа в этой системе или смежной с ней с игрового поля и получить 1 жетон приказа (при возможности).&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;за каждую систему, в которой есть жетон славы, можете убрать 1 жетона приказа в этой системе или смежной с ней с&lt;br&gt;игрового поля и получить 1 жетон приказа (при возможности).&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Игеньяд улыбнулся, созерцая величайшее войско, которое когда-либо собирал Кьяленгард. Слава, которую ждал его народ, останется в веках.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3683,7 +3683,7 @@
     <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; у вас должно быть хотя бы 4 фрагмента реликвий.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет синему требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы отступаете, если в активной системе нет вашего жетона приказа, вы не размещаете жетон приказа в систему, в которую отступили ваши отряды.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет синему требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы отступаете, если в активной системе нет вашего жетона приказа, вы не размещаете жетон приказа&lt;br&gt;в систему, в которую&lt;br&gt;отступили ваши отряды.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Известный уклонением от захвата, бесследным исчезновением и безрассудными прыжковыми маневрами, Кадо «Дым» С’мах-Кар — известный пилот и контрабандист.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3704,7 +3704,7 @@
     <t>&lt;fc=D53815&gt;&lt;fs=40&gt;Коллекционер&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;возьмите количество карт реликвий, равное количеству игроков в игре, возьмите 1 из них и верните остальные в колоду реликвий.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем перемешайте колоду реликвий и изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;возьмите количество&lt;br&gt;карт реликвий, равное количеству игроков в игре, возьмите 1 из них&lt;br&gt;и верните остальные в колоду реликвий.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем перемешайте колоду&lt;br&gt;реликвий и изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Когда-то Дорран Грифин был всего лишь чудаковатым зат-&lt;br&gt;ворником, собиравшим древ-&lt;br&gt;ности, но теперь он активно руководит своим братством воров и скитальцев.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3779,7 +3779,7 @@
     <t>&lt;fc=FFFFFF&gt;&lt;fs=40&gt;Искупление и Наказание&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как игрок выиграл наземный бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку взять 1 случайный фрагмент реликвии противника (при возможности).&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как игрок выиграл наземный бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку взять 1 случайный фрагмент реликвии противника&lt;br&gt;(при возможности).&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Королевы вынесли приговор вашему миру. Пусть это станет вам уроком».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3803,7 +3803,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; уничтожьте последние отряды игрока в системе.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Во время первого раунда боя, вы можете отменить 1 попадание.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Во время первого раунда&lt;br&gt;боя, вы можете отменить&lt;br&gt;1 попадание.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Корталии верят, что только самые стойкие из их воинов будут удостоены высшей чести перерождения&lt;br&gt;в Рыцарей Королев.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3824,7 +3824,7 @@
     <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;br&gt;у вас должно быть 3 выполненные цели.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете изгнать эту карту, чтобы выбрать 1 из реликвий вашего противника и взять её себе. Затем, за каждую подконтрольную вам легендарную планету или планету с технологической специализацией, получите 1 жетон приказа.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы выиграли бой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете изгнать эту карту, чтобы выбрать 1 из реликвий вашего противника и взять её себе. Затем,&lt;br&gt;за каждую подконтрольную вам легендарную планету или планету с технологической специализацией, получите 1 жетон приказа.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;42;1;0;1;0&gt;&lt;ls=65&gt;Королевы и подчинённые им Судьи, похоже, в последнее время одержимы коллекционированием так называемых «священных» реликвий. Учёные теряются в догадках о причинах этой странной мании.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3842,7 +3842,7 @@
     <t>&lt;fc=B0DE1C&gt;&lt;fs=40&gt;Королева Чумы&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После того, как игрок проиг-&lt;br&gt;рывает наземный бой или завершил его вничью:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку пополнить продукцию. Затем разместите на подконтрольной вам планете количество отрядов пехоты, равное значению продукции этого игрока −1.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После того, как игрок проигрывает наземный бой или завершил его вничью:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку пополнить продукцию. Затем разместите на подконтрольной&lt;br&gt;вам планете количество отрядов пехоты, равное значению&lt;br&gt;продукции этого игрока −1.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Поистине замечательно, как что-то столь малое может сделать так много».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3887,7 +3887,7 @@
     <t>&lt;fc=B0DE1C&gt;&lt;fs=40&gt;Повелитель Порчи&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете прикрепить эту карту к одной из ваших карт стратегий. Её значение инициативы равно 9. Игрок, играющий за Общину Кайро, получает любые товары, помещённые на эту карту стратегии. Остальные игроки могут применять только 1 эффект основной способности этой карты стратегии. &lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете прикрепить эту карту к одной&lt;br&gt;из ваших карт стратегий. Её значение инициативы равно 9. Игрок, играющий за Общину Кайро, получает любые товары, помещённые на эту карту стратегии. Остальные игроки могут применять&lt;br&gt;только 1 эффект основной способности этой карты стратегии. &lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Теперь все могут познать наше славное страдание!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3929,7 +3929,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; хотя бы 7 фрагментов реликвий были изгнаны.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы разведали планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете разместить 1 отряд пехоты из вашего снабже-&lt;br&gt;ния на этой планете.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы разведали планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете разместить 1 отряд пехоты из вашего снабжения на этой планете.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Ненавижу всё это старьё, оно просто собирает здесь пыль. Мы должны что-то с этим сделать!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3965,7 +3965,7 @@
     <t>&lt;fc=FCAD04&gt;&lt;fs=40&gt;Офицер разведки&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В конце хода игрока:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку разместить 2 истребителя из его снабжения в космосе системы, в которой есть хотя бы 1 его корабль.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В конце хода игрока:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку разместить 2 истребителя из его снабже-&lt;br&gt;ния в космосе системы, в которой есть хотя бы 1&lt;br&gt;его корабль.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Даже Лорды и Леди Ли-Джо не осмелились бы плохо говорить о Вас-Ре; «Теневая принцесса» славилась умением вытягивать чужие тайны.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -3989,7 +3989,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должно быть на игровом поле хотя бы 4 прикреп-&lt;br&gt;лённых карты ловушек.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время раунда боя, в котором участвует не более 1 вашего корабля (кроме истребителей) или 1 вашего отряда пехоты:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете выбрать 1 ваш отряд в этом бою; этот отряд бросает 1 дополни-&lt;br&gt;тельный кубик.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время раунда боя, в котором участвует не более 1 вашего корабля (кроме истребителей) или 1&lt;br&gt;вашего отряда пехоты:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете выбрать 1 ваш отряд&lt;br&gt;в этом бою; этот отряд бро-&lt;br&gt;сает 1 дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Мой удел — смерть.&lt;br&gt;Моя слава — бессмертие».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4085,7 +4085,7 @@
     <t>&lt;fc=8B55DF&gt;&lt;fs=40&gt;Разработка оружия&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок получает технологию улучшения:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку потратить 1 жетон приказа из его стратегического резерва, чтобы исследовать 1 техно-&lt;br&gt;логию того же цвета, что и любое из требований этой технологии улучшения.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок получает технологию улучшения:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку потратить 1 жетон приказа из его стратегического резерва, чтобы исследовать 1 технологию того же цвета, что и любое из требований этой технологии улучшения.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;ИИ Мирведы обычно проводит расчеты параллельно на всех доступных модулях, миними-&lt;br&gt;зируя потери данных при пере-&lt;br&gt;даче, которые ограничивают обычных ученых.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4127,7 +4127,7 @@
     <t>&lt;fc=8B55DF&gt;&lt;fs=40&gt;Центральный ИИ&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите до 3 ПСО из вашего снабжения на подконтрольных вам планетах. Выберите 1 систему; ваши ПСО могут использовать свою способ-&lt;br&gt;ность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; против кораблей в этой системе и способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«БОМБАРДИРОВКА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; против отрядов на одной планете в этой системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;разместите до 3 ПСО из вашего снабжения на подконтрольных вам планетах. Выберите 1 систему; ваши ПСО могут использовать свою способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«КОСМИЧЕСКАЯ ПУШКА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; против кораблей в этой системе и способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«БОМБАРДИ-&lt;br&gt;РОВКА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; против отрядов на одной планете&lt;br&gt;в этой системе.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;ИИ Мирведы на самом деле представляет собой кластер интеллектов, каждый из которых обладает личностью и специализацией. Одни сохраняют безупречный контроль, другие — совершенно безумны, и с ними консультируются только в случае крайней необходимости. &lt;/ls&gt;&lt;/f&gt;</t>
@@ -4145,7 +4145,7 @@
     <t>&lt;fc=E6466F&gt;&lt;fs=40&gt;Тускло-зелёный&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок производит хотя бы 1 отряд:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку разместить 1 из произведённых отрядов в космосе смежной системы, в которой нет кораблей другого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда игрок производит хотя бы 1 отряд:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить&lt;br&gt;этому игроку разместить 1&lt;br&gt;из произведённых отрядов&lt;br&gt;в космосе смежной системы,&lt;br&gt;в которой нет кораблей другого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Не до конца понятно, как мерцающие воспринимают пространство и время, но работая сообща, они демонстрируют удивительное понимание логистических проблем в военном деле.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4190,7 +4190,7 @@
     <t>&lt;fc=E6466F&gt;&lt;fs=40&gt;Насыщенно-Пурпурный&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;для каждой из систем, где есть ваши корабли, вы можете выбрать 1 корабль в системе и разместить в ней 1 корабль того&lt;br&gt;же типа из вашего снабжения.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;для каждой из систем,&lt;br&gt;где есть ваши корабли, вы можете выбрать 1 корабль в системе и разместить в ней 1 корабль того&lt;br&gt;же типа из вашего снабжения.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Здесь какая-то ошибка. Датчики неисправны!» Сенсоры фиксировали флоты, которые невозможно было собрать за такой короткий срок. И тем не менее, они были там.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4208,7 +4208,7 @@
     <t>&lt;fc=F939F4&gt;&lt;fs=40&gt;Предвестник&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;Перед тем как игрок бросит кубик:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете вместо этого перевернуть эту карту и выбрать 1 кубик пред-&lt;br&gt;знаменования рядом с планшетом фракции игрока, играющего за Мико-Ментори; результат броска кубика равен значению кубика предзнаменования.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;Перед тем как игрок бросит кубик:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете вместо этого перевер-&lt;br&gt;нуть эту карту и выбрать 1 кубик предзнаменования рядом с планшетом фракции игрока, играющего за Мико-Ментори; результат броска кубика&lt;br&gt;равен значению кубика предзнаменования.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Мой первый дедушка это помнит. Или это мой двоюрод-&lt;br&gt;ный брат?.. Моя мать?.. Мои предки были вкусными... Я не могу вспомнить, кто именно, но это точно они научили меня этому!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4235,7 +4235,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должно быть 4 продукции на вашем планшете фракции.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вашим отрядам нанесено 1 или более попаданий во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете потратить 1 продукцию или 1 товар, чтобы отменить 1 из этих попаданий.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вашим отрядам нанесено 1 или более попаданий во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете потратить 1 продукцию или 1 товар, чтобы отменить 1 из&lt;br&gt;этих попаданий.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я наставляю юные ростки, и я охраняю их. Они находятся под моей опекой, и я учу их путям войны и мира».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4253,7 +4253,7 @@
     <t>&lt;fc=F939F4&gt;&lt;fs=40&gt;Некромант&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;Когда герой другого игрока должен быть изгнан:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Вместо этого прикрепите его к этой карте. Эта карта обладает текстовой способностью каждой прикреплённой карты героев.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда эта карта должна быть изгнана, изгоните также все её прикрепления.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;Когда герой другого игрока должен быть изгнан:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Вместо этого прикрепите его к этой карте. Эта карта обладает текстовой способ-&lt;br&gt;ностью каждой прикреплённой карты героев.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда эта карта должна быть изгнана, изгоните также все её прикрепления.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я помню древнейшие воспо-&lt;br&gt;минания нашего народа, мой род восходит к первым... Но я не помню этих вещей. Но, возможно, с твоей помощью мы сможем вспомнить их вместе».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4271,7 +4271,7 @@
     <t>&lt;fc=EDECEC&gt;&lt;fs=40&gt;Тайный советник&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;Когда игрок должен применить способность отряда (кроме способности &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;) в системе с аномалией или смежной с ней:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы запретить этому отряду использовать эту способность.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;Когда игрок должен применить способность отряда (кроме способности &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=-7;-15&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;)&lt;br&gt;в системе с аномалией или смежной с ней:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы запретить этому отряду использовать эту способность.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Защитная система необъяс-&lt;br&gt;нимым образом отказалась стрелять, и инженеры слишком поздно заметили внештатные показания датчиков основного блока питания.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4295,7 +4295,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должны быть отряды в 2 неродных системах с различными аномалиями.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 ваш повреждённый отряд совершает боевые проверки:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;До 2 из этих отрядов могут бросить дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 ваш повреждённый отряд совершает боевые&lt;br&gt;проверки:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;До 2 из этих отрядов могут бросить дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Высокодисциплинированные инквизиторы Нивин не терпят неподчинения. По этой причине каждый боевой корабль нивин будет отчаянно сражаться до самого конца.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4313,7 +4313,7 @@
     <t>&lt;fc=EDECEC&gt;&lt;fs=40&gt;Звездный Король&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту рядом с игровым полем. Каждый отряд на игровом поле со способностью &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;, кроме ваших мехов, повреждён (при возможности). Во время этого раунда игры вы можете считать каждый ваш отряд смежным с системой с жетоном раны.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;В конце этого раунда игры изгоните&lt;br&gt;эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту рядом с игровым полем. Каждый отряд на игровом поле со способностью &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПОГЛОЩЕНИЕ УРОНА»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;, кроме ваших мехов, повреждён (при возможности). Во время этого раунда игры вы можете считать каждый ваш от-&lt;br&gt;ряд смежным с системой с жетоном раны.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;В конце этого раунда игры изгоните&lt;br&gt;эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Никогда не забывай... Бойся Безмолвной Тьмы!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4352,7 +4352,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; другой игрок передвинул 1 из ваших кораблей.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Во время боя вы можете считать активную систему смежной с каждой системой, которая смежна с вашей родной системой.&lt;/ls&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=60&gt;Перед тем как вы присвоите попадания по вашим кораблям во время космического боя, если вы объявили об отступлении, отмените до 2 попаданий.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=60&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Во время боя вы можете считать активную систему смежной с каждой системой, которая смежна с вашей родной системой.&lt;/ls&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=60&gt;Перед тем как вы присвоите попадания по вашим кораблям во время космического боя, если вы объявили об отступлении,&lt;br&gt;отмените до 2 попаданий.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Благодаря своим капитанам и звёздным картам, Нокары практически неуловимы.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4370,7 +4370,7 @@
     <t>&lt;fc=33D3DD&gt;&lt;fs=40&gt;Король Наёмников&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту рядом с игровым полем. Во время этого раунда игры каждая подкон-&lt;br&gt;трольная вам планета получает способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;,&lt;br&gt;как если бы это был отряд.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В конце этого раунда игры изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;положите эту карту рядом с игровым полем. Во время этого раунда игры каждая подконтрольная вам планета получает способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО 3»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;,как если бы это был отряд.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В конце этого раунда игры изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Война — это хаос, а хаос стоит дорого. Всё, что я делаю — это слежу, чтобы нужные корабли оказались в нужном месте в нужный время».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4388,7 +4388,7 @@
     <t>&lt;fc=BC3D3D&gt;&lt;fs=40&gt;Политикан&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок перево-&lt;br&gt;рачивает подконтрольную ему культурную, опасную или промышленную планету:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку подготовить подконтрольную ему планету другого типа.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок перево-&lt;br&gt;рачивает подконтрольную ему культурную, опасную или промышленную планету:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку подготовить подконтрольную&lt;br&gt;ему планету другого типа.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Когда вы объединяете волю&lt;br&gt;и влияние, вы получаете довольно интересные результаты».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4409,7 +4409,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; контролируйте 1 культурную, 1 опасную и 1 промышленную планету.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть 1 подконтрольную вам неродную планету (кроме Мекатол-Рекса), чтобы получить количество товаров, равное значению ресурсов или влияния&lt;br&gt;этой планеты.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть 1 подконтрольную вам неродную планету (кроме Мекатол-Рекса), чтобы получить количество товаров, равное значению ресурсов или влияния этой планеты.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Это… семейное».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4445,7 +4445,7 @@
     <t>&lt;fc=09F3F0&gt;&lt;fs=40&gt;Наставница&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок исследовал технологию:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку произвести 1 корабль в его родной системе или системе, в которой есть подконтрольная ему планета с технологической специализацией.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как игрок исследовал технологию:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку произвести 1 корабль в его родной системе или системе, в которой есть подконтрольная&lt;br&gt;ему планета с технологической специализацией.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Тух стремительно вознеслась в рядах фанатиков. Даже самые ярые приверженцы Родуна преклоняются перед её рвением крушить всё, что, по её мнению, мешает торжеству науки и веры.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4469,7 +4469,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должна быть технология хотя бы с 2 требованиями.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы исследуете техно-&lt;br&gt;логию, можете использо-&lt;br&gt;вать технологическую специализацию 1 подкон-&lt;br&gt;трольной вам планеты, чтобы проигнорировать&lt;br&gt;1 любое требование.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы исследуете техно-&lt;br&gt;логию, можете использовать технологическую специали-&lt;br&gt;зацию 1 подконтрольной вам планеты, чтобы проигнори-&lt;br&gt;ровать 1 любое требование.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Эти священные миры и хранящиеся в них сокровища — не просто короткий путь к знаниям. Это дары для нас, достойных, от тех, кто был&lt;br&gt;до нас».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4505,7 +4505,7 @@
     <t>&lt;fc=8D8971&gt;&lt;fs=40&gt;Производственный мастер&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как хотя бы 1 отряд игрока использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку получить 1 жетон приказа.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как хотя бы 1 отряд игрока использует способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить&lt;br&gt;этому игроку получить&lt;br&gt;1 жетон приказа.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Среди двух столпов корпорации Ро’Дна нет более талантливого техноманта, чем сам производственный мастер.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4544,7 +4544,7 @@
     <t>&lt;fc=8D8971&gt;&lt;fs=40&gt;Безжалостный исполнитель&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как вы переместили хотя бы 1 ваш корабль в активную систему:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете изгнать эту карту, чтобы произ-&lt;br&gt;вести корабли, используя способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; любых отрядов в активной системе, как если бы они были вашими, независимо от того, есть ли в этой системе корабли другого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как вы переместили хотя бы 1 ваш корабль в активную систему:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете изгнать эту карту, чтобы произ-&lt;br&gt;вести корабли, используя способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;35;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; любых отрядов в активной системе, как если бы они были вашими, независимо от того, есть ли в&lt;br&gt;этой системе корабли другого игрока.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;Гила Среброязыкая засмеялась: «Достаточно. Переговоры окончены!» Когда она замети-&lt;br&gt;ла, как доки вокруг неё начали жужжать, Гила наконец осоз-&lt;br&gt;нала, насколько была права.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4586,7 +4586,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должно быть на игровом поле хотя бы 6 эсминцев.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете выбрать систему; нанесите 1 попадание и присвойте его ваше-&lt;br&gt;му кораблю (кроме истребителей) в этой системе. Затем добавьте +1 к значению полёта одного из ваших кораблей в этой системе во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете выбрать систему; нанесите 1 попадание и прис-&lt;br&gt;войте его вашему кораблю (кроме истребителей) в этой системе. Затем добавьте +1 к значению полёта одного из ваших кораблей в этой системе во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Да, я могу это организовать. Но доставка груза — это ваша зона ответственности. Проблемы вашего экипажа меня не касаются».&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4646,7 +4646,7 @@
     <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt; на вашем планшете фракции должны быть жетоны контроля хотя бы половины от общего числа игроков (с округлением вниз).&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Получите 1 товар за каждую выполненную секретную цель и 1 продукцию за каждую выполненную общую цель.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Получите 1 товар за каждую выполненную секретную цель и 1 продукцию за каждую выполненную&lt;br&gt;общую цель.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;Удивительно креативные методы бухгалтерского учёта Комдара Бородина — это отдельное искусство. Средства в его отчётах возникают буквально из воздуха, как только в них появляется нужда.&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4664,7 +4664,7 @@
     <t>&lt;fc=D6EF3D&gt;&lt;fs=40&gt;Верховный Клановый Мастер&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;можете вернуть любое количество жетонов контроля на вашем планшете фракции. Если вы это делаете, владелец жетона контроля должен отдать вам 1 товар, 2 продукции или 1 карту обещания с руки (при возмож-&lt;br&gt;ности) за каждый возвращённый жетон контроля.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;ДЕЙСТВИЕ: &lt;/f&gt;можете вернуть любое количество жетонов контроля на вашем планшете фракции. Если вы это делаете, владелец жетона контроля должен отдать вам 1 товар, 2 продукции или 1 карту обещания с руки (при возможности) за каждый возвращённый жетон контроля.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Затем изгоните эту карту.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Такая прекрасная и скромная жизнь у тебя здесь. Было бы жаль, если бы что-то её разрушило!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4682,7 +4682,7 @@
     <t>&lt;fc=08F5DD&gt;&lt;fs=40&gt;Политический Игрок&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как игрок получает контроль над планетой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить этому игроку взять 1 карту действий.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как игрок получает контроль над планетой:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить&lt;br&gt;этому игроку взять&lt;br&gt;1 карту действий.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Корпус рекультивации, вы знаете, что делать! После высадки основных сил вы идёте зачищать и собирать каждую последнюю полезную частичку на этой проклятой скале, и всё, что найдёте, отправляйте прямо Агенту Кордуулу, он найдёт ей применение!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4703,7 +4703,7 @@
     <t>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt; контролируйте 3 планеты одного типа.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Выберите 1 подконтроль-&lt;br&gt;ный вам корабль со значе-&lt;br&gt;нием мест на борту; добав-&lt;br&gt;ляйте +2 к значению мест&lt;br&gt;на борту этого корабля во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Выберите 1 подконтрольный вам корабль со значением мест на борту; добавляйте +2 к значению мест на борту этого корабля во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;38;1;0;1;0&gt;&lt;ls=59&gt;Гонсуул возвышался над несчастным лейтенантом и кричал: «Мы захватим эту планету, лейтенант! И для этого мы должны нанести стремительный и сокрушительный удар! Мне плевать, сколько у нас десантных капсул, все эти войска туда поместятся!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4802,7 +4802,7 @@
     <t>&lt;fc=E81008&gt;&lt;fs=40&gt;Изувер&lt;/fs&gt;&lt;/fc&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале вторжения:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить активному игроку заменить 1 из его отрядов пехоты в космосе активной системы на 1 меха из его снабжения.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале вторжения:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть эту карту, чтобы позволить активному игроку заменить&lt;br&gt;1 из его отрядов пехоты в космосе активной системы&lt;br&gt;на 1 меха из его снабжения.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ АРМИИ!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -4829,7 +4829,7 @@
     <t>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;РАЗБЛОКИРОВКА:&lt;/f&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; у вас должны быть корабли хотя бы в 2 системах с полем астероидов.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
-    <t>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Каждый ваш дредноут&lt;br&gt;и солнце войны без способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</t>
+    <t>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Каждый ваш дредноут и солнце войны без способности &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</t>
   </si>
   <si>
     <t>&lt;f=Myriad Pro Light;44;1;0;1;0&gt;&lt;ls=68&gt;«Я СОКРУШУ ИХ ФЛОТЫ!»&lt;/ls&gt;&lt;/f&gt;</t>
@@ -9000,7 +9000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9043,6 +9043,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -9394,59 +9397,59 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.8611111111111" style="29" customWidth="1"/>
-    <col min="5" max="5" width="44.712962962963" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.5740740740741" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="30" customWidth="1"/>
+    <col min="5" max="5" width="44.7142857142857" style="30" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="30" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="9" style="28"/>
+    <col min="11" max="12" width="9" style="29"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -9455,18 +9458,18 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -9475,18 +9478,18 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -9495,18 +9498,18 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -9515,18 +9518,18 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -9535,18 +9538,18 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -9555,18 +9558,18 @@
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -9575,18 +9578,18 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -9595,18 +9598,18 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -9615,18 +9618,18 @@
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -9635,18 +9638,18 @@
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -9655,18 +9658,18 @@
       <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -9675,18 +9678,18 @@
       <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -9695,18 +9698,18 @@
       <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -9715,18 +9718,18 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -9735,18 +9738,18 @@
       <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -9755,18 +9758,18 @@
       <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -9775,18 +9778,18 @@
       <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -9795,18 +9798,18 @@
       <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -9815,18 +9818,18 @@
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -9835,18 +9838,18 @@
       <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -9855,18 +9858,18 @@
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -9875,18 +9878,18 @@
       <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -9895,18 +9898,18 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -9915,18 +9918,18 @@
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -9935,18 +9938,18 @@
       <c r="E27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -9955,18 +9958,18 @@
       <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -9975,18 +9978,18 @@
       <c r="E29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -9995,18 +9998,18 @@
       <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -10015,18 +10018,18 @@
       <c r="E31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -10035,18 +10038,18 @@
       <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="30">
+      <c r="A33" s="31">
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -10055,18 +10058,18 @@
       <c r="E33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="30">
+      <c r="A34" s="31">
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -10075,18 +10078,18 @@
       <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="30">
+      <c r="A35" s="31">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -10095,18 +10098,18 @@
       <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="30">
+      <c r="A36" s="31">
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -10115,18 +10118,18 @@
       <c r="E36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="30">
+      <c r="A37" s="31">
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -10135,18 +10138,18 @@
       <c r="E37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="30">
+      <c r="A38" s="31">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -10155,18 +10158,18 @@
       <c r="E38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="30">
+      <c r="A39" s="31">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -10175,18 +10178,18 @@
       <c r="E39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="30">
+      <c r="A40" s="31">
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -10195,18 +10198,18 @@
       <c r="E40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="30">
+      <c r="A41" s="31">
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -10215,18 +10218,18 @@
       <c r="E41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="30">
+      <c r="A42" s="31">
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -10235,18 +10238,18 @@
       <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="30">
+      <c r="A43" s="31">
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -10255,18 +10258,18 @@
       <c r="E43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="34" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="30">
+      <c r="A44" s="31">
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -10275,18 +10278,18 @@
       <c r="E44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="30">
+      <c r="A45" s="31">
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -10295,18 +10298,18 @@
       <c r="E45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -10315,18 +10318,18 @@
       <c r="E46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="30">
+      <c r="A47" s="31">
         <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -10335,18 +10338,18 @@
       <c r="E47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="30">
+      <c r="A48" s="31">
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -10355,18 +10358,18 @@
       <c r="E48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="30">
+      <c r="A49" s="31">
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -10375,18 +10378,18 @@
       <c r="E49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="30">
+      <c r="A50" s="31">
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -10395,18 +10398,18 @@
       <c r="E50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="30">
+      <c r="A51" s="31">
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -10415,18 +10418,18 @@
       <c r="E51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="30">
+      <c r="A52" s="31">
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -10435,18 +10438,18 @@
       <c r="E52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="30">
+      <c r="A53" s="31">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -10455,18 +10458,18 @@
       <c r="E53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="30">
+      <c r="A54" s="31">
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -10475,18 +10478,18 @@
       <c r="E54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="30">
+      <c r="A55" s="31">
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -10495,18 +10498,18 @@
       <c r="E55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="34" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="30">
+      <c r="A56" s="31">
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -10515,18 +10518,18 @@
       <c r="E56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="30">
+      <c r="A57" s="31">
         <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -10535,18 +10538,18 @@
       <c r="E57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="30">
+      <c r="A58" s="31">
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -10555,18 +10558,18 @@
       <c r="E58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="30">
+      <c r="A59" s="31">
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -10575,18 +10578,18 @@
       <c r="E59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="30">
+      <c r="A60" s="31">
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -10595,18 +10598,18 @@
       <c r="E60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="30">
+      <c r="A61" s="31">
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -10615,18 +10618,18 @@
       <c r="E61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="30">
+      <c r="A62" s="31">
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -10635,7 +10638,7 @@
       <c r="E62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="34" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10651,19 +10654,19 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="27.8888888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.1481481481481" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27.8857142857143" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.152380952381" style="17" customWidth="1"/>
     <col min="4" max="13" width="9" style="17"/>
     <col min="14" max="14" width="10.6666666666667" style="1"/>
-    <col min="15" max="15" width="9.22222222222222" style="1"/>
+    <col min="15" max="15" width="9.21904761904762" style="1"/>
     <col min="16" max="16" width="10.6666666666667" style="1"/>
     <col min="17" max="18" width="9" style="1"/>
     <col min="19" max="19" width="9" style="17"/>
@@ -14711,7 +14714,7 @@
         <v>1353</v>
       </c>
       <c r="K72" s="4"/>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="21" t="s">
         <v>1354</v>
       </c>
       <c r="M72" s="4" t="s">
@@ -15782,7 +15785,7 @@
       <c r="K91" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="21" t="s">
         <v>1480</v>
       </c>
       <c r="M91" s="4" t="s">
@@ -16458,7 +16461,7 @@
       <c r="K103" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="M103" s="4" t="s">
@@ -16548,7 +16551,9 @@
       <c r="C105" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="E105" s="4" t="s">
         <v>1569</v>
       </c>
@@ -17352,12 +17357,12 @@
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="27.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="12.1759259259259" customWidth="1"/>
-    <col min="7" max="7" width="106.481481481481" customWidth="1"/>
-    <col min="17" max="17" width="14.4351851851852" customWidth="1"/>
+    <col min="2" max="2" width="27.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.1714285714286" customWidth="1"/>
+    <col min="7" max="7" width="106.485714285714" customWidth="1"/>
+    <col min="17" max="17" width="14.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17542,7 +17547,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>Leaders!L15</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как вы получаете контроль над планетой во время тактического действия:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете сбросить 1 карту действий, чтобы разместить или переместить мех на эту планету.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того, как вы получаете контроль над планетой во время тактического действия:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете сбросить 1 карту действий, чтобы разместить или переместить мех на&lt;br&gt;эту планету.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>960</v>
@@ -17569,7 +17574,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>Leaders!L18</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет красному требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В начале космического боя в системе, в которой есть 3 или более разных типов ваших кораблей (кроме истребителей), нанесите 1 попадание.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет красному требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;В начале космического боя в системе, в которой есть 3 или более разных типов ваших кораблей (кроме истре-&lt;br&gt;бителей), нанесите&lt;br&gt;1 попадание.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>982</v>
@@ -17596,7 +17601,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>Leaders!L21</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда любой игровой эффект позволяет вам выполнить общую цель, можете вместо этого взять&lt;br&gt;1 секретную цель.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда любой игровой эффект позволяет вам выполнить общую цель, можете вместо этого взять 1 секретную цель.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>1003</v>
@@ -17650,7 +17655,7 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>Leaders!L27</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время тактического действия, после того, как вы получаете контроль&lt;br&gt;над неродной планетой в активной системе,&lt;br&gt;в которой есть хотя бы&lt;br&gt;1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете произвести 1 корабль в этой системе.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время тактического действия, после того, как&lt;br&gt;вы получаете контроль&lt;br&gt;над неродной планетой&lt;br&gt;в активной системе,&lt;br&gt;в которой есть хотя&lt;br&gt;бы 1 ваш корабль:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете произвести 1&lt;br&gt;корабль в этой системе.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>1043</v>
@@ -17731,7 +17736,7 @@
       </c>
       <c r="G14" s="4" t="str">
         <f>Leaders!L37</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы используете спо-&lt;br&gt;собность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt; хотя бы 1 вашего отряда:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете добавить +1 к общему значению производства ваших отрядов за каждую вашу базу на игровом поле.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы используете спо-&lt;br&gt;собность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;40;0;0;0;0&gt;«ПРОИЗВОДСТВО»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt; хотя бы 1 вашего отряда:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете добавить +1 к обще-&lt;br&gt;му значению производства ваших отрядов за каждую вашу базу на игровом поле.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>1110</v>
@@ -17758,7 +17763,7 @@
       </c>
       <c r="G15" s="4" t="str">
         <f>Leaders!L40</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет жёлтому требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Когда вы отдаёте хотя бы 1 голос, отдайте 1 дополни-&lt;br&gt;тельный голос за каждые 2 изученные вами технологии.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Эта карта удовлетворяет жёлтому требованию технологии.&lt;/ls&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=75&gt;Когда вы отдаёте хотя бы&lt;br&gt;1 голос, отдайте 1 допол-&lt;br&gt;нительный голос за&lt;br&gt;каждые 2 изученные&lt;br&gt;вами технологии.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>1129</v>
@@ -17785,7 +17790,7 @@
       </c>
       <c r="G16" s="4" t="str">
         <f>Leaders!L43</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;При исследовании технологии улучшения, каждая ваша технология улучшения может удовлетворять 1 требованию, которое она разделяет с исследуемой вами технологией.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;При исследовании техно-&lt;br&gt;логии улучшения, каждая ваша технология улучшения может удовлетворять 1 требованию, которое она разделяет с исследуемой вами технологией.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>1150</v>
@@ -17812,7 +17817,7 @@
       </c>
       <c r="G17" s="4" t="str">
         <f>Leaders!L46</f>
-        <v>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет синему требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы отступаете, если в активной системе нет вашего жетона приказа, вы не размещаете жетон приказа в систему, в которую отступили ваши отряды.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Эта карта удовлетворяет синему требованию технологии.&lt;/ls&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=66&gt;Когда вы отступаете, если в активной системе нет вашего жетона приказа, вы не размещаете жетон приказа&lt;br&gt;в систему, в которую&lt;br&gt;отступили ваши отряды.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H17" s="4">
         <v>585859</v>
@@ -17866,7 +17871,7 @@
       </c>
       <c r="G19" s="4" t="str">
         <f>Leaders!L52</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Во время первого раунда боя, вы можете отменить 1 попадание.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Во время первого раунда&lt;br&gt;боя, вы можете отменить&lt;br&gt;1 попадание.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1208</v>
@@ -17920,7 +17925,7 @@
       </c>
       <c r="G21" s="4" t="str">
         <f>Leaders!L58</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы разведали планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете разместить 1 отряд пехоты из вашего снабже-&lt;br&gt;ния на этой планете.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы разведали планету:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете разместить 1 отряд пехоты из вашего снабжения на этой планете.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1250</v>
@@ -17947,7 +17952,7 @@
       </c>
       <c r="G22" s="4" t="str">
         <f>Leaders!L61</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время раунда боя, в котором участвует не более 1 вашего корабля (кроме истребителей) или 1 вашего отряда пехоты:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете выбрать 1 ваш отряд в этом бою; этот отряд бросает 1 дополни-&lt;br&gt;тельный кубик.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Во время раунда боя, в котором участвует не более 1 вашего корабля (кроме истребителей) или 1&lt;br&gt;вашего отряда пехоты:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете выбрать 1 ваш отряд&lt;br&gt;в этом бою; этот отряд бро-&lt;br&gt;сает 1 дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>1270</v>
@@ -18055,7 +18060,7 @@
       </c>
       <c r="G26" s="4" t="str">
         <f>Leaders!L73</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вашим отрядам нанесено 1 или более попаданий во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете потратить 1 продукцию или 1 товар, чтобы отменить 1 из этих попаданий.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вашим отрядам нанесено 1 или более попаданий во время космического боя:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете потратить 1 продукцию или 1 товар, чтобы отменить 1 из&lt;br&gt;этих попаданий.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>1351</v>
@@ -18082,7 +18087,7 @@
       </c>
       <c r="G27" s="4" t="str">
         <f>Leaders!L76</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 ваш повреждённый отряд совершает боевые проверки:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;До 2 из этих отрядов могут бросить дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда хотя бы 1 ваш повреждённый отряд совершает боевые&lt;br&gt;проверки:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;До 2 из этих отрядов могут бросить дополнительный кубик.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>1372</v>
@@ -18109,7 +18114,7 @@
       </c>
       <c r="G28" s="4" t="str">
         <f>Leaders!L79</f>
-        <v>&lt;ls=60&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Во время боя вы можете считать активную систему смежной с каждой системой, которая смежна с вашей родной системой.&lt;/ls&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=60&gt;Перед тем как вы присвоите попадания по вашим кораблям во время космического боя, если вы объявили об отступлении, отмените до 2 попаданий.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=60&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Во время боя вы можете считать активную систему смежной с каждой системой, которая смежна с вашей родной системой.&lt;/ls&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;ls=60&gt;Перед тем как вы присвоите попадания по вашим кораблям во время космического боя, если вы объявили об отступлении,&lt;br&gt;отмените до 2 попаданий.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>1392</v>
@@ -18136,7 +18141,7 @@
       </c>
       <c r="G29" s="4" t="str">
         <f>Leaders!L82</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть 1 подконтрольную вам неродную планету (кроме Мекатол-Рекса), чтобы получить количество товаров, равное значению ресурсов или влияния&lt;br&gt;этой планеты.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;Когда вы пропускаете ход:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Можете перевернуть 1 подконтрольную вам неродную планету (кроме Мекатол-Рекса), чтобы получить количество товаров, равное значению ресурсов или влияния этой планеты.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>1411</v>
@@ -18163,7 +18168,7 @@
       </c>
       <c r="G30" s="4" t="str">
         <f>Leaders!L85</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы исследуете техно-&lt;br&gt;логию, можете использо-&lt;br&gt;вать технологическую специализацию 1 подкон-&lt;br&gt;трольной вам планеты, чтобы проигнорировать&lt;br&gt;1 любое требование.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Когда вы исследуете техно-&lt;br&gt;логию, можете использовать технологическую специали-&lt;br&gt;зацию 1 подконтрольной вам планеты, чтобы проигнори-&lt;br&gt;ровать 1 любое требование.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>1430</v>
@@ -18217,7 +18222,7 @@
       </c>
       <c r="G32" s="4" t="str">
         <f>Leaders!L91</f>
-        <v>&lt;ls=60&gt;&lt;f=Myriad Pro;40;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=48&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;40;1;0;0;0&gt;Можете выбрать систему; нанесите 1 попадание и присвойте его ваше-&lt;br&gt;му кораблю (кроме истребителей) в этой системе. Затем добавьте +1 к значению полёта одного из ваших кораблей в этой системе во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=66&gt;&lt;f=Myriad Pro;44;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=53&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Можете выбрать систему; нанесите 1 попадание и прис-&lt;br&gt;войте его вашему кораблю (кроме истребителей) в этой системе. Затем добавьте +1 к значению полёта одного из ваших кораблей в этой системе во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>1469</v>
@@ -18244,7 +18249,7 @@
       </c>
       <c r="G33" s="4" t="str">
         <f>Leaders!L94</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Получите 1 товар за каждую выполненную секретную цель и 1 продукцию за каждую выполненную общую цель.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;В начале фазы статуса:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Получите 1 товар за каждую выполненную секретную цель и 1 продукцию за каждую выполненную&lt;br&gt;общую цель.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>1489</v>
@@ -18271,7 +18276,7 @@
       </c>
       <c r="G34" s="4" t="str">
         <f>Leaders!L97</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Выберите 1 подконтроль-&lt;br&gt;ный вам корабль со значе-&lt;br&gt;нием мест на борту; добав-&lt;br&gt;ляйте +2 к значению мест&lt;br&gt;на борту этого корабля во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=75&gt;&lt;f=Myriad Pro;50;1;0;0;0&gt;После того как вы активировали систему:&lt;/f&gt;&lt;ls=60&gt;&lt;br&gt;&lt;br&gt;&lt;/ls&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Выберите 1 подконтрольный вам корабль со значением мест на борту; добавляйте +2 к значению мест на борту этого корабля во время этого тактического действия.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>1509</v>
@@ -18325,7 +18330,7 @@
       </c>
       <c r="G36" s="4" t="str">
         <f>Leaders!L103</f>
-        <v>&lt;ls=75&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;Каждый ваш дредноут&lt;br&gt;и солнце войны без способности &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;17&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-17&gt;&lt;f=Myriad Pro Light;50;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</v>
+        <v>&lt;ls=66&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;Каждый ваш дредноут и солнце войны без способности &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt; получают способность &lt;/f&gt;&lt;push=0;15&gt;&lt;f=Russo One;39;0;0;0;0&gt;«ЗАГРАДИТЕЛЬНЫЙ ОГОНЬ 5»&lt;/f&gt;&lt;push=0;-15&gt;&lt;f=Myriad Pro Light;44;1;0;0;0&gt;.&lt;/f&gt;&lt;/ls&gt;</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>1549</v>
@@ -18348,12 +18353,12 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.8857142857143" customWidth="1"/>
     <col min="5" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="8" width="13.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="13.552380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18440,7 +18445,7 @@
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="35" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -18475,7 +18480,7 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="35" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -18510,10 +18515,10 @@
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="35" t="s">
         <v>1731</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="35" t="s">
         <v>1738</v>
       </c>
     </row>
@@ -18545,7 +18550,7 @@
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="35" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -18580,7 +18585,7 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="35" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -18615,7 +18620,7 @@
       <c r="L7" t="s">
         <v>1747</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="35" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -18634,31 +18639,31 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.10185185185185" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="3.1047619047619" customWidth="1"/>
+    <col min="3" max="3" width="11.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="13.2190476190476" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="3.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="4.43518518518519" customWidth="1"/>
-    <col min="9" max="9" width="3.43518518518518" customWidth="1"/>
+    <col min="6" max="6" width="3.88571428571429" customWidth="1"/>
+    <col min="7" max="7" width="6.55238095238095" customWidth="1"/>
+    <col min="8" max="8" width="4.43809523809524" customWidth="1"/>
+    <col min="9" max="9" width="3.43809523809524" customWidth="1"/>
     <col min="10" max="10" width="6.33333333333333" customWidth="1"/>
-    <col min="11" max="11" width="5.55555555555556" customWidth="1"/>
-    <col min="12" max="12" width="5.43518518518519" customWidth="1"/>
-    <col min="13" max="13" width="11.7962962962963" customWidth="1"/>
-    <col min="14" max="15" width="7.13888888888889" customWidth="1"/>
-    <col min="16" max="19" width="5.71296296296296" style="10" customWidth="1"/>
-    <col min="20" max="22" width="9.77777777777778" customWidth="1"/>
-    <col min="24" max="29" width="9.77777777777778" customWidth="1"/>
-    <col min="30" max="119" width="10.8888888888889" customWidth="1"/>
-    <col min="120" max="1019" width="11.8888888888889" customWidth="1"/>
-    <col min="1020" max="10019" width="12.8888888888889" customWidth="1"/>
-    <col min="10020" max="16377" width="13.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="5.55238095238095" customWidth="1"/>
+    <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
+    <col min="13" max="13" width="11.8" customWidth="1"/>
+    <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="10" customWidth="1"/>
+    <col min="20" max="22" width="9.78095238095238" customWidth="1"/>
+    <col min="24" max="29" width="9.78095238095238" customWidth="1"/>
+    <col min="30" max="119" width="10.8857142857143" customWidth="1"/>
+    <col min="120" max="1019" width="11.8857142857143" customWidth="1"/>
+    <col min="1020" max="10019" width="12.8857142857143" customWidth="1"/>
+    <col min="10020" max="16377" width="13.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:22">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -18726,7 +18731,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:19">
+    <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -18773,7 +18778,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:19">
+    <row r="3" customHeight="1" spans="1:19">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -18820,7 +18825,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:19">
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -18867,7 +18872,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:19">
+    <row r="5" customHeight="1" spans="1:19">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -18914,7 +18919,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:19">
+    <row r="6" customHeight="1" spans="1:19">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -18961,7 +18966,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:19">
+    <row r="7" customHeight="1" spans="1:19">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -19008,7 +19013,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:19">
+    <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -19055,7 +19060,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:19">
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -19102,7 +19107,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:19">
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -19149,7 +19154,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:19">
+    <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -19196,7 +19201,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:19">
+    <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -19243,7 +19248,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:19">
+    <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -19290,7 +19295,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:19">
+    <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -19337,7 +19342,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:19">
+    <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -19384,7 +19389,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:19">
+    <row r="16" customHeight="1" spans="1:19">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -19431,7 +19436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:19">
+    <row r="17" customHeight="1" spans="1:19">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -19478,7 +19483,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:19">
+    <row r="18" customHeight="1" spans="1:19">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -19525,7 +19530,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:19">
+    <row r="19" customHeight="1" spans="1:19">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -19572,7 +19577,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:19">
+    <row r="20" customHeight="1" spans="1:19">
       <c r="A20" s="9">
         <v>1</v>
       </c>
@@ -19619,7 +19624,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:19">
+    <row r="21" customHeight="1" spans="1:19">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -19668,7 +19673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:19">
+    <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="9">
         <v>1</v>
       </c>
@@ -19715,7 +19720,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:19">
+    <row r="23" customHeight="1" spans="1:19">
       <c r="A23" s="9">
         <v>1</v>
       </c>
@@ -19762,7 +19767,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:19">
+    <row r="24" customHeight="1" spans="1:19">
       <c r="A24" s="9">
         <v>1</v>
       </c>
@@ -19809,7 +19814,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:19">
+    <row r="25" customHeight="1" spans="1:19">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -19856,7 +19861,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:19">
+    <row r="26" customHeight="1" spans="1:19">
       <c r="A26" s="9">
         <v>1</v>
       </c>
@@ -19903,7 +19908,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:19">
+    <row r="27" customHeight="1" spans="1:19">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -19950,7 +19955,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:19">
+    <row r="28" customHeight="1" spans="1:19">
       <c r="A28" s="9">
         <v>1</v>
       </c>
@@ -19997,7 +20002,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:19">
+    <row r="29" customHeight="1" spans="1:19">
       <c r="A29" s="9">
         <v>1</v>
       </c>
@@ -20044,7 +20049,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:19">
+    <row r="30" customHeight="1" spans="1:19">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -20091,7 +20096,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:19">
+    <row r="31" customHeight="1" spans="1:19">
       <c r="A31" s="9">
         <v>1</v>
       </c>
@@ -20138,7 +20143,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:19">
+    <row r="32" customHeight="1" spans="1:19">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -20185,7 +20190,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:19">
+    <row r="33" customHeight="1" spans="1:19">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -20232,7 +20237,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:19">
+    <row r="34" customHeight="1" spans="1:19">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -20279,7 +20284,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:19">
+    <row r="35" customHeight="1" spans="1:19">
       <c r="A35" s="9">
         <v>1</v>
       </c>
@@ -20326,7 +20331,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:19">
+    <row r="36" customHeight="1" spans="1:19">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -20373,7 +20378,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:19">
+    <row r="37" customHeight="1" spans="1:19">
       <c r="A37" s="9">
         <v>1</v>
       </c>
@@ -20420,7 +20425,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:19">
+    <row r="38" customHeight="1" spans="1:19">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -20467,7 +20472,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:19">
+    <row r="39" customHeight="1" spans="1:19">
       <c r="A39" s="9">
         <v>1</v>
       </c>
@@ -20514,7 +20519,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:19">
+    <row r="40" customHeight="1" spans="1:19">
       <c r="A40" s="9">
         <v>1</v>
       </c>
@@ -20561,7 +20566,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:19">
+    <row r="41" customHeight="1" spans="1:19">
       <c r="A41" s="9">
         <v>1</v>
       </c>
@@ -20608,7 +20613,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:19">
+    <row r="42" customHeight="1" spans="1:19">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -20655,7 +20660,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:19">
+    <row r="43" customHeight="1" spans="1:19">
       <c r="A43" s="9">
         <v>1</v>
       </c>
@@ -20702,7 +20707,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:19">
+    <row r="44" customHeight="1" spans="1:19">
       <c r="A44" s="9">
         <v>1</v>
       </c>
@@ -20749,7 +20754,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:19">
+    <row r="45" customHeight="1" spans="1:19">
       <c r="A45" s="9">
         <v>1</v>
       </c>
@@ -20796,7 +20801,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:19">
+    <row r="46" customHeight="1" spans="1:19">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -20843,7 +20848,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:19">
+    <row r="47" customHeight="1" spans="1:19">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:19">
+    <row r="48" customHeight="1" spans="1:19">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -20937,7 +20942,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:19">
+    <row r="49" customHeight="1" spans="1:19">
       <c r="A49" s="9">
         <v>1</v>
       </c>
@@ -20984,7 +20989,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:19">
+    <row r="50" customHeight="1" spans="1:19">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -21031,7 +21036,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:19">
+    <row r="51" customHeight="1" spans="1:19">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -21078,7 +21083,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:19">
+    <row r="52" customHeight="1" spans="1:19">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -21125,7 +21130,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:19">
+    <row r="53" customHeight="1" spans="1:19">
       <c r="A53" s="9">
         <v>1</v>
       </c>
@@ -21172,7 +21177,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:19">
+    <row r="54" customHeight="1" spans="1:19">
       <c r="A54" s="9">
         <v>1</v>
       </c>
@@ -21219,7 +21224,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:19">
+    <row r="55" customHeight="1" spans="1:19">
       <c r="A55" s="9">
         <v>1</v>
       </c>
@@ -21266,7 +21271,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:19">
+    <row r="56" customHeight="1" spans="1:19">
       <c r="A56" s="9">
         <v>1</v>
       </c>
@@ -21313,7 +21318,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:19">
+    <row r="57" customHeight="1" spans="1:19">
       <c r="A57" s="9">
         <v>1</v>
       </c>
@@ -21360,7 +21365,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:19">
+    <row r="58" customHeight="1" spans="1:19">
       <c r="A58" s="9">
         <v>1</v>
       </c>
@@ -21407,7 +21412,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:19">
+    <row r="59" customHeight="1" spans="1:19">
       <c r="A59" s="9">
         <v>1</v>
       </c>
@@ -21454,7 +21459,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:19">
+    <row r="60" customHeight="1" spans="1:19">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -21501,7 +21506,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:19">
+    <row r="61" customHeight="1" spans="1:19">
       <c r="A61" s="9">
         <v>1</v>
       </c>
@@ -21548,7 +21553,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:19">
+    <row r="62" customHeight="1" spans="1:19">
       <c r="A62" s="9">
         <v>1</v>
       </c>
@@ -21595,7 +21600,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:19">
+    <row r="63" customHeight="1" spans="1:19">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -21644,7 +21649,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:19">
+    <row r="64" customHeight="1" spans="1:19">
       <c r="A64" s="9">
         <v>1</v>
       </c>
@@ -21691,7 +21696,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:19">
+    <row r="65" customHeight="1" spans="1:19">
       <c r="A65" s="9">
         <v>1</v>
       </c>
@@ -21740,7 +21745,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:19">
+    <row r="66" customHeight="1" spans="1:19">
       <c r="A66" s="9">
         <v>1</v>
       </c>
@@ -21787,7 +21792,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:19">
+    <row r="67" customHeight="1" spans="1:19">
       <c r="A67" s="9">
         <v>1</v>
       </c>
@@ -21834,7 +21839,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:19">
+    <row r="68" customHeight="1" spans="1:19">
       <c r="A68" s="9">
         <v>1</v>
       </c>
@@ -21883,7 +21888,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:19">
+    <row r="69" customHeight="1" spans="1:19">
       <c r="A69" s="9">
         <v>1</v>
       </c>
@@ -21932,7 +21937,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:19">
+    <row r="70" customHeight="1" spans="1:19">
       <c r="A70" s="9">
         <v>1</v>
       </c>
@@ -21979,7 +21984,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:19">
+    <row r="71" customHeight="1" spans="1:19">
       <c r="A71" s="9">
         <v>1</v>
       </c>
@@ -22026,7 +22031,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:19">
+    <row r="72" customHeight="1" spans="1:19">
       <c r="A72" s="9">
         <v>1</v>
       </c>
@@ -22073,7 +22078,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" spans="1:19">
+    <row r="73" customHeight="1" spans="1:19">
       <c r="A73" s="9">
         <v>1</v>
       </c>
@@ -22120,7 +22125,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" spans="1:19">
+    <row r="74" customHeight="1" spans="1:19">
       <c r="A74" s="9">
         <v>1</v>
       </c>
@@ -22167,7 +22172,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:19">
+    <row r="75" customHeight="1" spans="1:19">
       <c r="A75" s="9">
         <v>1</v>
       </c>
@@ -22214,7 +22219,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:19">
+    <row r="76" customHeight="1" spans="1:19">
       <c r="A76" s="9">
         <v>1</v>
       </c>
@@ -22261,7 +22266,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:19">
+    <row r="77" customHeight="1" spans="1:19">
       <c r="A77" s="9">
         <v>1</v>
       </c>
@@ -22308,7 +22313,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:19">
+    <row r="78" customHeight="1" spans="1:19">
       <c r="A78" s="9">
         <v>1</v>
       </c>
@@ -22355,7 +22360,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:19">
+    <row r="79" customHeight="1" spans="1:19">
       <c r="A79" s="9">
         <v>1</v>
       </c>
@@ -22402,7 +22407,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:15">
+    <row r="80" customHeight="1" spans="1:15">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -22418,7 +22423,7 @@
       <c r="M80" s="9"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:15">
+    <row r="81" customHeight="1" spans="1:15">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -22434,7 +22439,7 @@
       <c r="M81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:15">
+    <row r="82" customHeight="1" spans="1:15">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -22450,7 +22455,7 @@
       <c r="M82" s="9"/>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:15">
+    <row r="83" customHeight="1" spans="1:15">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -22466,7 +22471,7 @@
       <c r="M83" s="9"/>
       <c r="O83" s="9"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:15">
+    <row r="84" customHeight="1" spans="1:15">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -22482,7 +22487,7 @@
       <c r="M84" s="9"/>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:15">
+    <row r="85" customHeight="1" spans="1:15">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -22498,7 +22503,7 @@
       <c r="M85" s="9"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:15">
+    <row r="86" customHeight="1" spans="1:15">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -22514,7 +22519,7 @@
       <c r="M86" s="9"/>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:15">
+    <row r="87" customHeight="1" spans="1:15">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -22530,7 +22535,7 @@
       <c r="M87" s="9"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:15">
+    <row r="88" customHeight="1" spans="1:15">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -22546,7 +22551,7 @@
       <c r="M88" s="9"/>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:15">
+    <row r="89" customHeight="1" spans="1:15">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -22562,7 +22567,7 @@
       <c r="M89" s="9"/>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:15">
+    <row r="90" customHeight="1" spans="1:15">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -22578,7 +22583,7 @@
       <c r="M90" s="9"/>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" ht="15" customHeight="1" spans="1:15">
+    <row r="91" customHeight="1" spans="1:15">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -22594,7 +22599,7 @@
       <c r="M91" s="9"/>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:15">
+    <row r="92" customHeight="1" spans="1:15">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -22734,33 +22739,33 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="11.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="13.2190476190476" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="3.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="4.43518518518519" customWidth="1"/>
-    <col min="9" max="9" width="6.57407407407407" customWidth="1"/>
+    <col min="6" max="6" width="3.88571428571429" customWidth="1"/>
+    <col min="7" max="7" width="6.55238095238095" customWidth="1"/>
+    <col min="8" max="8" width="4.43809523809524" customWidth="1"/>
+    <col min="9" max="9" width="6.57142857142857" customWidth="1"/>
     <col min="10" max="10" width="6.33333333333333" customWidth="1"/>
-    <col min="11" max="11" width="5.55555555555556" customWidth="1"/>
-    <col min="12" max="12" width="5.43518518518519" customWidth="1"/>
-    <col min="13" max="13" width="11.7962962962963" customWidth="1"/>
-    <col min="14" max="15" width="7.13888888888889" customWidth="1"/>
-    <col min="16" max="19" width="5.71296296296296" style="10" customWidth="1"/>
-    <col min="20" max="20" width="17.712962962963" customWidth="1"/>
-    <col min="21" max="22" width="9.77777777777778" customWidth="1"/>
-    <col min="24" max="30" width="9.77777777777778" style="11" customWidth="1"/>
-    <col min="31" max="35" width="10.8888888888889" style="11" customWidth="1"/>
-    <col min="36" max="120" width="10.8888888888889" customWidth="1"/>
-    <col min="121" max="1020" width="11.8888888888889" customWidth="1"/>
-    <col min="1021" max="10020" width="12.8888888888889" customWidth="1"/>
-    <col min="10021" max="16378" width="13.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="5.55238095238095" customWidth="1"/>
+    <col min="12" max="12" width="5.43809523809524" customWidth="1"/>
+    <col min="13" max="13" width="11.8" customWidth="1"/>
+    <col min="14" max="15" width="7.14285714285714" customWidth="1"/>
+    <col min="16" max="19" width="5.71428571428571" style="10" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
+    <col min="21" max="22" width="9.78095238095238" customWidth="1"/>
+    <col min="24" max="30" width="9.78095238095238" style="11" customWidth="1"/>
+    <col min="31" max="35" width="10.8857142857143" style="11" customWidth="1"/>
+    <col min="36" max="120" width="10.8857142857143" customWidth="1"/>
+    <col min="121" max="1020" width="11.8857142857143" customWidth="1"/>
+    <col min="1021" max="10020" width="12.8857142857143" customWidth="1"/>
+    <col min="10021" max="16378" width="13.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:35">
+    <row r="1" customHeight="1" spans="1:35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -22867,7 +22872,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="2" customFormat="1" customHeight="1" spans="1:35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -22958,7 +22963,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="3" customFormat="1" customHeight="1" spans="1:35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -23049,7 +23054,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="4" customFormat="1" customHeight="1" spans="1:35">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -23140,7 +23145,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="5" customFormat="1" customHeight="1" spans="1:35">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -23231,7 +23236,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="6" customFormat="1" customHeight="1" spans="1:35">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -23322,7 +23327,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="7" customFormat="1" customHeight="1" spans="1:35">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -23417,7 +23422,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:19">
+    <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -23437,7 +23442,7 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:19">
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -23457,7 +23462,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:19">
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -23477,7 +23482,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:19">
+    <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -23497,7 +23502,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:19">
+    <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -23517,7 +23522,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:19">
+    <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -23537,7 +23542,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:19">
+    <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -23557,7 +23562,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:19">
+    <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -23577,7 +23582,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:19">
+    <row r="16" customHeight="1" spans="1:19">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -23597,7 +23602,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:19">
+    <row r="17" customHeight="1" spans="1:19">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -23617,7 +23622,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:19">
+    <row r="18" customHeight="1" spans="1:19">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -23637,7 +23642,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:19">
+    <row r="19" customHeight="1" spans="1:19">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -23657,7 +23662,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:19">
+    <row r="20" customHeight="1" spans="1:19">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -23677,7 +23682,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:19">
+    <row r="21" customHeight="1" spans="1:19">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -23697,7 +23702,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:19">
+    <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -23717,7 +23722,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:19">
+    <row r="23" customHeight="1" spans="1:19">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -23737,7 +23742,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:19">
+    <row r="24" customHeight="1" spans="1:19">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -23757,7 +23762,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:19">
+    <row r="25" customHeight="1" spans="1:19">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -23777,7 +23782,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:19">
+    <row r="26" customHeight="1" spans="1:19">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -23797,7 +23802,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:19">
+    <row r="27" customHeight="1" spans="1:19">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -23817,7 +23822,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:19">
+    <row r="28" customHeight="1" spans="1:19">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -23837,7 +23842,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:19">
+    <row r="29" customHeight="1" spans="1:19">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -23857,7 +23862,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:19">
+    <row r="30" customHeight="1" spans="1:19">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -23877,7 +23882,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:19">
+    <row r="31" customHeight="1" spans="1:19">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -23897,7 +23902,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:19">
+    <row r="32" customHeight="1" spans="1:19">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -23917,7 +23922,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:19">
+    <row r="33" customHeight="1" spans="1:19">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -23937,7 +23942,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:19">
+    <row r="34" customHeight="1" spans="1:19">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -23957,7 +23962,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:19">
+    <row r="35" customHeight="1" spans="1:19">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -23977,7 +23982,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:19">
+    <row r="36" customHeight="1" spans="1:19">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -23997,7 +24002,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:19">
+    <row r="37" customHeight="1" spans="1:19">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -24017,7 +24022,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:19">
+    <row r="38" customHeight="1" spans="1:19">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -24037,7 +24042,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:19">
+    <row r="39" customHeight="1" spans="1:19">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -24057,7 +24062,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:19">
+    <row r="40" customHeight="1" spans="1:19">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -24077,7 +24082,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:19">
+    <row r="41" customHeight="1" spans="1:19">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -24097,7 +24102,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:19">
+    <row r="42" customHeight="1" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -24117,7 +24122,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:19">
+    <row r="43" customHeight="1" spans="1:19">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -24137,7 +24142,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:19">
+    <row r="44" customHeight="1" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -24157,7 +24162,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:19">
+    <row r="45" customHeight="1" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -24177,7 +24182,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:19">
+    <row r="46" customHeight="1" spans="1:19">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -24197,7 +24202,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:19">
+    <row r="47" customHeight="1" spans="1:19">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -24217,7 +24222,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:19">
+    <row r="48" customHeight="1" spans="1:19">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -24237,7 +24242,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:19">
+    <row r="49" customHeight="1" spans="1:19">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -24257,7 +24262,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:19">
+    <row r="50" customHeight="1" spans="1:19">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -24277,7 +24282,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:19">
+    <row r="51" customHeight="1" spans="1:19">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -24297,7 +24302,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:19">
+    <row r="52" customHeight="1" spans="1:19">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -24317,7 +24322,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:19">
+    <row r="53" customHeight="1" spans="1:19">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -24337,7 +24342,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:19">
+    <row r="54" customHeight="1" spans="1:19">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -24357,7 +24362,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:19">
+    <row r="55" customHeight="1" spans="1:19">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -24377,7 +24382,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:19">
+    <row r="56" customHeight="1" spans="1:19">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -24397,7 +24402,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:19">
+    <row r="57" customHeight="1" spans="1:19">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -24417,7 +24422,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:19">
+    <row r="58" customHeight="1" spans="1:19">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="D58" s="9"/>
@@ -24436,7 +24441,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:19">
+    <row r="59" customHeight="1" spans="1:19">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="D59" s="9"/>
@@ -24455,7 +24460,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:19">
+    <row r="60" customHeight="1" spans="1:19">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
@@ -24474,7 +24479,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:19">
+    <row r="61" customHeight="1" spans="1:19">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="D61" s="9"/>
@@ -24493,7 +24498,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:19">
+    <row r="62" customHeight="1" spans="1:19">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="D62" s="9"/>
@@ -24512,7 +24517,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:19">
+    <row r="63" customHeight="1" spans="1:19">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="D63" s="9"/>
@@ -24531,7 +24536,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:19">
+    <row r="64" customHeight="1" spans="1:19">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="D64" s="9"/>
@@ -24550,7 +24555,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:19">
+    <row r="65" customHeight="1" spans="1:19">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="D65" s="9"/>
@@ -24569,7 +24574,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:19">
+    <row r="66" customHeight="1" spans="1:19">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="D66" s="9"/>
@@ -24588,7 +24593,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:19">
+    <row r="67" customHeight="1" spans="1:19">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="D67" s="9"/>
@@ -24607,7 +24612,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:19">
+    <row r="68" customHeight="1" spans="1:19">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="D68" s="9"/>
@@ -24626,7 +24631,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:19">
+    <row r="69" customHeight="1" spans="1:19">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="D69" s="9"/>
@@ -24645,7 +24650,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:19">
+    <row r="70" customHeight="1" spans="1:19">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="D70" s="9"/>
@@ -24664,7 +24669,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:19">
+    <row r="71" customHeight="1" spans="1:19">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="D71" s="9"/>
@@ -24683,7 +24688,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:19">
+    <row r="72" customHeight="1" spans="1:19">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="D72" s="9"/>
@@ -24702,7 +24707,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" ht="15" customHeight="1" spans="1:19">
+    <row r="73" customHeight="1" spans="1:19">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="D73" s="9"/>
@@ -24721,7 +24726,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" ht="15" customHeight="1" spans="1:19">
+    <row r="74" customHeight="1" spans="1:19">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="D74" s="9"/>
@@ -24740,7 +24745,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:19">
+    <row r="75" customHeight="1" spans="1:19">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="D75" s="9"/>
@@ -24759,7 +24764,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:19">
+    <row r="76" customHeight="1" spans="1:19">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="D76" s="9"/>
@@ -24778,7 +24783,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:19">
+    <row r="77" customHeight="1" spans="1:19">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="D77" s="9"/>
@@ -24797,7 +24802,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:19">
+    <row r="78" customHeight="1" spans="1:19">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="D78" s="9"/>
@@ -24816,7 +24821,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:19">
+    <row r="79" customHeight="1" spans="1:19">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="D79" s="9"/>
@@ -24835,7 +24840,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:19">
+    <row r="80" customHeight="1" spans="1:19">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="D80" s="9"/>
@@ -24854,7 +24859,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:19">
+    <row r="81" customHeight="1" spans="1:19">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="D81" s="9"/>
@@ -24873,7 +24878,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:19">
+    <row r="82" customHeight="1" spans="1:19">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="D82" s="9"/>
@@ -24892,7 +24897,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:19">
+    <row r="83" customHeight="1" spans="1:19">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="D83" s="9"/>
@@ -24911,7 +24916,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:19">
+    <row r="84" customHeight="1" spans="1:19">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="D84" s="9"/>
@@ -24930,7 +24935,7 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:15">
+    <row r="85" customHeight="1" spans="1:15">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -24946,7 +24951,7 @@
       <c r="M85" s="9"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:15">
+    <row r="86" customHeight="1" spans="1:15">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -24962,7 +24967,7 @@
       <c r="M86" s="9"/>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:15">
+    <row r="87" customHeight="1" spans="1:15">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -24978,7 +24983,7 @@
       <c r="M87" s="9"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="94" ht="15" customHeight="1" spans="1:15">
+    <row r="94" customHeight="1" spans="1:15">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -24994,7 +24999,7 @@
       <c r="M94" s="9"/>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:15">
+    <row r="95" customHeight="1" spans="1:15">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -25010,7 +25015,7 @@
       <c r="M95" s="9"/>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" ht="15" customHeight="1" spans="1:15">
+    <row r="96" customHeight="1" spans="1:15">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -25026,7 +25031,7 @@
       <c r="M96" s="9"/>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" ht="15" customHeight="1" spans="1:15">
+    <row r="97" customHeight="1" spans="1:15">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -25042,7 +25047,7 @@
       <c r="M97" s="9"/>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" ht="15" customHeight="1" spans="1:15">
+    <row r="98" customHeight="1" spans="1:15">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -25175,13 +25180,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -26113,7 +26118,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:7">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -26229,10 +26234,10 @@
       <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="5" width="28.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="5" width="28.552380952381" customWidth="1"/>
+    <col min="6" max="6" width="14.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26356,26 +26361,26 @@
       <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.77777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1018518518519" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.78095238095238" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.55238095238095" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.55238095238095" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1047619047619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.552380952381" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7809523809524" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.552380952381" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
     <col min="11" max="15" width="9" style="1"/>
     <col min="16" max="16" width="23" style="1" customWidth="1"/>
     <col min="17" max="24" width="9" style="1"/>
-    <col min="25" max="27" width="9.13888888888889" style="1"/>
+    <col min="25" max="27" width="9.14285714285714" style="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:29">
+    <row r="1" customHeight="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26464,7 +26469,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:29">
+    <row r="2" customHeight="1" spans="1:29">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -26527,7 +26532,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:29">
+    <row r="3" customHeight="1" spans="1:29">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -26594,7 +26599,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:29">
+    <row r="4" customHeight="1" spans="1:29">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -26657,7 +26662,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:29">
+    <row r="5" customHeight="1" spans="1:29">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -26722,7 +26727,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:29">
+    <row r="6" customHeight="1" spans="1:29">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -26787,7 +26792,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:29">
+    <row r="7" customHeight="1" spans="1:29">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -26852,7 +26857,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:29">
+    <row r="8" customHeight="1" spans="1:29">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -26915,7 +26920,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:29">
+    <row r="9" customHeight="1" spans="1:29">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -26980,7 +26985,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:29">
+    <row r="10" customHeight="1" spans="1:29">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -27047,7 +27052,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:29">
+    <row r="11" customHeight="1" spans="1:29">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -27112,7 +27117,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:29">
+    <row r="12" customHeight="1" spans="1:29">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -27177,7 +27182,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:29">
+    <row r="13" customHeight="1" spans="1:29">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -27240,7 +27245,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:29">
+    <row r="14" customHeight="1" spans="1:29">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -27305,7 +27310,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:29">
+    <row r="15" customHeight="1" spans="1:29">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -27372,7 +27377,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:29">
+    <row r="16" customHeight="1" spans="1:29">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -27435,7 +27440,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:29">
+    <row r="17" customHeight="1" spans="1:29">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -27498,7 +27503,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:29">
+    <row r="18" customHeight="1" spans="1:29">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -27565,7 +27570,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:29">
+    <row r="19" customHeight="1" spans="1:29">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -27632,7 +27637,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:29">
+    <row r="20" customHeight="1" spans="1:29">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -27697,7 +27702,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:29">
+    <row r="21" customHeight="1" spans="1:29">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -27760,7 +27765,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:29">
+    <row r="22" customHeight="1" spans="1:29">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -27825,7 +27830,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:29">
+    <row r="23" customHeight="1" spans="1:29">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -27888,7 +27893,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:29">
+    <row r="24" customHeight="1" spans="1:29">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -27953,7 +27958,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:29">
+    <row r="25" customHeight="1" spans="1:29">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -28020,7 +28025,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:29">
+    <row r="26" customHeight="1" spans="1:29">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -28085,7 +28090,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:29">
+    <row r="27" customHeight="1" spans="1:29">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -28150,7 +28155,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:29">
+    <row r="28" customHeight="1" spans="1:29">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -28215,7 +28220,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:29">
+    <row r="29" customHeight="1" spans="1:29">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -28278,7 +28283,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:29">
+    <row r="30" customHeight="1" spans="1:29">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -28343,7 +28348,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:29">
+    <row r="31" customHeight="1" spans="1:29">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -28408,7 +28413,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:29">
+    <row r="32" customHeight="1" spans="1:29">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -28473,7 +28478,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:29">
+    <row r="33" customHeight="1" spans="1:29">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -28538,7 +28543,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:29">
+    <row r="34" customHeight="1" spans="1:29">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -28603,7 +28608,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:29">
+    <row r="35" customHeight="1" spans="1:29">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -28668,7 +28673,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:29">
+    <row r="36" customHeight="1" spans="1:29">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -28733,7 +28738,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:29">
+    <row r="37" customHeight="1" spans="1:29">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -28798,7 +28803,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:29">
+    <row r="38" customHeight="1" spans="1:29">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -28861,7 +28866,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:29">
+    <row r="39" customHeight="1" spans="1:29">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -28926,7 +28931,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:29">
+    <row r="40" customHeight="1" spans="1:29">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -28989,7 +28994,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:29">
+    <row r="41" customHeight="1" spans="1:29">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -29052,7 +29057,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:29">
+    <row r="42" customHeight="1" spans="1:29">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -29119,7 +29124,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:29">
+    <row r="43" customHeight="1" spans="1:29">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -29184,7 +29189,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:29">
+    <row r="44" customHeight="1" spans="1:29">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -29249,7 +29254,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:29">
+    <row r="45" customHeight="1" spans="1:29">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -29312,7 +29317,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:29">
+    <row r="46" customHeight="1" spans="1:29">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -29375,7 +29380,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:29">
+    <row r="47" customHeight="1" spans="1:29">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -29440,7 +29445,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:29">
+    <row r="48" customHeight="1" spans="1:29">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -29503,7 +29508,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:29">
+    <row r="49" customHeight="1" spans="1:29">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -29568,7 +29573,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:29">
+    <row r="50" customHeight="1" spans="1:29">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -29631,7 +29636,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:29">
+    <row r="51" customHeight="1" spans="1:29">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -29704,7 +29709,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:29">
+    <row r="52" customHeight="1" spans="1:29">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -29773,7 +29778,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:29">
+    <row r="53" customHeight="1" spans="1:29">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -29846,7 +29851,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:29">
+    <row r="54" customHeight="1" spans="1:29">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -29915,7 +29920,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:29">
+    <row r="55" customHeight="1" spans="1:29">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -29988,7 +29993,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:29">
+    <row r="56" customHeight="1" spans="1:29">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -30049,7 +30054,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:29">
+    <row r="57" customHeight="1" spans="1:29">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -30114,7 +30119,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:29">
+    <row r="58" customHeight="1" spans="1:29">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -30183,7 +30188,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:29">
+    <row r="59" customHeight="1" spans="1:29">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -30256,7 +30261,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:29">
+    <row r="60" customHeight="1" spans="1:29">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -30329,7 +30334,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:29">
+    <row r="61" customHeight="1" spans="1:29">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -30408,7 +30413,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:29">
+    <row r="62" customHeight="1" spans="1:29">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -30477,7 +30482,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:29">
+    <row r="63" customHeight="1" spans="1:29">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -30550,7 +30555,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:29">
+    <row r="64" customHeight="1" spans="1:29">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -30619,7 +30624,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:29">
+    <row r="65" customHeight="1" spans="1:29">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -30686,7 +30691,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:29">
+    <row r="66" customHeight="1" spans="1:29">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -30759,7 +30764,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:29">
+    <row r="67" customHeight="1" spans="1:29">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -30832,7 +30837,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:29">
+    <row r="68" customHeight="1" spans="1:29">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -30905,7 +30910,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:29">
+    <row r="69" customHeight="1" spans="1:29">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -30984,7 +30989,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:29">
+    <row r="70" customHeight="1" spans="1:29">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -31053,7 +31058,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:29">
+    <row r="71" customHeight="1" spans="1:29">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -31126,7 +31131,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:29">
+    <row r="72" customHeight="1" spans="1:29">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -31195,7 +31200,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" spans="1:29">
+    <row r="73" customHeight="1" spans="1:29">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -31268,7 +31273,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" spans="1:29">
+    <row r="74" customHeight="1" spans="1:29">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -31339,7 +31344,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:29">
+    <row r="75" customHeight="1" spans="1:29">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -31414,7 +31419,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:29">
+    <row r="76" customHeight="1" spans="1:29">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -31483,7 +31488,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:29">
+    <row r="77" customHeight="1" spans="1:29">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -31556,7 +31561,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:29">
+    <row r="78" customHeight="1" spans="1:29">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -31625,7 +31630,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:29">
+    <row r="79" customHeight="1" spans="1:29">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -31698,7 +31703,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:29">
+    <row r="80" customHeight="1" spans="1:29">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -31771,7 +31776,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:29">
+    <row r="81" customHeight="1" spans="1:29">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -31842,7 +31847,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:29">
+    <row r="82" customHeight="1" spans="1:29">
       <c r="A82" s="4">
         <v>1</v>
       </c>
@@ -31919,7 +31924,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:29">
+    <row r="83" customHeight="1" spans="1:29">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -31988,7 +31993,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:29">
+    <row r="84" customHeight="1" spans="1:29">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -32061,7 +32066,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:29">
+    <row r="85" customHeight="1" spans="1:29">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -32130,7 +32135,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:29">
+    <row r="86" customHeight="1" spans="1:29">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -32203,7 +32208,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:29">
+    <row r="87" customHeight="1" spans="1:29">
       <c r="A87" s="4">
         <v>1</v>
       </c>
@@ -32264,7 +32269,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:29">
+    <row r="88" customHeight="1" spans="1:29">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -32329,7 +32334,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:29">
+    <row r="89" customHeight="1" spans="1:29">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -32398,7 +32403,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:29">
+    <row r="90" customHeight="1" spans="1:29">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -32471,7 +32476,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" spans="1:29">
+    <row r="91" customHeight="1" spans="1:29">
       <c r="A91" s="4">
         <v>1</v>
       </c>
@@ -32540,7 +32545,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:29">
+    <row r="92" customHeight="1" spans="1:29">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -32613,7 +32618,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1" spans="1:29">
+    <row r="93" customHeight="1" spans="1:29">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -32686,7 +32691,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" spans="1:29">
+    <row r="94" customHeight="1" spans="1:29">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -32763,7 +32768,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:29">
+    <row r="95" customHeight="1" spans="1:29">
       <c r="A95" s="4">
         <v>1</v>
       </c>
@@ -32832,7 +32837,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" spans="1:29">
+    <row r="96" customHeight="1" spans="1:29">
       <c r="A96" s="4">
         <v>1</v>
       </c>
@@ -32905,7 +32910,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" spans="1:29">
+    <row r="97" customHeight="1" spans="1:29">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -32974,7 +32979,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" spans="1:29">
+    <row r="98" customHeight="1" spans="1:29">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -33047,7 +33052,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" spans="1:29">
+    <row r="99" customHeight="1" spans="1:29">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -33116,7 +33121,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" spans="1:29">
+    <row r="100" customHeight="1" spans="1:29">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -33189,7 +33194,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1" spans="1:29">
+    <row r="101" customHeight="1" spans="1:29">
       <c r="A101" s="4">
         <v>1</v>
       </c>
@@ -33258,7 +33263,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1" spans="1:29">
+    <row r="102" customHeight="1" spans="1:29">
       <c r="A102" s="4">
         <v>1</v>
       </c>
@@ -33331,7 +33336,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1" spans="1:29">
+    <row r="103" customHeight="1" spans="1:29">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -33400,7 +33405,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" spans="1:29">
+    <row r="104" customHeight="1" spans="1:29">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -33473,7 +33478,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" spans="1:29">
+    <row r="105" customHeight="1" spans="1:29">
       <c r="A105" s="4">
         <v>1</v>
       </c>
@@ -33542,7 +33547,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" spans="1:29">
+    <row r="106" customHeight="1" spans="1:29">
       <c r="A106" s="4">
         <v>1</v>
       </c>
@@ -33615,7 +33620,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" spans="1:29">
+    <row r="107" customHeight="1" spans="1:29">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -33682,7 +33687,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" spans="1:29">
+    <row r="108" customHeight="1" spans="1:29">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -33757,7 +33762,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" spans="1:29">
+    <row r="109" customHeight="1" spans="1:29">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -33826,7 +33831,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" spans="1:29">
+    <row r="110" customHeight="1" spans="1:29">
       <c r="A110" s="4">
         <v>1</v>
       </c>
@@ -33899,7 +33904,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" spans="1:29">
+    <row r="111" customHeight="1" spans="1:29">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -33970,7 +33975,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" spans="1:29">
+    <row r="112" customHeight="1" spans="1:29">
       <c r="A112" s="4">
         <v>1</v>
       </c>
@@ -34047,7 +34052,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1" spans="1:29">
+    <row r="113" customHeight="1" spans="1:29">
       <c r="A113" s="4">
         <v>1</v>
       </c>
@@ -34116,7 +34121,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1" spans="1:29">
+    <row r="114" customHeight="1" spans="1:29">
       <c r="A114" s="4">
         <v>1</v>
       </c>
@@ -34189,7 +34194,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" spans="1:29">
+    <row r="115" customHeight="1" spans="1:29">
       <c r="A115" s="4">
         <v>1</v>
       </c>
@@ -34252,7 +34257,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" spans="1:29">
+    <row r="116" customHeight="1" spans="1:29">
       <c r="A116" s="4">
         <v>1</v>
       </c>
@@ -34321,7 +34326,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1" spans="1:29">
+    <row r="117" customHeight="1" spans="1:29">
       <c r="A117" s="4">
         <v>1</v>
       </c>
@@ -34390,7 +34395,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" spans="1:29">
+    <row r="118" customHeight="1" spans="1:29">
       <c r="A118" s="4">
         <v>1</v>
       </c>
@@ -34463,7 +34468,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" spans="1:29">
+    <row r="119" customHeight="1" spans="1:29">
       <c r="A119" s="4">
         <v>1</v>
       </c>
@@ -34532,7 +34537,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" spans="1:29">
+    <row r="120" customHeight="1" spans="1:29">
       <c r="A120" s="4">
         <v>1</v>
       </c>
@@ -34605,7 +34610,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" spans="1:29">
+    <row r="121" customHeight="1" spans="1:29">
       <c r="A121" s="4">
         <v>1</v>
       </c>
@@ -34666,7 +34671,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" spans="1:29">
+    <row r="122" customHeight="1" spans="1:29">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -34800,7 +34805,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" spans="1:29">
+    <row r="124" customHeight="1" spans="1:29">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -34873,7 +34878,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1" spans="1:29">
+    <row r="125" customHeight="1" spans="1:29">
       <c r="A125" s="4">
         <v>1</v>
       </c>
@@ -34942,7 +34947,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" spans="1:29">
+    <row r="126" customHeight="1" spans="1:29">
       <c r="A126" s="4">
         <v>1</v>
       </c>
@@ -35017,7 +35022,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" spans="1:29">
+    <row r="127" customHeight="1" spans="1:29">
       <c r="A127" s="4">
         <v>1</v>
       </c>
@@ -35090,7 +35095,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" spans="1:29">
+    <row r="128" customHeight="1" spans="1:29">
       <c r="A128" s="4">
         <v>1</v>
       </c>
@@ -35161,7 +35166,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1" spans="1:29">
+    <row r="129" customHeight="1" spans="1:29">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -35236,7 +35241,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1" spans="1:29">
+    <row r="130" customHeight="1" spans="1:29">
       <c r="A130" s="4">
         <v>1</v>
       </c>
@@ -35305,7 +35310,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" spans="1:29">
+    <row r="131" customHeight="1" spans="1:29">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -35378,7 +35383,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1" spans="1:29">
+    <row r="132" customHeight="1" spans="1:29">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -35447,7 +35452,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" spans="1:29">
+    <row r="133" customHeight="1" spans="1:29">
       <c r="A133" s="4">
         <v>1</v>
       </c>
@@ -35516,7 +35521,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1" spans="1:29">
+    <row r="134" customHeight="1" spans="1:29">
       <c r="A134" s="4">
         <v>1</v>
       </c>
@@ -35589,7 +35594,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" spans="1:29">
+    <row r="135" customHeight="1" spans="1:29">
       <c r="A135" s="4">
         <v>1</v>
       </c>
@@ -35658,7 +35663,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" spans="1:29">
+    <row r="136" customHeight="1" spans="1:29">
       <c r="A136" s="4">
         <v>1</v>
       </c>
@@ -35731,7 +35736,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" spans="1:29">
+    <row r="137" customHeight="1" spans="1:29">
       <c r="A137" s="4">
         <v>1</v>
       </c>
@@ -35800,7 +35805,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" spans="1:29">
+    <row r="138" customHeight="1" spans="1:29">
       <c r="A138" s="4">
         <v>1</v>
       </c>
@@ -35881,7 +35886,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" spans="1:29">
+    <row r="139" customHeight="1" spans="1:29">
       <c r="A139" s="4">
         <v>1</v>
       </c>
@@ -35950,7 +35955,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" spans="1:29">
+    <row r="140" customHeight="1" spans="1:29">
       <c r="A140" s="4">
         <v>1</v>
       </c>
@@ -36023,7 +36028,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1" spans="1:29">
+    <row r="141" customHeight="1" spans="1:29">
       <c r="A141" s="4">
         <v>1</v>
       </c>
@@ -36092,7 +36097,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1" spans="1:29">
+    <row r="142" customHeight="1" spans="1:29">
       <c r="A142" s="4">
         <v>1</v>
       </c>
@@ -36167,7 +36172,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1" spans="1:29">
+    <row r="143" customHeight="1" spans="1:29">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -36236,7 +36241,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1" spans="1:29">
+    <row r="144" customHeight="1" spans="1:29">
       <c r="A144" s="4">
         <v>1</v>
       </c>
@@ -36309,7 +36314,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1" spans="1:29">
+    <row r="145" customHeight="1" spans="1:29">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -36378,7 +36383,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1" spans="1:29">
+    <row r="146" customHeight="1" spans="1:29">
       <c r="A146" s="4">
         <v>1</v>
       </c>
@@ -36451,7 +36456,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1" spans="1:29">
+    <row r="147" customHeight="1" spans="1:29">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -36524,7 +36529,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1" spans="1:29">
+    <row r="148" customHeight="1" spans="1:29">
       <c r="A148" s="4">
         <v>1</v>
       </c>
@@ -36603,7 +36608,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1" spans="1:29">
+    <row r="149" customHeight="1" spans="1:29">
       <c r="A149" s="4">
         <v>1</v>
       </c>
@@ -36672,7 +36677,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" spans="1:29">
+    <row r="150" customHeight="1" spans="1:29">
       <c r="A150" s="4">
         <v>1</v>
       </c>
@@ -36745,7 +36750,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1" spans="1:29">
+    <row r="151" customHeight="1" spans="1:29">
       <c r="A151" s="4">
         <v>1</v>
       </c>
@@ -36816,7 +36821,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1" spans="1:29">
+    <row r="152" customHeight="1" spans="1:29">
       <c r="A152" s="4">
         <v>1</v>
       </c>
@@ -36895,7 +36900,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" spans="1:29">
+    <row r="153" customHeight="1" spans="1:29">
       <c r="A153" s="4">
         <v>1</v>
       </c>
@@ -36964,7 +36969,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1" spans="1:29">
+    <row r="154" customHeight="1" spans="1:29">
       <c r="A154" s="4">
         <v>1</v>
       </c>
@@ -37037,7 +37042,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1" spans="1:29">
+    <row r="155" customHeight="1" spans="1:29">
       <c r="A155" s="4">
         <v>1</v>
       </c>
@@ -37106,7 +37111,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" spans="1:29">
+    <row r="156" customHeight="1" spans="1:29">
       <c r="A156" s="4">
         <v>1</v>
       </c>
@@ -37179,7 +37184,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" spans="1:29">
+    <row r="157" customHeight="1" spans="1:29">
       <c r="A157" s="4">
         <v>1</v>
       </c>
@@ -37248,7 +37253,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" spans="1:29">
+    <row r="158" customHeight="1" spans="1:29">
       <c r="A158" s="4">
         <v>1</v>
       </c>
@@ -37315,7 +37320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1" spans="1:29">
+    <row r="159" customHeight="1" spans="1:29">
       <c r="A159" s="4">
         <v>1</v>
       </c>
@@ -37382,7 +37387,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1" spans="1:29">
+    <row r="160" customHeight="1" spans="1:29">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -37413,7 +37418,7 @@
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
     </row>
-    <row r="161" ht="15" customHeight="1" spans="1:29">
+    <row r="161" customHeight="1" spans="1:29">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -37444,7 +37449,7 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" ht="15" customHeight="1" spans="1:29">
+    <row r="162" customHeight="1" spans="1:29">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -37475,7 +37480,7 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" ht="15" customHeight="1" spans="1:29">
+    <row r="163" customHeight="1" spans="1:29">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -37506,7 +37511,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" ht="15" customHeight="1" spans="1:29">
+    <row r="164" customHeight="1" spans="1:29">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -37537,7 +37542,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" ht="15" customHeight="1" spans="1:29">
+    <row r="165" customHeight="1" spans="1:29">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -37568,7 +37573,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" ht="15" customHeight="1" spans="1:29">
+    <row r="166" customHeight="1" spans="1:29">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -37599,7 +37604,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" ht="15" customHeight="1" spans="1:29">
+    <row r="167" customHeight="1" spans="1:29">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -37630,7 +37635,7 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
     </row>
-    <row r="168" ht="15" customHeight="1" spans="1:29">
+    <row r="168" customHeight="1" spans="1:29">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -37661,7 +37666,7 @@
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
     </row>
-    <row r="169" ht="15" customHeight="1" spans="1:29">
+    <row r="169" customHeight="1" spans="1:29">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -37692,7 +37697,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" ht="15" customHeight="1" spans="1:29">
+    <row r="170" customHeight="1" spans="1:29">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -37959,12 +37964,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="18.552380952381" customWidth="1"/>
+    <col min="3" max="3" width="9.78095238095238" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="39.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="39.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -38036,13 +38041,13 @@
       <c r="F2" t="s">
         <v>2664</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>2665</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>2666</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>2667</v>
       </c>
       <c r="J2" t="s">
@@ -38086,13 +38091,13 @@
       <c r="F3" t="s">
         <v>2676</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>2665</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>2677</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>2667</v>
       </c>
       <c r="J3" t="s">
@@ -38136,13 +38141,13 @@
       <c r="F4" t="s">
         <v>2682</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>2665</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>2683</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>2667</v>
       </c>
       <c r="J4" t="s">
@@ -38182,7 +38187,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
   </cols>
@@ -38207,7 +38212,7 @@
       <c r="A3" t="s">
         <v>2688</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2689</v>
       </c>
     </row>
@@ -38215,7 +38220,7 @@
       <c r="A4" t="s">
         <v>2690</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>2691</v>
       </c>
     </row>
@@ -38223,7 +38228,7 @@
       <c r="A5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>2692</v>
       </c>
     </row>
@@ -38287,7 +38292,7 @@
       <c r="A13" t="s">
         <v>2707</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -38295,7 +38300,7 @@
       <c r="A14" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>2709</v>
       </c>
     </row>
@@ -38303,7 +38308,7 @@
       <c r="A15" t="s">
         <v>467</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -38311,7 +38316,7 @@
       <c r="A16" t="s">
         <v>747</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -38319,7 +38324,7 @@
       <c r="A17" t="s">
         <v>742</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>2712</v>
       </c>
     </row>
@@ -38327,7 +38332,7 @@
       <c r="A18" t="s">
         <v>752</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>2713</v>
       </c>
     </row>
@@ -38335,7 +38340,7 @@
       <c r="A19" t="s">
         <v>760</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>2714</v>
       </c>
     </row>
@@ -38343,7 +38348,7 @@
       <c r="A20" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>2715</v>
       </c>
     </row>
@@ -38351,7 +38356,7 @@
       <c r="A21" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>2716</v>
       </c>
     </row>
@@ -38359,7 +38364,7 @@
       <c r="A22" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>2717</v>
       </c>
     </row>
@@ -38367,7 +38372,7 @@
       <c r="A23" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>2718</v>
       </c>
     </row>
@@ -38388,10 +38393,10 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="5" width="19.4351851851852" customWidth="1"/>
-    <col min="6" max="6" width="9.23148148148148" customWidth="1"/>
+    <col min="4" max="5" width="19.4380952380952" customWidth="1"/>
+    <col min="6" max="6" width="9.22857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -38503,7 +38508,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="24">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -38523,7 +38528,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -38543,7 +38548,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -38603,7 +38608,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -38623,7 +38628,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -38663,7 +38668,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -38763,7 +38768,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25">
+      <c r="A20" s="26">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -38903,7 +38908,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24">
+      <c r="A27" s="25">
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -38943,7 +38948,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25">
+      <c r="A29" s="26">
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -38983,7 +38988,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="26">
+      <c r="A31" s="27">
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -39083,7 +39088,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="27">
+      <c r="A36" s="28">
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -39143,7 +39148,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="25">
+      <c r="A39" s="26">
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -39163,7 +39168,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="26">
+      <c r="A40" s="27">
         <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -39203,7 +39208,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="25">
+      <c r="A42" s="26">
         <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -39223,7 +39228,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="24">
+      <c r="A43" s="25">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -39243,7 +39248,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="26">
+      <c r="A44" s="27">
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -39363,7 +39368,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="25">
+      <c r="A50" s="26">
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -39383,7 +39388,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="25">
+      <c r="A51" s="26">
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -39423,7 +39428,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="25">
+      <c r="A53" s="26">
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -39443,7 +39448,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="25">
+      <c r="A54" s="26">
         <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -39483,7 +39488,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="25">
+      <c r="A56" s="26">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -39503,7 +39508,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="25">
+      <c r="A57" s="26">
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -39523,7 +39528,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="25">
+      <c r="A58" s="26">
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -39543,7 +39548,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="25">
+      <c r="A59" s="26">
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -39597,16 +39602,16 @@
       <selection activeCell="F21" sqref="F21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.4351851851852" customWidth="1"/>
-    <col min="6" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="19.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="13.1018518518519" customWidth="1"/>
-    <col min="12" max="12" width="10.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.4380952380952" customWidth="1"/>
+    <col min="6" max="9" width="9" style="24"/>
+    <col min="10" max="10" width="19.7809523809524" customWidth="1"/>
+    <col min="11" max="11" width="13.1047619047619" customWidth="1"/>
+    <col min="12" max="12" width="10.9142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -39644,7 +39649,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:12">
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -39672,7 +39677,7 @@
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:12">
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -39702,7 +39707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:12">
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -39732,7 +39737,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -39760,7 +39765,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -39788,7 +39793,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:12">
+    <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -39818,7 +39823,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:12">
+    <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -39848,7 +39853,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:12">
+    <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -39876,7 +39881,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:12">
+    <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -39904,7 +39909,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:12">
+    <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -39934,7 +39939,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:12">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -39964,7 +39969,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:12">
+    <row r="13" customHeight="1" spans="1:12">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -39992,7 +39997,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:12">
+    <row r="14" customHeight="1" spans="1:12">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -40020,7 +40025,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:12">
+    <row r="15" customHeight="1" spans="1:12">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -40050,7 +40055,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:12">
+    <row r="16" customHeight="1" spans="1:12">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -40080,7 +40085,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:12">
+    <row r="17" customHeight="1" spans="1:12">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -40110,7 +40115,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:12">
+    <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -40140,7 +40145,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:12">
+    <row r="19" customHeight="1" spans="1:12">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -40170,7 +40175,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:12">
+    <row r="20" customHeight="1" spans="1:12">
       <c r="A20" s="9">
         <v>1</v>
       </c>
@@ -40200,7 +40205,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:12">
+    <row r="21" customHeight="1" spans="1:12">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -40230,7 +40235,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:12">
+    <row r="22" customHeight="1" spans="1:12">
       <c r="A22" s="9">
         <v>1</v>
       </c>
@@ -40260,7 +40265,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:12">
+    <row r="23" customHeight="1" spans="1:12">
       <c r="A23" s="9">
         <v>1</v>
       </c>
@@ -40290,7 +40295,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:12">
+    <row r="24" customHeight="1" spans="1:12">
       <c r="A24" s="9">
         <v>1</v>
       </c>
@@ -40320,7 +40325,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:12">
+    <row r="25" customHeight="1" spans="1:12">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -40350,7 +40355,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:12">
+    <row r="26" customHeight="1" spans="1:12">
       <c r="A26" s="9">
         <v>1</v>
       </c>
@@ -40380,7 +40385,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:12">
+    <row r="27" customHeight="1" spans="1:12">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -40410,7 +40415,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:12">
+    <row r="28" customHeight="1" spans="1:12">
       <c r="A28" s="9">
         <v>1</v>
       </c>
@@ -40440,7 +40445,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:12">
+    <row r="29" customHeight="1" spans="1:12">
       <c r="A29" s="9">
         <v>1</v>
       </c>
@@ -40470,7 +40475,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:12">
+    <row r="30" customHeight="1" spans="1:12">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -40500,7 +40505,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:12">
+    <row r="31" customHeight="1" spans="1:12">
       <c r="A31" s="9">
         <v>1</v>
       </c>
@@ -40530,7 +40535,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:12">
+    <row r="32" customHeight="1" spans="1:12">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -40560,7 +40565,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:12">
+    <row r="33" customHeight="1" spans="1:12">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -40590,7 +40595,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:12">
+    <row r="34" customHeight="1" spans="1:12">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -40620,7 +40625,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:12">
+    <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="9">
         <v>1</v>
       </c>
@@ -40650,7 +40655,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:12">
+    <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -40680,7 +40685,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:12">
+    <row r="37" customHeight="1" spans="1:12">
       <c r="A37" s="9">
         <v>1</v>
       </c>
@@ -40710,7 +40715,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:12">
+    <row r="38" customHeight="1" spans="1:12">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -40720,7 +40725,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:12">
+    <row r="39" customHeight="1" spans="1:12">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -40730,7 +40735,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:12">
+    <row r="40" customHeight="1" spans="1:12">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -40740,7 +40745,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:12">
+    <row r="41" customHeight="1" spans="1:12">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -40750,7 +40755,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:12">
+    <row r="42" customHeight="1" spans="1:12">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -40760,7 +40765,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:12">
+    <row r="43" customHeight="1" spans="1:12">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -40770,7 +40775,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:12">
+    <row r="44" customHeight="1" spans="1:12">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -40780,7 +40785,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:12">
+    <row r="45" customHeight="1" spans="1:12">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -40790,7 +40795,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:12">
+    <row r="46" customHeight="1" spans="1:12">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -40800,7 +40805,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:12">
+    <row r="47" customHeight="1" spans="1:12">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -40810,7 +40815,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:12">
+    <row r="48" customHeight="1" spans="1:12">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -40820,7 +40825,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:12">
+    <row r="49" customHeight="1" spans="1:12">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -40830,7 +40835,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:12">
+    <row r="50" customHeight="1" spans="1:12">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -40840,7 +40845,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:12">
+    <row r="51" customHeight="1" spans="1:12">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -40850,7 +40855,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:12">
+    <row r="52" customHeight="1" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -40860,7 +40865,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:12">
+    <row r="53" customHeight="1" spans="1:12">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -40870,7 +40875,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:12">
+    <row r="54" customHeight="1" spans="1:12">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -40880,7 +40885,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:12">
+    <row r="55" customHeight="1" spans="1:12">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -40890,7 +40895,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:12">
+    <row r="56" customHeight="1" spans="1:12">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -40900,7 +40905,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:12">
+    <row r="57" customHeight="1" spans="1:12">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -40910,7 +40915,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:12">
+    <row r="58" customHeight="1" spans="1:12">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -40920,7 +40925,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:12">
+    <row r="59" customHeight="1" spans="1:12">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -40930,7 +40935,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:12">
+    <row r="60" customHeight="1" spans="1:12">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -40940,7 +40945,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:12">
+    <row r="61" customHeight="1" spans="1:12">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -40950,7 +40955,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:12">
+    <row r="62" customHeight="1" spans="1:12">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -41051,7 +41056,7 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -41095,7 +41100,7 @@
       <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>440</v>
       </c>
       <c r="H2" t="s">
@@ -41121,7 +41126,7 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>443</v>
       </c>
       <c r="H3" t="s">
@@ -41205,11 +41210,11 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.4351851851852" customWidth="1"/>
+    <col min="8" max="8" width="13.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -41308,13 +41313,13 @@
       <c r="M2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>481</v>
       </c>
       <c r="Q2" t="s">
@@ -41331,7 +41336,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="22">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -41358,7 +41363,7 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>490</v>
       </c>
       <c r="L3" t="s">
@@ -41367,13 +41372,13 @@
       <c r="M3" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="35" t="s">
         <v>495</v>
       </c>
       <c r="Q3" t="s">
@@ -41390,7 +41395,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -41419,7 +41424,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -41445,7 +41450,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -41472,7 +41477,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="35" t="s">
         <v>513</v>
       </c>
       <c r="L6" t="s">
@@ -41481,13 +41486,13 @@
       <c r="M6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="35" t="s">
         <v>517</v>
       </c>
       <c r="Q6" t="s">
@@ -41504,7 +41509,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -41531,7 +41536,7 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="35" t="s">
         <v>526</v>
       </c>
       <c r="L7" t="s">
@@ -41556,27 +41561,27 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="29.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="29.552380952381" customWidth="1"/>
     <col min="4" max="4" width="16.6666666666667" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.6666666666667" style="16" customWidth="1"/>
-    <col min="6" max="7" width="15.7777777777778" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.43518518518519" customWidth="1"/>
+    <col min="6" max="7" width="15.7809523809524" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.43809523809524" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.4351851851852" customWidth="1"/>
+    <col min="12" max="12" width="29.4380952380952" customWidth="1"/>
     <col min="13" max="13" width="29.6666666666667" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="43" max="47" width="11.8888888888889" customWidth="1"/>
-    <col min="51" max="54" width="11.8888888888889" customWidth="1"/>
-    <col min="59" max="61" width="11.8888888888889" customWidth="1"/>
-    <col min="66" max="69" width="11.8888888888889" customWidth="1"/>
-    <col min="74" max="76" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="11.8888888888889" customWidth="1"/>
-    <col min="85" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="91" max="91" width="9.77777777777778" customWidth="1"/>
-    <col min="92" max="94" width="11.8888888888889" customWidth="1"/>
-    <col min="98" max="98" width="9.77777777777778" customWidth="1"/>
+    <col min="43" max="47" width="11.8857142857143" customWidth="1"/>
+    <col min="51" max="54" width="11.8857142857143" customWidth="1"/>
+    <col min="59" max="61" width="11.8857142857143" customWidth="1"/>
+    <col min="66" max="69" width="11.8857142857143" customWidth="1"/>
+    <col min="74" max="76" width="11.8857142857143" customWidth="1"/>
+    <col min="80" max="80" width="11.8857142857143" customWidth="1"/>
+    <col min="85" max="87" width="11.8857142857143" customWidth="1"/>
+    <col min="91" max="91" width="9.78095238095238" customWidth="1"/>
+    <col min="92" max="94" width="11.8857142857143" customWidth="1"/>
+    <col min="98" max="98" width="9.78095238095238" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -41762,10 +41767,10 @@
       <c r="N2" t="s">
         <v>579</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="35" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41812,10 +41817,10 @@
       <c r="N3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="35" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41862,10 +41867,10 @@
       <c r="N4" t="s">
         <v>579</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" s="34" t="s">
+      <c r="AK4" s="35" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41912,10 +41917,10 @@
       <c r="N5" t="s">
         <v>583</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="35" t="s">
         <v>581</v>
       </c>
     </row>
@@ -41962,64 +41967,64 @@
       <c r="P6" t="s">
         <v>591</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="X6" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="Y6" s="34" t="s">
+      <c r="Y6" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="AA6" s="34" t="s">
+      <c r="AA6" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AC6" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AD6" s="34" t="s">
+      <c r="AD6" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="AE6" s="34" t="s">
+      <c r="AE6" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" s="34" t="s">
+      <c r="AF6" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="AG6" s="34" t="s">
+      <c r="AG6" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AH6" s="34" t="s">
+      <c r="AH6" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AI6" s="34" t="s">
+      <c r="AI6" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="AJ6" s="34" t="s">
+      <c r="AJ6" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="AK6" s="34" t="s">
+      <c r="AK6" s="35" t="s">
         <v>581</v>
       </c>
       <c r="AP6" t="s">
@@ -42072,61 +42077,61 @@
       <c r="P7" t="s">
         <v>591</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="X7" s="34" t="s">
+      <c r="X7" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="Y7" s="34" t="s">
+      <c r="Y7" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="AB7" s="34" t="s">
+      <c r="AB7" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="AC7" s="34" t="s">
+      <c r="AC7" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AD7" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="AE7" s="34" t="s">
+      <c r="AE7" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="AF7" s="34" t="s">
+      <c r="AF7" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="AG7" s="34" t="s">
+      <c r="AG7" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AH7" s="34" t="s">
+      <c r="AH7" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AI7" s="34" t="s">
+      <c r="AI7" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="AJ7" s="34" t="s">
+      <c r="AJ7" s="35" t="s">
         <v>609</v>
       </c>
       <c r="AK7" t="s">
@@ -42200,61 +42205,61 @@
       <c r="O8" t="s">
         <v>590</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="X8" s="34" t="s">
+      <c r="X8" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="34" t="s">
+      <c r="AC8" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="34" t="s">
+      <c r="AD8" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="AE8" s="34" t="s">
+      <c r="AE8" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="AF8" s="34" t="s">
+      <c r="AF8" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AG8" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="AI8" s="34" t="s">
+      <c r="AI8" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="35" t="s">
         <v>637</v>
       </c>
       <c r="AK8" t="s">
@@ -42307,7 +42312,7 @@
       <c r="Q9" t="s">
         <v>645</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="35" t="s">
         <v>646</v>
       </c>
       <c r="S9" t="s">
@@ -42328,22 +42333,22 @@
       <c r="X9" t="s">
         <v>650</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="AB9" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="AC9" s="34" t="s">
+      <c r="AC9" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD9" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="AE9" s="34" t="s">
+      <c r="AE9" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="AF9" s="34" t="s">
+      <c r="AF9" s="35" t="s">
         <v>606</v>
       </c>
       <c r="AG9" t="s">
@@ -42361,7 +42366,7 @@
       <c r="AK9" t="s">
         <v>655</v>
       </c>
-      <c r="AR9" s="34" t="s">
+      <c r="AR9" s="35" t="s">
         <v>656</v>
       </c>
     </row>
@@ -42405,61 +42410,61 @@
       <c r="O10" t="s">
         <v>660</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="35" t="s">
         <v>607</v>
       </c>
       <c r="S10" t="s">
         <v>630</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="U10" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="V10" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="X10" s="34" t="s">
+      <c r="X10" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="AA10" s="34" t="s">
+      <c r="AA10" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" s="34" t="s">
+      <c r="AB10" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="AC10" s="34" t="s">
+      <c r="AC10" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AD10" s="34" t="s">
+      <c r="AD10" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="AE10" s="34" t="s">
+      <c r="AE10" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="AF10" s="34" t="s">
+      <c r="AF10" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AG10" s="34" t="s">
+      <c r="AG10" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AH10" s="34" t="s">
+      <c r="AH10" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AI10" s="34" t="s">
+      <c r="AI10" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="AJ10" s="34" t="s">
+      <c r="AJ10" s="35" t="s">
         <v>607</v>
       </c>
       <c r="AK10" t="s">
@@ -42512,64 +42517,64 @@
       <c r="O11" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="35" t="s">
         <v>6